--- a/database/industries/darou/deshimi/product/monthly_seprated.xlsx
+++ b/database/industries/darou/deshimi/product/monthly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\deshimi\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D79579D-0F76-4B47-8AF1-8A6055DC7EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3841" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3770" uniqueCount="102">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
   </si>
   <si>
     <t>ماه 7 منتهی به 1397/07</t>
@@ -186,6 +184,9 @@
     <t>ماه 7 منتهی به 1401/07</t>
   </si>
   <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
     <t>مقدار تولید داخلی</t>
   </si>
   <si>
@@ -330,7 +331,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -517,7 +518,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -529,7 +530,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -576,6 +577,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -611,6 +629,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -762,17 +797,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:BB146"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:BB147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -827,7 +862,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -884,7 +919,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -941,7 +976,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -996,7 +1031,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1053,7 +1088,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1110,7 +1145,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1165,7 +1200,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1322,7 +1357,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1377,7 +1412,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1434,7 +1469,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1505,95 +1540,95 @@
       <c r="Y11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z11" s="11" t="s">
-        <v>58</v>
+      <c r="Z11" s="11">
+        <v>2279</v>
       </c>
       <c r="AA11" s="11">
-        <v>2279</v>
+        <v>772</v>
       </c>
       <c r="AB11" s="11">
-        <v>772</v>
+        <v>1872</v>
       </c>
       <c r="AC11" s="11">
-        <v>1872</v>
+        <v>2158</v>
       </c>
       <c r="AD11" s="11">
-        <v>2158</v>
+        <v>566</v>
       </c>
       <c r="AE11" s="11">
-        <v>566</v>
+        <v>2302</v>
       </c>
       <c r="AF11" s="11">
-        <v>2302</v>
+        <v>3424</v>
       </c>
       <c r="AG11" s="11">
-        <v>3424</v>
+        <v>2891</v>
       </c>
       <c r="AH11" s="11">
-        <v>2891</v>
+        <v>2325</v>
       </c>
       <c r="AI11" s="11">
-        <v>2325</v>
+        <v>3863</v>
       </c>
       <c r="AJ11" s="11">
-        <v>3863</v>
+        <v>1446</v>
       </c>
       <c r="AK11" s="11">
-        <v>1446</v>
+        <v>2513</v>
       </c>
       <c r="AL11" s="11">
-        <v>2513</v>
+        <v>3838</v>
       </c>
       <c r="AM11" s="11">
-        <v>3838</v>
+        <v>3913</v>
       </c>
       <c r="AN11" s="11">
-        <v>3913</v>
+        <v>3634</v>
       </c>
       <c r="AO11" s="11">
-        <v>3634</v>
+        <v>2461</v>
       </c>
       <c r="AP11" s="11">
-        <v>2461</v>
+        <v>4026</v>
       </c>
       <c r="AQ11" s="11">
-        <v>4026</v>
+        <v>3649</v>
       </c>
       <c r="AR11" s="11">
-        <v>3649</v>
+        <v>2859</v>
       </c>
       <c r="AS11" s="11">
-        <v>2859</v>
+        <v>3629</v>
       </c>
       <c r="AT11" s="11">
-        <v>3629</v>
+        <v>4017</v>
       </c>
       <c r="AU11" s="11">
-        <v>4017</v>
+        <v>3643</v>
       </c>
       <c r="AV11" s="11">
-        <v>3643</v>
+        <v>4992</v>
       </c>
       <c r="AW11" s="11">
+        <v>3264</v>
+      </c>
+      <c r="AX11" s="11">
+        <v>5760</v>
+      </c>
+      <c r="AY11" s="11">
+        <v>5618</v>
+      </c>
+      <c r="AZ11" s="11">
+        <v>4800</v>
+      </c>
+      <c r="BA11" s="11">
+        <v>8832</v>
+      </c>
+      <c r="BB11" s="11">
         <v>4992</v>
       </c>
-      <c r="AX11" s="11">
-        <v>3264</v>
-      </c>
-      <c r="AY11" s="11">
-        <v>5760</v>
-      </c>
-      <c r="AZ11" s="11">
-        <v>5618</v>
-      </c>
-      <c r="BA11" s="11">
-        <v>4800</v>
-      </c>
-      <c r="BB11" s="11">
-        <v>8832</v>
-      </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1664,95 +1699,95 @@
       <c r="Y12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z12" s="13" t="s">
-        <v>58</v>
+      <c r="Z12" s="13">
+        <v>7925</v>
       </c>
       <c r="AA12" s="13">
-        <v>7925</v>
+        <v>4598</v>
       </c>
       <c r="AB12" s="13">
-        <v>4598</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="13">
-        <v>0</v>
+        <v>4850</v>
       </c>
       <c r="AD12" s="13">
-        <v>4850</v>
+        <v>7420</v>
       </c>
       <c r="AE12" s="13">
-        <v>7420</v>
+        <v>4552</v>
       </c>
       <c r="AF12" s="13">
-        <v>4552</v>
+        <v>3977</v>
       </c>
       <c r="AG12" s="13">
-        <v>3977</v>
+        <v>4082</v>
       </c>
       <c r="AH12" s="13">
-        <v>4082</v>
+        <v>1373</v>
       </c>
       <c r="AI12" s="13">
-        <v>1373</v>
+        <v>2667</v>
       </c>
       <c r="AJ12" s="13">
-        <v>2667</v>
+        <v>1737</v>
       </c>
       <c r="AK12" s="13">
-        <v>1737</v>
+        <v>1521</v>
       </c>
       <c r="AL12" s="13">
-        <v>1521</v>
+        <v>10142</v>
       </c>
       <c r="AM12" s="13">
-        <v>10142</v>
+        <v>8072</v>
       </c>
       <c r="AN12" s="13">
-        <v>8072</v>
+        <v>12499</v>
       </c>
       <c r="AO12" s="13">
-        <v>12499</v>
+        <v>9201</v>
       </c>
       <c r="AP12" s="13">
-        <v>9201</v>
+        <v>15270</v>
       </c>
       <c r="AQ12" s="13">
-        <v>15270</v>
+        <v>11387</v>
       </c>
       <c r="AR12" s="13">
-        <v>11387</v>
+        <v>17955</v>
       </c>
       <c r="AS12" s="13">
-        <v>17955</v>
+        <v>25208</v>
       </c>
       <c r="AT12" s="13">
-        <v>25208</v>
+        <v>15176</v>
       </c>
       <c r="AU12" s="13">
-        <v>15176</v>
+        <v>8790</v>
       </c>
       <c r="AV12" s="13">
-        <v>6215</v>
+        <v>3155</v>
       </c>
       <c r="AW12" s="13">
-        <v>3155</v>
+        <v>11324</v>
       </c>
       <c r="AX12" s="13">
-        <v>11324</v>
+        <v>9686</v>
       </c>
       <c r="AY12" s="13">
-        <v>6984</v>
+        <v>15438</v>
       </c>
       <c r="AZ12" s="13">
-        <v>15438</v>
+        <v>5004</v>
       </c>
       <c r="BA12" s="13">
-        <v>5004</v>
+        <v>9398</v>
       </c>
       <c r="BB12" s="13">
-        <v>9398</v>
+        <v>13028</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1823,95 +1858,95 @@
       <c r="Y13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z13" s="11" t="s">
-        <v>58</v>
+      <c r="Z13" s="11">
+        <v>3504</v>
       </c>
       <c r="AA13" s="11">
-        <v>3504</v>
+        <v>1910</v>
       </c>
       <c r="AB13" s="11">
-        <v>1910</v>
+        <v>9360</v>
       </c>
       <c r="AC13" s="11">
-        <v>9360</v>
+        <v>6399</v>
       </c>
       <c r="AD13" s="11">
-        <v>6399</v>
+        <v>1382</v>
       </c>
       <c r="AE13" s="11">
-        <v>1382</v>
+        <v>8108</v>
       </c>
       <c r="AF13" s="11">
-        <v>8108</v>
+        <v>1953</v>
       </c>
       <c r="AG13" s="11">
-        <v>1953</v>
+        <v>1732</v>
       </c>
       <c r="AH13" s="11">
-        <v>1732</v>
+        <v>3140</v>
       </c>
       <c r="AI13" s="11">
-        <v>3140</v>
+        <v>8562</v>
       </c>
       <c r="AJ13" s="11">
-        <v>8562</v>
+        <v>2619</v>
       </c>
       <c r="AK13" s="11">
-        <v>2619</v>
+        <v>8539</v>
       </c>
       <c r="AL13" s="11">
-        <v>8539</v>
+        <v>2530</v>
       </c>
       <c r="AM13" s="11">
-        <v>2530</v>
+        <v>5146</v>
       </c>
       <c r="AN13" s="11">
-        <v>5146</v>
+        <v>31066</v>
       </c>
       <c r="AO13" s="11">
-        <v>31066</v>
+        <v>6923</v>
       </c>
       <c r="AP13" s="11">
-        <v>6923</v>
+        <v>13834</v>
       </c>
       <c r="AQ13" s="11">
-        <v>13834</v>
+        <v>6513</v>
       </c>
       <c r="AR13" s="11">
-        <v>6513</v>
+        <v>2226</v>
       </c>
       <c r="AS13" s="11">
-        <v>2226</v>
+        <v>8713</v>
       </c>
       <c r="AT13" s="11">
-        <v>8713</v>
+        <v>1644</v>
       </c>
       <c r="AU13" s="11">
-        <v>1644</v>
+        <v>1962</v>
       </c>
       <c r="AV13" s="11">
-        <v>1962</v>
+        <v>9998</v>
       </c>
       <c r="AW13" s="11">
-        <v>9998</v>
+        <v>13074</v>
       </c>
       <c r="AX13" s="11">
-        <v>13074</v>
+        <v>2446</v>
       </c>
       <c r="AY13" s="11">
-        <v>5148</v>
+        <v>343</v>
       </c>
       <c r="AZ13" s="11">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="11">
-        <v>0</v>
+        <v>2074</v>
       </c>
       <c r="BB13" s="11">
-        <v>2074</v>
+        <v>4659</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -2045,11 +2080,11 @@
       <c r="AT14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV14" s="13" t="s">
-        <v>58</v>
+      <c r="AU14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="13">
+        <v>0</v>
       </c>
       <c r="AW14" s="13">
         <v>0</v>
@@ -2070,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2141,95 +2176,95 @@
       <c r="Y15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z15" s="11" t="s">
-        <v>58</v>
+      <c r="Z15" s="11">
+        <v>11245</v>
       </c>
       <c r="AA15" s="11">
-        <v>11245</v>
+        <v>9804</v>
       </c>
       <c r="AB15" s="11">
-        <v>9804</v>
+        <v>6777</v>
       </c>
       <c r="AC15" s="11">
-        <v>6777</v>
+        <v>2308</v>
       </c>
       <c r="AD15" s="11">
-        <v>2308</v>
+        <v>5989</v>
       </c>
       <c r="AE15" s="11">
-        <v>5989</v>
+        <v>449</v>
       </c>
       <c r="AF15" s="11">
-        <v>449</v>
+        <v>4304</v>
       </c>
       <c r="AG15" s="11">
-        <v>4304</v>
+        <v>9043</v>
       </c>
       <c r="AH15" s="11">
-        <v>9043</v>
+        <v>6887</v>
       </c>
       <c r="AI15" s="11">
-        <v>6887</v>
+        <v>19379</v>
       </c>
       <c r="AJ15" s="11">
-        <v>19379</v>
+        <v>11034</v>
       </c>
       <c r="AK15" s="11">
-        <v>11034</v>
+        <v>5694</v>
       </c>
       <c r="AL15" s="11">
-        <v>5694</v>
+        <v>6540</v>
       </c>
       <c r="AM15" s="11">
-        <v>6540</v>
+        <v>7896</v>
       </c>
       <c r="AN15" s="11">
-        <v>7896</v>
+        <v>4797</v>
       </c>
       <c r="AO15" s="11">
-        <v>4797</v>
+        <v>4413</v>
       </c>
       <c r="AP15" s="11">
-        <v>4413</v>
+        <v>7452</v>
       </c>
       <c r="AQ15" s="11">
-        <v>7452</v>
+        <v>4236</v>
       </c>
       <c r="AR15" s="11">
-        <v>4236</v>
+        <v>9416</v>
       </c>
       <c r="AS15" s="11">
-        <v>9416</v>
+        <v>2425</v>
       </c>
       <c r="AT15" s="11">
-        <v>2425</v>
+        <v>9613</v>
       </c>
       <c r="AU15" s="11">
-        <v>9613</v>
+        <v>9280</v>
       </c>
       <c r="AV15" s="11">
-        <v>9280</v>
+        <v>5862</v>
       </c>
       <c r="AW15" s="11">
-        <v>5862</v>
+        <v>11442</v>
       </c>
       <c r="AX15" s="11">
-        <v>11442</v>
+        <v>8393</v>
       </c>
       <c r="AY15" s="11">
-        <v>8393</v>
+        <v>720</v>
       </c>
       <c r="AZ15" s="11">
-        <v>720</v>
+        <v>11726</v>
       </c>
       <c r="BA15" s="11">
-        <v>11726</v>
+        <v>7465</v>
       </c>
       <c r="BB15" s="11">
-        <v>7465</v>
+        <v>3269</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2300,53 +2335,53 @@
       <c r="Y16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z16" s="13" t="s">
-        <v>58</v>
+      <c r="Z16" s="13">
+        <v>8742</v>
       </c>
       <c r="AA16" s="13">
-        <v>8742</v>
+        <v>15423</v>
       </c>
       <c r="AB16" s="13">
-        <v>15423</v>
+        <v>20176</v>
       </c>
       <c r="AC16" s="13">
-        <v>20176</v>
+        <v>30749</v>
       </c>
       <c r="AD16" s="13">
-        <v>30749</v>
+        <v>19302</v>
       </c>
       <c r="AE16" s="13">
-        <v>19302</v>
+        <v>20850</v>
       </c>
       <c r="AF16" s="13">
-        <v>20850</v>
+        <v>53637</v>
       </c>
       <c r="AG16" s="13">
-        <v>53637</v>
+        <v>19022</v>
       </c>
       <c r="AH16" s="13">
-        <v>19022</v>
+        <v>26100</v>
       </c>
       <c r="AI16" s="13">
-        <v>26100</v>
+        <v>13451</v>
       </c>
       <c r="AJ16" s="13">
-        <v>13451</v>
+        <v>7546</v>
       </c>
       <c r="AK16" s="13">
-        <v>7546</v>
+        <v>7267</v>
       </c>
       <c r="AL16" s="13">
-        <v>7267</v>
+        <v>14672</v>
       </c>
       <c r="AM16" s="13">
-        <v>14672</v>
+        <v>22614</v>
       </c>
       <c r="AN16" s="13">
-        <v>22614</v>
-      </c>
-      <c r="AO16" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP16" s="13" t="s">
         <v>58</v>
@@ -2388,7 +2423,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2477,14 +2512,14 @@
       <c r="AE17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF17" s="11" t="s">
-        <v>58</v>
+      <c r="AF17" s="11">
+        <v>2000</v>
       </c>
       <c r="AG17" s="11">
-        <v>2000</v>
+        <v>2229</v>
       </c>
       <c r="AH17" s="11">
-        <v>2229</v>
+        <v>0</v>
       </c>
       <c r="AI17" s="11">
         <v>0</v>
@@ -2493,61 +2528,61 @@
         <v>0</v>
       </c>
       <c r="AK17" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL17" s="11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AM17" s="11">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="AN17" s="11">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AP17" s="11">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="AQ17" s="11">
-        <v>51</v>
+        <v>3836</v>
       </c>
       <c r="AR17" s="11">
-        <v>3836</v>
+        <v>2314</v>
       </c>
       <c r="AS17" s="11">
-        <v>2314</v>
+        <v>7501</v>
       </c>
       <c r="AT17" s="11">
-        <v>7501</v>
+        <v>1084</v>
       </c>
       <c r="AU17" s="11">
-        <v>1084</v>
+        <v>4227</v>
       </c>
       <c r="AV17" s="11">
-        <v>4227</v>
+        <v>5023</v>
       </c>
       <c r="AW17" s="11">
-        <v>5023</v>
+        <v>4258</v>
       </c>
       <c r="AX17" s="11">
-        <v>4258</v>
+        <v>1431</v>
       </c>
       <c r="AY17" s="11">
-        <v>1431</v>
+        <v>6237</v>
       </c>
       <c r="AZ17" s="11">
-        <v>6237</v>
+        <v>7471</v>
       </c>
       <c r="BA17" s="11">
-        <v>7471</v>
+        <v>7158</v>
       </c>
       <c r="BB17" s="11">
-        <v>7158</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
@@ -2636,14 +2671,14 @@
       <c r="AE18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF18" s="13" t="s">
-        <v>58</v>
+      <c r="AF18" s="13">
+        <v>335</v>
       </c>
       <c r="AG18" s="13">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AH18" s="13">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AI18" s="13">
         <v>0</v>
@@ -2655,28 +2690,28 @@
         <v>0</v>
       </c>
       <c r="AL18" s="13">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="AM18" s="13">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="AN18" s="13">
-        <v>303</v>
+        <v>565</v>
       </c>
       <c r="AO18" s="13">
-        <v>565</v>
+        <v>337</v>
       </c>
       <c r="AP18" s="13">
-        <v>337</v>
+        <v>1419</v>
       </c>
       <c r="AQ18" s="13">
-        <v>1419</v>
+        <v>1148</v>
       </c>
       <c r="AR18" s="13">
-        <v>1148</v>
+        <v>1585</v>
       </c>
       <c r="AS18" s="13">
-        <v>1585</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="13">
         <v>0</v>
@@ -2685,10 +2720,10 @@
         <v>0</v>
       </c>
       <c r="AV18" s="13">
-        <v>0</v>
+        <v>568</v>
       </c>
       <c r="AW18" s="13">
-        <v>568</v>
+        <v>0</v>
       </c>
       <c r="AX18" s="13">
         <v>0</v>
@@ -2700,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="BA18" s="13">
-        <v>0</v>
+        <v>1474</v>
       </c>
       <c r="BB18" s="13">
-        <v>1474</v>
+        <v>322</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>66</v>
       </c>
@@ -2795,8 +2830,8 @@
       <c r="AE19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF19" s="11" t="s">
-        <v>58</v>
+      <c r="AF19" s="11">
+        <v>0</v>
       </c>
       <c r="AG19" s="11">
         <v>0</v>
@@ -2811,61 +2846,61 @@
         <v>0</v>
       </c>
       <c r="AK19" s="11">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="AL19" s="11">
-        <v>1400</v>
+        <v>7846</v>
       </c>
       <c r="AM19" s="11">
-        <v>7846</v>
+        <v>1716</v>
       </c>
       <c r="AN19" s="11">
-        <v>1716</v>
+        <v>5</v>
       </c>
       <c r="AO19" s="11">
         <v>5</v>
       </c>
       <c r="AP19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="11">
+        <v>8</v>
+      </c>
+      <c r="AT19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="11">
+        <v>63</v>
+      </c>
+      <c r="AW19" s="11">
+        <v>536</v>
+      </c>
+      <c r="AX19" s="11">
+        <v>4400</v>
+      </c>
+      <c r="AY19" s="11">
+        <v>351</v>
+      </c>
+      <c r="AZ19" s="11">
+        <v>-19</v>
+      </c>
+      <c r="BA19" s="11">
         <v>5</v>
       </c>
-      <c r="AQ19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="11">
-        <v>8</v>
-      </c>
-      <c r="AU19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW19" s="11">
-        <v>63</v>
-      </c>
-      <c r="AX19" s="11">
-        <v>536</v>
-      </c>
-      <c r="AY19" s="11">
-        <v>4400</v>
-      </c>
-      <c r="AZ19" s="11">
-        <v>351</v>
-      </c>
-      <c r="BA19" s="11">
-        <v>43</v>
-      </c>
       <c r="BB19" s="11">
-        <v>5</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>67</v>
       </c>
@@ -2978,53 +3013,53 @@
       <c r="AM20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN20" s="13" t="s">
-        <v>58</v>
+      <c r="AN20" s="13">
+        <v>3375</v>
       </c>
       <c r="AO20" s="13">
-        <v>3375</v>
+        <v>15819</v>
       </c>
       <c r="AP20" s="13">
-        <v>15819</v>
+        <v>9435</v>
       </c>
       <c r="AQ20" s="13">
-        <v>9435</v>
+        <v>15649</v>
       </c>
       <c r="AR20" s="13">
-        <v>15649</v>
+        <v>15900</v>
       </c>
       <c r="AS20" s="13">
-        <v>15900</v>
+        <v>17815</v>
       </c>
       <c r="AT20" s="13">
-        <v>17815</v>
+        <v>4080</v>
       </c>
       <c r="AU20" s="13">
-        <v>4080</v>
+        <v>5600</v>
       </c>
       <c r="AV20" s="13">
-        <v>5600</v>
+        <v>7120</v>
       </c>
       <c r="AW20" s="13">
-        <v>7120</v>
+        <v>7180</v>
       </c>
       <c r="AX20" s="13">
-        <v>7180</v>
+        <v>3200</v>
       </c>
       <c r="AY20" s="13">
-        <v>11872</v>
+        <v>5025</v>
       </c>
       <c r="AZ20" s="13">
-        <v>5025</v>
+        <v>12820</v>
       </c>
       <c r="BA20" s="13">
-        <v>12820</v>
+        <v>900</v>
       </c>
       <c r="BB20" s="13">
-        <v>900</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>68</v>
       </c>
@@ -3137,8 +3172,8 @@
       <c r="AM21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN21" s="11" t="s">
-        <v>58</v>
+      <c r="AN21" s="11">
+        <v>0</v>
       </c>
       <c r="AO21" s="11">
         <v>0</v>
@@ -3150,22 +3185,22 @@
         <v>0</v>
       </c>
       <c r="AR21" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AS21" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AT21" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU21" s="11">
         <v>0</v>
       </c>
       <c r="AV21" s="11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AW21" s="11">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AX21" s="11">
         <v>0</v>
@@ -3183,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>69</v>
       </c>
@@ -3296,53 +3331,53 @@
       <c r="AM22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN22" s="13" t="s">
-        <v>58</v>
+      <c r="AN22" s="13">
+        <v>0</v>
       </c>
       <c r="AO22" s="13">
         <v>0</v>
       </c>
       <c r="AP22" s="13">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AQ22" s="13">
-        <v>99</v>
+        <v>3640</v>
       </c>
       <c r="AR22" s="13">
-        <v>3640</v>
+        <v>0</v>
       </c>
       <c r="AS22" s="13">
-        <v>0</v>
+        <v>3714</v>
       </c>
       <c r="AT22" s="13">
-        <v>3714</v>
+        <v>1246</v>
       </c>
       <c r="AU22" s="13">
-        <v>1246</v>
+        <v>0</v>
       </c>
       <c r="AV22" s="13">
         <v>0</v>
       </c>
       <c r="AW22" s="13">
-        <v>0</v>
+        <v>5384</v>
       </c>
       <c r="AX22" s="13">
-        <v>5384</v>
+        <v>3793</v>
       </c>
       <c r="AY22" s="13">
-        <v>3793</v>
+        <v>22</v>
       </c>
       <c r="AZ22" s="13">
         <v>57</v>
       </c>
       <c r="BA22" s="13">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="BB22" s="13">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>70</v>
       </c>
@@ -3455,53 +3490,53 @@
       <c r="AM23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN23" s="11" t="s">
-        <v>58</v>
+      <c r="AN23" s="11">
+        <v>2690</v>
       </c>
       <c r="AO23" s="11">
-        <v>2690</v>
+        <v>525</v>
       </c>
       <c r="AP23" s="11">
-        <v>525</v>
-      </c>
-      <c r="AQ23" s="11">
         <v>1650</v>
       </c>
-      <c r="AR23" s="11" t="s">
-        <v>58</v>
+      <c r="AQ23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR23" s="11">
+        <v>0</v>
       </c>
       <c r="AS23" s="11">
         <v>0</v>
       </c>
       <c r="AT23" s="11">
-        <v>0</v>
+        <v>1631</v>
       </c>
       <c r="AU23" s="11">
-        <v>1631</v>
+        <v>618</v>
       </c>
       <c r="AV23" s="11">
-        <v>3193</v>
+        <v>4571</v>
       </c>
       <c r="AW23" s="11">
-        <v>5180</v>
+        <v>0</v>
       </c>
       <c r="AX23" s="11">
-        <v>0</v>
+        <v>1302</v>
       </c>
       <c r="AY23" s="11">
-        <v>1702</v>
+        <v>1650</v>
       </c>
       <c r="AZ23" s="11">
-        <v>0</v>
+        <v>13510</v>
       </c>
       <c r="BA23" s="11">
-        <v>13528</v>
+        <v>0</v>
       </c>
       <c r="BB23" s="11">
-        <v>0</v>
+        <v>1660</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>71</v>
       </c>
@@ -3614,44 +3649,44 @@
       <c r="AM24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN24" s="13" t="s">
-        <v>58</v>
+      <c r="AN24" s="13">
+        <v>888</v>
       </c>
       <c r="AO24" s="13">
-        <v>888</v>
+        <v>0</v>
       </c>
       <c r="AP24" s="13">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AQ24" s="13">
-        <v>105</v>
+        <v>954</v>
       </c>
       <c r="AR24" s="13">
-        <v>954</v>
+        <v>0</v>
       </c>
       <c r="AS24" s="13">
         <v>0</v>
       </c>
       <c r="AT24" s="13">
-        <v>0</v>
+        <v>7314</v>
       </c>
       <c r="AU24" s="13">
-        <v>7314</v>
+        <v>0</v>
       </c>
       <c r="AV24" s="13">
         <v>0</v>
       </c>
       <c r="AW24" s="13">
-        <v>0</v>
+        <v>4160</v>
       </c>
       <c r="AX24" s="13">
-        <v>4160</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="13">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="AZ24" s="13">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="13">
         <v>0</v>
@@ -3660,7 +3695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>72</v>
       </c>
@@ -3773,8 +3808,8 @@
       <c r="AM25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN25" s="11" t="s">
-        <v>58</v>
+      <c r="AN25" s="11">
+        <v>0</v>
       </c>
       <c r="AO25" s="11">
         <v>0</v>
@@ -3786,10 +3821,10 @@
         <v>0</v>
       </c>
       <c r="AR25" s="11">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AS25" s="11">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="11">
         <v>0</v>
@@ -3819,7 +3854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>73</v>
       </c>
@@ -3953,11 +3988,11 @@
       <c r="AT26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU26" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV26" s="13" t="s">
-        <v>58</v>
+      <c r="AU26" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="13">
+        <v>0</v>
       </c>
       <c r="AW26" s="13">
         <v>0</v>
@@ -3978,7 +4013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>74</v>
       </c>
@@ -4048,94 +4083,94 @@
         <v>0</v>
       </c>
       <c r="Z27" s="15">
-        <v>0</v>
+        <v>33695</v>
       </c>
       <c r="AA27" s="15">
-        <v>33695</v>
+        <v>32507</v>
       </c>
       <c r="AB27" s="15">
-        <v>32507</v>
+        <v>38185</v>
       </c>
       <c r="AC27" s="15">
-        <v>38185</v>
+        <v>46464</v>
       </c>
       <c r="AD27" s="15">
-        <v>46464</v>
+        <v>34659</v>
       </c>
       <c r="AE27" s="15">
-        <v>34659</v>
+        <v>36261</v>
       </c>
       <c r="AF27" s="15">
-        <v>36261</v>
+        <v>69630</v>
       </c>
       <c r="AG27" s="15">
-        <v>69630</v>
+        <v>39329</v>
       </c>
       <c r="AH27" s="15">
-        <v>39329</v>
+        <v>39825</v>
       </c>
       <c r="AI27" s="15">
-        <v>39825</v>
+        <v>47922</v>
       </c>
       <c r="AJ27" s="15">
-        <v>47922</v>
+        <v>24382</v>
       </c>
       <c r="AK27" s="15">
-        <v>24382</v>
+        <v>26937</v>
       </c>
       <c r="AL27" s="15">
-        <v>26937</v>
+        <v>45906</v>
       </c>
       <c r="AM27" s="15">
-        <v>45906</v>
+        <v>49780</v>
       </c>
       <c r="AN27" s="15">
-        <v>49780</v>
+        <v>59519</v>
       </c>
       <c r="AO27" s="15">
-        <v>59519</v>
+        <v>39714</v>
       </c>
       <c r="AP27" s="15">
-        <v>39714</v>
+        <v>53341</v>
       </c>
       <c r="AQ27" s="15">
-        <v>53341</v>
+        <v>51012</v>
       </c>
       <c r="AR27" s="15">
-        <v>51012</v>
+        <v>52281</v>
       </c>
       <c r="AS27" s="15">
-        <v>52281</v>
+        <v>69014</v>
       </c>
       <c r="AT27" s="15">
-        <v>69014</v>
+        <v>45805</v>
       </c>
       <c r="AU27" s="15">
-        <v>45805</v>
+        <v>34120</v>
       </c>
       <c r="AV27" s="15">
-        <v>34120</v>
+        <v>41364</v>
       </c>
       <c r="AW27" s="15">
-        <v>41973</v>
+        <v>60622</v>
       </c>
       <c r="AX27" s="15">
-        <v>60622</v>
+        <v>40411</v>
       </c>
       <c r="AY27" s="15">
-        <v>49483</v>
+        <v>38604</v>
       </c>
       <c r="AZ27" s="15">
-        <v>37318</v>
+        <v>55369</v>
       </c>
       <c r="BA27" s="15">
-        <v>55449</v>
+        <v>37350</v>
       </c>
       <c r="BB27" s="15">
-        <v>37350</v>
+        <v>28053</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>75</v>
       </c>
@@ -4192,7 +4227,7 @@
       <c r="BA28" s="9"/>
       <c r="BB28" s="9"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>56</v>
       </c>
@@ -4305,11 +4340,11 @@
       <c r="AM29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO29" s="11">
-        <v>0</v>
+      <c r="AN29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP29" s="11" t="s">
         <v>58</v>
@@ -4329,11 +4364,11 @@
       <c r="AU29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW29" s="11" t="s">
-        <v>58</v>
+      <c r="AV29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="11">
+        <v>0</v>
       </c>
       <c r="AX29" s="11">
         <v>0</v>
@@ -4351,7 +4386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>62</v>
       </c>
@@ -4422,8 +4457,8 @@
       <c r="Y30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z30" s="13" t="s">
-        <v>58</v>
+      <c r="Z30" s="13">
+        <v>0</v>
       </c>
       <c r="AA30" s="13">
         <v>0</v>
@@ -4449,8 +4484,8 @@
       <c r="AH30" s="13">
         <v>0</v>
       </c>
-      <c r="AI30" s="13">
-        <v>0</v>
+      <c r="AI30" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ30" s="13" t="s">
         <v>58</v>
@@ -4510,7 +4545,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>63</v>
       </c>
@@ -4590,8 +4625,8 @@
       <c r="AB31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC31" s="11" t="s">
-        <v>58</v>
+      <c r="AC31" s="11">
+        <v>0</v>
       </c>
       <c r="AD31" s="11">
         <v>0</v>
@@ -4608,8 +4643,8 @@
       <c r="AH31" s="11">
         <v>0</v>
       </c>
-      <c r="AI31" s="11">
-        <v>0</v>
+      <c r="AI31" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ31" s="11" t="s">
         <v>58</v>
@@ -4669,7 +4704,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>70</v>
       </c>
@@ -4803,8 +4838,8 @@
       <c r="AT32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU32" s="13" t="s">
-        <v>58</v>
+      <c r="AU32" s="13">
+        <v>0</v>
       </c>
       <c r="AV32" s="13" t="s">
         <v>58</v>
@@ -4812,11 +4847,11 @@
       <c r="AW32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY32" s="13" t="s">
-        <v>58</v>
+      <c r="AX32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY32" s="13">
+        <v>0</v>
       </c>
       <c r="AZ32" s="13">
         <v>0</v>
@@ -4828,7 +4863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
         <v>76</v>
       </c>
@@ -4985,7 +5020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>77</v>
       </c>
@@ -5042,7 +5077,7 @@
       <c r="BA34" s="9"/>
       <c r="BB34" s="9"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>78</v>
       </c>
@@ -5174,23 +5209,23 @@
       <c r="AT35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV35" s="11" t="s">
-        <v>58</v>
+      <c r="AU35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV35" s="11">
+        <v>0</v>
       </c>
       <c r="AW35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ35" s="11" t="s">
-        <v>58</v>
+      <c r="AX35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="11">
+        <v>0</v>
       </c>
       <c r="BA35" s="11" t="s">
         <v>58</v>
@@ -5199,7 +5234,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="16" t="s">
         <v>79</v>
       </c>
@@ -5268,8 +5303,8 @@
       <c r="Y36" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Z36" s="17" t="s">
-        <v>58</v>
+      <c r="Z36" s="17">
+        <v>0</v>
       </c>
       <c r="AA36" s="17">
         <v>0</v>
@@ -5356,7 +5391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>80</v>
       </c>
@@ -5426,94 +5461,94 @@
         <v>0</v>
       </c>
       <c r="Z37" s="15">
-        <v>0</v>
+        <v>33695</v>
       </c>
       <c r="AA37" s="15">
-        <v>33695</v>
+        <v>32507</v>
       </c>
       <c r="AB37" s="15">
-        <v>32507</v>
+        <v>38185</v>
       </c>
       <c r="AC37" s="15">
-        <v>38185</v>
+        <v>46464</v>
       </c>
       <c r="AD37" s="15">
-        <v>46464</v>
+        <v>34659</v>
       </c>
       <c r="AE37" s="15">
-        <v>34659</v>
+        <v>36261</v>
       </c>
       <c r="AF37" s="15">
-        <v>36261</v>
+        <v>69630</v>
       </c>
       <c r="AG37" s="15">
-        <v>69630</v>
+        <v>39329</v>
       </c>
       <c r="AH37" s="15">
-        <v>39329</v>
+        <v>39825</v>
       </c>
       <c r="AI37" s="15">
-        <v>39825</v>
+        <v>47922</v>
       </c>
       <c r="AJ37" s="15">
-        <v>47922</v>
+        <v>24382</v>
       </c>
       <c r="AK37" s="15">
-        <v>24382</v>
+        <v>26937</v>
       </c>
       <c r="AL37" s="15">
-        <v>26937</v>
+        <v>45906</v>
       </c>
       <c r="AM37" s="15">
-        <v>45906</v>
+        <v>49780</v>
       </c>
       <c r="AN37" s="15">
-        <v>49780</v>
+        <v>59519</v>
       </c>
       <c r="AO37" s="15">
-        <v>59519</v>
+        <v>39714</v>
       </c>
       <c r="AP37" s="15">
-        <v>39714</v>
+        <v>53341</v>
       </c>
       <c r="AQ37" s="15">
-        <v>53341</v>
+        <v>51012</v>
       </c>
       <c r="AR37" s="15">
-        <v>51012</v>
+        <v>52281</v>
       </c>
       <c r="AS37" s="15">
-        <v>52281</v>
+        <v>69014</v>
       </c>
       <c r="AT37" s="15">
-        <v>69014</v>
+        <v>45805</v>
       </c>
       <c r="AU37" s="15">
-        <v>45805</v>
+        <v>34120</v>
       </c>
       <c r="AV37" s="15">
-        <v>34120</v>
+        <v>41364</v>
       </c>
       <c r="AW37" s="15">
-        <v>41973</v>
+        <v>60622</v>
       </c>
       <c r="AX37" s="15">
-        <v>60622</v>
+        <v>40411</v>
       </c>
       <c r="AY37" s="15">
-        <v>49483</v>
+        <v>38604</v>
       </c>
       <c r="AZ37" s="15">
-        <v>37318</v>
+        <v>55369</v>
       </c>
       <c r="BA37" s="15">
-        <v>55449</v>
+        <v>37350</v>
       </c>
       <c r="BB37" s="15">
-        <v>37350</v>
+        <v>28053</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -5568,7 +5603,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -5623,7 +5658,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -5678,7 +5713,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>81</v>
       </c>
@@ -5835,7 +5870,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5890,7 +5925,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>82</v>
       </c>
@@ -5947,7 +5982,7 @@
       <c r="BA43" s="9"/>
       <c r="BB43" s="9"/>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>56</v>
       </c>
@@ -6018,95 +6053,95 @@
       <c r="Y44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z44" s="11" t="s">
-        <v>58</v>
+      <c r="Z44" s="11">
+        <v>2584</v>
       </c>
       <c r="AA44" s="11">
-        <v>2584</v>
+        <v>3806</v>
       </c>
       <c r="AB44" s="11">
-        <v>3806</v>
+        <v>727</v>
       </c>
       <c r="AC44" s="11">
-        <v>727</v>
+        <v>1158</v>
       </c>
       <c r="AD44" s="11">
-        <v>1158</v>
+        <v>2816</v>
       </c>
       <c r="AE44" s="11">
-        <v>2816</v>
+        <v>2064</v>
       </c>
       <c r="AF44" s="11">
-        <v>2064</v>
+        <v>2092</v>
       </c>
       <c r="AG44" s="11">
-        <v>2092</v>
+        <v>257</v>
       </c>
       <c r="AH44" s="11">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="AI44" s="11">
-        <v>0</v>
+        <v>5551</v>
       </c>
       <c r="AJ44" s="11">
-        <v>5551</v>
+        <v>2635</v>
       </c>
       <c r="AK44" s="11">
-        <v>2635</v>
+        <v>768</v>
       </c>
       <c r="AL44" s="11">
-        <v>768</v>
+        <v>4470</v>
       </c>
       <c r="AM44" s="11">
-        <v>4470</v>
+        <v>5089</v>
       </c>
       <c r="AN44" s="11">
-        <v>5089</v>
+        <v>0</v>
       </c>
       <c r="AO44" s="11">
         <v>0</v>
       </c>
       <c r="AP44" s="11">
-        <v>0</v>
+        <v>6839</v>
       </c>
       <c r="AQ44" s="11">
-        <v>6839</v>
+        <v>5062</v>
       </c>
       <c r="AR44" s="11">
-        <v>5062</v>
+        <v>3054</v>
       </c>
       <c r="AS44" s="11">
-        <v>3054</v>
+        <v>2411</v>
       </c>
       <c r="AT44" s="11">
-        <v>2411</v>
+        <v>1152</v>
       </c>
       <c r="AU44" s="11">
-        <v>1152</v>
+        <v>4208</v>
       </c>
       <c r="AV44" s="11">
-        <v>4208</v>
+        <v>5359</v>
       </c>
       <c r="AW44" s="11">
-        <v>5359</v>
+        <v>5080</v>
       </c>
       <c r="AX44" s="11">
-        <v>5080</v>
+        <v>5880</v>
       </c>
       <c r="AY44" s="11">
-        <v>5880</v>
+        <v>7615</v>
       </c>
       <c r="AZ44" s="11">
-        <v>7615</v>
+        <v>5832</v>
       </c>
       <c r="BA44" s="11">
-        <v>5832</v>
+        <v>5416</v>
       </c>
       <c r="BB44" s="11">
-        <v>5416</v>
+        <v>5504</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>59</v>
       </c>
@@ -6177,95 +6212,95 @@
       <c r="Y45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z45" s="13" t="s">
-        <v>58</v>
+      <c r="Z45" s="13">
+        <v>6905</v>
       </c>
       <c r="AA45" s="13">
-        <v>6905</v>
+        <v>4090</v>
       </c>
       <c r="AB45" s="13">
-        <v>4090</v>
+        <v>4184</v>
       </c>
       <c r="AC45" s="13">
-        <v>4184</v>
+        <v>9692</v>
       </c>
       <c r="AD45" s="13">
-        <v>9692</v>
+        <v>4175</v>
       </c>
       <c r="AE45" s="13">
-        <v>4175</v>
+        <v>9050</v>
       </c>
       <c r="AF45" s="13">
-        <v>9050</v>
+        <v>4712</v>
       </c>
       <c r="AG45" s="13">
-        <v>4712</v>
+        <v>3825</v>
       </c>
       <c r="AH45" s="13">
-        <v>3825</v>
+        <v>966</v>
       </c>
       <c r="AI45" s="13">
-        <v>966</v>
+        <v>0</v>
       </c>
       <c r="AJ45" s="13">
-        <v>0</v>
+        <v>2557</v>
       </c>
       <c r="AK45" s="13">
-        <v>2557</v>
+        <v>1534</v>
       </c>
       <c r="AL45" s="13">
-        <v>1534</v>
+        <v>3258</v>
       </c>
       <c r="AM45" s="13">
-        <v>3258</v>
+        <v>9019</v>
       </c>
       <c r="AN45" s="13">
-        <v>9019</v>
+        <v>10163</v>
       </c>
       <c r="AO45" s="13">
-        <v>10163</v>
+        <v>7728</v>
       </c>
       <c r="AP45" s="13">
-        <v>7728</v>
+        <v>5328</v>
       </c>
       <c r="AQ45" s="13">
-        <v>5328</v>
+        <v>21140</v>
       </c>
       <c r="AR45" s="13">
-        <v>21140</v>
+        <v>7902</v>
       </c>
       <c r="AS45" s="13">
-        <v>7902</v>
+        <v>10733</v>
       </c>
       <c r="AT45" s="13">
-        <v>10733</v>
+        <v>1699</v>
       </c>
       <c r="AU45" s="13">
-        <v>1699</v>
+        <v>8918</v>
       </c>
       <c r="AV45" s="13">
-        <v>8918</v>
+        <v>14776</v>
       </c>
       <c r="AW45" s="13">
-        <v>14776</v>
+        <v>10415</v>
       </c>
       <c r="AX45" s="13">
-        <v>10415</v>
+        <v>8360</v>
       </c>
       <c r="AY45" s="13">
-        <v>8360</v>
+        <v>12128</v>
       </c>
       <c r="AZ45" s="13">
-        <v>12128</v>
+        <v>1206</v>
       </c>
       <c r="BA45" s="13">
-        <v>1206</v>
+        <v>3362</v>
       </c>
       <c r="BB45" s="13">
-        <v>3362</v>
+        <v>5528</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>60</v>
       </c>
@@ -6336,95 +6371,95 @@
       <c r="Y46" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z46" s="11" t="s">
-        <v>58</v>
+      <c r="Z46" s="11">
+        <v>3604</v>
       </c>
       <c r="AA46" s="11">
-        <v>3604</v>
+        <v>1990</v>
       </c>
       <c r="AB46" s="11">
-        <v>1990</v>
+        <v>7713</v>
       </c>
       <c r="AC46" s="11">
-        <v>7713</v>
+        <v>5768</v>
       </c>
       <c r="AD46" s="11">
-        <v>5768</v>
+        <v>3071</v>
       </c>
       <c r="AE46" s="11">
-        <v>3071</v>
+        <v>6235</v>
       </c>
       <c r="AF46" s="11">
-        <v>6235</v>
+        <v>1351</v>
       </c>
       <c r="AG46" s="11">
-        <v>1351</v>
+        <v>620</v>
       </c>
       <c r="AH46" s="11">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="AI46" s="11">
-        <v>0</v>
+        <v>7620</v>
       </c>
       <c r="AJ46" s="11">
-        <v>7620</v>
+        <v>3730</v>
       </c>
       <c r="AK46" s="11">
-        <v>3730</v>
+        <v>6071</v>
       </c>
       <c r="AL46" s="11">
-        <v>6071</v>
+        <v>7434</v>
       </c>
       <c r="AM46" s="11">
-        <v>7434</v>
+        <v>1614</v>
       </c>
       <c r="AN46" s="11">
-        <v>1614</v>
+        <v>13301</v>
       </c>
       <c r="AO46" s="11">
-        <v>13301</v>
+        <v>5798</v>
       </c>
       <c r="AP46" s="11">
-        <v>5798</v>
+        <v>1400</v>
       </c>
       <c r="AQ46" s="11">
-        <v>1400</v>
+        <v>11253</v>
       </c>
       <c r="AR46" s="11">
-        <v>11253</v>
+        <v>2834</v>
       </c>
       <c r="AS46" s="11">
-        <v>2834</v>
+        <v>3031</v>
       </c>
       <c r="AT46" s="11">
-        <v>3031</v>
+        <v>3276</v>
       </c>
       <c r="AU46" s="11">
-        <v>3276</v>
+        <v>5100</v>
       </c>
       <c r="AV46" s="11">
-        <v>5100</v>
+        <v>4076</v>
       </c>
       <c r="AW46" s="11">
-        <v>4076</v>
+        <v>4630</v>
       </c>
       <c r="AX46" s="11">
-        <v>4630</v>
+        <v>4820</v>
       </c>
       <c r="AY46" s="11">
-        <v>4820</v>
+        <v>5114</v>
       </c>
       <c r="AZ46" s="11">
-        <v>5114</v>
+        <v>3710</v>
       </c>
       <c r="BA46" s="11">
-        <v>3710</v>
+        <v>6849</v>
       </c>
       <c r="BB46" s="11">
-        <v>6849</v>
+        <v>4461</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="12" t="s">
         <v>61</v>
       </c>
@@ -6558,11 +6593,11 @@
       <c r="AT47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU47" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV47" s="13" t="s">
-        <v>58</v>
+      <c r="AU47" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV47" s="13">
+        <v>0</v>
       </c>
       <c r="AW47" s="13">
         <v>0</v>
@@ -6583,7 +6618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>62</v>
       </c>
@@ -6654,95 +6689,95 @@
       <c r="Y48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z48" s="11" t="s">
-        <v>58</v>
+      <c r="Z48" s="11">
+        <v>11043</v>
       </c>
       <c r="AA48" s="11">
-        <v>11043</v>
+        <v>12023</v>
       </c>
       <c r="AB48" s="11">
-        <v>12023</v>
+        <v>7519</v>
       </c>
       <c r="AC48" s="11">
-        <v>7519</v>
+        <v>2405</v>
       </c>
       <c r="AD48" s="11">
-        <v>2405</v>
+        <v>4339</v>
       </c>
       <c r="AE48" s="11">
-        <v>4339</v>
+        <v>2059</v>
       </c>
       <c r="AF48" s="11">
-        <v>2059</v>
+        <v>4304</v>
       </c>
       <c r="AG48" s="11">
-        <v>4304</v>
+        <v>8042</v>
       </c>
       <c r="AH48" s="11">
-        <v>8042</v>
+        <v>7586</v>
       </c>
       <c r="AI48" s="11">
-        <v>7586</v>
+        <v>7799</v>
       </c>
       <c r="AJ48" s="11">
-        <v>7799</v>
+        <v>13137</v>
       </c>
       <c r="AK48" s="11">
-        <v>13137</v>
+        <v>11907</v>
       </c>
       <c r="AL48" s="11">
-        <v>11907</v>
+        <v>9032</v>
       </c>
       <c r="AM48" s="11">
-        <v>9032</v>
+        <v>7254</v>
       </c>
       <c r="AN48" s="11">
-        <v>7254</v>
+        <v>1465</v>
       </c>
       <c r="AO48" s="11">
-        <v>1465</v>
+        <v>7809</v>
       </c>
       <c r="AP48" s="11">
-        <v>7809</v>
+        <v>8396</v>
       </c>
       <c r="AQ48" s="11">
-        <v>8396</v>
+        <v>719</v>
       </c>
       <c r="AR48" s="11">
-        <v>719</v>
+        <v>10040</v>
       </c>
       <c r="AS48" s="11">
-        <v>10040</v>
+        <v>5225</v>
       </c>
       <c r="AT48" s="11">
-        <v>5225</v>
+        <v>3008</v>
       </c>
       <c r="AU48" s="11">
-        <v>3008</v>
+        <v>7207</v>
       </c>
       <c r="AV48" s="11">
-        <v>7207</v>
+        <v>4803</v>
       </c>
       <c r="AW48" s="11">
-        <v>4803</v>
+        <v>3900</v>
       </c>
       <c r="AX48" s="11">
-        <v>3900</v>
+        <v>6406</v>
       </c>
       <c r="AY48" s="11">
-        <v>6406</v>
+        <v>0</v>
       </c>
       <c r="AZ48" s="11">
-        <v>0</v>
+        <v>6114</v>
       </c>
       <c r="BA48" s="11">
-        <v>6114</v>
+        <v>3813</v>
       </c>
       <c r="BB48" s="11">
-        <v>3813</v>
+        <v>30790</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>63</v>
       </c>
@@ -6813,53 +6848,53 @@
       <c r="Y49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z49" s="13" t="s">
-        <v>58</v>
+      <c r="Z49" s="13">
+        <v>14890</v>
       </c>
       <c r="AA49" s="13">
-        <v>14890</v>
+        <v>13568</v>
       </c>
       <c r="AB49" s="13">
-        <v>13568</v>
+        <v>15641</v>
       </c>
       <c r="AC49" s="13">
-        <v>15641</v>
+        <v>24479</v>
       </c>
       <c r="AD49" s="13">
-        <v>24479</v>
+        <v>17013</v>
       </c>
       <c r="AE49" s="13">
-        <v>17013</v>
+        <v>25571</v>
       </c>
       <c r="AF49" s="13">
-        <v>25571</v>
+        <v>41191</v>
       </c>
       <c r="AG49" s="13">
-        <v>41191</v>
+        <v>11889</v>
       </c>
       <c r="AH49" s="13">
-        <v>11889</v>
+        <v>1500</v>
       </c>
       <c r="AI49" s="13">
-        <v>1500</v>
+        <v>14205</v>
       </c>
       <c r="AJ49" s="13">
-        <v>14205</v>
+        <v>22150</v>
       </c>
       <c r="AK49" s="13">
-        <v>22150</v>
+        <v>13826</v>
       </c>
       <c r="AL49" s="13">
-        <v>13826</v>
+        <v>13249</v>
       </c>
       <c r="AM49" s="13">
-        <v>13249</v>
+        <v>16490</v>
       </c>
       <c r="AN49" s="13">
-        <v>16490</v>
-      </c>
-      <c r="AO49" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO49" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP49" s="13" t="s">
         <v>58</v>
@@ -6901,7 +6936,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>64</v>
       </c>
@@ -6990,77 +7025,77 @@
       <c r="AE50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF50" s="11" t="s">
-        <v>58</v>
+      <c r="AF50" s="11">
+        <v>39</v>
       </c>
       <c r="AG50" s="11">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="AH50" s="11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AI50" s="11">
         <v>10</v>
       </c>
       <c r="AJ50" s="11">
-        <v>10</v>
+        <v>678</v>
       </c>
       <c r="AK50" s="11">
-        <v>678</v>
+        <v>1581</v>
       </c>
       <c r="AL50" s="11">
-        <v>1581</v>
+        <v>0</v>
       </c>
       <c r="AM50" s="11">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="AN50" s="11">
-        <v>134</v>
+        <v>1912</v>
       </c>
       <c r="AO50" s="11">
-        <v>1912</v>
+        <v>0</v>
       </c>
       <c r="AP50" s="11">
         <v>0</v>
       </c>
       <c r="AQ50" s="11">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AR50" s="11">
-        <v>31</v>
+        <v>3815</v>
       </c>
       <c r="AS50" s="11">
-        <v>3815</v>
+        <v>1526</v>
       </c>
       <c r="AT50" s="11">
-        <v>1526</v>
+        <v>795</v>
       </c>
       <c r="AU50" s="11">
-        <v>795</v>
+        <v>4545</v>
       </c>
       <c r="AV50" s="11">
-        <v>4545</v>
+        <v>2187</v>
       </c>
       <c r="AW50" s="11">
-        <v>2187</v>
+        <v>7654</v>
       </c>
       <c r="AX50" s="11">
-        <v>7654</v>
+        <v>4516</v>
       </c>
       <c r="AY50" s="11">
-        <v>4516</v>
+        <v>26</v>
       </c>
       <c r="AZ50" s="11">
-        <v>26</v>
+        <v>654</v>
       </c>
       <c r="BA50" s="11">
-        <v>654</v>
+        <v>10396</v>
       </c>
       <c r="BB50" s="11">
-        <v>10396</v>
+        <v>2381</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>65</v>
       </c>
@@ -7149,14 +7184,14 @@
       <c r="AE51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF51" s="13" t="s">
-        <v>58</v>
+      <c r="AF51" s="13">
+        <v>147</v>
       </c>
       <c r="AG51" s="13">
-        <v>147</v>
+        <v>360</v>
       </c>
       <c r="AH51" s="13">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="AI51" s="13">
         <v>0</v>
@@ -7177,49 +7212,49 @@
         <v>0</v>
       </c>
       <c r="AO51" s="13">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="AP51" s="13">
-        <v>381</v>
+        <v>1006</v>
       </c>
       <c r="AQ51" s="13">
-        <v>1006</v>
+        <v>1076</v>
       </c>
       <c r="AR51" s="13">
-        <v>1076</v>
+        <v>365</v>
       </c>
       <c r="AS51" s="13">
-        <v>365</v>
+        <v>448</v>
       </c>
       <c r="AT51" s="13">
-        <v>448</v>
+        <v>134</v>
       </c>
       <c r="AU51" s="13">
-        <v>134</v>
+        <v>810</v>
       </c>
       <c r="AV51" s="13">
-        <v>810</v>
+        <v>634</v>
       </c>
       <c r="AW51" s="13">
-        <v>634</v>
+        <v>130</v>
       </c>
       <c r="AX51" s="13">
-        <v>130</v>
+        <v>371</v>
       </c>
       <c r="AY51" s="13">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="AZ51" s="13">
-        <v>406</v>
+        <v>146</v>
       </c>
       <c r="BA51" s="13">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="BB51" s="13">
-        <v>50</v>
+        <v>930</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>66</v>
       </c>
@@ -7308,77 +7343,77 @@
       <c r="AE52" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF52" s="11" t="s">
-        <v>58</v>
+      <c r="AF52" s="11">
+        <v>5</v>
       </c>
       <c r="AG52" s="11">
+        <v>3</v>
+      </c>
+      <c r="AH52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="11">
+        <v>20</v>
+      </c>
+      <c r="AK52" s="11">
         <v>5</v>
       </c>
-      <c r="AH52" s="11">
-        <v>3</v>
-      </c>
-      <c r="AI52" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ52" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK52" s="11">
-        <v>20</v>
-      </c>
       <c r="AL52" s="11">
-        <v>5</v>
+        <v>1300</v>
       </c>
       <c r="AM52" s="11">
-        <v>1300</v>
+        <v>2513</v>
       </c>
       <c r="AN52" s="11">
-        <v>2513</v>
+        <v>1726</v>
       </c>
       <c r="AO52" s="11">
-        <v>1726</v>
+        <v>2053</v>
       </c>
       <c r="AP52" s="11">
-        <v>2053</v>
+        <v>1641</v>
       </c>
       <c r="AQ52" s="11">
-        <v>1641</v>
+        <v>311</v>
       </c>
       <c r="AR52" s="11">
-        <v>311</v>
+        <v>1</v>
       </c>
       <c r="AS52" s="11">
         <v>1</v>
       </c>
       <c r="AT52" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AU52" s="11">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AV52" s="11">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="AW52" s="11">
-        <v>54</v>
+        <v>654</v>
       </c>
       <c r="AX52" s="11">
-        <v>654</v>
+        <v>6</v>
       </c>
       <c r="AY52" s="11">
-        <v>6</v>
+        <v>291</v>
       </c>
       <c r="AZ52" s="11">
-        <v>1265</v>
+        <v>37</v>
       </c>
       <c r="BA52" s="11">
-        <v>37</v>
+        <v>260</v>
       </c>
       <c r="BB52" s="11">
-        <v>260</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>67</v>
       </c>
@@ -7491,53 +7526,53 @@
       <c r="AM53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN53" s="13" t="s">
-        <v>58</v>
+      <c r="AN53" s="13">
+        <v>11325</v>
       </c>
       <c r="AO53" s="13">
-        <v>11325</v>
+        <v>7153</v>
       </c>
       <c r="AP53" s="13">
-        <v>7153</v>
+        <v>8165</v>
       </c>
       <c r="AQ53" s="13">
-        <v>8165</v>
+        <v>4875</v>
       </c>
       <c r="AR53" s="13">
-        <v>4875</v>
+        <v>6469</v>
       </c>
       <c r="AS53" s="13">
-        <v>6469</v>
+        <v>4095</v>
       </c>
       <c r="AT53" s="13">
-        <v>4095</v>
+        <v>3240</v>
       </c>
       <c r="AU53" s="13">
-        <v>3240</v>
+        <v>3680</v>
       </c>
       <c r="AV53" s="13">
-        <v>3680</v>
+        <v>5110</v>
       </c>
       <c r="AW53" s="13">
-        <v>5110</v>
+        <v>10380</v>
       </c>
       <c r="AX53" s="13">
-        <v>10380</v>
+        <v>8753</v>
       </c>
       <c r="AY53" s="13">
-        <v>8753</v>
+        <v>4425</v>
       </c>
       <c r="AZ53" s="13">
-        <v>4425</v>
+        <v>14110</v>
       </c>
       <c r="BA53" s="13">
-        <v>14110</v>
+        <v>6525</v>
       </c>
       <c r="BB53" s="13">
-        <v>6525</v>
+        <v>7114</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>68</v>
       </c>
@@ -7650,8 +7685,8 @@
       <c r="AM54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN54" s="11" t="s">
-        <v>58</v>
+      <c r="AN54" s="11">
+        <v>0</v>
       </c>
       <c r="AO54" s="11">
         <v>0</v>
@@ -7659,44 +7694,44 @@
       <c r="AP54" s="11">
         <v>0</v>
       </c>
-      <c r="AQ54" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR54" s="11" t="s">
-        <v>58</v>
+      <c r="AQ54" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR54" s="11">
+        <v>0</v>
       </c>
       <c r="AS54" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT54" s="11">
         <v>7</v>
       </c>
-      <c r="AU54" s="11" t="s">
-        <v>58</v>
+      <c r="AT54" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU54" s="11">
+        <v>2</v>
       </c>
       <c r="AV54" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW54" s="11">
         <v>0</v>
       </c>
       <c r="AX54" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY54" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AZ54" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BA54" s="11">
         <v>0</v>
       </c>
       <c r="BB54" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="12" t="s">
         <v>69</v>
       </c>
@@ -7809,8 +7844,8 @@
       <c r="AM55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN55" s="13" t="s">
-        <v>58</v>
+      <c r="AN55" s="13">
+        <v>0</v>
       </c>
       <c r="AO55" s="13">
         <v>0</v>
@@ -7819,43 +7854,43 @@
         <v>0</v>
       </c>
       <c r="AQ55" s="13">
-        <v>0</v>
+        <v>3640</v>
       </c>
       <c r="AR55" s="13">
-        <v>3640</v>
+        <v>0</v>
       </c>
       <c r="AS55" s="13">
-        <v>0</v>
+        <v>3676</v>
       </c>
       <c r="AT55" s="13">
-        <v>3676</v>
+        <v>1257</v>
       </c>
       <c r="AU55" s="13">
-        <v>1257</v>
+        <v>0</v>
       </c>
       <c r="AV55" s="13">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AW55" s="13">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="AX55" s="13">
-        <v>99</v>
+        <v>5373</v>
       </c>
       <c r="AY55" s="13">
-        <v>5373</v>
+        <v>3793</v>
       </c>
       <c r="AZ55" s="13">
-        <v>3793</v>
+        <v>58</v>
       </c>
       <c r="BA55" s="13">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="BB55" s="13">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>70</v>
       </c>
@@ -7968,53 +8003,53 @@
       <c r="AM56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN56" s="11" t="s">
-        <v>58</v>
+      <c r="AN56" s="11">
+        <v>1634</v>
       </c>
       <c r="AO56" s="11">
-        <v>1634</v>
+        <v>2365</v>
       </c>
       <c r="AP56" s="11">
-        <v>2365</v>
-      </c>
-      <c r="AQ56" s="11">
         <v>4724</v>
       </c>
-      <c r="AR56" s="11" t="s">
-        <v>58</v>
+      <c r="AQ56" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR56" s="11">
+        <v>0</v>
       </c>
       <c r="AS56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT56" s="11">
         <v>3765</v>
       </c>
-      <c r="AU56" s="11" t="s">
-        <v>58</v>
+      <c r="AT56" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU56" s="11">
+        <v>0</v>
       </c>
       <c r="AV56" s="11">
         <v>0</v>
       </c>
       <c r="AW56" s="11">
-        <v>0</v>
+        <v>4371</v>
       </c>
       <c r="AX56" s="11">
-        <v>4371</v>
+        <v>601</v>
       </c>
       <c r="AY56" s="11">
-        <v>601</v>
+        <v>1449</v>
       </c>
       <c r="AZ56" s="11">
-        <v>1449</v>
+        <v>0</v>
       </c>
       <c r="BA56" s="11">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="BB56" s="11">
-        <v>1050</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="12" t="s">
         <v>71</v>
       </c>
@@ -8127,8 +8162,8 @@
       <c r="AM57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN57" s="13" t="s">
-        <v>58</v>
+      <c r="AN57" s="13">
+        <v>0</v>
       </c>
       <c r="AO57" s="13">
         <v>0</v>
@@ -8137,34 +8172,34 @@
         <v>0</v>
       </c>
       <c r="AQ57" s="13">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AR57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT57" s="13">
+        <v>6080</v>
+      </c>
+      <c r="AU57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW57" s="13">
         <v>960</v>
       </c>
-      <c r="AS57" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT57" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU57" s="13">
-        <v>6080</v>
-      </c>
-      <c r="AV57" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW57" s="13">
-        <v>0</v>
-      </c>
       <c r="AX57" s="13">
-        <v>960</v>
+        <v>3200</v>
       </c>
       <c r="AY57" s="13">
         <v>3200</v>
       </c>
       <c r="AZ57" s="13">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="BA57" s="13">
         <v>0</v>
@@ -8173,7 +8208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>72</v>
       </c>
@@ -8286,8 +8321,8 @@
       <c r="AM58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN58" s="11" t="s">
-        <v>58</v>
+      <c r="AN58" s="11">
+        <v>0</v>
       </c>
       <c r="AO58" s="11">
         <v>0</v>
@@ -8295,20 +8330,20 @@
       <c r="AP58" s="11">
         <v>0</v>
       </c>
-      <c r="AQ58" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR58" s="11" t="s">
-        <v>58</v>
+      <c r="AQ58" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR58" s="11">
+        <v>0</v>
       </c>
       <c r="AS58" s="11">
         <v>0</v>
       </c>
-      <c r="AT58" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU58" s="11" t="s">
-        <v>58</v>
+      <c r="AT58" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU58" s="11">
+        <v>0</v>
       </c>
       <c r="AV58" s="11">
         <v>0</v>
@@ -8329,10 +8364,10 @@
         <v>0</v>
       </c>
       <c r="BB58" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
         <v>73</v>
       </c>
@@ -8466,11 +8501,11 @@
       <c r="AT59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU59" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV59" s="13" t="s">
-        <v>58</v>
+      <c r="AU59" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV59" s="13">
+        <v>0</v>
       </c>
       <c r="AW59" s="13">
         <v>0</v>
@@ -8491,7 +8526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="14" t="s">
         <v>83</v>
       </c>
@@ -8561,94 +8596,94 @@
         <v>0</v>
       </c>
       <c r="Z60" s="15">
-        <v>0</v>
+        <v>39026</v>
       </c>
       <c r="AA60" s="15">
-        <v>39026</v>
+        <v>35477</v>
       </c>
       <c r="AB60" s="15">
-        <v>35477</v>
+        <v>35784</v>
       </c>
       <c r="AC60" s="15">
-        <v>35784</v>
+        <v>43502</v>
       </c>
       <c r="AD60" s="15">
-        <v>43502</v>
+        <v>31414</v>
       </c>
       <c r="AE60" s="15">
-        <v>31414</v>
+        <v>44979</v>
       </c>
       <c r="AF60" s="15">
-        <v>44979</v>
+        <v>53841</v>
       </c>
       <c r="AG60" s="15">
-        <v>53841</v>
+        <v>24999</v>
       </c>
       <c r="AH60" s="15">
-        <v>24999</v>
+        <v>10062</v>
       </c>
       <c r="AI60" s="15">
-        <v>10062</v>
+        <v>35185</v>
       </c>
       <c r="AJ60" s="15">
-        <v>35185</v>
+        <v>44907</v>
       </c>
       <c r="AK60" s="15">
-        <v>44907</v>
+        <v>35692</v>
       </c>
       <c r="AL60" s="15">
-        <v>35692</v>
+        <v>38743</v>
       </c>
       <c r="AM60" s="15">
-        <v>38743</v>
+        <v>42113</v>
       </c>
       <c r="AN60" s="15">
-        <v>42113</v>
+        <v>41526</v>
       </c>
       <c r="AO60" s="15">
-        <v>41526</v>
+        <v>33287</v>
       </c>
       <c r="AP60" s="15">
-        <v>33287</v>
+        <v>37499</v>
       </c>
       <c r="AQ60" s="15">
-        <v>37499</v>
+        <v>49067</v>
       </c>
       <c r="AR60" s="15">
-        <v>49067</v>
+        <v>34480</v>
       </c>
       <c r="AS60" s="15">
-        <v>34480</v>
+        <v>34918</v>
       </c>
       <c r="AT60" s="15">
-        <v>34918</v>
+        <v>20644</v>
       </c>
       <c r="AU60" s="15">
-        <v>20644</v>
+        <v>34489</v>
       </c>
       <c r="AV60" s="15">
-        <v>34489</v>
+        <v>37015</v>
       </c>
       <c r="AW60" s="15">
-        <v>37015</v>
+        <v>48273</v>
       </c>
       <c r="AX60" s="15">
-        <v>48273</v>
+        <v>48291</v>
       </c>
       <c r="AY60" s="15">
-        <v>48291</v>
+        <v>38450</v>
       </c>
       <c r="AZ60" s="15">
-        <v>39424</v>
+        <v>31867</v>
       </c>
       <c r="BA60" s="15">
-        <v>31867</v>
+        <v>37776</v>
       </c>
       <c r="BB60" s="15">
-        <v>37776</v>
+        <v>56842</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>84</v>
       </c>
@@ -8705,7 +8740,7 @@
       <c r="BA61" s="9"/>
       <c r="BB61" s="9"/>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>56</v>
       </c>
@@ -8818,12 +8853,12 @@
       <c r="AM62" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN62" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO62" s="11">
+      <c r="AN62" s="11">
         <v>4799</v>
       </c>
+      <c r="AO62" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AP62" s="11" t="s">
         <v>58</v>
       </c>
@@ -8842,14 +8877,14 @@
       <c r="AU62" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV62" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW62" s="11" t="s">
-        <v>58</v>
+      <c r="AV62" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW62" s="11">
+        <v>25</v>
       </c>
       <c r="AX62" s="11">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AY62" s="11">
         <v>0</v>
@@ -8864,7 +8899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
         <v>62</v>
       </c>
@@ -8935,8 +8970,8 @@
       <c r="Y63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z63" s="13" t="s">
-        <v>58</v>
+      <c r="Z63" s="13">
+        <v>0</v>
       </c>
       <c r="AA63" s="13">
         <v>0</v>
@@ -8962,8 +8997,8 @@
       <c r="AH63" s="13">
         <v>0</v>
       </c>
-      <c r="AI63" s="13">
-        <v>0</v>
+      <c r="AI63" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ63" s="13" t="s">
         <v>58</v>
@@ -9023,7 +9058,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>63</v>
       </c>
@@ -9103,11 +9138,11 @@
       <c r="AB64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC64" s="11" t="s">
-        <v>58</v>
+      <c r="AC64" s="11">
+        <v>1000</v>
       </c>
       <c r="AD64" s="11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE64" s="11">
         <v>0</v>
@@ -9121,8 +9156,8 @@
       <c r="AH64" s="11">
         <v>0</v>
       </c>
-      <c r="AI64" s="11">
-        <v>0</v>
+      <c r="AI64" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ64" s="11" t="s">
         <v>58</v>
@@ -9182,7 +9217,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>70</v>
       </c>
@@ -9298,11 +9333,11 @@
       <c r="AN65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP65" s="13">
-        <v>0</v>
+      <c r="AO65" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP65" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ65" s="13" t="s">
         <v>58</v>
@@ -9316,8 +9351,8 @@
       <c r="AT65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU65" s="13" t="s">
-        <v>58</v>
+      <c r="AU65" s="13">
+        <v>0</v>
       </c>
       <c r="AV65" s="13" t="s">
         <v>58</v>
@@ -9325,14 +9360,14 @@
       <c r="AW65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY65" s="13" t="s">
-        <v>58</v>
+      <c r="AX65" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY65" s="13">
+        <v>1700</v>
       </c>
       <c r="AZ65" s="13">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="BA65" s="13">
         <v>0</v>
@@ -9341,7 +9376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="14" t="s">
         <v>85</v>
       </c>
@@ -9420,10 +9455,10 @@
         <v>0</v>
       </c>
       <c r="AC66" s="15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD66" s="15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE66" s="15">
         <v>0</v>
@@ -9453,10 +9488,10 @@
         <v>0</v>
       </c>
       <c r="AN66" s="15">
-        <v>0</v>
+        <v>4799</v>
       </c>
       <c r="AO66" s="15">
-        <v>4799</v>
+        <v>0</v>
       </c>
       <c r="AP66" s="15">
         <v>0</v>
@@ -9480,16 +9515,16 @@
         <v>0</v>
       </c>
       <c r="AW66" s="15">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AX66" s="15">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AY66" s="15">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="AZ66" s="15">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="BA66" s="15">
         <v>0</v>
@@ -9498,7 +9533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>77</v>
       </c>
@@ -9555,7 +9590,7 @@
       <c r="BA67" s="9"/>
       <c r="BB67" s="9"/>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>78</v>
       </c>
@@ -9687,23 +9722,23 @@
       <c r="AT68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV68" s="11" t="s">
-        <v>58</v>
+      <c r="AU68" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV68" s="11">
+        <v>0</v>
       </c>
       <c r="AW68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ68" s="11" t="s">
-        <v>58</v>
+      <c r="AX68" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY68" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ68" s="11">
+        <v>0</v>
       </c>
       <c r="BA68" s="11" t="s">
         <v>58</v>
@@ -9712,7 +9747,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B69" s="16" t="s">
         <v>79</v>
       </c>
@@ -9781,8 +9816,8 @@
       <c r="Y69" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Z69" s="17" t="s">
-        <v>58</v>
+      <c r="Z69" s="17">
+        <v>0</v>
       </c>
       <c r="AA69" s="17">
         <v>0</v>
@@ -9869,7 +9904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>86</v>
       </c>
@@ -9926,7 +9961,7 @@
       <c r="BA70" s="9"/>
       <c r="BB70" s="9"/>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>56</v>
       </c>
@@ -9997,8 +10032,8 @@
       <c r="Y71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z71" s="11" t="s">
-        <v>58</v>
+      <c r="Z71" s="11">
+        <v>0</v>
       </c>
       <c r="AA71" s="11">
         <v>0</v>
@@ -10024,8 +10059,8 @@
       <c r="AH71" s="11">
         <v>0</v>
       </c>
-      <c r="AI71" s="11">
-        <v>0</v>
+      <c r="AI71" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ71" s="11" t="s">
         <v>58</v>
@@ -10033,11 +10068,11 @@
       <c r="AK71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL71" s="11" t="s">
-        <v>58</v>
+      <c r="AL71" s="11">
+        <v>-576</v>
       </c>
       <c r="AM71" s="11">
-        <v>-576</v>
+        <v>0</v>
       </c>
       <c r="AN71" s="11">
         <v>0</v>
@@ -10045,17 +10080,17 @@
       <c r="AO71" s="11">
         <v>0</v>
       </c>
-      <c r="AP71" s="11">
-        <v>0</v>
+      <c r="AP71" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS71" s="11">
-        <v>0</v>
+      <c r="AR71" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS71" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT71" s="11" t="s">
         <v>58</v>
@@ -10069,14 +10104,14 @@
       <c r="AW71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ71" s="11" t="s">
-        <v>58</v>
+      <c r="AX71" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY71" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ71" s="11">
+        <v>0</v>
       </c>
       <c r="BA71" s="11" t="s">
         <v>58</v>
@@ -10085,7 +10120,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>59</v>
       </c>
@@ -10219,23 +10254,23 @@
       <c r="AT72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU72" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV72" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW72" s="13">
+      <c r="AU72" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV72" s="13">
         <v>-599</v>
       </c>
-      <c r="AX72" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY72" s="13" t="s">
-        <v>58</v>
+      <c r="AW72" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX72" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY72" s="13">
+        <v>-483</v>
       </c>
       <c r="AZ72" s="13">
-        <v>-483</v>
+        <v>0</v>
       </c>
       <c r="BA72" s="13" t="s">
         <v>58</v>
@@ -10244,7 +10279,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>60</v>
       </c>
@@ -10327,23 +10362,23 @@
       <c r="AC73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD73" s="11" t="s">
-        <v>58</v>
+      <c r="AD73" s="11">
+        <v>-120</v>
       </c>
       <c r="AE73" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH73" s="11">
         <v>-120</v>
       </c>
-      <c r="AF73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI73" s="11">
-        <v>-120</v>
+      <c r="AI73" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ73" s="11" t="s">
         <v>58</v>
@@ -10354,47 +10389,47 @@
       <c r="AL73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM73" s="11" t="s">
-        <v>58</v>
+      <c r="AM73" s="11">
+        <v>-855</v>
       </c>
       <c r="AN73" s="11">
-        <v>-855</v>
+        <v>0</v>
       </c>
       <c r="AO73" s="11">
         <v>0</v>
       </c>
-      <c r="AP73" s="11">
-        <v>0</v>
+      <c r="AP73" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU73" s="11">
+      <c r="AR73" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS73" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT73" s="11">
         <v>-40</v>
       </c>
+      <c r="AU73" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AV73" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AW73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY73" s="11" t="s">
-        <v>58</v>
+      <c r="AX73" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY73" s="11">
+        <v>-525</v>
       </c>
       <c r="AZ73" s="11">
-        <v>-525</v>
+        <v>0</v>
       </c>
       <c r="BA73" s="11" t="s">
         <v>58</v>
@@ -10403,7 +10438,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>62</v>
       </c>
@@ -10480,8 +10515,8 @@
       <c r="AA74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB74" s="13" t="s">
-        <v>58</v>
+      <c r="AB74" s="13">
+        <v>0</v>
       </c>
       <c r="AC74" s="13">
         <v>0</v>
@@ -10501,8 +10536,8 @@
       <c r="AH74" s="13">
         <v>0</v>
       </c>
-      <c r="AI74" s="13">
-        <v>0</v>
+      <c r="AI74" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ74" s="13" t="s">
         <v>58</v>
@@ -10531,12 +10566,12 @@
       <c r="AR74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT74" s="13">
+      <c r="AS74" s="13">
         <v>-12</v>
       </c>
+      <c r="AT74" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU74" s="13" t="s">
         <v>58</v>
       </c>
@@ -10562,7 +10597,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B75" s="10" t="s">
         <v>64</v>
       </c>
@@ -10669,29 +10704,29 @@
       <c r="AK75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL75" s="11" t="s">
-        <v>58</v>
+      <c r="AL75" s="11">
+        <v>-25</v>
       </c>
       <c r="AM75" s="11">
-        <v>-25</v>
+        <v>-125</v>
       </c>
       <c r="AN75" s="11">
-        <v>-125</v>
+        <v>0</v>
       </c>
       <c r="AO75" s="11">
         <v>0</v>
       </c>
-      <c r="AP75" s="11">
-        <v>0</v>
+      <c r="AP75" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS75" s="11">
-        <v>0</v>
+      <c r="AR75" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS75" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT75" s="11" t="s">
         <v>58</v>
@@ -10705,14 +10740,14 @@
       <c r="AW75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ75" s="11" t="s">
-        <v>58</v>
+      <c r="AX75" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY75" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ75" s="11">
+        <v>0</v>
       </c>
       <c r="BA75" s="11" t="s">
         <v>58</v>
@@ -10721,7 +10756,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B76" s="12" t="s">
         <v>66</v>
       </c>
@@ -10828,8 +10863,8 @@
       <c r="AK76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL76" s="13" t="s">
-        <v>58</v>
+      <c r="AL76" s="13">
+        <v>0</v>
       </c>
       <c r="AM76" s="13">
         <v>0</v>
@@ -10840,38 +10875,38 @@
       <c r="AO76" s="13">
         <v>0</v>
       </c>
-      <c r="AP76" s="13">
-        <v>0</v>
+      <c r="AP76" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS76" s="13">
+      <c r="AR76" s="13">
         <v>-8</v>
       </c>
+      <c r="AS76" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT76" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AU76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW76" s="13" t="s">
-        <v>58</v>
+      <c r="AV76" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW76" s="13">
+        <v>-12</v>
       </c>
       <c r="AX76" s="13">
-        <v>-12</v>
-      </c>
-      <c r="AY76" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AY76" s="13">
+        <v>-1</v>
       </c>
       <c r="AZ76" s="13">
-        <v>-975</v>
+        <v>0</v>
       </c>
       <c r="BA76" s="13" t="s">
         <v>58</v>
@@ -10880,7 +10915,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B77" s="14" t="s">
         <v>87</v>
       </c>
@@ -10949,8 +10984,8 @@
       <c r="Y77" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z77" s="15" t="s">
-        <v>58</v>
+      <c r="Z77" s="15">
+        <v>0</v>
       </c>
       <c r="AA77" s="15">
         <v>0</v>
@@ -10962,22 +10997,22 @@
         <v>0</v>
       </c>
       <c r="AD77" s="15">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="AE77" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG77" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH77" s="15">
         <v>-120</v>
       </c>
-      <c r="AF77" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG77" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH77" s="15">
-        <v>0</v>
-      </c>
       <c r="AI77" s="15">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="AJ77" s="15">
         <v>0</v>
@@ -10986,13 +11021,13 @@
         <v>0</v>
       </c>
       <c r="AL77" s="15">
-        <v>0</v>
+        <v>-601</v>
       </c>
       <c r="AM77" s="15">
-        <v>-601</v>
+        <v>-980</v>
       </c>
       <c r="AN77" s="15">
-        <v>-980</v>
+        <v>0</v>
       </c>
       <c r="AO77" s="15">
         <v>0</v>
@@ -11004,31 +11039,31 @@
         <v>0</v>
       </c>
       <c r="AR77" s="15">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AS77" s="15">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="AT77" s="15">
+        <v>-40</v>
+      </c>
+      <c r="AU77" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV77" s="15">
+        <v>-599</v>
+      </c>
+      <c r="AW77" s="15">
         <v>-12</v>
       </c>
-      <c r="AU77" s="15">
-        <v>-40</v>
-      </c>
-      <c r="AV77" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW77" s="15">
-        <v>-599</v>
-      </c>
       <c r="AX77" s="15">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="AY77" s="15">
-        <v>0</v>
+        <v>-1009</v>
       </c>
       <c r="AZ77" s="15">
-        <v>-1983</v>
+        <v>0</v>
       </c>
       <c r="BA77" s="15">
         <v>0</v>
@@ -11037,7 +11072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B78" s="16" t="s">
         <v>80</v>
       </c>
@@ -11107,94 +11142,94 @@
         <v>0</v>
       </c>
       <c r="Z78" s="17">
-        <v>0</v>
+        <v>39026</v>
       </c>
       <c r="AA78" s="17">
-        <v>39026</v>
+        <v>35477</v>
       </c>
       <c r="AB78" s="17">
-        <v>35477</v>
+        <v>35784</v>
       </c>
       <c r="AC78" s="17">
-        <v>35784</v>
+        <v>44502</v>
       </c>
       <c r="AD78" s="17">
-        <v>44502</v>
+        <v>31294</v>
       </c>
       <c r="AE78" s="17">
-        <v>31294</v>
+        <v>44979</v>
       </c>
       <c r="AF78" s="17">
-        <v>44979</v>
+        <v>53841</v>
       </c>
       <c r="AG78" s="17">
-        <v>53841</v>
+        <v>24999</v>
       </c>
       <c r="AH78" s="17">
-        <v>24999</v>
+        <v>9942</v>
       </c>
       <c r="AI78" s="17">
-        <v>9942</v>
+        <v>35185</v>
       </c>
       <c r="AJ78" s="17">
-        <v>35185</v>
+        <v>44907</v>
       </c>
       <c r="AK78" s="17">
-        <v>44907</v>
+        <v>35692</v>
       </c>
       <c r="AL78" s="17">
-        <v>35692</v>
+        <v>38142</v>
       </c>
       <c r="AM78" s="17">
-        <v>38142</v>
+        <v>41133</v>
       </c>
       <c r="AN78" s="17">
-        <v>41133</v>
+        <v>46325</v>
       </c>
       <c r="AO78" s="17">
-        <v>46325</v>
+        <v>33287</v>
       </c>
       <c r="AP78" s="17">
-        <v>33287</v>
+        <v>37499</v>
       </c>
       <c r="AQ78" s="17">
-        <v>37499</v>
+        <v>49067</v>
       </c>
       <c r="AR78" s="17">
-        <v>49067</v>
+        <v>34472</v>
       </c>
       <c r="AS78" s="17">
-        <v>34472</v>
+        <v>34906</v>
       </c>
       <c r="AT78" s="17">
-        <v>34906</v>
+        <v>20604</v>
       </c>
       <c r="AU78" s="17">
-        <v>20604</v>
+        <v>34489</v>
       </c>
       <c r="AV78" s="17">
-        <v>34489</v>
+        <v>36416</v>
       </c>
       <c r="AW78" s="17">
-        <v>36416</v>
+        <v>48286</v>
       </c>
       <c r="AX78" s="17">
-        <v>48286</v>
+        <v>48291</v>
       </c>
       <c r="AY78" s="17">
-        <v>48291</v>
+        <v>39141</v>
       </c>
       <c r="AZ78" s="17">
-        <v>39141</v>
+        <v>31867</v>
       </c>
       <c r="BA78" s="17">
-        <v>31867</v>
+        <v>37776</v>
       </c>
       <c r="BB78" s="17">
-        <v>37776</v>
+        <v>56842</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -11249,7 +11284,7 @@
       <c r="BA79" s="1"/>
       <c r="BB79" s="1"/>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -11304,7 +11339,7 @@
       <c r="BA80" s="1"/>
       <c r="BB80" s="1"/>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -11359,7 +11394,7 @@
       <c r="BA81" s="1"/>
       <c r="BB81" s="1"/>
     </row>
-    <row r="82" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B82" s="7" t="s">
         <v>88</v>
       </c>
@@ -11516,7 +11551,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -11571,7 +11606,7 @@
       <c r="BA83" s="1"/>
       <c r="BB83" s="1"/>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B84" s="8" t="s">
         <v>89</v>
       </c>
@@ -11628,7 +11663,7 @@
       <c r="BA84" s="9"/>
       <c r="BB84" s="9"/>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B85" s="10" t="s">
         <v>56</v>
       </c>
@@ -11699,95 +11734,95 @@
       <c r="Y85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z85" s="11" t="s">
-        <v>58</v>
+      <c r="Z85" s="11">
+        <v>10244</v>
       </c>
       <c r="AA85" s="11">
-        <v>10244</v>
+        <v>15544</v>
       </c>
       <c r="AB85" s="11">
-        <v>15544</v>
+        <v>3053</v>
       </c>
       <c r="AC85" s="11">
-        <v>3053</v>
+        <v>5616</v>
       </c>
       <c r="AD85" s="11">
-        <v>5616</v>
+        <v>15220</v>
       </c>
       <c r="AE85" s="11">
-        <v>15220</v>
+        <v>10491</v>
       </c>
       <c r="AF85" s="11">
-        <v>10491</v>
+        <v>10458</v>
       </c>
       <c r="AG85" s="11">
-        <v>10458</v>
+        <v>1414</v>
       </c>
       <c r="AH85" s="11">
-        <v>1414</v>
+        <v>0</v>
       </c>
       <c r="AI85" s="11">
-        <v>0</v>
+        <v>24693</v>
       </c>
       <c r="AJ85" s="11">
-        <v>24693</v>
+        <v>15811</v>
       </c>
       <c r="AK85" s="11">
-        <v>15811</v>
+        <v>4608</v>
       </c>
       <c r="AL85" s="11">
-        <v>4608</v>
+        <v>26527</v>
       </c>
       <c r="AM85" s="11">
-        <v>26527</v>
+        <v>27943</v>
       </c>
       <c r="AN85" s="11">
-        <v>27943</v>
+        <v>0</v>
       </c>
       <c r="AO85" s="11">
         <v>0</v>
       </c>
       <c r="AP85" s="11">
-        <v>0</v>
+        <v>39319</v>
       </c>
       <c r="AQ85" s="11">
-        <v>39319</v>
+        <v>29764</v>
       </c>
       <c r="AR85" s="11">
-        <v>29764</v>
+        <v>17181</v>
       </c>
       <c r="AS85" s="11">
-        <v>17181</v>
+        <v>13326</v>
       </c>
       <c r="AT85" s="11">
-        <v>13326</v>
+        <v>8064</v>
       </c>
       <c r="AU85" s="11">
-        <v>8064</v>
+        <v>26400</v>
       </c>
       <c r="AV85" s="11">
-        <v>26400</v>
+        <v>34386</v>
       </c>
       <c r="AW85" s="11">
-        <v>34386</v>
+        <v>34260</v>
       </c>
       <c r="AX85" s="11">
-        <v>34260</v>
+        <v>38508</v>
       </c>
       <c r="AY85" s="11">
-        <v>38508</v>
+        <v>56804</v>
       </c>
       <c r="AZ85" s="11">
-        <v>56804</v>
+        <v>34992</v>
       </c>
       <c r="BA85" s="11">
-        <v>34992</v>
+        <v>37952</v>
       </c>
       <c r="BB85" s="11">
-        <v>37952</v>
+        <v>38456</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B86" s="12" t="s">
         <v>59</v>
       </c>
@@ -11858,95 +11893,95 @@
       <c r="Y86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z86" s="13" t="s">
-        <v>58</v>
+      <c r="Z86" s="13">
+        <v>16366</v>
       </c>
       <c r="AA86" s="13">
-        <v>16366</v>
+        <v>7215</v>
       </c>
       <c r="AB86" s="13">
-        <v>7215</v>
+        <v>8223</v>
       </c>
       <c r="AC86" s="13">
-        <v>8223</v>
+        <v>33619</v>
       </c>
       <c r="AD86" s="13">
-        <v>33619</v>
+        <v>9785</v>
       </c>
       <c r="AE86" s="13">
-        <v>9785</v>
+        <v>23520</v>
       </c>
       <c r="AF86" s="13">
-        <v>23520</v>
+        <v>15422</v>
       </c>
       <c r="AG86" s="13">
-        <v>15422</v>
+        <v>14101</v>
       </c>
       <c r="AH86" s="13">
-        <v>14101</v>
+        <v>9287</v>
       </c>
       <c r="AI86" s="13">
-        <v>9287</v>
+        <v>0</v>
       </c>
       <c r="AJ86" s="13">
-        <v>0</v>
+        <v>24291</v>
       </c>
       <c r="AK86" s="13">
-        <v>24291</v>
+        <v>22948</v>
       </c>
       <c r="AL86" s="13">
-        <v>22948</v>
+        <v>27976</v>
       </c>
       <c r="AM86" s="13">
-        <v>27976</v>
+        <v>72693</v>
       </c>
       <c r="AN86" s="13">
-        <v>72693</v>
+        <v>70591</v>
       </c>
       <c r="AO86" s="13">
-        <v>70591</v>
+        <v>65857</v>
       </c>
       <c r="AP86" s="13">
-        <v>65857</v>
+        <v>39543</v>
       </c>
       <c r="AQ86" s="13">
-        <v>39543</v>
+        <v>152659</v>
       </c>
       <c r="AR86" s="13">
-        <v>152659</v>
+        <v>51635</v>
       </c>
       <c r="AS86" s="13">
-        <v>51635</v>
+        <v>62547</v>
       </c>
       <c r="AT86" s="13">
-        <v>62547</v>
+        <v>27457</v>
       </c>
       <c r="AU86" s="13">
-        <v>27457</v>
+        <v>49877</v>
       </c>
       <c r="AV86" s="13">
-        <v>49877</v>
+        <v>112185</v>
       </c>
       <c r="AW86" s="13">
-        <v>112185</v>
+        <v>69989</v>
       </c>
       <c r="AX86" s="13">
-        <v>69989</v>
+        <v>53377</v>
       </c>
       <c r="AY86" s="13">
-        <v>53377</v>
+        <v>164290</v>
       </c>
       <c r="AZ86" s="13">
-        <v>164290</v>
+        <v>49799</v>
       </c>
       <c r="BA86" s="13">
-        <v>49799</v>
+        <v>21713</v>
       </c>
       <c r="BB86" s="13">
-        <v>21713</v>
+        <v>71893</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>60</v>
       </c>
@@ -12017,95 +12052,95 @@
       <c r="Y87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z87" s="11" t="s">
-        <v>58</v>
+      <c r="Z87" s="11">
+        <v>31790</v>
       </c>
       <c r="AA87" s="11">
-        <v>31790</v>
+        <v>16629</v>
       </c>
       <c r="AB87" s="11">
-        <v>16629</v>
+        <v>56998</v>
       </c>
       <c r="AC87" s="11">
-        <v>56998</v>
+        <v>40413</v>
       </c>
       <c r="AD87" s="11">
-        <v>40413</v>
+        <v>16935</v>
       </c>
       <c r="AE87" s="11">
-        <v>16935</v>
+        <v>36019</v>
       </c>
       <c r="AF87" s="11">
-        <v>36019</v>
+        <v>12899</v>
       </c>
       <c r="AG87" s="11">
-        <v>12899</v>
+        <v>4650</v>
       </c>
       <c r="AH87" s="11">
-        <v>4650</v>
+        <v>0</v>
       </c>
       <c r="AI87" s="11">
-        <v>0</v>
+        <v>67282</v>
       </c>
       <c r="AJ87" s="11">
-        <v>67282</v>
+        <v>42368</v>
       </c>
       <c r="AK87" s="11">
-        <v>42368</v>
+        <v>80167</v>
       </c>
       <c r="AL87" s="11">
-        <v>80167</v>
+        <v>94134</v>
       </c>
       <c r="AM87" s="11">
-        <v>94134</v>
+        <v>5650</v>
       </c>
       <c r="AN87" s="11">
-        <v>5650</v>
+        <v>169268</v>
       </c>
       <c r="AO87" s="11">
-        <v>169268</v>
+        <v>69272</v>
       </c>
       <c r="AP87" s="11">
-        <v>69272</v>
+        <v>16800</v>
       </c>
       <c r="AQ87" s="11">
-        <v>16800</v>
+        <v>130551</v>
       </c>
       <c r="AR87" s="11">
-        <v>130551</v>
+        <v>24930</v>
       </c>
       <c r="AS87" s="11">
-        <v>24930</v>
+        <v>45272</v>
       </c>
       <c r="AT87" s="11">
-        <v>45272</v>
+        <v>39323</v>
       </c>
       <c r="AU87" s="11">
-        <v>39323</v>
+        <v>55145</v>
       </c>
       <c r="AV87" s="11">
-        <v>55145</v>
+        <v>75072</v>
       </c>
       <c r="AW87" s="11">
-        <v>75072</v>
+        <v>47245</v>
       </c>
       <c r="AX87" s="11">
-        <v>47245</v>
+        <v>65173</v>
       </c>
       <c r="AY87" s="11">
-        <v>65173</v>
+        <v>111485</v>
       </c>
       <c r="AZ87" s="11">
-        <v>111485</v>
+        <v>37744</v>
       </c>
       <c r="BA87" s="11">
-        <v>37744</v>
+        <v>146165</v>
       </c>
       <c r="BB87" s="11">
-        <v>146165</v>
+        <v>124817</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>61</v>
       </c>
@@ -12227,11 +12262,11 @@
       <c r="AP88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ88" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR88" s="13">
-        <v>0</v>
+      <c r="AQ88" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR88" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS88" s="13" t="s">
         <v>58</v>
@@ -12239,8 +12274,8 @@
       <c r="AT88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU88" s="13" t="s">
-        <v>58</v>
+      <c r="AU88" s="13">
+        <v>0</v>
       </c>
       <c r="AV88" s="13">
         <v>0</v>
@@ -12264,7 +12299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>62</v>
       </c>
@@ -12335,95 +12370,95 @@
       <c r="Y89" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z89" s="11" t="s">
-        <v>58</v>
+      <c r="Z89" s="11">
+        <v>130038</v>
       </c>
       <c r="AA89" s="11">
-        <v>130038</v>
+        <v>131357</v>
       </c>
       <c r="AB89" s="11">
-        <v>131357</v>
+        <v>73617</v>
       </c>
       <c r="AC89" s="11">
-        <v>73617</v>
+        <v>18037</v>
       </c>
       <c r="AD89" s="11">
-        <v>18037</v>
+        <v>57129</v>
       </c>
       <c r="AE89" s="11">
-        <v>57129</v>
+        <v>21808</v>
       </c>
       <c r="AF89" s="11">
-        <v>21808</v>
+        <v>40891</v>
       </c>
       <c r="AG89" s="11">
-        <v>40891</v>
+        <v>76756</v>
       </c>
       <c r="AH89" s="11">
-        <v>76756</v>
+        <v>77988</v>
       </c>
       <c r="AI89" s="11">
-        <v>77988</v>
+        <v>88866</v>
       </c>
       <c r="AJ89" s="11">
-        <v>88866</v>
+        <v>161189</v>
       </c>
       <c r="AK89" s="11">
-        <v>161189</v>
+        <v>161051</v>
       </c>
       <c r="AL89" s="11">
-        <v>161051</v>
+        <v>111029</v>
       </c>
       <c r="AM89" s="11">
-        <v>111029</v>
+        <v>112500</v>
       </c>
       <c r="AN89" s="11">
-        <v>112500</v>
+        <v>22722</v>
       </c>
       <c r="AO89" s="11">
-        <v>22722</v>
+        <v>122743</v>
       </c>
       <c r="AP89" s="11">
-        <v>122743</v>
+        <v>127244</v>
       </c>
       <c r="AQ89" s="11">
-        <v>127244</v>
+        <v>11504</v>
       </c>
       <c r="AR89" s="11">
-        <v>11504</v>
+        <v>158191</v>
       </c>
       <c r="AS89" s="11">
-        <v>158191</v>
+        <v>80980</v>
       </c>
       <c r="AT89" s="11">
-        <v>80980</v>
+        <v>47536</v>
       </c>
       <c r="AU89" s="11">
-        <v>47536</v>
+        <v>114300</v>
       </c>
       <c r="AV89" s="11">
-        <v>114300</v>
+        <v>76651</v>
       </c>
       <c r="AW89" s="11">
-        <v>76651</v>
+        <v>63568</v>
       </c>
       <c r="AX89" s="11">
-        <v>63568</v>
+        <v>96730</v>
       </c>
       <c r="AY89" s="11">
-        <v>96730</v>
+        <v>0</v>
       </c>
       <c r="AZ89" s="11">
-        <v>0</v>
+        <v>261127</v>
       </c>
       <c r="BA89" s="11">
-        <v>261127</v>
+        <v>176825</v>
       </c>
       <c r="BB89" s="11">
-        <v>176825</v>
+        <v>1453748</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>63</v>
       </c>
@@ -12494,53 +12529,53 @@
       <c r="Y90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z90" s="13" t="s">
-        <v>58</v>
+      <c r="Z90" s="13">
+        <v>64872</v>
       </c>
       <c r="AA90" s="13">
-        <v>64872</v>
+        <v>49255</v>
       </c>
       <c r="AB90" s="13">
-        <v>49255</v>
+        <v>73759</v>
       </c>
       <c r="AC90" s="13">
-        <v>73759</v>
+        <v>115364</v>
       </c>
       <c r="AD90" s="13">
-        <v>115364</v>
+        <v>110748</v>
       </c>
       <c r="AE90" s="13">
-        <v>110748</v>
+        <v>129549</v>
       </c>
       <c r="AF90" s="13">
-        <v>129549</v>
+        <v>134919</v>
       </c>
       <c r="AG90" s="13">
-        <v>134919</v>
+        <v>57758</v>
       </c>
       <c r="AH90" s="13">
-        <v>57758</v>
+        <v>13489</v>
       </c>
       <c r="AI90" s="13">
-        <v>13489</v>
+        <v>100525</v>
       </c>
       <c r="AJ90" s="13">
-        <v>100525</v>
+        <v>75515</v>
       </c>
       <c r="AK90" s="13">
-        <v>75515</v>
+        <v>72533</v>
       </c>
       <c r="AL90" s="13">
-        <v>72533</v>
+        <v>77914</v>
       </c>
       <c r="AM90" s="13">
-        <v>77914</v>
+        <v>95525</v>
       </c>
       <c r="AN90" s="13">
-        <v>95525</v>
-      </c>
-      <c r="AO90" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AO90" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP90" s="13" t="s">
         <v>58</v>
@@ -12582,7 +12617,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>64</v>
       </c>
@@ -12671,77 +12706,77 @@
       <c r="AE91" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF91" s="11" t="s">
-        <v>58</v>
+      <c r="AF91" s="11">
+        <v>3955</v>
       </c>
       <c r="AG91" s="11">
-        <v>3955</v>
+        <v>12</v>
       </c>
       <c r="AH91" s="11">
-        <v>12</v>
+        <v>999</v>
       </c>
       <c r="AI91" s="11">
-        <v>999</v>
+        <v>1025</v>
       </c>
       <c r="AJ91" s="11">
-        <v>1025</v>
+        <v>3672</v>
       </c>
       <c r="AK91" s="11">
-        <v>3672</v>
+        <v>9200</v>
       </c>
       <c r="AL91" s="11">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="AM91" s="11">
-        <v>0</v>
+        <v>1930</v>
       </c>
       <c r="AN91" s="11">
-        <v>1930</v>
+        <v>17778</v>
       </c>
       <c r="AO91" s="11">
-        <v>17778</v>
+        <v>0</v>
       </c>
       <c r="AP91" s="11">
         <v>0</v>
       </c>
       <c r="AQ91" s="11">
-        <v>0</v>
+        <v>3116</v>
       </c>
       <c r="AR91" s="11">
-        <v>3116</v>
+        <v>17230</v>
       </c>
       <c r="AS91" s="11">
-        <v>17230</v>
+        <v>10048</v>
       </c>
       <c r="AT91" s="11">
-        <v>10048</v>
+        <v>5528</v>
       </c>
       <c r="AU91" s="11">
-        <v>5528</v>
+        <v>24735</v>
       </c>
       <c r="AV91" s="11">
-        <v>24735</v>
+        <v>26181</v>
       </c>
       <c r="AW91" s="11">
-        <v>26181</v>
+        <v>49098</v>
       </c>
       <c r="AX91" s="11">
-        <v>49098</v>
+        <v>23172</v>
       </c>
       <c r="AY91" s="11">
-        <v>23172</v>
+        <v>17901</v>
       </c>
       <c r="AZ91" s="11">
-        <v>17901</v>
+        <v>42798</v>
       </c>
       <c r="BA91" s="11">
-        <v>42798</v>
+        <v>122273</v>
       </c>
       <c r="BB91" s="11">
-        <v>122273</v>
+        <v>68053</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B92" s="12" t="s">
         <v>65</v>
       </c>
@@ -12830,14 +12865,14 @@
       <c r="AE92" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF92" s="13" t="s">
-        <v>58</v>
+      <c r="AF92" s="13">
+        <v>1177</v>
       </c>
       <c r="AG92" s="13">
-        <v>1177</v>
+        <v>17398</v>
       </c>
       <c r="AH92" s="13">
-        <v>17398</v>
+        <v>0</v>
       </c>
       <c r="AI92" s="13">
         <v>0</v>
@@ -12858,49 +12893,49 @@
         <v>0</v>
       </c>
       <c r="AO92" s="13">
-        <v>0</v>
+        <v>21353</v>
       </c>
       <c r="AP92" s="13">
-        <v>21353</v>
+        <v>30220</v>
       </c>
       <c r="AQ92" s="13">
-        <v>30220</v>
+        <v>46680</v>
       </c>
       <c r="AR92" s="13">
-        <v>46680</v>
+        <v>9844</v>
       </c>
       <c r="AS92" s="13">
-        <v>9844</v>
+        <v>12781</v>
       </c>
       <c r="AT92" s="13">
-        <v>12781</v>
+        <v>3890</v>
       </c>
       <c r="AU92" s="13">
-        <v>3890</v>
+        <v>45435</v>
       </c>
       <c r="AV92" s="13">
-        <v>45435</v>
+        <v>17375</v>
       </c>
       <c r="AW92" s="13">
-        <v>17375</v>
+        <v>11173</v>
       </c>
       <c r="AX92" s="13">
-        <v>11173</v>
+        <v>17311</v>
       </c>
       <c r="AY92" s="13">
-        <v>17311</v>
+        <v>11430</v>
       </c>
       <c r="AZ92" s="13">
-        <v>11430</v>
+        <v>9533</v>
       </c>
       <c r="BA92" s="13">
-        <v>9533</v>
+        <v>2900</v>
       </c>
       <c r="BB92" s="13">
-        <v>2900</v>
+        <v>54332</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>66</v>
       </c>
@@ -12989,77 +13024,77 @@
       <c r="AE93" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF93" s="11" t="s">
-        <v>58</v>
+      <c r="AF93" s="11">
+        <v>645</v>
       </c>
       <c r="AG93" s="11">
-        <v>645</v>
+        <v>1719</v>
       </c>
       <c r="AH93" s="11">
-        <v>1719</v>
+        <v>0</v>
       </c>
       <c r="AI93" s="11">
         <v>0</v>
       </c>
       <c r="AJ93" s="11">
-        <v>0</v>
+        <v>1523</v>
       </c>
       <c r="AK93" s="11">
-        <v>1523</v>
+        <v>336</v>
       </c>
       <c r="AL93" s="11">
-        <v>336</v>
+        <v>46475</v>
       </c>
       <c r="AM93" s="11">
-        <v>46475</v>
+        <v>91274</v>
       </c>
       <c r="AN93" s="11">
-        <v>91274</v>
+        <v>62623</v>
       </c>
       <c r="AO93" s="11">
-        <v>62623</v>
+        <v>75018</v>
       </c>
       <c r="AP93" s="11">
-        <v>75018</v>
+        <v>56545</v>
       </c>
       <c r="AQ93" s="11">
-        <v>56545</v>
+        <v>10701</v>
       </c>
       <c r="AR93" s="11">
-        <v>10701</v>
+        <v>16</v>
       </c>
       <c r="AS93" s="11">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="AT93" s="11">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="AU93" s="11">
-        <v>254</v>
+        <v>10086</v>
       </c>
       <c r="AV93" s="11">
-        <v>10086</v>
+        <v>4158</v>
       </c>
       <c r="AW93" s="11">
-        <v>4158</v>
+        <v>23238</v>
       </c>
       <c r="AX93" s="11">
-        <v>23238</v>
+        <v>5789</v>
       </c>
       <c r="AY93" s="11">
-        <v>5789</v>
+        <v>9935</v>
       </c>
       <c r="AZ93" s="11">
-        <v>9935</v>
+        <v>8998</v>
       </c>
       <c r="BA93" s="11">
-        <v>8998</v>
+        <v>61298</v>
       </c>
       <c r="BB93" s="11">
-        <v>61298</v>
+        <v>9673</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>67</v>
       </c>
@@ -13172,53 +13207,53 @@
       <c r="AM94" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN94" s="13" t="s">
-        <v>58</v>
+      <c r="AN94" s="13">
+        <v>58236</v>
       </c>
       <c r="AO94" s="13">
-        <v>58236</v>
+        <v>59344</v>
       </c>
       <c r="AP94" s="13">
-        <v>59344</v>
+        <v>48835</v>
       </c>
       <c r="AQ94" s="13">
-        <v>48835</v>
+        <v>26710</v>
       </c>
       <c r="AR94" s="13">
-        <v>26710</v>
+        <v>42642</v>
       </c>
       <c r="AS94" s="13">
-        <v>42642</v>
+        <v>25062</v>
       </c>
       <c r="AT94" s="13">
-        <v>25062</v>
+        <v>15592</v>
       </c>
       <c r="AU94" s="13">
-        <v>15592</v>
+        <v>31625</v>
       </c>
       <c r="AV94" s="13">
-        <v>31625</v>
+        <v>55558</v>
       </c>
       <c r="AW94" s="13">
-        <v>55558</v>
+        <v>86141</v>
       </c>
       <c r="AX94" s="13">
-        <v>86141</v>
+        <v>102480</v>
       </c>
       <c r="AY94" s="13">
-        <v>102480</v>
+        <v>32670</v>
       </c>
       <c r="AZ94" s="13">
-        <v>32670</v>
+        <v>100453</v>
       </c>
       <c r="BA94" s="13">
-        <v>100453</v>
+        <v>11350</v>
       </c>
       <c r="BB94" s="13">
-        <v>11350</v>
+        <v>19008</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>68</v>
       </c>
@@ -13331,8 +13366,8 @@
       <c r="AM95" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN95" s="11" t="s">
-        <v>58</v>
+      <c r="AN95" s="11">
+        <v>0</v>
       </c>
       <c r="AO95" s="11">
         <v>0</v>
@@ -13347,37 +13382,37 @@
         <v>0</v>
       </c>
       <c r="AS95" s="11">
-        <v>0</v>
+        <v>8450</v>
       </c>
       <c r="AT95" s="11">
-        <v>8450</v>
+        <v>0</v>
       </c>
       <c r="AU95" s="11">
-        <v>0</v>
+        <v>2015</v>
       </c>
       <c r="AV95" s="11">
-        <v>2015</v>
+        <v>0</v>
       </c>
       <c r="AW95" s="11">
         <v>0</v>
       </c>
       <c r="AX95" s="11">
-        <v>0</v>
+        <v>6825</v>
       </c>
       <c r="AY95" s="11">
-        <v>6825</v>
+        <v>4485</v>
       </c>
       <c r="AZ95" s="11">
-        <v>4485</v>
+        <v>0</v>
       </c>
       <c r="BA95" s="11">
         <v>0</v>
       </c>
       <c r="BB95" s="11">
-        <v>0</v>
+        <v>4550</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>69</v>
       </c>
@@ -13490,8 +13525,8 @@
       <c r="AM96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN96" s="13" t="s">
-        <v>58</v>
+      <c r="AN96" s="13">
+        <v>0</v>
       </c>
       <c r="AO96" s="13">
         <v>0</v>
@@ -13500,43 +13535,43 @@
         <v>0</v>
       </c>
       <c r="AQ96" s="13">
-        <v>0</v>
+        <v>11604</v>
       </c>
       <c r="AR96" s="13">
-        <v>11604</v>
+        <v>0</v>
       </c>
       <c r="AS96" s="13">
-        <v>0</v>
+        <v>12887</v>
       </c>
       <c r="AT96" s="13">
-        <v>12887</v>
+        <v>7398</v>
       </c>
       <c r="AU96" s="13">
-        <v>7398</v>
+        <v>0</v>
       </c>
       <c r="AV96" s="13">
-        <v>0</v>
+        <v>2288</v>
       </c>
       <c r="AW96" s="13">
-        <v>2288</v>
+        <v>78</v>
       </c>
       <c r="AX96" s="13">
-        <v>78</v>
+        <v>30753</v>
       </c>
       <c r="AY96" s="13">
-        <v>30753</v>
+        <v>18621</v>
       </c>
       <c r="AZ96" s="13">
-        <v>18621</v>
+        <v>89</v>
       </c>
       <c r="BA96" s="13">
-        <v>89</v>
+        <v>19009</v>
       </c>
       <c r="BB96" s="13">
-        <v>19009</v>
+        <v>7699</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>70</v>
       </c>
@@ -13649,26 +13684,26 @@
       <c r="AM97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN97" s="11" t="s">
-        <v>58</v>
+      <c r="AN97" s="11">
+        <v>18953</v>
       </c>
       <c r="AO97" s="11">
-        <v>18953</v>
+        <v>35459</v>
       </c>
       <c r="AP97" s="11">
-        <v>35459</v>
+        <v>70860</v>
       </c>
       <c r="AQ97" s="11">
-        <v>70860</v>
+        <v>0</v>
       </c>
       <c r="AR97" s="11">
         <v>0</v>
       </c>
       <c r="AS97" s="11">
-        <v>0</v>
+        <v>56474</v>
       </c>
       <c r="AT97" s="11">
-        <v>56474</v>
+        <v>0</v>
       </c>
       <c r="AU97" s="11">
         <v>0</v>
@@ -13677,25 +13712,25 @@
         <v>0</v>
       </c>
       <c r="AW97" s="11">
-        <v>0</v>
+        <v>65565</v>
       </c>
       <c r="AX97" s="11">
-        <v>65565</v>
+        <v>9216</v>
       </c>
       <c r="AY97" s="11">
-        <v>9216</v>
+        <v>21956</v>
       </c>
       <c r="AZ97" s="11">
-        <v>21956</v>
+        <v>0</v>
       </c>
       <c r="BA97" s="11">
-        <v>0</v>
+        <v>15900</v>
       </c>
       <c r="BB97" s="11">
-        <v>15900</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>71</v>
       </c>
@@ -13808,8 +13843,8 @@
       <c r="AM98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN98" s="13" t="s">
-        <v>58</v>
+      <c r="AN98" s="13">
+        <v>0</v>
       </c>
       <c r="AO98" s="13">
         <v>0</v>
@@ -13818,34 +13853,34 @@
         <v>0</v>
       </c>
       <c r="AQ98" s="13">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="AR98" s="13">
-        <v>691</v>
+        <v>0</v>
       </c>
       <c r="AS98" s="13">
         <v>0</v>
       </c>
       <c r="AT98" s="13">
-        <v>0</v>
+        <v>4560</v>
       </c>
       <c r="AU98" s="13">
-        <v>4560</v>
+        <v>0</v>
       </c>
       <c r="AV98" s="13">
         <v>0</v>
       </c>
       <c r="AW98" s="13">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="AX98" s="13">
-        <v>864</v>
+        <v>2880</v>
       </c>
       <c r="AY98" s="13">
         <v>2880</v>
       </c>
       <c r="AZ98" s="13">
-        <v>2880</v>
+        <v>0</v>
       </c>
       <c r="BA98" s="13">
         <v>0</v>
@@ -13854,7 +13889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>72</v>
       </c>
@@ -13967,8 +14002,8 @@
       <c r="AM99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN99" s="11" t="s">
-        <v>58</v>
+      <c r="AN99" s="11">
+        <v>0</v>
       </c>
       <c r="AO99" s="11">
         <v>0</v>
@@ -14010,10 +14045,10 @@
         <v>0</v>
       </c>
       <c r="BB99" s="11">
-        <v>0</v>
+        <v>3960</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>73</v>
       </c>
@@ -14135,11 +14170,11 @@
       <c r="AP100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ100" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR100" s="13">
-        <v>0</v>
+      <c r="AQ100" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR100" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS100" s="13" t="s">
         <v>58</v>
@@ -14147,8 +14182,8 @@
       <c r="AT100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU100" s="13" t="s">
-        <v>58</v>
+      <c r="AU100" s="13">
+        <v>0</v>
       </c>
       <c r="AV100" s="13">
         <v>0</v>
@@ -14172,7 +14207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B101" s="14" t="s">
         <v>83</v>
       </c>
@@ -14242,94 +14277,94 @@
         <v>0</v>
       </c>
       <c r="Z101" s="15">
-        <v>0</v>
+        <v>253310</v>
       </c>
       <c r="AA101" s="15">
-        <v>253310</v>
+        <v>220000</v>
       </c>
       <c r="AB101" s="15">
-        <v>220000</v>
+        <v>215650</v>
       </c>
       <c r="AC101" s="15">
-        <v>215650</v>
+        <v>213049</v>
       </c>
       <c r="AD101" s="15">
-        <v>213049</v>
+        <v>209817</v>
       </c>
       <c r="AE101" s="15">
-        <v>209817</v>
+        <v>221387</v>
       </c>
       <c r="AF101" s="15">
-        <v>221387</v>
+        <v>220366</v>
       </c>
       <c r="AG101" s="15">
-        <v>220366</v>
+        <v>173808</v>
       </c>
       <c r="AH101" s="15">
-        <v>173808</v>
+        <v>101763</v>
       </c>
       <c r="AI101" s="15">
-        <v>101763</v>
+        <v>282391</v>
       </c>
       <c r="AJ101" s="15">
-        <v>282391</v>
+        <v>324369</v>
       </c>
       <c r="AK101" s="15">
-        <v>324369</v>
+        <v>350843</v>
       </c>
       <c r="AL101" s="15">
-        <v>350843</v>
+        <v>384055</v>
       </c>
       <c r="AM101" s="15">
-        <v>384055</v>
+        <v>407515</v>
       </c>
       <c r="AN101" s="15">
-        <v>407515</v>
+        <v>420171</v>
       </c>
       <c r="AO101" s="15">
-        <v>420171</v>
+        <v>449046</v>
       </c>
       <c r="AP101" s="15">
-        <v>449046</v>
+        <v>429366</v>
       </c>
       <c r="AQ101" s="15">
-        <v>429366</v>
+        <v>423980</v>
       </c>
       <c r="AR101" s="15">
-        <v>423980</v>
+        <v>321669</v>
       </c>
       <c r="AS101" s="15">
-        <v>321669</v>
+        <v>327902</v>
       </c>
       <c r="AT101" s="15">
-        <v>327902</v>
+        <v>159602</v>
       </c>
       <c r="AU101" s="15">
-        <v>159602</v>
+        <v>359618</v>
       </c>
       <c r="AV101" s="15">
-        <v>359618</v>
+        <v>403854</v>
       </c>
       <c r="AW101" s="15">
-        <v>403854</v>
+        <v>451219</v>
       </c>
       <c r="AX101" s="15">
-        <v>451219</v>
+        <v>452214</v>
       </c>
       <c r="AY101" s="15">
-        <v>452214</v>
+        <v>452457</v>
       </c>
       <c r="AZ101" s="15">
-        <v>452457</v>
+        <v>545533</v>
       </c>
       <c r="BA101" s="15">
-        <v>545533</v>
+        <v>615385</v>
       </c>
       <c r="BB101" s="15">
-        <v>615385</v>
+        <v>1856204</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B102" s="8" t="s">
         <v>91</v>
       </c>
@@ -14386,7 +14421,7 @@
       <c r="BA102" s="9"/>
       <c r="BB102" s="9"/>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>56</v>
       </c>
@@ -14499,12 +14534,12 @@
       <c r="AM103" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN103" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO103" s="11">
+      <c r="AN103" s="11">
         <v>23993</v>
       </c>
+      <c r="AO103" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AP103" s="11" t="s">
         <v>58</v>
       </c>
@@ -14523,14 +14558,14 @@
       <c r="AU103" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV103" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW103" s="11" t="s">
-        <v>58</v>
+      <c r="AV103" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW103" s="11">
+        <v>219</v>
       </c>
       <c r="AX103" s="11">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="AY103" s="11">
         <v>0</v>
@@ -14545,7 +14580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B104" s="12" t="s">
         <v>62</v>
       </c>
@@ -14616,8 +14651,8 @@
       <c r="Y104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z104" s="13" t="s">
-        <v>58</v>
+      <c r="Z104" s="13">
+        <v>0</v>
       </c>
       <c r="AA104" s="13">
         <v>0</v>
@@ -14643,8 +14678,8 @@
       <c r="AH104" s="13">
         <v>0</v>
       </c>
-      <c r="AI104" s="13">
-        <v>0</v>
+      <c r="AI104" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ104" s="13" t="s">
         <v>58</v>
@@ -14704,7 +14739,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>63</v>
       </c>
@@ -14784,11 +14819,11 @@
       <c r="AB105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC105" s="11" t="s">
-        <v>58</v>
+      <c r="AC105" s="11">
+        <v>8400</v>
       </c>
       <c r="AD105" s="11">
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="AE105" s="11">
         <v>0</v>
@@ -14802,8 +14837,8 @@
       <c r="AH105" s="11">
         <v>0</v>
       </c>
-      <c r="AI105" s="11">
-        <v>0</v>
+      <c r="AI105" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ105" s="11" t="s">
         <v>58</v>
@@ -14863,7 +14898,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>70</v>
       </c>
@@ -14979,8 +15014,8 @@
       <c r="AN106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO106" s="13" t="s">
-        <v>58</v>
+      <c r="AO106" s="13">
+        <v>0</v>
       </c>
       <c r="AP106" s="13">
         <v>0</v>
@@ -15000,20 +15035,20 @@
       <c r="AU106" s="13">
         <v>0</v>
       </c>
-      <c r="AV106" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW106" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX106" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY106" s="13" t="s">
-        <v>58</v>
+      <c r="AV106" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW106" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX106" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY106" s="13">
+        <v>18382</v>
       </c>
       <c r="AZ106" s="13">
-        <v>18382</v>
+        <v>0</v>
       </c>
       <c r="BA106" s="13">
         <v>0</v>
@@ -15022,7 +15057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>85</v>
       </c>
@@ -15101,10 +15136,10 @@
         <v>0</v>
       </c>
       <c r="AC107" s="15">
-        <v>0</v>
+        <v>8400</v>
       </c>
       <c r="AD107" s="15">
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="AE107" s="15">
         <v>0</v>
@@ -15134,10 +15169,10 @@
         <v>0</v>
       </c>
       <c r="AN107" s="15">
-        <v>0</v>
+        <v>23993</v>
       </c>
       <c r="AO107" s="15">
-        <v>23993</v>
+        <v>0</v>
       </c>
       <c r="AP107" s="15">
         <v>0</v>
@@ -15161,16 +15196,16 @@
         <v>0</v>
       </c>
       <c r="AW107" s="15">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="AX107" s="15">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="AY107" s="15">
-        <v>0</v>
+        <v>18382</v>
       </c>
       <c r="AZ107" s="15">
-        <v>18382</v>
+        <v>0</v>
       </c>
       <c r="BA107" s="15">
         <v>0</v>
@@ -15179,7 +15214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B108" s="8" t="s">
         <v>92</v>
       </c>
@@ -15236,7 +15271,7 @@
       <c r="BA108" s="9"/>
       <c r="BB108" s="9"/>
     </row>
-    <row r="109" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B109" s="10" t="s">
         <v>78</v>
       </c>
@@ -15355,11 +15390,11 @@
       <c r="AO109" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP109" s="11" t="s">
-        <v>58</v>
+      <c r="AP109" s="11">
+        <v>1326</v>
       </c>
       <c r="AQ109" s="11">
-        <v>1326</v>
+        <v>0</v>
       </c>
       <c r="AR109" s="11">
         <v>0</v>
@@ -15395,7 +15430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B110" s="16" t="s">
         <v>79</v>
       </c>
@@ -15466,8 +15501,8 @@
       <c r="Y110" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Z110" s="17" t="s">
-        <v>58</v>
+      <c r="Z110" s="17">
+        <v>0</v>
       </c>
       <c r="AA110" s="17">
         <v>0</v>
@@ -15515,10 +15550,10 @@
         <v>0</v>
       </c>
       <c r="AP110" s="17">
-        <v>0</v>
+        <v>1326</v>
       </c>
       <c r="AQ110" s="17">
-        <v>1326</v>
+        <v>0</v>
       </c>
       <c r="AR110" s="17">
         <v>0</v>
@@ -15554,7 +15589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B111" s="8" t="s">
         <v>93</v>
       </c>
@@ -15611,7 +15646,7 @@
       <c r="BA111" s="9"/>
       <c r="BB111" s="9"/>
     </row>
-    <row r="112" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B112" s="10" t="s">
         <v>56</v>
       </c>
@@ -15682,8 +15717,8 @@
       <c r="Y112" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z112" s="11" t="s">
-        <v>58</v>
+      <c r="Z112" s="11">
+        <v>0</v>
       </c>
       <c r="AA112" s="11">
         <v>0</v>
@@ -15709,8 +15744,8 @@
       <c r="AH112" s="11">
         <v>0</v>
       </c>
-      <c r="AI112" s="11">
-        <v>0</v>
+      <c r="AI112" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ112" s="11" t="s">
         <v>58</v>
@@ -15718,11 +15753,11 @@
       <c r="AK112" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL112" s="11" t="s">
-        <v>58</v>
+      <c r="AL112" s="11">
+        <v>-3456</v>
       </c>
       <c r="AM112" s="11">
-        <v>-3456</v>
+        <v>0</v>
       </c>
       <c r="AN112" s="11">
         <v>0</v>
@@ -15745,8 +15780,8 @@
       <c r="AT112" s="11">
         <v>0</v>
       </c>
-      <c r="AU112" s="11">
-        <v>0</v>
+      <c r="AU112" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV112" s="11" t="s">
         <v>58</v>
@@ -15754,8 +15789,8 @@
       <c r="AW112" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX112" s="11" t="s">
-        <v>58</v>
+      <c r="AX112" s="11">
+        <v>0</v>
       </c>
       <c r="AY112" s="11">
         <v>0</v>
@@ -15770,7 +15805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B113" s="12" t="s">
         <v>59</v>
       </c>
@@ -15904,23 +15939,23 @@
       <c r="AT113" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU113" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV113" s="13" t="s">
-        <v>58</v>
+      <c r="AU113" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV113" s="13">
+        <v>-3596</v>
       </c>
       <c r="AW113" s="13">
-        <v>-3596</v>
+        <v>0</v>
       </c>
       <c r="AX113" s="13">
         <v>0</v>
       </c>
       <c r="AY113" s="13">
-        <v>0</v>
+        <v>-3623</v>
       </c>
       <c r="AZ113" s="13">
-        <v>-3623</v>
+        <v>0</v>
       </c>
       <c r="BA113" s="13">
         <v>0</v>
@@ -15929,7 +15964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>60</v>
       </c>
@@ -16012,11 +16047,11 @@
       <c r="AC114" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD114" s="11" t="s">
-        <v>58</v>
+      <c r="AD114" s="11">
+        <v>-1056</v>
       </c>
       <c r="AE114" s="11">
-        <v>-1056</v>
+        <v>0</v>
       </c>
       <c r="AF114" s="11">
         <v>0</v>
@@ -16025,11 +16060,11 @@
         <v>0</v>
       </c>
       <c r="AH114" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI114" s="11">
         <v>-992</v>
       </c>
+      <c r="AI114" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ114" s="11" t="s">
         <v>58</v>
       </c>
@@ -16039,11 +16074,11 @@
       <c r="AL114" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM114" s="11" t="s">
-        <v>58</v>
+      <c r="AM114" s="11">
+        <v>-1668</v>
       </c>
       <c r="AN114" s="11">
-        <v>-1668</v>
+        <v>0</v>
       </c>
       <c r="AO114" s="11">
         <v>0</v>
@@ -16061,25 +16096,25 @@
         <v>0</v>
       </c>
       <c r="AT114" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU114" s="11">
         <v>-480</v>
       </c>
+      <c r="AU114" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AV114" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AW114" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX114" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY114" s="11" t="s">
-        <v>58</v>
+      <c r="AX114" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY114" s="11">
+        <v>-15225</v>
       </c>
       <c r="AZ114" s="11">
-        <v>-15225</v>
+        <v>0</v>
       </c>
       <c r="BA114" s="11">
         <v>0</v>
@@ -16088,7 +16123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B115" s="12" t="s">
         <v>62</v>
       </c>
@@ -16165,8 +16200,8 @@
       <c r="AA115" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB115" s="13" t="s">
-        <v>58</v>
+      <c r="AB115" s="13">
+        <v>0</v>
       </c>
       <c r="AC115" s="13">
         <v>0</v>
@@ -16186,8 +16221,8 @@
       <c r="AH115" s="13">
         <v>0</v>
       </c>
-      <c r="AI115" s="13">
-        <v>0</v>
+      <c r="AI115" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ115" s="13" t="s">
         <v>58</v>
@@ -16216,14 +16251,14 @@
       <c r="AR115" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS115" s="13" t="s">
-        <v>58</v>
+      <c r="AS115" s="13">
+        <v>-194</v>
       </c>
       <c r="AT115" s="13">
-        <v>-194</v>
-      </c>
-      <c r="AU115" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AU115" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV115" s="13" t="s">
         <v>58</v>
@@ -16247,7 +16282,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>64</v>
       </c>
@@ -16354,14 +16389,14 @@
       <c r="AK116" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL116" s="11" t="s">
-        <v>58</v>
+      <c r="AL116" s="11">
+        <v>-100</v>
       </c>
       <c r="AM116" s="11">
-        <v>-100</v>
+        <v>-520</v>
       </c>
       <c r="AN116" s="11">
-        <v>-520</v>
+        <v>0</v>
       </c>
       <c r="AO116" s="11">
         <v>0</v>
@@ -16381,8 +16416,8 @@
       <c r="AT116" s="11">
         <v>0</v>
       </c>
-      <c r="AU116" s="11">
-        <v>0</v>
+      <c r="AU116" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV116" s="11" t="s">
         <v>58</v>
@@ -16390,8 +16425,8 @@
       <c r="AW116" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX116" s="11" t="s">
-        <v>58</v>
+      <c r="AX116" s="11">
+        <v>0</v>
       </c>
       <c r="AY116" s="11">
         <v>0</v>
@@ -16406,7 +16441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B117" s="12" t="s">
         <v>66</v>
       </c>
@@ -16513,11 +16548,11 @@
       <c r="AK117" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL117" s="13" t="s">
-        <v>58</v>
+      <c r="AL117" s="13">
+        <v>-542</v>
       </c>
       <c r="AM117" s="13">
-        <v>-542</v>
+        <v>0</v>
       </c>
       <c r="AN117" s="13">
         <v>0</v>
@@ -16532,31 +16567,31 @@
         <v>0</v>
       </c>
       <c r="AR117" s="13">
-        <v>0</v>
+        <v>-630</v>
       </c>
       <c r="AS117" s="13">
-        <v>-630</v>
+        <v>0</v>
       </c>
       <c r="AT117" s="13">
         <v>0</v>
       </c>
-      <c r="AU117" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV117" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW117" s="13" t="s">
-        <v>58</v>
+      <c r="AU117" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV117" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW117" s="13">
+        <v>-901</v>
       </c>
       <c r="AX117" s="13">
-        <v>-901</v>
+        <v>0</v>
       </c>
       <c r="AY117" s="13">
-        <v>0</v>
+        <v>-73</v>
       </c>
       <c r="AZ117" s="13">
-        <v>-73</v>
+        <v>0</v>
       </c>
       <c r="BA117" s="13">
         <v>0</v>
@@ -16565,7 +16600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B118" s="14" t="s">
         <v>87</v>
       </c>
@@ -16636,8 +16671,8 @@
       <c r="Y118" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z118" s="15" t="s">
-        <v>58</v>
+      <c r="Z118" s="15">
+        <v>0</v>
       </c>
       <c r="AA118" s="15">
         <v>0</v>
@@ -16649,10 +16684,10 @@
         <v>0</v>
       </c>
       <c r="AD118" s="15">
-        <v>0</v>
+        <v>-1056</v>
       </c>
       <c r="AE118" s="15">
-        <v>-1056</v>
+        <v>0</v>
       </c>
       <c r="AF118" s="15">
         <v>0</v>
@@ -16661,10 +16696,10 @@
         <v>0</v>
       </c>
       <c r="AH118" s="15">
-        <v>0</v>
+        <v>-992</v>
       </c>
       <c r="AI118" s="15">
-        <v>-992</v>
+        <v>0</v>
       </c>
       <c r="AJ118" s="15">
         <v>0</v>
@@ -16673,13 +16708,13 @@
         <v>0</v>
       </c>
       <c r="AL118" s="15">
-        <v>0</v>
+        <v>-4098</v>
       </c>
       <c r="AM118" s="15">
-        <v>-4098</v>
+        <v>-2188</v>
       </c>
       <c r="AN118" s="15">
-        <v>-2188</v>
+        <v>0</v>
       </c>
       <c r="AO118" s="15">
         <v>0</v>
@@ -16691,31 +16726,31 @@
         <v>0</v>
       </c>
       <c r="AR118" s="15">
-        <v>0</v>
+        <v>-630</v>
       </c>
       <c r="AS118" s="15">
-        <v>-630</v>
+        <v>-194</v>
       </c>
       <c r="AT118" s="15">
-        <v>-194</v>
+        <v>-480</v>
       </c>
       <c r="AU118" s="15">
-        <v>-480</v>
+        <v>0</v>
       </c>
       <c r="AV118" s="15">
-        <v>0</v>
+        <v>-3596</v>
       </c>
       <c r="AW118" s="15">
-        <v>-3596</v>
+        <v>-901</v>
       </c>
       <c r="AX118" s="15">
-        <v>-901</v>
+        <v>0</v>
       </c>
       <c r="AY118" s="15">
-        <v>0</v>
+        <v>-18921</v>
       </c>
       <c r="AZ118" s="15">
-        <v>-18921</v>
+        <v>0</v>
       </c>
       <c r="BA118" s="15">
         <v>0</v>
@@ -16724,7 +16759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>94</v>
       </c>
@@ -16781,7 +16816,7 @@
       <c r="BA119" s="9"/>
       <c r="BB119" s="9"/>
     </row>
-    <row r="120" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>95</v>
       </c>
@@ -16852,8 +16887,8 @@
       <c r="Y120" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z120" s="11" t="s">
-        <v>58</v>
+      <c r="Z120" s="11">
+        <v>0</v>
       </c>
       <c r="AA120" s="11">
         <v>0</v>
@@ -16940,7 +16975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B121" s="16" t="s">
         <v>80</v>
       </c>
@@ -17010,94 +17045,94 @@
         <v>0</v>
       </c>
       <c r="Z121" s="17">
-        <v>0</v>
+        <v>253310</v>
       </c>
       <c r="AA121" s="17">
-        <v>253310</v>
+        <v>220000</v>
       </c>
       <c r="AB121" s="17">
-        <v>220000</v>
+        <v>215650</v>
       </c>
       <c r="AC121" s="17">
-        <v>215650</v>
+        <v>221449</v>
       </c>
       <c r="AD121" s="17">
-        <v>221449</v>
+        <v>208761</v>
       </c>
       <c r="AE121" s="17">
-        <v>208761</v>
+        <v>221387</v>
       </c>
       <c r="AF121" s="17">
-        <v>221387</v>
+        <v>220366</v>
       </c>
       <c r="AG121" s="17">
-        <v>220366</v>
+        <v>173808</v>
       </c>
       <c r="AH121" s="17">
-        <v>173808</v>
+        <v>100771</v>
       </c>
       <c r="AI121" s="17">
-        <v>100771</v>
+        <v>282391</v>
       </c>
       <c r="AJ121" s="17">
-        <v>282391</v>
+        <v>324369</v>
       </c>
       <c r="AK121" s="17">
-        <v>324369</v>
+        <v>350843</v>
       </c>
       <c r="AL121" s="17">
-        <v>350843</v>
+        <v>379957</v>
       </c>
       <c r="AM121" s="17">
-        <v>379957</v>
+        <v>405327</v>
       </c>
       <c r="AN121" s="17">
-        <v>405327</v>
+        <v>444164</v>
       </c>
       <c r="AO121" s="17">
-        <v>444164</v>
+        <v>449046</v>
       </c>
       <c r="AP121" s="17">
-        <v>449046</v>
+        <v>430692</v>
       </c>
       <c r="AQ121" s="17">
-        <v>430692</v>
+        <v>423980</v>
       </c>
       <c r="AR121" s="17">
-        <v>423980</v>
+        <v>321039</v>
       </c>
       <c r="AS121" s="17">
-        <v>321039</v>
+        <v>327708</v>
       </c>
       <c r="AT121" s="17">
-        <v>327708</v>
+        <v>159122</v>
       </c>
       <c r="AU121" s="17">
-        <v>159122</v>
+        <v>359618</v>
       </c>
       <c r="AV121" s="17">
-        <v>359618</v>
+        <v>400258</v>
       </c>
       <c r="AW121" s="17">
-        <v>400258</v>
+        <v>450537</v>
       </c>
       <c r="AX121" s="17">
-        <v>450537</v>
+        <v>452214</v>
       </c>
       <c r="AY121" s="17">
-        <v>452214</v>
+        <v>451918</v>
       </c>
       <c r="AZ121" s="17">
-        <v>451918</v>
+        <v>545533</v>
       </c>
       <c r="BA121" s="17">
-        <v>545533</v>
+        <v>615385</v>
       </c>
       <c r="BB121" s="17">
-        <v>615385</v>
+        <v>1856204</v>
       </c>
     </row>
-    <row r="122" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -17152,7 +17187,7 @@
       <c r="BA122" s="1"/>
       <c r="BB122" s="1"/>
     </row>
-    <row r="123" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -17207,7 +17242,7 @@
       <c r="BA123" s="1"/>
       <c r="BB123" s="1"/>
     </row>
-    <row r="124" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -17262,7 +17297,7 @@
       <c r="BA124" s="1"/>
       <c r="BB124" s="1"/>
     </row>
-    <row r="125" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
         <v>96</v>
       </c>
@@ -17419,7 +17454,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="126" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -17474,7 +17509,7 @@
       <c r="BA126" s="1"/>
       <c r="BB126" s="1"/>
     </row>
-    <row r="127" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>97</v>
       </c>
@@ -17531,7 +17566,7 @@
       <c r="BA127" s="9"/>
       <c r="BB127" s="9"/>
     </row>
-    <row r="128" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>56</v>
       </c>
@@ -17602,95 +17637,95 @@
       <c r="Y128" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z128" s="11" t="s">
-        <v>58</v>
+      <c r="Z128" s="11">
+        <v>3964396</v>
       </c>
       <c r="AA128" s="11">
-        <v>3964396</v>
+        <v>4084078</v>
       </c>
       <c r="AB128" s="11">
-        <v>4084078</v>
+        <v>4199450</v>
       </c>
       <c r="AC128" s="11">
-        <v>4199450</v>
+        <v>4849741</v>
       </c>
       <c r="AD128" s="11">
-        <v>4849741</v>
+        <v>5404830</v>
       </c>
       <c r="AE128" s="11">
-        <v>5404830</v>
+        <v>5082849</v>
       </c>
       <c r="AF128" s="11">
-        <v>5082849</v>
+        <v>4999044</v>
       </c>
       <c r="AG128" s="11">
-        <v>4999044</v>
-      </c>
-      <c r="AH128" s="11">
         <v>5501946</v>
       </c>
-      <c r="AI128" s="11" t="s">
-        <v>58</v>
+      <c r="AH128" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI128" s="11">
+        <v>4448388</v>
       </c>
       <c r="AJ128" s="11">
-        <v>4448388</v>
+        <v>6000380</v>
       </c>
       <c r="AK128" s="11">
-        <v>6000380</v>
+        <v>6000000</v>
       </c>
       <c r="AL128" s="11">
+        <v>5934452</v>
+      </c>
+      <c r="AM128" s="11">
+        <v>5490863</v>
+      </c>
+      <c r="AN128" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO128" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP128" s="11">
+        <v>5749232</v>
+      </c>
+      <c r="AQ128" s="11">
+        <v>5879889</v>
+      </c>
+      <c r="AR128" s="11">
+        <v>5625737</v>
+      </c>
+      <c r="AS128" s="11">
+        <v>5527167</v>
+      </c>
+      <c r="AT128" s="11">
+        <v>7000000</v>
+      </c>
+      <c r="AU128" s="11">
+        <v>6273764</v>
+      </c>
+      <c r="AV128" s="11">
+        <v>6416496</v>
+      </c>
+      <c r="AW128" s="11">
+        <v>6744094</v>
+      </c>
+      <c r="AX128" s="11">
+        <v>6548980</v>
+      </c>
+      <c r="AY128" s="11">
+        <v>7459488</v>
+      </c>
+      <c r="AZ128" s="11">
         <v>6000000</v>
       </c>
-      <c r="AM128" s="11">
-        <v>5934452</v>
-      </c>
-      <c r="AN128" s="11">
-        <v>5490863</v>
-      </c>
-      <c r="AO128" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP128" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ128" s="11">
-        <v>5749232</v>
-      </c>
-      <c r="AR128" s="11">
-        <v>5879889</v>
-      </c>
-      <c r="AS128" s="11">
-        <v>5625737</v>
-      </c>
-      <c r="AT128" s="11">
-        <v>5527167</v>
-      </c>
-      <c r="AU128" s="11">
-        <v>7000000</v>
-      </c>
-      <c r="AV128" s="11">
-        <v>6273764</v>
-      </c>
-      <c r="AW128" s="11">
-        <v>6416496</v>
-      </c>
-      <c r="AX128" s="11">
-        <v>6744094</v>
-      </c>
-      <c r="AY128" s="11">
-        <v>6548980</v>
-      </c>
-      <c r="AZ128" s="11">
-        <v>7459488</v>
-      </c>
       <c r="BA128" s="11">
-        <v>6000000</v>
+        <v>7007386</v>
       </c>
       <c r="BB128" s="11">
-        <v>7007386</v>
+        <v>6986919</v>
       </c>
     </row>
-    <row r="129" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B129" s="12" t="s">
         <v>59</v>
       </c>
@@ -17761,95 +17796,95 @@
       <c r="Y129" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z129" s="13" t="s">
-        <v>58</v>
+      <c r="Z129" s="13">
+        <v>2370167</v>
       </c>
       <c r="AA129" s="13">
-        <v>2370167</v>
+        <v>1764059</v>
       </c>
       <c r="AB129" s="13">
-        <v>1764059</v>
+        <v>1965344</v>
       </c>
       <c r="AC129" s="13">
-        <v>1965344</v>
+        <v>3468737</v>
       </c>
       <c r="AD129" s="13">
-        <v>3468737</v>
+        <v>2343713</v>
       </c>
       <c r="AE129" s="13">
-        <v>2343713</v>
+        <v>2598895</v>
       </c>
       <c r="AF129" s="13">
-        <v>2598895</v>
+        <v>3272920</v>
       </c>
       <c r="AG129" s="13">
-        <v>3272920</v>
+        <v>3686536</v>
       </c>
       <c r="AH129" s="13">
-        <v>3686536</v>
-      </c>
-      <c r="AI129" s="13">
         <v>9613872</v>
       </c>
-      <c r="AJ129" s="13" t="s">
-        <v>58</v>
+      <c r="AI129" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ129" s="13">
+        <v>9499804</v>
       </c>
       <c r="AK129" s="13">
-        <v>9499804</v>
+        <v>14959583</v>
       </c>
       <c r="AL129" s="13">
-        <v>14959583</v>
+        <v>8586863</v>
       </c>
       <c r="AM129" s="13">
-        <v>8586863</v>
+        <v>8059984</v>
       </c>
       <c r="AN129" s="13">
-        <v>8059984</v>
+        <v>6945882</v>
       </c>
       <c r="AO129" s="13">
-        <v>6945882</v>
+        <v>8521869</v>
       </c>
       <c r="AP129" s="13">
-        <v>8521869</v>
+        <v>7421734</v>
       </c>
       <c r="AQ129" s="13">
-        <v>7421734</v>
+        <v>7221334</v>
       </c>
       <c r="AR129" s="13">
-        <v>7221334</v>
+        <v>6534422</v>
       </c>
       <c r="AS129" s="13">
-        <v>6534422</v>
+        <v>5827541</v>
       </c>
       <c r="AT129" s="13">
-        <v>5827541</v>
+        <v>16160683</v>
       </c>
       <c r="AU129" s="13">
-        <v>16160683</v>
+        <v>5592846</v>
       </c>
       <c r="AV129" s="13">
-        <v>5592846</v>
+        <v>7592380</v>
       </c>
       <c r="AW129" s="13">
-        <v>7592380</v>
+        <v>6720019</v>
       </c>
       <c r="AX129" s="13">
-        <v>6720019</v>
+        <v>6384809</v>
       </c>
       <c r="AY129" s="13">
-        <v>6384809</v>
+        <v>13546339</v>
       </c>
       <c r="AZ129" s="13">
-        <v>13546339</v>
+        <v>41292703</v>
       </c>
       <c r="BA129" s="13">
-        <v>41292703</v>
+        <v>6458358</v>
       </c>
       <c r="BB129" s="13">
-        <v>6458358</v>
+        <v>13005246</v>
       </c>
     </row>
-    <row r="130" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>60</v>
       </c>
@@ -17920,95 +17955,95 @@
       <c r="Y130" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z130" s="11" t="s">
-        <v>58</v>
+      <c r="Z130" s="11">
+        <v>8820755</v>
       </c>
       <c r="AA130" s="11">
-        <v>8820755</v>
+        <v>8356281</v>
       </c>
       <c r="AB130" s="11">
-        <v>8356281</v>
+        <v>7389861</v>
       </c>
       <c r="AC130" s="11">
-        <v>7389861</v>
+        <v>7006415</v>
       </c>
       <c r="AD130" s="11">
-        <v>7006415</v>
+        <v>5514490</v>
       </c>
       <c r="AE130" s="11">
-        <v>5514490</v>
+        <v>5776905</v>
       </c>
       <c r="AF130" s="11">
-        <v>5776905</v>
+        <v>9547742</v>
       </c>
       <c r="AG130" s="11">
-        <v>9547742</v>
-      </c>
-      <c r="AH130" s="11">
         <v>7500000</v>
       </c>
-      <c r="AI130" s="11" t="s">
-        <v>58</v>
+      <c r="AH130" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI130" s="11">
+        <v>8829659</v>
       </c>
       <c r="AJ130" s="11">
-        <v>8829659</v>
+        <v>11358713</v>
       </c>
       <c r="AK130" s="11">
-        <v>11358713</v>
+        <v>13204909</v>
       </c>
       <c r="AL130" s="11">
-        <v>13204909</v>
+        <v>12662631</v>
       </c>
       <c r="AM130" s="11">
-        <v>12662631</v>
+        <v>3500620</v>
       </c>
       <c r="AN130" s="11">
-        <v>3500620</v>
+        <v>12725960</v>
       </c>
       <c r="AO130" s="11">
-        <v>12725960</v>
+        <v>11947568</v>
       </c>
       <c r="AP130" s="11">
-        <v>11947568</v>
+        <v>12000000</v>
       </c>
       <c r="AQ130" s="11">
-        <v>12000000</v>
+        <v>11601440</v>
       </c>
       <c r="AR130" s="11">
-        <v>11601440</v>
+        <v>8796754</v>
       </c>
       <c r="AS130" s="11">
-        <v>8796754</v>
+        <v>14936325</v>
       </c>
       <c r="AT130" s="11">
-        <v>14936325</v>
+        <v>12003358</v>
       </c>
       <c r="AU130" s="11">
-        <v>12003358</v>
+        <v>10812745</v>
       </c>
       <c r="AV130" s="11">
-        <v>10812745</v>
+        <v>18418057</v>
       </c>
       <c r="AW130" s="11">
-        <v>18418057</v>
+        <v>10204104</v>
       </c>
       <c r="AX130" s="11">
-        <v>10204104</v>
+        <v>13521369</v>
       </c>
       <c r="AY130" s="11">
-        <v>13521369</v>
+        <v>21799961</v>
       </c>
       <c r="AZ130" s="11">
-        <v>21799961</v>
+        <v>10173585</v>
       </c>
       <c r="BA130" s="11">
-        <v>10173585</v>
+        <v>21341072</v>
       </c>
       <c r="BB130" s="11">
-        <v>21341072</v>
+        <v>27979601</v>
       </c>
     </row>
-    <row r="131" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B131" s="12" t="s">
         <v>62</v>
       </c>
@@ -18079,95 +18114,95 @@
       <c r="Y131" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z131" s="13" t="s">
-        <v>58</v>
+      <c r="Z131" s="13">
+        <v>11775604</v>
       </c>
       <c r="AA131" s="13">
-        <v>11775604</v>
+        <v>10925476</v>
       </c>
       <c r="AB131" s="13">
-        <v>10925476</v>
+        <v>9790797</v>
       </c>
       <c r="AC131" s="13">
-        <v>9790797</v>
+        <v>7499792</v>
       </c>
       <c r="AD131" s="13">
-        <v>7499792</v>
+        <v>13166398</v>
       </c>
       <c r="AE131" s="13">
-        <v>13166398</v>
+        <v>10591549</v>
       </c>
       <c r="AF131" s="13">
-        <v>10591549</v>
+        <v>9500697</v>
       </c>
       <c r="AG131" s="13">
-        <v>9500697</v>
+        <v>9544392</v>
       </c>
       <c r="AH131" s="13">
-        <v>9544392</v>
+        <v>10280517</v>
       </c>
       <c r="AI131" s="13">
-        <v>10280517</v>
+        <v>11394538</v>
       </c>
       <c r="AJ131" s="13">
-        <v>11394538</v>
+        <v>12269849</v>
       </c>
       <c r="AK131" s="13">
-        <v>12269849</v>
+        <v>13525741</v>
       </c>
       <c r="AL131" s="13">
-        <v>13525741</v>
+        <v>12292848</v>
       </c>
       <c r="AM131" s="13">
-        <v>12292848</v>
+        <v>15508685</v>
       </c>
       <c r="AN131" s="13">
-        <v>15508685</v>
+        <v>15509898</v>
       </c>
       <c r="AO131" s="13">
-        <v>15509898</v>
+        <v>15718146</v>
       </c>
       <c r="AP131" s="13">
-        <v>15718146</v>
+        <v>15155312</v>
       </c>
       <c r="AQ131" s="13">
-        <v>15155312</v>
+        <v>16000000</v>
       </c>
       <c r="AR131" s="13">
-        <v>16000000</v>
+        <v>15756076</v>
       </c>
       <c r="AS131" s="13">
-        <v>15756076</v>
+        <v>15498565</v>
       </c>
       <c r="AT131" s="13">
-        <v>15498565</v>
+        <v>15803191</v>
       </c>
       <c r="AU131" s="13">
-        <v>15803191</v>
+        <v>15859581</v>
       </c>
       <c r="AV131" s="13">
-        <v>15859581</v>
+        <v>15958984</v>
       </c>
       <c r="AW131" s="13">
-        <v>15958984</v>
+        <v>16299487</v>
       </c>
       <c r="AX131" s="13">
-        <v>16299487</v>
+        <v>15099906</v>
       </c>
       <c r="AY131" s="13">
-        <v>15099906</v>
-      </c>
-      <c r="AZ131" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AZ131" s="13">
+        <v>42709683</v>
       </c>
       <c r="BA131" s="13">
-        <v>42709683</v>
+        <v>46374246</v>
       </c>
       <c r="BB131" s="13">
-        <v>46374246</v>
+        <v>47214940</v>
       </c>
     </row>
-    <row r="132" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>63</v>
       </c>
@@ -18238,51 +18273,51 @@
       <c r="Y132" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z132" s="11" t="s">
-        <v>58</v>
+      <c r="Z132" s="11">
+        <v>4356750</v>
       </c>
       <c r="AA132" s="11">
-        <v>4356750</v>
+        <v>3630233</v>
       </c>
       <c r="AB132" s="11">
-        <v>3630233</v>
+        <v>4715747</v>
       </c>
       <c r="AC132" s="11">
-        <v>4715747</v>
+        <v>4712774</v>
       </c>
       <c r="AD132" s="11">
-        <v>4712774</v>
+        <v>6509610</v>
       </c>
       <c r="AE132" s="11">
-        <v>6509610</v>
+        <v>5066247</v>
       </c>
       <c r="AF132" s="11">
-        <v>5066247</v>
+        <v>3275449</v>
       </c>
       <c r="AG132" s="11">
-        <v>3275449</v>
+        <v>4858104</v>
       </c>
       <c r="AH132" s="11">
-        <v>4858104</v>
+        <v>8992667</v>
       </c>
       <c r="AI132" s="11">
-        <v>8992667</v>
+        <v>7076734</v>
       </c>
       <c r="AJ132" s="11">
-        <v>7076734</v>
+        <v>3409255</v>
       </c>
       <c r="AK132" s="11">
-        <v>3409255</v>
+        <v>5246130</v>
       </c>
       <c r="AL132" s="11">
-        <v>5246130</v>
+        <v>5880746</v>
       </c>
       <c r="AM132" s="11">
-        <v>5880746</v>
-      </c>
-      <c r="AN132" s="11">
         <v>5792905</v>
       </c>
+      <c r="AN132" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AO132" s="11" t="s">
         <v>58</v>
       </c>
@@ -18326,7 +18361,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="133" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B133" s="12" t="s">
         <v>64</v>
       </c>
@@ -18415,77 +18450,77 @@
       <c r="AE133" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF133" s="13" t="s">
-        <v>58</v>
+      <c r="AF133" s="13">
+        <v>101410256</v>
       </c>
       <c r="AG133" s="13">
-        <v>101410256</v>
+        <v>4000000</v>
       </c>
       <c r="AH133" s="13">
-        <v>4000000</v>
+        <v>99900000</v>
       </c>
       <c r="AI133" s="13">
-        <v>99900000</v>
+        <v>102500000</v>
       </c>
       <c r="AJ133" s="13">
-        <v>102500000</v>
+        <v>5415929</v>
       </c>
       <c r="AK133" s="13">
-        <v>5415929</v>
-      </c>
-      <c r="AL133" s="13">
         <v>5819102</v>
       </c>
-      <c r="AM133" s="13" t="s">
-        <v>58</v>
+      <c r="AL133" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM133" s="13">
+        <v>14402985</v>
       </c>
       <c r="AN133" s="13">
-        <v>14402985</v>
-      </c>
-      <c r="AO133" s="13">
         <v>9298117</v>
       </c>
+      <c r="AO133" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AP133" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ133" s="13" t="s">
-        <v>58</v>
+      <c r="AQ133" s="13">
+        <v>102163934</v>
       </c>
       <c r="AR133" s="13">
-        <v>102163934</v>
+        <v>4516383</v>
       </c>
       <c r="AS133" s="13">
-        <v>4516383</v>
+        <v>6584535</v>
       </c>
       <c r="AT133" s="13">
-        <v>6584535</v>
+        <v>6953459</v>
       </c>
       <c r="AU133" s="13">
-        <v>6953459</v>
+        <v>5442843</v>
       </c>
       <c r="AV133" s="13">
-        <v>5442843</v>
+        <v>11971193</v>
       </c>
       <c r="AW133" s="13">
-        <v>11971193</v>
+        <v>6414685</v>
       </c>
       <c r="AX133" s="13">
-        <v>6414685</v>
+        <v>5131089</v>
       </c>
       <c r="AY133" s="13">
-        <v>5131089</v>
+        <v>688500000</v>
       </c>
       <c r="AZ133" s="13">
-        <v>688500000</v>
+        <v>65490436</v>
       </c>
       <c r="BA133" s="13">
-        <v>65490436</v>
+        <v>11761543</v>
       </c>
       <c r="BB133" s="13">
-        <v>11761543</v>
+        <v>28581688</v>
       </c>
     </row>
-    <row r="134" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>65</v>
       </c>
@@ -18574,15 +18609,15 @@
       <c r="AE134" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF134" s="11" t="s">
-        <v>58</v>
+      <c r="AF134" s="11">
+        <v>8006803</v>
       </c>
       <c r="AG134" s="11">
-        <v>8006803</v>
-      </c>
-      <c r="AH134" s="11">
         <v>48327778</v>
       </c>
+      <c r="AH134" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AI134" s="11" t="s">
         <v>58</v>
       </c>
@@ -18601,50 +18636,50 @@
       <c r="AN134" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO134" s="11" t="s">
-        <v>58</v>
+      <c r="AO134" s="11">
+        <v>56044619</v>
       </c>
       <c r="AP134" s="11">
-        <v>56044619</v>
+        <v>30039761</v>
       </c>
       <c r="AQ134" s="11">
-        <v>30039761</v>
+        <v>43382900</v>
       </c>
       <c r="AR134" s="11">
-        <v>43382900</v>
+        <v>26969863</v>
       </c>
       <c r="AS134" s="11">
-        <v>26969863</v>
+        <v>28529018</v>
       </c>
       <c r="AT134" s="11">
-        <v>28529018</v>
+        <v>29029851</v>
       </c>
       <c r="AU134" s="11">
-        <v>29029851</v>
+        <v>56092593</v>
       </c>
       <c r="AV134" s="11">
-        <v>56092593</v>
+        <v>27405363</v>
       </c>
       <c r="AW134" s="11">
-        <v>27405363</v>
+        <v>85946154</v>
       </c>
       <c r="AX134" s="11">
-        <v>85946154</v>
+        <v>46660377</v>
       </c>
       <c r="AY134" s="11">
-        <v>46660377</v>
+        <v>28152709</v>
       </c>
       <c r="AZ134" s="11">
-        <v>28152709</v>
+        <v>65294521</v>
       </c>
       <c r="BA134" s="11">
-        <v>65294521</v>
+        <v>58000000</v>
       </c>
       <c r="BB134" s="11">
-        <v>58000000</v>
+        <v>58421505</v>
       </c>
     </row>
-    <row r="135" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B135" s="12" t="s">
         <v>66</v>
       </c>
@@ -18733,77 +18768,77 @@
       <c r="AE135" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AF135" s="13" t="s">
-        <v>58</v>
+      <c r="AF135" s="13">
+        <v>129000000</v>
       </c>
       <c r="AG135" s="13">
-        <v>129000000</v>
-      </c>
-      <c r="AH135" s="13">
         <v>573000000</v>
       </c>
+      <c r="AH135" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI135" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ135" s="13" t="s">
-        <v>58</v>
+      <c r="AJ135" s="13">
+        <v>76150000</v>
       </c>
       <c r="AK135" s="13">
-        <v>76150000</v>
+        <v>67200000</v>
       </c>
       <c r="AL135" s="13">
-        <v>67200000</v>
+        <v>35750000</v>
       </c>
       <c r="AM135" s="13">
-        <v>35750000</v>
+        <v>36320732</v>
       </c>
       <c r="AN135" s="13">
-        <v>36320732</v>
+        <v>36282155</v>
       </c>
       <c r="AO135" s="13">
-        <v>36282155</v>
+        <v>36540672</v>
       </c>
       <c r="AP135" s="13">
-        <v>36540672</v>
+        <v>34457648</v>
       </c>
       <c r="AQ135" s="13">
-        <v>34457648</v>
+        <v>34408360</v>
       </c>
       <c r="AR135" s="13">
-        <v>34408360</v>
+        <v>16000000</v>
       </c>
       <c r="AS135" s="13">
-        <v>16000000</v>
+        <v>75000000</v>
       </c>
       <c r="AT135" s="13">
-        <v>75000000</v>
+        <v>101074413</v>
       </c>
       <c r="AU135" s="13">
-        <v>101074413</v>
+        <v>504300000</v>
       </c>
       <c r="AV135" s="13">
-        <v>504300000</v>
+        <v>77000000</v>
       </c>
       <c r="AW135" s="13">
-        <v>77000000</v>
+        <v>35532110</v>
       </c>
       <c r="AX135" s="13">
-        <v>35532110</v>
+        <v>964833333</v>
       </c>
       <c r="AY135" s="13">
-        <v>964833333</v>
+        <v>33145739</v>
       </c>
       <c r="AZ135" s="13">
-        <v>7853755</v>
+        <v>243189189</v>
       </c>
       <c r="BA135" s="13">
-        <v>243189189</v>
+        <v>235761538</v>
       </c>
       <c r="BB135" s="13">
-        <v>235761538</v>
+        <v>92123810</v>
       </c>
     </row>
-    <row r="136" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>67</v>
       </c>
@@ -18916,53 +18951,53 @@
       <c r="AM136" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN136" s="11" t="s">
-        <v>58</v>
+      <c r="AN136" s="11">
+        <v>5142252</v>
       </c>
       <c r="AO136" s="11">
-        <v>5142252</v>
+        <v>8296379</v>
       </c>
       <c r="AP136" s="11">
-        <v>8296379</v>
+        <v>5981017</v>
       </c>
       <c r="AQ136" s="11">
-        <v>5981017</v>
+        <v>5478974</v>
       </c>
       <c r="AR136" s="11">
-        <v>5478974</v>
+        <v>6591745</v>
       </c>
       <c r="AS136" s="11">
-        <v>6591745</v>
+        <v>6120147</v>
       </c>
       <c r="AT136" s="11">
-        <v>6120147</v>
+        <v>4812346</v>
       </c>
       <c r="AU136" s="11">
-        <v>4812346</v>
+        <v>8593750</v>
       </c>
       <c r="AV136" s="11">
-        <v>8593750</v>
+        <v>10872407</v>
       </c>
       <c r="AW136" s="11">
-        <v>10872407</v>
+        <v>8298748</v>
       </c>
       <c r="AX136" s="11">
-        <v>8298748</v>
+        <v>11707986</v>
       </c>
       <c r="AY136" s="11">
-        <v>11707986</v>
+        <v>7383051</v>
       </c>
       <c r="AZ136" s="11">
-        <v>7383051</v>
+        <v>7119277</v>
       </c>
       <c r="BA136" s="11">
-        <v>7119277</v>
+        <v>1739464</v>
       </c>
       <c r="BB136" s="11">
-        <v>1739464</v>
+        <v>2671915</v>
       </c>
     </row>
-    <row r="137" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B137" s="12" t="s">
         <v>68</v>
       </c>
@@ -19090,38 +19125,38 @@
       <c r="AR137" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS137" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT137" s="13">
+      <c r="AS137" s="13">
         <v>1207142857</v>
       </c>
-      <c r="AU137" s="13" t="s">
-        <v>58</v>
+      <c r="AT137" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU137" s="13">
+        <v>1343333333</v>
       </c>
       <c r="AV137" s="13">
-        <v>1343333333</v>
+        <v>0</v>
       </c>
       <c r="AW137" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX137" s="13" t="s">
-        <v>58</v>
+      <c r="AX137" s="13">
+        <v>1365000000</v>
       </c>
       <c r="AY137" s="13">
-        <v>1365000000</v>
+        <v>1495000000</v>
       </c>
       <c r="AZ137" s="13">
-        <v>1495000000</v>
+        <v>0</v>
       </c>
       <c r="BA137" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BB137" s="13" t="s">
-        <v>58</v>
+      <c r="BB137" s="13">
+        <v>1137500000</v>
       </c>
     </row>
-    <row r="138" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B138" s="10" t="s">
         <v>69</v>
       </c>
@@ -19243,44 +19278,44 @@
       <c r="AP138" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ138" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR138" s="11">
+      <c r="AQ138" s="11">
         <v>3187912</v>
       </c>
-      <c r="AS138" s="11" t="s">
-        <v>58</v>
+      <c r="AR138" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS138" s="11">
+        <v>3505713</v>
       </c>
       <c r="AT138" s="11">
-        <v>3505713</v>
-      </c>
-      <c r="AU138" s="11">
         <v>5885442</v>
       </c>
-      <c r="AV138" s="11" t="s">
-        <v>58</v>
+      <c r="AU138" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV138" s="11">
+        <v>143000000</v>
       </c>
       <c r="AW138" s="11">
-        <v>143000000</v>
+        <v>787879</v>
       </c>
       <c r="AX138" s="11">
-        <v>787879</v>
+        <v>5723618</v>
       </c>
       <c r="AY138" s="11">
-        <v>5723618</v>
+        <v>4909307</v>
       </c>
       <c r="AZ138" s="11">
-        <v>4909307</v>
+        <v>1534483</v>
       </c>
       <c r="BA138" s="11">
-        <v>1534483</v>
+        <v>345618182</v>
       </c>
       <c r="BB138" s="11">
-        <v>345618182</v>
+        <v>349954545</v>
       </c>
     </row>
-    <row r="139" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B139" s="12" t="s">
         <v>70</v>
       </c>
@@ -19393,53 +19428,53 @@
       <c r="AM139" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN139" s="13" t="s">
-        <v>58</v>
+      <c r="AN139" s="13">
+        <v>11599143</v>
       </c>
       <c r="AO139" s="13">
-        <v>11599143</v>
+        <v>14993235</v>
       </c>
       <c r="AP139" s="13">
-        <v>14993235</v>
-      </c>
-      <c r="AQ139" s="13">
         <v>15000000</v>
       </c>
+      <c r="AQ139" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AR139" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS139" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT139" s="13">
+      <c r="AS139" s="13">
         <v>14999734</v>
       </c>
+      <c r="AT139" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU139" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AV139" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW139" s="13" t="s">
-        <v>58</v>
+      <c r="AW139" s="13">
+        <v>15000000</v>
       </c>
       <c r="AX139" s="13">
+        <v>15334443</v>
+      </c>
+      <c r="AY139" s="13">
+        <v>15152519</v>
+      </c>
+      <c r="AZ139" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA139" s="13">
+        <v>15142857</v>
+      </c>
+      <c r="BB139" s="13">
         <v>15000000</v>
       </c>
-      <c r="AY139" s="13">
-        <v>15334443</v>
-      </c>
-      <c r="AZ139" s="13">
-        <v>15152519</v>
-      </c>
-      <c r="BA139" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB139" s="13">
-        <v>15142857</v>
-      </c>
     </row>
-    <row r="140" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>71</v>
       </c>
@@ -19561,26 +19596,26 @@
       <c r="AP140" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ140" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR140" s="11">
+      <c r="AQ140" s="11">
         <v>719792</v>
       </c>
+      <c r="AR140" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AS140" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT140" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU140" s="11">
+      <c r="AT140" s="11">
         <v>750000</v>
       </c>
+      <c r="AU140" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AV140" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW140" s="11" t="s">
-        <v>58</v>
+      <c r="AW140" s="11">
+        <v>900000</v>
       </c>
       <c r="AX140" s="11">
         <v>900000</v>
@@ -19589,7 +19624,7 @@
         <v>900000</v>
       </c>
       <c r="AZ140" s="11">
-        <v>900000</v>
+        <v>0</v>
       </c>
       <c r="BA140" s="11" t="s">
         <v>58</v>
@@ -19598,753 +19633,912 @@
         <v>58</v>
       </c>
     </row>
-    <row r="141" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B141" s="8" t="s">
+    <row r="141" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B141" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D141" s="13"/>
+      <c r="E141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="M141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="O141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="R141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="V141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="W141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="X141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA141" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB141" s="13">
+        <v>1980000000</v>
+      </c>
+    </row>
+    <row r="142" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B142" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C141" s="9"/>
-      <c r="D141" s="9"/>
-      <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="9"/>
-      <c r="I141" s="9"/>
-      <c r="J141" s="9"/>
-      <c r="K141" s="9"/>
-      <c r="L141" s="9"/>
-      <c r="M141" s="9"/>
-      <c r="N141" s="9"/>
-      <c r="O141" s="9"/>
-      <c r="P141" s="9"/>
-      <c r="Q141" s="9"/>
-      <c r="R141" s="9"/>
-      <c r="S141" s="9"/>
-      <c r="T141" s="9"/>
-      <c r="U141" s="9"/>
-      <c r="V141" s="9"/>
-      <c r="W141" s="9"/>
-      <c r="X141" s="9"/>
-      <c r="Y141" s="9"/>
-      <c r="Z141" s="9"/>
-      <c r="AA141" s="9"/>
-      <c r="AB141" s="9"/>
-      <c r="AC141" s="9"/>
-      <c r="AD141" s="9"/>
-      <c r="AE141" s="9"/>
-      <c r="AF141" s="9"/>
-      <c r="AG141" s="9"/>
-      <c r="AH141" s="9"/>
-      <c r="AI141" s="9"/>
-      <c r="AJ141" s="9"/>
-      <c r="AK141" s="9"/>
-      <c r="AL141" s="9"/>
-      <c r="AM141" s="9"/>
-      <c r="AN141" s="9"/>
-      <c r="AO141" s="9"/>
-      <c r="AP141" s="9"/>
-      <c r="AQ141" s="9"/>
-      <c r="AR141" s="9"/>
-      <c r="AS141" s="9"/>
-      <c r="AT141" s="9"/>
-      <c r="AU141" s="9"/>
-      <c r="AV141" s="9"/>
-      <c r="AW141" s="9"/>
-      <c r="AX141" s="9"/>
-      <c r="AY141" s="9"/>
-      <c r="AZ141" s="9"/>
-      <c r="BA141" s="9"/>
-      <c r="BB141" s="9"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="9"/>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
+      <c r="K142" s="9"/>
+      <c r="L142" s="9"/>
+      <c r="M142" s="9"/>
+      <c r="N142" s="9"/>
+      <c r="O142" s="9"/>
+      <c r="P142" s="9"/>
+      <c r="Q142" s="9"/>
+      <c r="R142" s="9"/>
+      <c r="S142" s="9"/>
+      <c r="T142" s="9"/>
+      <c r="U142" s="9"/>
+      <c r="V142" s="9"/>
+      <c r="W142" s="9"/>
+      <c r="X142" s="9"/>
+      <c r="Y142" s="9"/>
+      <c r="Z142" s="9"/>
+      <c r="AA142" s="9"/>
+      <c r="AB142" s="9"/>
+      <c r="AC142" s="9"/>
+      <c r="AD142" s="9"/>
+      <c r="AE142" s="9"/>
+      <c r="AF142" s="9"/>
+      <c r="AG142" s="9"/>
+      <c r="AH142" s="9"/>
+      <c r="AI142" s="9"/>
+      <c r="AJ142" s="9"/>
+      <c r="AK142" s="9"/>
+      <c r="AL142" s="9"/>
+      <c r="AM142" s="9"/>
+      <c r="AN142" s="9"/>
+      <c r="AO142" s="9"/>
+      <c r="AP142" s="9"/>
+      <c r="AQ142" s="9"/>
+      <c r="AR142" s="9"/>
+      <c r="AS142" s="9"/>
+      <c r="AT142" s="9"/>
+      <c r="AU142" s="9"/>
+      <c r="AV142" s="9"/>
+      <c r="AW142" s="9"/>
+      <c r="AX142" s="9"/>
+      <c r="AY142" s="9"/>
+      <c r="AZ142" s="9"/>
+      <c r="BA142" s="9"/>
+      <c r="BB142" s="9"/>
     </row>
-    <row r="142" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B142" s="10" t="s">
+    <row r="143" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B143" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C142" s="11" t="s">
+      <c r="C143" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D142" s="11"/>
-      <c r="E142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="N142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="O142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="P142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="R142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="T142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO142" s="11">
+      <c r="D143" s="11"/>
+      <c r="E143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="N143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="P143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="R143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="S143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="T143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="V143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="W143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="X143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN143" s="11">
         <v>4999583</v>
       </c>
-      <c r="AP142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX142" s="11">
+      <c r="AO143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW143" s="11">
         <v>8760000</v>
       </c>
-      <c r="AY142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA142" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB142" s="11" t="s">
+      <c r="AX143" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY143" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ143" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB143" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="143" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B143" s="12" t="s">
+    <row r="144" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B144" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C143" s="13" t="s">
+      <c r="C144" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="D143" s="13"/>
-      <c r="E143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="G143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="J143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="K143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="L143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="M143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="N143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="O143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="P143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="R143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="S143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="T143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD143" s="13">
+      <c r="D144" s="13"/>
+      <c r="E144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="K144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="M144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="N144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="O144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="R144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="S144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="T144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="V144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="W144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="X144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC144" s="13">
         <v>8400000</v>
       </c>
-      <c r="AE143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA143" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB143" s="13" t="s">
+      <c r="AD144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB144" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="144" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B144" s="10" t="s">
+    <row r="145" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B145" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C144" s="11" t="s">
+      <c r="C145" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D144" s="11"/>
-      <c r="E144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="N144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="O144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="P144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="R144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="T144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ144" s="11">
+      <c r="D145" s="11"/>
+      <c r="E145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="N145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="P145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="R145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="S145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="T145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="V145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="W145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="X145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY145" s="11">
         <v>10812941</v>
       </c>
-      <c r="BA144" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB144" s="11" t="s">
+      <c r="AZ145" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB145" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="145" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B145" s="8" t="s">
+    <row r="146" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B146" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="9"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="9"/>
-      <c r="I145" s="9"/>
-      <c r="J145" s="9"/>
-      <c r="K145" s="9"/>
-      <c r="L145" s="9"/>
-      <c r="M145" s="9"/>
-      <c r="N145" s="9"/>
-      <c r="O145" s="9"/>
-      <c r="P145" s="9"/>
-      <c r="Q145" s="9"/>
-      <c r="R145" s="9"/>
-      <c r="S145" s="9"/>
-      <c r="T145" s="9"/>
-      <c r="U145" s="9"/>
-      <c r="V145" s="9"/>
-      <c r="W145" s="9"/>
-      <c r="X145" s="9"/>
-      <c r="Y145" s="9"/>
-      <c r="Z145" s="9"/>
-      <c r="AA145" s="9"/>
-      <c r="AB145" s="9"/>
-      <c r="AC145" s="9"/>
-      <c r="AD145" s="9"/>
-      <c r="AE145" s="9"/>
-      <c r="AF145" s="9"/>
-      <c r="AG145" s="9"/>
-      <c r="AH145" s="9"/>
-      <c r="AI145" s="9"/>
-      <c r="AJ145" s="9"/>
-      <c r="AK145" s="9"/>
-      <c r="AL145" s="9"/>
-      <c r="AM145" s="9"/>
-      <c r="AN145" s="9"/>
-      <c r="AO145" s="9"/>
-      <c r="AP145" s="9"/>
-      <c r="AQ145" s="9"/>
-      <c r="AR145" s="9"/>
-      <c r="AS145" s="9"/>
-      <c r="AT145" s="9"/>
-      <c r="AU145" s="9"/>
-      <c r="AV145" s="9"/>
-      <c r="AW145" s="9"/>
-      <c r="AX145" s="9"/>
-      <c r="AY145" s="9"/>
-      <c r="AZ145" s="9"/>
-      <c r="BA145" s="9"/>
-      <c r="BB145" s="9"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="9"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="9"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="9"/>
+      <c r="K146" s="9"/>
+      <c r="L146" s="9"/>
+      <c r="M146" s="9"/>
+      <c r="N146" s="9"/>
+      <c r="O146" s="9"/>
+      <c r="P146" s="9"/>
+      <c r="Q146" s="9"/>
+      <c r="R146" s="9"/>
+      <c r="S146" s="9"/>
+      <c r="T146" s="9"/>
+      <c r="U146" s="9"/>
+      <c r="V146" s="9"/>
+      <c r="W146" s="9"/>
+      <c r="X146" s="9"/>
+      <c r="Y146" s="9"/>
+      <c r="Z146" s="9"/>
+      <c r="AA146" s="9"/>
+      <c r="AB146" s="9"/>
+      <c r="AC146" s="9"/>
+      <c r="AD146" s="9"/>
+      <c r="AE146" s="9"/>
+      <c r="AF146" s="9"/>
+      <c r="AG146" s="9"/>
+      <c r="AH146" s="9"/>
+      <c r="AI146" s="9"/>
+      <c r="AJ146" s="9"/>
+      <c r="AK146" s="9"/>
+      <c r="AL146" s="9"/>
+      <c r="AM146" s="9"/>
+      <c r="AN146" s="9"/>
+      <c r="AO146" s="9"/>
+      <c r="AP146" s="9"/>
+      <c r="AQ146" s="9"/>
+      <c r="AR146" s="9"/>
+      <c r="AS146" s="9"/>
+      <c r="AT146" s="9"/>
+      <c r="AU146" s="9"/>
+      <c r="AV146" s="9"/>
+      <c r="AW146" s="9"/>
+      <c r="AX146" s="9"/>
+      <c r="AY146" s="9"/>
+      <c r="AZ146" s="9"/>
+      <c r="BA146" s="9"/>
+      <c r="BB146" s="9"/>
     </row>
-    <row r="146" spans="2:54" x14ac:dyDescent="0.25">
-      <c r="B146" s="10" t="s">
+    <row r="147" spans="2:54" x14ac:dyDescent="0.3">
+      <c r="B147" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C146" s="11" t="s">
+      <c r="C147" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D146" s="11"/>
-      <c r="E146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="J146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="K146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="M146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="N146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="O146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="P146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="R146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="S146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="T146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="U146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="V146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="W146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP146" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ146" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR146" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS146" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT146" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU146" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV146" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW146" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX146" s="11">
-        <v>0</v>
-      </c>
-      <c r="AY146" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ146" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA146" s="11">
-        <v>0</v>
-      </c>
-      <c r="BB146" s="11">
+      <c r="D147" s="11"/>
+      <c r="E147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="L147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="N147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="O147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="P147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="R147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="S147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="T147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="V147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="W147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="X147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO147" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP147" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ147" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR147" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS147" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT147" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU147" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV147" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW147" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX147" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY147" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ147" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA147" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB147" s="11">
         <v>0</v>
       </c>
     </row>

--- a/database/industries/darou/deshimi/product/monthly_seprated.xlsx
+++ b/database/industries/darou/deshimi/product/monthly_seprated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\deshimi\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D79579D-0F76-4B47-8AF1-8A6055DC7EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE80FC0B-CE51-4603-9A35-BCB9C19454C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3770" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3687" uniqueCount="102">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دشیمی-شیمی‌ داروئی‌ داروپخش‌</t>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1537,95 +1537,95 @@
       <c r="X11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
+      <c r="Y11" s="11">
+        <v>2279</v>
       </c>
       <c r="Z11" s="11">
-        <v>2279</v>
+        <v>772</v>
       </c>
       <c r="AA11" s="11">
-        <v>772</v>
+        <v>1872</v>
       </c>
       <c r="AB11" s="11">
-        <v>1872</v>
+        <v>2158</v>
       </c>
       <c r="AC11" s="11">
-        <v>2158</v>
+        <v>566</v>
       </c>
       <c r="AD11" s="11">
-        <v>566</v>
+        <v>2302</v>
       </c>
       <c r="AE11" s="11">
-        <v>2302</v>
+        <v>3424</v>
       </c>
       <c r="AF11" s="11">
-        <v>3424</v>
+        <v>2891</v>
       </c>
       <c r="AG11" s="11">
-        <v>2891</v>
+        <v>2325</v>
       </c>
       <c r="AH11" s="11">
-        <v>2325</v>
+        <v>3863</v>
       </c>
       <c r="AI11" s="11">
-        <v>3863</v>
+        <v>1446</v>
       </c>
       <c r="AJ11" s="11">
-        <v>1446</v>
+        <v>2513</v>
       </c>
       <c r="AK11" s="11">
-        <v>2513</v>
+        <v>3838</v>
       </c>
       <c r="AL11" s="11">
-        <v>3838</v>
+        <v>3913</v>
       </c>
       <c r="AM11" s="11">
-        <v>3913</v>
+        <v>3634</v>
       </c>
       <c r="AN11" s="11">
-        <v>3634</v>
+        <v>2461</v>
       </c>
       <c r="AO11" s="11">
-        <v>2461</v>
+        <v>4026</v>
       </c>
       <c r="AP11" s="11">
-        <v>4026</v>
+        <v>3649</v>
       </c>
       <c r="AQ11" s="11">
-        <v>3649</v>
+        <v>2859</v>
       </c>
       <c r="AR11" s="11">
-        <v>2859</v>
+        <v>3629</v>
       </c>
       <c r="AS11" s="11">
-        <v>3629</v>
+        <v>4017</v>
       </c>
       <c r="AT11" s="11">
-        <v>4017</v>
+        <v>3643</v>
       </c>
       <c r="AU11" s="11">
-        <v>3643</v>
+        <v>4992</v>
       </c>
       <c r="AV11" s="11">
+        <v>3264</v>
+      </c>
+      <c r="AW11" s="11">
+        <v>5760</v>
+      </c>
+      <c r="AX11" s="11">
+        <v>5618</v>
+      </c>
+      <c r="AY11" s="11">
+        <v>4800</v>
+      </c>
+      <c r="AZ11" s="11">
+        <v>8832</v>
+      </c>
+      <c r="BA11" s="11">
         <v>4992</v>
       </c>
-      <c r="AW11" s="11">
-        <v>3264</v>
-      </c>
-      <c r="AX11" s="11">
-        <v>5760</v>
-      </c>
-      <c r="AY11" s="11">
-        <v>5618</v>
-      </c>
-      <c r="AZ11" s="11">
-        <v>4800</v>
-      </c>
-      <c r="BA11" s="11">
-        <v>8832</v>
-      </c>
       <c r="BB11" s="11">
-        <v>4992</v>
+        <v>7898</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1696,95 +1696,95 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>7925</v>
       </c>
       <c r="Z12" s="13">
-        <v>7925</v>
+        <v>4598</v>
       </c>
       <c r="AA12" s="13">
-        <v>4598</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="13">
-        <v>0</v>
+        <v>4850</v>
       </c>
       <c r="AC12" s="13">
-        <v>4850</v>
+        <v>7420</v>
       </c>
       <c r="AD12" s="13">
-        <v>7420</v>
+        <v>4552</v>
       </c>
       <c r="AE12" s="13">
-        <v>4552</v>
+        <v>3977</v>
       </c>
       <c r="AF12" s="13">
-        <v>3977</v>
+        <v>4082</v>
       </c>
       <c r="AG12" s="13">
-        <v>4082</v>
+        <v>1373</v>
       </c>
       <c r="AH12" s="13">
-        <v>1373</v>
+        <v>2667</v>
       </c>
       <c r="AI12" s="13">
-        <v>2667</v>
+        <v>1737</v>
       </c>
       <c r="AJ12" s="13">
-        <v>1737</v>
+        <v>1521</v>
       </c>
       <c r="AK12" s="13">
-        <v>1521</v>
+        <v>10142</v>
       </c>
       <c r="AL12" s="13">
-        <v>10142</v>
+        <v>8072</v>
       </c>
       <c r="AM12" s="13">
-        <v>8072</v>
+        <v>12499</v>
       </c>
       <c r="AN12" s="13">
-        <v>12499</v>
+        <v>9201</v>
       </c>
       <c r="AO12" s="13">
-        <v>9201</v>
+        <v>15270</v>
       </c>
       <c r="AP12" s="13">
-        <v>15270</v>
+        <v>11387</v>
       </c>
       <c r="AQ12" s="13">
-        <v>11387</v>
+        <v>17955</v>
       </c>
       <c r="AR12" s="13">
-        <v>17955</v>
+        <v>25208</v>
       </c>
       <c r="AS12" s="13">
-        <v>25208</v>
+        <v>15176</v>
       </c>
       <c r="AT12" s="13">
-        <v>15176</v>
+        <v>8790</v>
       </c>
       <c r="AU12" s="13">
-        <v>8790</v>
+        <v>3155</v>
       </c>
       <c r="AV12" s="13">
-        <v>3155</v>
+        <v>11324</v>
       </c>
       <c r="AW12" s="13">
-        <v>11324</v>
+        <v>9686</v>
       </c>
       <c r="AX12" s="13">
-        <v>9686</v>
+        <v>15438</v>
       </c>
       <c r="AY12" s="13">
-        <v>15438</v>
+        <v>5004</v>
       </c>
       <c r="AZ12" s="13">
-        <v>5004</v>
+        <v>9398</v>
       </c>
       <c r="BA12" s="13">
-        <v>9398</v>
+        <v>13028</v>
       </c>
       <c r="BB12" s="13">
-        <v>13028</v>
+        <v>9645</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1855,95 +1855,95 @@
       <c r="X13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>58</v>
+      <c r="Y13" s="11">
+        <v>3504</v>
       </c>
       <c r="Z13" s="11">
-        <v>3504</v>
+        <v>1910</v>
       </c>
       <c r="AA13" s="11">
-        <v>1910</v>
+        <v>9360</v>
       </c>
       <c r="AB13" s="11">
-        <v>9360</v>
+        <v>6399</v>
       </c>
       <c r="AC13" s="11">
-        <v>6399</v>
+        <v>1382</v>
       </c>
       <c r="AD13" s="11">
-        <v>1382</v>
+        <v>8108</v>
       </c>
       <c r="AE13" s="11">
-        <v>8108</v>
+        <v>1953</v>
       </c>
       <c r="AF13" s="11">
-        <v>1953</v>
+        <v>1732</v>
       </c>
       <c r="AG13" s="11">
-        <v>1732</v>
+        <v>3140</v>
       </c>
       <c r="AH13" s="11">
-        <v>3140</v>
+        <v>8562</v>
       </c>
       <c r="AI13" s="11">
-        <v>8562</v>
+        <v>2619</v>
       </c>
       <c r="AJ13" s="11">
-        <v>2619</v>
+        <v>8539</v>
       </c>
       <c r="AK13" s="11">
-        <v>8539</v>
+        <v>2530</v>
       </c>
       <c r="AL13" s="11">
-        <v>2530</v>
+        <v>5146</v>
       </c>
       <c r="AM13" s="11">
-        <v>5146</v>
+        <v>31066</v>
       </c>
       <c r="AN13" s="11">
-        <v>31066</v>
+        <v>6923</v>
       </c>
       <c r="AO13" s="11">
-        <v>6923</v>
+        <v>13834</v>
       </c>
       <c r="AP13" s="11">
-        <v>13834</v>
+        <v>6513</v>
       </c>
       <c r="AQ13" s="11">
-        <v>6513</v>
+        <v>2226</v>
       </c>
       <c r="AR13" s="11">
-        <v>2226</v>
+        <v>8713</v>
       </c>
       <c r="AS13" s="11">
-        <v>8713</v>
+        <v>1644</v>
       </c>
       <c r="AT13" s="11">
-        <v>1644</v>
+        <v>1962</v>
       </c>
       <c r="AU13" s="11">
-        <v>1962</v>
+        <v>9998</v>
       </c>
       <c r="AV13" s="11">
-        <v>9998</v>
+        <v>13074</v>
       </c>
       <c r="AW13" s="11">
-        <v>13074</v>
+        <v>2446</v>
       </c>
       <c r="AX13" s="11">
-        <v>2446</v>
+        <v>343</v>
       </c>
       <c r="AY13" s="11">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="11">
-        <v>0</v>
+        <v>2074</v>
       </c>
       <c r="BA13" s="11">
-        <v>2074</v>
+        <v>4659</v>
       </c>
       <c r="BB13" s="11">
-        <v>4659</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2077,8 +2077,8 @@
       <c r="AS14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT14" s="13" t="s">
-        <v>58</v>
+      <c r="AT14" s="13">
+        <v>0</v>
       </c>
       <c r="AU14" s="13">
         <v>0</v>
@@ -2173,95 +2173,95 @@
       <c r="X15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y15" s="11" t="s">
-        <v>58</v>
+      <c r="Y15" s="11">
+        <v>11245</v>
       </c>
       <c r="Z15" s="11">
-        <v>11245</v>
+        <v>9804</v>
       </c>
       <c r="AA15" s="11">
-        <v>9804</v>
+        <v>6777</v>
       </c>
       <c r="AB15" s="11">
-        <v>6777</v>
+        <v>2308</v>
       </c>
       <c r="AC15" s="11">
-        <v>2308</v>
+        <v>5989</v>
       </c>
       <c r="AD15" s="11">
-        <v>5989</v>
+        <v>449</v>
       </c>
       <c r="AE15" s="11">
-        <v>449</v>
+        <v>4304</v>
       </c>
       <c r="AF15" s="11">
-        <v>4304</v>
+        <v>9043</v>
       </c>
       <c r="AG15" s="11">
-        <v>9043</v>
+        <v>6887</v>
       </c>
       <c r="AH15" s="11">
-        <v>6887</v>
+        <v>19379</v>
       </c>
       <c r="AI15" s="11">
-        <v>19379</v>
+        <v>11034</v>
       </c>
       <c r="AJ15" s="11">
-        <v>11034</v>
+        <v>5694</v>
       </c>
       <c r="AK15" s="11">
-        <v>5694</v>
+        <v>6540</v>
       </c>
       <c r="AL15" s="11">
-        <v>6540</v>
+        <v>7896</v>
       </c>
       <c r="AM15" s="11">
-        <v>7896</v>
+        <v>4797</v>
       </c>
       <c r="AN15" s="11">
-        <v>4797</v>
+        <v>4413</v>
       </c>
       <c r="AO15" s="11">
-        <v>4413</v>
+        <v>7452</v>
       </c>
       <c r="AP15" s="11">
-        <v>7452</v>
+        <v>4236</v>
       </c>
       <c r="AQ15" s="11">
-        <v>4236</v>
+        <v>9416</v>
       </c>
       <c r="AR15" s="11">
-        <v>9416</v>
+        <v>2425</v>
       </c>
       <c r="AS15" s="11">
-        <v>2425</v>
+        <v>9613</v>
       </c>
       <c r="AT15" s="11">
-        <v>9613</v>
+        <v>9280</v>
       </c>
       <c r="AU15" s="11">
-        <v>9280</v>
+        <v>5862</v>
       </c>
       <c r="AV15" s="11">
-        <v>5862</v>
+        <v>11442</v>
       </c>
       <c r="AW15" s="11">
-        <v>11442</v>
+        <v>8393</v>
       </c>
       <c r="AX15" s="11">
-        <v>8393</v>
+        <v>720</v>
       </c>
       <c r="AY15" s="11">
-        <v>720</v>
+        <v>11726</v>
       </c>
       <c r="AZ15" s="11">
-        <v>11726</v>
+        <v>7465</v>
       </c>
       <c r="BA15" s="11">
-        <v>7465</v>
+        <v>3269</v>
       </c>
       <c r="BB15" s="11">
-        <v>3269</v>
+        <v>24547</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2332,53 +2332,53 @@
       <c r="X16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y16" s="13" t="s">
-        <v>58</v>
+      <c r="Y16" s="13">
+        <v>8742</v>
       </c>
       <c r="Z16" s="13">
-        <v>8742</v>
+        <v>15423</v>
       </c>
       <c r="AA16" s="13">
-        <v>15423</v>
+        <v>20176</v>
       </c>
       <c r="AB16" s="13">
-        <v>20176</v>
+        <v>30749</v>
       </c>
       <c r="AC16" s="13">
-        <v>30749</v>
+        <v>19302</v>
       </c>
       <c r="AD16" s="13">
-        <v>19302</v>
+        <v>20850</v>
       </c>
       <c r="AE16" s="13">
-        <v>20850</v>
+        <v>53637</v>
       </c>
       <c r="AF16" s="13">
-        <v>53637</v>
+        <v>19022</v>
       </c>
       <c r="AG16" s="13">
-        <v>19022</v>
+        <v>26100</v>
       </c>
       <c r="AH16" s="13">
-        <v>26100</v>
+        <v>13451</v>
       </c>
       <c r="AI16" s="13">
-        <v>13451</v>
+        <v>7546</v>
       </c>
       <c r="AJ16" s="13">
-        <v>7546</v>
+        <v>7267</v>
       </c>
       <c r="AK16" s="13">
-        <v>7267</v>
+        <v>14672</v>
       </c>
       <c r="AL16" s="13">
-        <v>14672</v>
+        <v>22614</v>
       </c>
       <c r="AM16" s="13">
-        <v>22614</v>
-      </c>
-      <c r="AN16" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AN16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO16" s="13" t="s">
         <v>58</v>
@@ -2509,14 +2509,14 @@
       <c r="AD17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE17" s="11" t="s">
-        <v>58</v>
+      <c r="AE17" s="11">
+        <v>2000</v>
       </c>
       <c r="AF17" s="11">
-        <v>2000</v>
+        <v>2229</v>
       </c>
       <c r="AG17" s="11">
-        <v>2229</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="11">
         <v>0</v>
@@ -2525,58 +2525,58 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK17" s="11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AL17" s="11">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="AM17" s="11">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AN17" s="11">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AO17" s="11">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="AP17" s="11">
-        <v>51</v>
+        <v>3836</v>
       </c>
       <c r="AQ17" s="11">
-        <v>3836</v>
+        <v>2314</v>
       </c>
       <c r="AR17" s="11">
-        <v>2314</v>
+        <v>7501</v>
       </c>
       <c r="AS17" s="11">
-        <v>7501</v>
+        <v>1084</v>
       </c>
       <c r="AT17" s="11">
-        <v>1084</v>
+        <v>4227</v>
       </c>
       <c r="AU17" s="11">
-        <v>4227</v>
+        <v>5023</v>
       </c>
       <c r="AV17" s="11">
-        <v>5023</v>
+        <v>4258</v>
       </c>
       <c r="AW17" s="11">
-        <v>4258</v>
+        <v>1431</v>
       </c>
       <c r="AX17" s="11">
-        <v>1431</v>
+        <v>6237</v>
       </c>
       <c r="AY17" s="11">
-        <v>6237</v>
+        <v>7471</v>
       </c>
       <c r="AZ17" s="11">
-        <v>7471</v>
+        <v>7158</v>
       </c>
       <c r="BA17" s="11">
-        <v>7158</v>
+        <v>0</v>
       </c>
       <c r="BB17" s="11">
         <v>0</v>
@@ -2668,14 +2668,14 @@
       <c r="AD18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE18" s="13" t="s">
-        <v>58</v>
+      <c r="AE18" s="13">
+        <v>335</v>
       </c>
       <c r="AF18" s="13">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AG18" s="13">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="13">
         <v>0</v>
@@ -2687,28 +2687,28 @@
         <v>0</v>
       </c>
       <c r="AK18" s="13">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="AL18" s="13">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="AM18" s="13">
-        <v>303</v>
+        <v>565</v>
       </c>
       <c r="AN18" s="13">
-        <v>565</v>
+        <v>337</v>
       </c>
       <c r="AO18" s="13">
-        <v>337</v>
+        <v>1419</v>
       </c>
       <c r="AP18" s="13">
-        <v>1419</v>
+        <v>1148</v>
       </c>
       <c r="AQ18" s="13">
-        <v>1148</v>
+        <v>1585</v>
       </c>
       <c r="AR18" s="13">
-        <v>1585</v>
+        <v>0</v>
       </c>
       <c r="AS18" s="13">
         <v>0</v>
@@ -2717,10 +2717,10 @@
         <v>0</v>
       </c>
       <c r="AU18" s="13">
-        <v>0</v>
+        <v>568</v>
       </c>
       <c r="AV18" s="13">
-        <v>568</v>
+        <v>0</v>
       </c>
       <c r="AW18" s="13">
         <v>0</v>
@@ -2732,13 +2732,13 @@
         <v>0</v>
       </c>
       <c r="AZ18" s="13">
-        <v>0</v>
+        <v>1474</v>
       </c>
       <c r="BA18" s="13">
-        <v>1474</v>
+        <v>322</v>
       </c>
       <c r="BB18" s="13">
-        <v>322</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2827,8 +2827,8 @@
       <c r="AD19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE19" s="11" t="s">
-        <v>58</v>
+      <c r="AE19" s="11">
+        <v>0</v>
       </c>
       <c r="AF19" s="11">
         <v>0</v>
@@ -2843,61 +2843,61 @@
         <v>0</v>
       </c>
       <c r="AJ19" s="11">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="AK19" s="11">
-        <v>1400</v>
+        <v>7846</v>
       </c>
       <c r="AL19" s="11">
-        <v>7846</v>
+        <v>1716</v>
       </c>
       <c r="AM19" s="11">
-        <v>1716</v>
+        <v>5</v>
       </c>
       <c r="AN19" s="11">
         <v>5</v>
       </c>
       <c r="AO19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="11">
+        <v>8</v>
+      </c>
+      <c r="AS19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="11">
+        <v>63</v>
+      </c>
+      <c r="AV19" s="11">
+        <v>536</v>
+      </c>
+      <c r="AW19" s="11">
+        <v>4400</v>
+      </c>
+      <c r="AX19" s="11">
+        <v>351</v>
+      </c>
+      <c r="AY19" s="11">
+        <v>-19</v>
+      </c>
+      <c r="AZ19" s="11">
         <v>5</v>
       </c>
-      <c r="AP19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="11">
-        <v>8</v>
-      </c>
-      <c r="AT19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AV19" s="11">
-        <v>63</v>
-      </c>
-      <c r="AW19" s="11">
-        <v>536</v>
-      </c>
-      <c r="AX19" s="11">
-        <v>4400</v>
-      </c>
-      <c r="AY19" s="11">
-        <v>351</v>
-      </c>
-      <c r="AZ19" s="11">
-        <v>-19</v>
-      </c>
       <c r="BA19" s="11">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="BB19" s="11">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.3">
@@ -3010,53 +3010,53 @@
       <c r="AL20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM20" s="13" t="s">
-        <v>58</v>
+      <c r="AM20" s="13">
+        <v>3375</v>
       </c>
       <c r="AN20" s="13">
-        <v>3375</v>
+        <v>15819</v>
       </c>
       <c r="AO20" s="13">
-        <v>15819</v>
+        <v>9435</v>
       </c>
       <c r="AP20" s="13">
-        <v>9435</v>
+        <v>15649</v>
       </c>
       <c r="AQ20" s="13">
-        <v>15649</v>
+        <v>15900</v>
       </c>
       <c r="AR20" s="13">
-        <v>15900</v>
+        <v>17815</v>
       </c>
       <c r="AS20" s="13">
-        <v>17815</v>
+        <v>4080</v>
       </c>
       <c r="AT20" s="13">
-        <v>4080</v>
+        <v>5600</v>
       </c>
       <c r="AU20" s="13">
-        <v>5600</v>
+        <v>7120</v>
       </c>
       <c r="AV20" s="13">
-        <v>7120</v>
+        <v>7180</v>
       </c>
       <c r="AW20" s="13">
-        <v>7180</v>
+        <v>3200</v>
       </c>
       <c r="AX20" s="13">
-        <v>3200</v>
+        <v>5025</v>
       </c>
       <c r="AY20" s="13">
-        <v>5025</v>
+        <v>12820</v>
       </c>
       <c r="AZ20" s="13">
-        <v>12820</v>
+        <v>900</v>
       </c>
       <c r="BA20" s="13">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="BB20" s="13">
-        <v>0</v>
+        <v>6979</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3169,8 +3169,8 @@
       <c r="AL21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM21" s="11" t="s">
-        <v>58</v>
+      <c r="AM21" s="11">
+        <v>0</v>
       </c>
       <c r="AN21" s="11">
         <v>0</v>
@@ -3182,22 +3182,22 @@
         <v>0</v>
       </c>
       <c r="AQ21" s="11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AR21" s="11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AS21" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="11">
         <v>0</v>
       </c>
       <c r="AU21" s="11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AV21" s="11">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AW21" s="11">
         <v>0</v>
@@ -3328,53 +3328,53 @@
       <c r="AL22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM22" s="13" t="s">
-        <v>58</v>
+      <c r="AM22" s="13">
+        <v>0</v>
       </c>
       <c r="AN22" s="13">
         <v>0</v>
       </c>
       <c r="AO22" s="13">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AP22" s="13">
-        <v>99</v>
+        <v>3640</v>
       </c>
       <c r="AQ22" s="13">
-        <v>3640</v>
+        <v>0</v>
       </c>
       <c r="AR22" s="13">
-        <v>0</v>
+        <v>3714</v>
       </c>
       <c r="AS22" s="13">
-        <v>3714</v>
+        <v>1246</v>
       </c>
       <c r="AT22" s="13">
-        <v>1246</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="13">
         <v>0</v>
       </c>
       <c r="AV22" s="13">
-        <v>0</v>
+        <v>5384</v>
       </c>
       <c r="AW22" s="13">
-        <v>5384</v>
+        <v>3793</v>
       </c>
       <c r="AX22" s="13">
-        <v>3793</v>
+        <v>22</v>
       </c>
       <c r="AY22" s="13">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="AZ22" s="13">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="BA22" s="13">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="BB22" s="13">
-        <v>65</v>
+        <v>4615</v>
       </c>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.3">
@@ -3487,53 +3487,53 @@
       <c r="AL23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM23" s="11" t="s">
-        <v>58</v>
+      <c r="AM23" s="11">
+        <v>2690</v>
       </c>
       <c r="AN23" s="11">
-        <v>2690</v>
+        <v>525</v>
       </c>
       <c r="AO23" s="11">
-        <v>525</v>
-      </c>
-      <c r="AP23" s="11">
         <v>1650</v>
       </c>
-      <c r="AQ23" s="11" t="s">
-        <v>58</v>
+      <c r="AP23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ23" s="11">
+        <v>0</v>
       </c>
       <c r="AR23" s="11">
         <v>0</v>
       </c>
       <c r="AS23" s="11">
-        <v>0</v>
+        <v>1631</v>
       </c>
       <c r="AT23" s="11">
-        <v>1631</v>
+        <v>618</v>
       </c>
       <c r="AU23" s="11">
-        <v>618</v>
+        <v>4571</v>
       </c>
       <c r="AV23" s="11">
-        <v>4571</v>
+        <v>0</v>
       </c>
       <c r="AW23" s="11">
-        <v>0</v>
+        <v>1302</v>
       </c>
       <c r="AX23" s="11">
-        <v>1302</v>
+        <v>1650</v>
       </c>
       <c r="AY23" s="11">
-        <v>1650</v>
+        <v>13510</v>
       </c>
       <c r="AZ23" s="11">
-        <v>13510</v>
+        <v>0</v>
       </c>
       <c r="BA23" s="11">
-        <v>0</v>
+        <v>-1618</v>
       </c>
       <c r="BB23" s="11">
-        <v>1660</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:54" x14ac:dyDescent="0.3">
@@ -3646,44 +3646,44 @@
       <c r="AL24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM24" s="13" t="s">
-        <v>58</v>
+      <c r="AM24" s="13">
+        <v>888</v>
       </c>
       <c r="AN24" s="13">
-        <v>888</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="13">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AP24" s="13">
-        <v>105</v>
+        <v>954</v>
       </c>
       <c r="AQ24" s="13">
-        <v>954</v>
+        <v>0</v>
       </c>
       <c r="AR24" s="13">
         <v>0</v>
       </c>
       <c r="AS24" s="13">
-        <v>0</v>
+        <v>7314</v>
       </c>
       <c r="AT24" s="13">
-        <v>7314</v>
+        <v>0</v>
       </c>
       <c r="AU24" s="13">
         <v>0</v>
       </c>
       <c r="AV24" s="13">
-        <v>0</v>
+        <v>4160</v>
       </c>
       <c r="AW24" s="13">
-        <v>4160</v>
+        <v>0</v>
       </c>
       <c r="AX24" s="13">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="AY24" s="13">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="AZ24" s="13">
         <v>0</v>
@@ -3805,8 +3805,8 @@
       <c r="AL25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM25" s="11" t="s">
-        <v>58</v>
+      <c r="AM25" s="11">
+        <v>0</v>
       </c>
       <c r="AN25" s="11">
         <v>0</v>
@@ -3818,10 +3818,10 @@
         <v>0</v>
       </c>
       <c r="AQ25" s="11">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AR25" s="11">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AS25" s="11">
         <v>0</v>
@@ -3985,8 +3985,8 @@
       <c r="AS26" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT26" s="13" t="s">
-        <v>58</v>
+      <c r="AT26" s="13">
+        <v>0</v>
       </c>
       <c r="AU26" s="13">
         <v>0</v>
@@ -4080,94 +4080,94 @@
         <v>0</v>
       </c>
       <c r="Y27" s="15">
-        <v>0</v>
+        <v>33695</v>
       </c>
       <c r="Z27" s="15">
-        <v>33695</v>
+        <v>32507</v>
       </c>
       <c r="AA27" s="15">
-        <v>32507</v>
+        <v>38185</v>
       </c>
       <c r="AB27" s="15">
-        <v>38185</v>
+        <v>46464</v>
       </c>
       <c r="AC27" s="15">
-        <v>46464</v>
+        <v>34659</v>
       </c>
       <c r="AD27" s="15">
-        <v>34659</v>
+        <v>36261</v>
       </c>
       <c r="AE27" s="15">
-        <v>36261</v>
+        <v>69630</v>
       </c>
       <c r="AF27" s="15">
-        <v>69630</v>
+        <v>39329</v>
       </c>
       <c r="AG27" s="15">
-        <v>39329</v>
+        <v>39825</v>
       </c>
       <c r="AH27" s="15">
-        <v>39825</v>
+        <v>47922</v>
       </c>
       <c r="AI27" s="15">
-        <v>47922</v>
+        <v>24382</v>
       </c>
       <c r="AJ27" s="15">
-        <v>24382</v>
+        <v>26937</v>
       </c>
       <c r="AK27" s="15">
-        <v>26937</v>
+        <v>45906</v>
       </c>
       <c r="AL27" s="15">
-        <v>45906</v>
+        <v>49780</v>
       </c>
       <c r="AM27" s="15">
-        <v>49780</v>
+        <v>59519</v>
       </c>
       <c r="AN27" s="15">
-        <v>59519</v>
+        <v>39714</v>
       </c>
       <c r="AO27" s="15">
-        <v>39714</v>
+        <v>53341</v>
       </c>
       <c r="AP27" s="15">
-        <v>53341</v>
+        <v>51012</v>
       </c>
       <c r="AQ27" s="15">
-        <v>51012</v>
+        <v>52281</v>
       </c>
       <c r="AR27" s="15">
-        <v>52281</v>
+        <v>69014</v>
       </c>
       <c r="AS27" s="15">
-        <v>69014</v>
+        <v>45805</v>
       </c>
       <c r="AT27" s="15">
-        <v>45805</v>
+        <v>34120</v>
       </c>
       <c r="AU27" s="15">
-        <v>34120</v>
+        <v>41364</v>
       </c>
       <c r="AV27" s="15">
-        <v>41364</v>
+        <v>60622</v>
       </c>
       <c r="AW27" s="15">
-        <v>60622</v>
+        <v>40411</v>
       </c>
       <c r="AX27" s="15">
-        <v>40411</v>
+        <v>38604</v>
       </c>
       <c r="AY27" s="15">
-        <v>38604</v>
+        <v>55369</v>
       </c>
       <c r="AZ27" s="15">
-        <v>55369</v>
+        <v>37350</v>
       </c>
       <c r="BA27" s="15">
-        <v>37350</v>
+        <v>24775</v>
       </c>
       <c r="BB27" s="15">
-        <v>28053</v>
+        <v>55109</v>
       </c>
     </row>
     <row r="28" spans="2:54" x14ac:dyDescent="0.3">
@@ -4337,11 +4337,11 @@
       <c r="AL29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN29" s="11">
-        <v>0</v>
+      <c r="AM29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO29" s="11" t="s">
         <v>58</v>
@@ -4361,8 +4361,8 @@
       <c r="AT29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU29" s="11" t="s">
-        <v>58</v>
+      <c r="AU29" s="11">
+        <v>0</v>
       </c>
       <c r="AV29" s="11">
         <v>0</v>
@@ -4454,8 +4454,8 @@
       <c r="X30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y30" s="13" t="s">
-        <v>58</v>
+      <c r="Y30" s="13">
+        <v>0</v>
       </c>
       <c r="Z30" s="13">
         <v>0</v>
@@ -4481,8 +4481,8 @@
       <c r="AG30" s="13">
         <v>0</v>
       </c>
-      <c r="AH30" s="13">
-        <v>0</v>
+      <c r="AH30" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI30" s="13" t="s">
         <v>58</v>
@@ -4622,8 +4622,8 @@
       <c r="AA31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB31" s="11" t="s">
-        <v>58</v>
+      <c r="AB31" s="11">
+        <v>0</v>
       </c>
       <c r="AC31" s="11">
         <v>0</v>
@@ -4640,8 +4640,8 @@
       <c r="AG31" s="11">
         <v>0</v>
       </c>
-      <c r="AH31" s="11">
-        <v>0</v>
+      <c r="AH31" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI31" s="11" t="s">
         <v>58</v>
@@ -4835,17 +4835,17 @@
       <c r="AS32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU32" s="13">
-        <v>0</v>
+      <c r="AT32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW32" s="13" t="s">
-        <v>58</v>
+      <c r="AW32" s="13">
+        <v>0</v>
       </c>
       <c r="AX32" s="13">
         <v>0</v>
@@ -5206,17 +5206,17 @@
       <c r="AS35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT35" s="11" t="s">
-        <v>58</v>
+      <c r="AT35" s="11">
+        <v>0</v>
       </c>
       <c r="AU35" s="11">
         <v>0</v>
       </c>
-      <c r="AV35" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW35" s="11" t="s">
-        <v>58</v>
+      <c r="AV35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW35" s="11">
+        <v>0</v>
       </c>
       <c r="AX35" s="11">
         <v>0</v>
@@ -5224,11 +5224,11 @@
       <c r="AY35" s="11">
         <v>0</v>
       </c>
-      <c r="AZ35" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA35" s="11" t="s">
-        <v>58</v>
+      <c r="AZ35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA35" s="11">
+        <v>0</v>
       </c>
       <c r="BB35" s="11" t="s">
         <v>58</v>
@@ -5300,8 +5300,8 @@
       <c r="X36" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y36" s="17" t="s">
-        <v>58</v>
+      <c r="Y36" s="17">
+        <v>0</v>
       </c>
       <c r="Z36" s="17">
         <v>0</v>
@@ -5458,94 +5458,94 @@
         <v>0</v>
       </c>
       <c r="Y37" s="15">
-        <v>0</v>
+        <v>33695</v>
       </c>
       <c r="Z37" s="15">
-        <v>33695</v>
+        <v>32507</v>
       </c>
       <c r="AA37" s="15">
-        <v>32507</v>
+        <v>38185</v>
       </c>
       <c r="AB37" s="15">
-        <v>38185</v>
+        <v>46464</v>
       </c>
       <c r="AC37" s="15">
-        <v>46464</v>
+        <v>34659</v>
       </c>
       <c r="AD37" s="15">
-        <v>34659</v>
+        <v>36261</v>
       </c>
       <c r="AE37" s="15">
-        <v>36261</v>
+        <v>69630</v>
       </c>
       <c r="AF37" s="15">
-        <v>69630</v>
+        <v>39329</v>
       </c>
       <c r="AG37" s="15">
-        <v>39329</v>
+        <v>39825</v>
       </c>
       <c r="AH37" s="15">
-        <v>39825</v>
+        <v>47922</v>
       </c>
       <c r="AI37" s="15">
-        <v>47922</v>
+        <v>24382</v>
       </c>
       <c r="AJ37" s="15">
-        <v>24382</v>
+        <v>26937</v>
       </c>
       <c r="AK37" s="15">
-        <v>26937</v>
+        <v>45906</v>
       </c>
       <c r="AL37" s="15">
-        <v>45906</v>
+        <v>49780</v>
       </c>
       <c r="AM37" s="15">
-        <v>49780</v>
+        <v>59519</v>
       </c>
       <c r="AN37" s="15">
-        <v>59519</v>
+        <v>39714</v>
       </c>
       <c r="AO37" s="15">
-        <v>39714</v>
+        <v>53341</v>
       </c>
       <c r="AP37" s="15">
-        <v>53341</v>
+        <v>51012</v>
       </c>
       <c r="AQ37" s="15">
-        <v>51012</v>
+        <v>52281</v>
       </c>
       <c r="AR37" s="15">
-        <v>52281</v>
+        <v>69014</v>
       </c>
       <c r="AS37" s="15">
-        <v>69014</v>
+        <v>45805</v>
       </c>
       <c r="AT37" s="15">
-        <v>45805</v>
+        <v>34120</v>
       </c>
       <c r="AU37" s="15">
-        <v>34120</v>
+        <v>41364</v>
       </c>
       <c r="AV37" s="15">
-        <v>41364</v>
+        <v>60622</v>
       </c>
       <c r="AW37" s="15">
-        <v>60622</v>
+        <v>40411</v>
       </c>
       <c r="AX37" s="15">
-        <v>40411</v>
+        <v>38604</v>
       </c>
       <c r="AY37" s="15">
-        <v>38604</v>
+        <v>55369</v>
       </c>
       <c r="AZ37" s="15">
-        <v>55369</v>
+        <v>37350</v>
       </c>
       <c r="BA37" s="15">
-        <v>37350</v>
+        <v>24775</v>
       </c>
       <c r="BB37" s="15">
-        <v>28053</v>
+        <v>55109</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.3">
@@ -6050,95 +6050,95 @@
       <c r="X44" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y44" s="11" t="s">
-        <v>58</v>
+      <c r="Y44" s="11">
+        <v>2584</v>
       </c>
       <c r="Z44" s="11">
-        <v>2584</v>
+        <v>3806</v>
       </c>
       <c r="AA44" s="11">
-        <v>3806</v>
+        <v>727</v>
       </c>
       <c r="AB44" s="11">
-        <v>727</v>
+        <v>1158</v>
       </c>
       <c r="AC44" s="11">
-        <v>1158</v>
+        <v>2816</v>
       </c>
       <c r="AD44" s="11">
-        <v>2816</v>
+        <v>2064</v>
       </c>
       <c r="AE44" s="11">
-        <v>2064</v>
+        <v>2092</v>
       </c>
       <c r="AF44" s="11">
-        <v>2092</v>
+        <v>257</v>
       </c>
       <c r="AG44" s="11">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="AH44" s="11">
-        <v>0</v>
+        <v>5551</v>
       </c>
       <c r="AI44" s="11">
-        <v>5551</v>
+        <v>2635</v>
       </c>
       <c r="AJ44" s="11">
-        <v>2635</v>
+        <v>768</v>
       </c>
       <c r="AK44" s="11">
-        <v>768</v>
+        <v>4470</v>
       </c>
       <c r="AL44" s="11">
-        <v>4470</v>
+        <v>5089</v>
       </c>
       <c r="AM44" s="11">
-        <v>5089</v>
+        <v>0</v>
       </c>
       <c r="AN44" s="11">
         <v>0</v>
       </c>
       <c r="AO44" s="11">
-        <v>0</v>
+        <v>6839</v>
       </c>
       <c r="AP44" s="11">
-        <v>6839</v>
+        <v>5062</v>
       </c>
       <c r="AQ44" s="11">
-        <v>5062</v>
+        <v>3054</v>
       </c>
       <c r="AR44" s="11">
-        <v>3054</v>
+        <v>2411</v>
       </c>
       <c r="AS44" s="11">
-        <v>2411</v>
+        <v>1152</v>
       </c>
       <c r="AT44" s="11">
-        <v>1152</v>
+        <v>4208</v>
       </c>
       <c r="AU44" s="11">
-        <v>4208</v>
+        <v>5359</v>
       </c>
       <c r="AV44" s="11">
-        <v>5359</v>
+        <v>5080</v>
       </c>
       <c r="AW44" s="11">
-        <v>5080</v>
+        <v>5880</v>
       </c>
       <c r="AX44" s="11">
-        <v>5880</v>
+        <v>7615</v>
       </c>
       <c r="AY44" s="11">
-        <v>7615</v>
+        <v>5832</v>
       </c>
       <c r="AZ44" s="11">
-        <v>5832</v>
+        <v>5416</v>
       </c>
       <c r="BA44" s="11">
-        <v>5416</v>
+        <v>5504</v>
       </c>
       <c r="BB44" s="11">
-        <v>5504</v>
+        <v>5706</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -6209,95 +6209,95 @@
       <c r="X45" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y45" s="13" t="s">
-        <v>58</v>
+      <c r="Y45" s="13">
+        <v>6905</v>
       </c>
       <c r="Z45" s="13">
-        <v>6905</v>
+        <v>4090</v>
       </c>
       <c r="AA45" s="13">
-        <v>4090</v>
+        <v>4184</v>
       </c>
       <c r="AB45" s="13">
-        <v>4184</v>
+        <v>9692</v>
       </c>
       <c r="AC45" s="13">
-        <v>9692</v>
+        <v>4175</v>
       </c>
       <c r="AD45" s="13">
-        <v>4175</v>
+        <v>9050</v>
       </c>
       <c r="AE45" s="13">
-        <v>9050</v>
+        <v>4712</v>
       </c>
       <c r="AF45" s="13">
-        <v>4712</v>
+        <v>3825</v>
       </c>
       <c r="AG45" s="13">
-        <v>3825</v>
+        <v>966</v>
       </c>
       <c r="AH45" s="13">
-        <v>966</v>
+        <v>0</v>
       </c>
       <c r="AI45" s="13">
-        <v>0</v>
+        <v>2557</v>
       </c>
       <c r="AJ45" s="13">
-        <v>2557</v>
+        <v>1534</v>
       </c>
       <c r="AK45" s="13">
-        <v>1534</v>
+        <v>3258</v>
       </c>
       <c r="AL45" s="13">
-        <v>3258</v>
+        <v>9019</v>
       </c>
       <c r="AM45" s="13">
-        <v>9019</v>
+        <v>10163</v>
       </c>
       <c r="AN45" s="13">
-        <v>10163</v>
+        <v>7728</v>
       </c>
       <c r="AO45" s="13">
-        <v>7728</v>
+        <v>5328</v>
       </c>
       <c r="AP45" s="13">
-        <v>5328</v>
+        <v>21140</v>
       </c>
       <c r="AQ45" s="13">
-        <v>21140</v>
+        <v>7902</v>
       </c>
       <c r="AR45" s="13">
-        <v>7902</v>
+        <v>10733</v>
       </c>
       <c r="AS45" s="13">
-        <v>10733</v>
+        <v>1699</v>
       </c>
       <c r="AT45" s="13">
-        <v>1699</v>
+        <v>8918</v>
       </c>
       <c r="AU45" s="13">
-        <v>8918</v>
+        <v>14776</v>
       </c>
       <c r="AV45" s="13">
-        <v>14776</v>
+        <v>10415</v>
       </c>
       <c r="AW45" s="13">
-        <v>10415</v>
+        <v>8360</v>
       </c>
       <c r="AX45" s="13">
-        <v>8360</v>
+        <v>12128</v>
       </c>
       <c r="AY45" s="13">
-        <v>12128</v>
+        <v>1206</v>
       </c>
       <c r="AZ45" s="13">
-        <v>1206</v>
+        <v>3362</v>
       </c>
       <c r="BA45" s="13">
-        <v>3362</v>
+        <v>5528</v>
       </c>
       <c r="BB45" s="13">
-        <v>5528</v>
+        <v>11199</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -6368,95 +6368,95 @@
       <c r="X46" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y46" s="11" t="s">
-        <v>58</v>
+      <c r="Y46" s="11">
+        <v>3604</v>
       </c>
       <c r="Z46" s="11">
-        <v>3604</v>
+        <v>1990</v>
       </c>
       <c r="AA46" s="11">
-        <v>1990</v>
+        <v>7713</v>
       </c>
       <c r="AB46" s="11">
-        <v>7713</v>
+        <v>5768</v>
       </c>
       <c r="AC46" s="11">
-        <v>5768</v>
+        <v>3071</v>
       </c>
       <c r="AD46" s="11">
-        <v>3071</v>
+        <v>6235</v>
       </c>
       <c r="AE46" s="11">
-        <v>6235</v>
+        <v>1351</v>
       </c>
       <c r="AF46" s="11">
-        <v>1351</v>
+        <v>620</v>
       </c>
       <c r="AG46" s="11">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="AH46" s="11">
-        <v>0</v>
+        <v>7620</v>
       </c>
       <c r="AI46" s="11">
-        <v>7620</v>
+        <v>3730</v>
       </c>
       <c r="AJ46" s="11">
-        <v>3730</v>
+        <v>6071</v>
       </c>
       <c r="AK46" s="11">
-        <v>6071</v>
+        <v>7434</v>
       </c>
       <c r="AL46" s="11">
-        <v>7434</v>
+        <v>1614</v>
       </c>
       <c r="AM46" s="11">
-        <v>1614</v>
+        <v>13301</v>
       </c>
       <c r="AN46" s="11">
-        <v>13301</v>
+        <v>5798</v>
       </c>
       <c r="AO46" s="11">
-        <v>5798</v>
+        <v>1400</v>
       </c>
       <c r="AP46" s="11">
-        <v>1400</v>
+        <v>11253</v>
       </c>
       <c r="AQ46" s="11">
-        <v>11253</v>
+        <v>2834</v>
       </c>
       <c r="AR46" s="11">
-        <v>2834</v>
+        <v>3031</v>
       </c>
       <c r="AS46" s="11">
-        <v>3031</v>
+        <v>3276</v>
       </c>
       <c r="AT46" s="11">
-        <v>3276</v>
+        <v>5100</v>
       </c>
       <c r="AU46" s="11">
-        <v>5100</v>
+        <v>4076</v>
       </c>
       <c r="AV46" s="11">
-        <v>4076</v>
+        <v>4630</v>
       </c>
       <c r="AW46" s="11">
-        <v>4630</v>
+        <v>4820</v>
       </c>
       <c r="AX46" s="11">
-        <v>4820</v>
+        <v>5114</v>
       </c>
       <c r="AY46" s="11">
-        <v>5114</v>
+        <v>3710</v>
       </c>
       <c r="AZ46" s="11">
-        <v>3710</v>
+        <v>6849</v>
       </c>
       <c r="BA46" s="11">
-        <v>6849</v>
+        <v>4461</v>
       </c>
       <c r="BB46" s="11">
-        <v>4461</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="47" spans="2:54" x14ac:dyDescent="0.3">
@@ -6590,8 +6590,8 @@
       <c r="AS47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT47" s="13" t="s">
-        <v>58</v>
+      <c r="AT47" s="13">
+        <v>0</v>
       </c>
       <c r="AU47" s="13">
         <v>0</v>
@@ -6686,95 +6686,95 @@
       <c r="X48" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y48" s="11" t="s">
-        <v>58</v>
+      <c r="Y48" s="11">
+        <v>11043</v>
       </c>
       <c r="Z48" s="11">
-        <v>11043</v>
+        <v>12023</v>
       </c>
       <c r="AA48" s="11">
-        <v>12023</v>
+        <v>7519</v>
       </c>
       <c r="AB48" s="11">
-        <v>7519</v>
+        <v>2405</v>
       </c>
       <c r="AC48" s="11">
-        <v>2405</v>
+        <v>4339</v>
       </c>
       <c r="AD48" s="11">
-        <v>4339</v>
+        <v>2059</v>
       </c>
       <c r="AE48" s="11">
-        <v>2059</v>
+        <v>4304</v>
       </c>
       <c r="AF48" s="11">
-        <v>4304</v>
+        <v>8042</v>
       </c>
       <c r="AG48" s="11">
-        <v>8042</v>
+        <v>7586</v>
       </c>
       <c r="AH48" s="11">
-        <v>7586</v>
+        <v>7799</v>
       </c>
       <c r="AI48" s="11">
-        <v>7799</v>
+        <v>13137</v>
       </c>
       <c r="AJ48" s="11">
-        <v>13137</v>
+        <v>11907</v>
       </c>
       <c r="AK48" s="11">
-        <v>11907</v>
+        <v>9032</v>
       </c>
       <c r="AL48" s="11">
-        <v>9032</v>
+        <v>7254</v>
       </c>
       <c r="AM48" s="11">
-        <v>7254</v>
+        <v>1465</v>
       </c>
       <c r="AN48" s="11">
-        <v>1465</v>
+        <v>7809</v>
       </c>
       <c r="AO48" s="11">
-        <v>7809</v>
+        <v>8396</v>
       </c>
       <c r="AP48" s="11">
-        <v>8396</v>
+        <v>719</v>
       </c>
       <c r="AQ48" s="11">
-        <v>719</v>
+        <v>10040</v>
       </c>
       <c r="AR48" s="11">
-        <v>10040</v>
+        <v>5225</v>
       </c>
       <c r="AS48" s="11">
-        <v>5225</v>
+        <v>3008</v>
       </c>
       <c r="AT48" s="11">
-        <v>3008</v>
+        <v>7207</v>
       </c>
       <c r="AU48" s="11">
-        <v>7207</v>
+        <v>4803</v>
       </c>
       <c r="AV48" s="11">
-        <v>4803</v>
+        <v>3900</v>
       </c>
       <c r="AW48" s="11">
-        <v>3900</v>
+        <v>6406</v>
       </c>
       <c r="AX48" s="11">
-        <v>6406</v>
+        <v>0</v>
       </c>
       <c r="AY48" s="11">
-        <v>0</v>
+        <v>6114</v>
       </c>
       <c r="AZ48" s="11">
-        <v>6114</v>
+        <v>3813</v>
       </c>
       <c r="BA48" s="11">
-        <v>3813</v>
+        <v>30790</v>
       </c>
       <c r="BB48" s="11">
-        <v>30790</v>
+        <v>20120</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6845,53 +6845,53 @@
       <c r="X49" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y49" s="13" t="s">
-        <v>58</v>
+      <c r="Y49" s="13">
+        <v>14890</v>
       </c>
       <c r="Z49" s="13">
-        <v>14890</v>
+        <v>13568</v>
       </c>
       <c r="AA49" s="13">
-        <v>13568</v>
+        <v>15641</v>
       </c>
       <c r="AB49" s="13">
-        <v>15641</v>
+        <v>24479</v>
       </c>
       <c r="AC49" s="13">
-        <v>24479</v>
+        <v>17013</v>
       </c>
       <c r="AD49" s="13">
-        <v>17013</v>
+        <v>25571</v>
       </c>
       <c r="AE49" s="13">
-        <v>25571</v>
+        <v>41191</v>
       </c>
       <c r="AF49" s="13">
-        <v>41191</v>
+        <v>11889</v>
       </c>
       <c r="AG49" s="13">
-        <v>11889</v>
+        <v>1500</v>
       </c>
       <c r="AH49" s="13">
-        <v>1500</v>
+        <v>14205</v>
       </c>
       <c r="AI49" s="13">
-        <v>14205</v>
+        <v>22150</v>
       </c>
       <c r="AJ49" s="13">
-        <v>22150</v>
+        <v>13826</v>
       </c>
       <c r="AK49" s="13">
-        <v>13826</v>
+        <v>13249</v>
       </c>
       <c r="AL49" s="13">
-        <v>13249</v>
+        <v>16490</v>
       </c>
       <c r="AM49" s="13">
-        <v>16490</v>
-      </c>
-      <c r="AN49" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AN49" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO49" s="13" t="s">
         <v>58</v>
@@ -7022,77 +7022,77 @@
       <c r="AD50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE50" s="11" t="s">
-        <v>58</v>
+      <c r="AE50" s="11">
+        <v>39</v>
       </c>
       <c r="AF50" s="11">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="AG50" s="11">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AH50" s="11">
         <v>10</v>
       </c>
       <c r="AI50" s="11">
-        <v>10</v>
+        <v>678</v>
       </c>
       <c r="AJ50" s="11">
-        <v>678</v>
+        <v>1581</v>
       </c>
       <c r="AK50" s="11">
-        <v>1581</v>
+        <v>0</v>
       </c>
       <c r="AL50" s="11">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="AM50" s="11">
-        <v>134</v>
+        <v>1912</v>
       </c>
       <c r="AN50" s="11">
-        <v>1912</v>
+        <v>0</v>
       </c>
       <c r="AO50" s="11">
         <v>0</v>
       </c>
       <c r="AP50" s="11">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AQ50" s="11">
-        <v>31</v>
+        <v>3815</v>
       </c>
       <c r="AR50" s="11">
-        <v>3815</v>
+        <v>1526</v>
       </c>
       <c r="AS50" s="11">
-        <v>1526</v>
+        <v>795</v>
       </c>
       <c r="AT50" s="11">
-        <v>795</v>
+        <v>4545</v>
       </c>
       <c r="AU50" s="11">
-        <v>4545</v>
+        <v>2187</v>
       </c>
       <c r="AV50" s="11">
-        <v>2187</v>
+        <v>7654</v>
       </c>
       <c r="AW50" s="11">
-        <v>7654</v>
+        <v>4516</v>
       </c>
       <c r="AX50" s="11">
-        <v>4516</v>
+        <v>26</v>
       </c>
       <c r="AY50" s="11">
-        <v>26</v>
+        <v>654</v>
       </c>
       <c r="AZ50" s="11">
-        <v>654</v>
+        <v>10396</v>
       </c>
       <c r="BA50" s="11">
-        <v>10396</v>
+        <v>2381</v>
       </c>
       <c r="BB50" s="11">
-        <v>2381</v>
+        <v>2393</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -7181,14 +7181,14 @@
       <c r="AD51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE51" s="13" t="s">
-        <v>58</v>
+      <c r="AE51" s="13">
+        <v>147</v>
       </c>
       <c r="AF51" s="13">
-        <v>147</v>
+        <v>360</v>
       </c>
       <c r="AG51" s="13">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="AH51" s="13">
         <v>0</v>
@@ -7209,49 +7209,49 @@
         <v>0</v>
       </c>
       <c r="AN51" s="13">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="AO51" s="13">
-        <v>381</v>
+        <v>1006</v>
       </c>
       <c r="AP51" s="13">
-        <v>1006</v>
+        <v>1076</v>
       </c>
       <c r="AQ51" s="13">
-        <v>1076</v>
+        <v>365</v>
       </c>
       <c r="AR51" s="13">
-        <v>365</v>
+        <v>448</v>
       </c>
       <c r="AS51" s="13">
-        <v>448</v>
+        <v>134</v>
       </c>
       <c r="AT51" s="13">
-        <v>134</v>
+        <v>810</v>
       </c>
       <c r="AU51" s="13">
-        <v>810</v>
+        <v>634</v>
       </c>
       <c r="AV51" s="13">
-        <v>634</v>
+        <v>130</v>
       </c>
       <c r="AW51" s="13">
-        <v>130</v>
+        <v>371</v>
       </c>
       <c r="AX51" s="13">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="AY51" s="13">
-        <v>406</v>
+        <v>146</v>
       </c>
       <c r="AZ51" s="13">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="BA51" s="13">
-        <v>50</v>
+        <v>930</v>
       </c>
       <c r="BB51" s="13">
-        <v>930</v>
+        <v>714</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -7340,77 +7340,77 @@
       <c r="AD52" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE52" s="11" t="s">
-        <v>58</v>
+      <c r="AE52" s="11">
+        <v>5</v>
       </c>
       <c r="AF52" s="11">
+        <v>3</v>
+      </c>
+      <c r="AG52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="11">
+        <v>20</v>
+      </c>
+      <c r="AJ52" s="11">
         <v>5</v>
       </c>
-      <c r="AG52" s="11">
-        <v>3</v>
-      </c>
-      <c r="AH52" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI52" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ52" s="11">
-        <v>20</v>
-      </c>
       <c r="AK52" s="11">
-        <v>5</v>
+        <v>1300</v>
       </c>
       <c r="AL52" s="11">
-        <v>1300</v>
+        <v>2513</v>
       </c>
       <c r="AM52" s="11">
-        <v>2513</v>
+        <v>1726</v>
       </c>
       <c r="AN52" s="11">
-        <v>1726</v>
+        <v>2053</v>
       </c>
       <c r="AO52" s="11">
-        <v>2053</v>
+        <v>1641</v>
       </c>
       <c r="AP52" s="11">
-        <v>1641</v>
+        <v>311</v>
       </c>
       <c r="AQ52" s="11">
-        <v>311</v>
+        <v>1</v>
       </c>
       <c r="AR52" s="11">
         <v>1</v>
       </c>
       <c r="AS52" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT52" s="11">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AU52" s="11">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="AV52" s="11">
-        <v>54</v>
+        <v>654</v>
       </c>
       <c r="AW52" s="11">
-        <v>654</v>
+        <v>6</v>
       </c>
       <c r="AX52" s="11">
-        <v>6</v>
+        <v>291</v>
       </c>
       <c r="AY52" s="11">
-        <v>291</v>
+        <v>37</v>
       </c>
       <c r="AZ52" s="11">
-        <v>37</v>
+        <v>260</v>
       </c>
       <c r="BA52" s="11">
-        <v>260</v>
+        <v>105</v>
       </c>
       <c r="BB52" s="11">
-        <v>105</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -7523,53 +7523,53 @@
       <c r="AL53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM53" s="13" t="s">
-        <v>58</v>
+      <c r="AM53" s="13">
+        <v>11325</v>
       </c>
       <c r="AN53" s="13">
-        <v>11325</v>
+        <v>7153</v>
       </c>
       <c r="AO53" s="13">
-        <v>7153</v>
+        <v>8165</v>
       </c>
       <c r="AP53" s="13">
-        <v>8165</v>
+        <v>4875</v>
       </c>
       <c r="AQ53" s="13">
-        <v>4875</v>
+        <v>6469</v>
       </c>
       <c r="AR53" s="13">
-        <v>6469</v>
+        <v>4095</v>
       </c>
       <c r="AS53" s="13">
-        <v>4095</v>
+        <v>3240</v>
       </c>
       <c r="AT53" s="13">
-        <v>3240</v>
+        <v>3680</v>
       </c>
       <c r="AU53" s="13">
-        <v>3680</v>
+        <v>5110</v>
       </c>
       <c r="AV53" s="13">
-        <v>5110</v>
+        <v>10380</v>
       </c>
       <c r="AW53" s="13">
-        <v>10380</v>
+        <v>8753</v>
       </c>
       <c r="AX53" s="13">
-        <v>8753</v>
+        <v>4425</v>
       </c>
       <c r="AY53" s="13">
-        <v>4425</v>
+        <v>14110</v>
       </c>
       <c r="AZ53" s="13">
-        <v>14110</v>
+        <v>6525</v>
       </c>
       <c r="BA53" s="13">
-        <v>6525</v>
+        <v>7114</v>
       </c>
       <c r="BB53" s="13">
-        <v>7114</v>
+        <v>5572</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -7682,8 +7682,8 @@
       <c r="AL54" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM54" s="11" t="s">
-        <v>58</v>
+      <c r="AM54" s="11">
+        <v>0</v>
       </c>
       <c r="AN54" s="11">
         <v>0</v>
@@ -7691,44 +7691,44 @@
       <c r="AO54" s="11">
         <v>0</v>
       </c>
-      <c r="AP54" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ54" s="11" t="s">
-        <v>58</v>
+      <c r="AP54" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ54" s="11">
+        <v>0</v>
       </c>
       <c r="AR54" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS54" s="11">
         <v>7</v>
       </c>
-      <c r="AT54" s="11" t="s">
-        <v>58</v>
+      <c r="AS54" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT54" s="11">
+        <v>2</v>
       </c>
       <c r="AU54" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV54" s="11">
         <v>0</v>
       </c>
       <c r="AW54" s="11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX54" s="11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY54" s="11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AZ54" s="11">
         <v>0</v>
       </c>
       <c r="BA54" s="11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BB54" s="11">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -7841,8 +7841,8 @@
       <c r="AL55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM55" s="13" t="s">
-        <v>58</v>
+      <c r="AM55" s="13">
+        <v>0</v>
       </c>
       <c r="AN55" s="13">
         <v>0</v>
@@ -7851,43 +7851,43 @@
         <v>0</v>
       </c>
       <c r="AP55" s="13">
-        <v>0</v>
+        <v>3640</v>
       </c>
       <c r="AQ55" s="13">
-        <v>3640</v>
+        <v>0</v>
       </c>
       <c r="AR55" s="13">
-        <v>0</v>
+        <v>3676</v>
       </c>
       <c r="AS55" s="13">
-        <v>3676</v>
+        <v>1257</v>
       </c>
       <c r="AT55" s="13">
-        <v>1257</v>
+        <v>0</v>
       </c>
       <c r="AU55" s="13">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AV55" s="13">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="AW55" s="13">
-        <v>99</v>
+        <v>5373</v>
       </c>
       <c r="AX55" s="13">
-        <v>5373</v>
+        <v>3793</v>
       </c>
       <c r="AY55" s="13">
-        <v>3793</v>
+        <v>58</v>
       </c>
       <c r="AZ55" s="13">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="BA55" s="13">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="BB55" s="13">
-        <v>22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -8000,53 +8000,53 @@
       <c r="AL56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM56" s="11" t="s">
-        <v>58</v>
+      <c r="AM56" s="11">
+        <v>1634</v>
       </c>
       <c r="AN56" s="11">
-        <v>1634</v>
+        <v>2365</v>
       </c>
       <c r="AO56" s="11">
-        <v>2365</v>
-      </c>
-      <c r="AP56" s="11">
         <v>4724</v>
       </c>
-      <c r="AQ56" s="11" t="s">
-        <v>58</v>
+      <c r="AP56" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ56" s="11">
+        <v>0</v>
       </c>
       <c r="AR56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS56" s="11">
         <v>3765</v>
       </c>
-      <c r="AT56" s="11" t="s">
-        <v>58</v>
+      <c r="AS56" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT56" s="11">
+        <v>0</v>
       </c>
       <c r="AU56" s="11">
         <v>0</v>
       </c>
       <c r="AV56" s="11">
-        <v>0</v>
+        <v>4371</v>
       </c>
       <c r="AW56" s="11">
-        <v>4371</v>
+        <v>601</v>
       </c>
       <c r="AX56" s="11">
-        <v>601</v>
+        <v>1449</v>
       </c>
       <c r="AY56" s="11">
-        <v>1449</v>
+        <v>0</v>
       </c>
       <c r="AZ56" s="11">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="BA56" s="11">
-        <v>1050</v>
+        <v>1</v>
       </c>
       <c r="BB56" s="11">
-        <v>1</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -8159,8 +8159,8 @@
       <c r="AL57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM57" s="13" t="s">
-        <v>58</v>
+      <c r="AM57" s="13">
+        <v>0</v>
       </c>
       <c r="AN57" s="13">
         <v>0</v>
@@ -8169,34 +8169,34 @@
         <v>0</v>
       </c>
       <c r="AP57" s="13">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AQ57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS57" s="13">
+        <v>6080</v>
+      </c>
+      <c r="AT57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV57" s="13">
         <v>960</v>
       </c>
-      <c r="AR57" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS57" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT57" s="13">
-        <v>6080</v>
-      </c>
-      <c r="AU57" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV57" s="13">
-        <v>0</v>
-      </c>
       <c r="AW57" s="13">
-        <v>960</v>
+        <v>3200</v>
       </c>
       <c r="AX57" s="13">
         <v>3200</v>
       </c>
       <c r="AY57" s="13">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="AZ57" s="13">
         <v>0</v>
@@ -8318,8 +8318,8 @@
       <c r="AL58" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM58" s="11" t="s">
-        <v>58</v>
+      <c r="AM58" s="11">
+        <v>0</v>
       </c>
       <c r="AN58" s="11">
         <v>0</v>
@@ -8327,20 +8327,20 @@
       <c r="AO58" s="11">
         <v>0</v>
       </c>
-      <c r="AP58" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ58" s="11" t="s">
-        <v>58</v>
+      <c r="AP58" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ58" s="11">
+        <v>0</v>
       </c>
       <c r="AR58" s="11">
         <v>0</v>
       </c>
-      <c r="AS58" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT58" s="11" t="s">
-        <v>58</v>
+      <c r="AS58" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT58" s="11">
+        <v>0</v>
       </c>
       <c r="AU58" s="11">
         <v>0</v>
@@ -8361,10 +8361,10 @@
         <v>0</v>
       </c>
       <c r="BA58" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB58" s="11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.3">
@@ -8498,8 +8498,8 @@
       <c r="AS59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT59" s="13" t="s">
-        <v>58</v>
+      <c r="AT59" s="13">
+        <v>0</v>
       </c>
       <c r="AU59" s="13">
         <v>0</v>
@@ -8593,94 +8593,94 @@
         <v>0</v>
       </c>
       <c r="Y60" s="15">
-        <v>0</v>
+        <v>39026</v>
       </c>
       <c r="Z60" s="15">
-        <v>39026</v>
+        <v>35477</v>
       </c>
       <c r="AA60" s="15">
-        <v>35477</v>
+        <v>35784</v>
       </c>
       <c r="AB60" s="15">
-        <v>35784</v>
+        <v>43502</v>
       </c>
       <c r="AC60" s="15">
-        <v>43502</v>
+        <v>31414</v>
       </c>
       <c r="AD60" s="15">
-        <v>31414</v>
+        <v>44979</v>
       </c>
       <c r="AE60" s="15">
-        <v>44979</v>
+        <v>53841</v>
       </c>
       <c r="AF60" s="15">
-        <v>53841</v>
+        <v>24999</v>
       </c>
       <c r="AG60" s="15">
-        <v>24999</v>
+        <v>10062</v>
       </c>
       <c r="AH60" s="15">
-        <v>10062</v>
+        <v>35185</v>
       </c>
       <c r="AI60" s="15">
-        <v>35185</v>
+        <v>44907</v>
       </c>
       <c r="AJ60" s="15">
-        <v>44907</v>
+        <v>35692</v>
       </c>
       <c r="AK60" s="15">
-        <v>35692</v>
+        <v>38743</v>
       </c>
       <c r="AL60" s="15">
-        <v>38743</v>
+        <v>42113</v>
       </c>
       <c r="AM60" s="15">
-        <v>42113</v>
+        <v>41526</v>
       </c>
       <c r="AN60" s="15">
-        <v>41526</v>
+        <v>33287</v>
       </c>
       <c r="AO60" s="15">
-        <v>33287</v>
+        <v>37499</v>
       </c>
       <c r="AP60" s="15">
-        <v>37499</v>
+        <v>49067</v>
       </c>
       <c r="AQ60" s="15">
-        <v>49067</v>
+        <v>34480</v>
       </c>
       <c r="AR60" s="15">
-        <v>34480</v>
+        <v>34918</v>
       </c>
       <c r="AS60" s="15">
-        <v>34918</v>
+        <v>20644</v>
       </c>
       <c r="AT60" s="15">
-        <v>20644</v>
+        <v>34489</v>
       </c>
       <c r="AU60" s="15">
-        <v>34489</v>
+        <v>37015</v>
       </c>
       <c r="AV60" s="15">
-        <v>37015</v>
+        <v>48273</v>
       </c>
       <c r="AW60" s="15">
-        <v>48273</v>
+        <v>48291</v>
       </c>
       <c r="AX60" s="15">
-        <v>48291</v>
+        <v>38450</v>
       </c>
       <c r="AY60" s="15">
-        <v>38450</v>
+        <v>31867</v>
       </c>
       <c r="AZ60" s="15">
-        <v>31867</v>
+        <v>37776</v>
       </c>
       <c r="BA60" s="15">
-        <v>37776</v>
+        <v>56842</v>
       </c>
       <c r="BB60" s="15">
-        <v>56842</v>
+        <v>54027</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -8850,12 +8850,12 @@
       <c r="AL62" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM62" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN62" s="11">
+      <c r="AM62" s="11">
         <v>4799</v>
       </c>
+      <c r="AN62" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AO62" s="11" t="s">
         <v>58</v>
       </c>
@@ -8874,14 +8874,14 @@
       <c r="AT62" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU62" s="11" t="s">
-        <v>58</v>
+      <c r="AU62" s="11">
+        <v>0</v>
       </c>
       <c r="AV62" s="11">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AW62" s="11">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AX62" s="11">
         <v>0</v>
@@ -8967,8 +8967,8 @@
       <c r="X63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y63" s="13" t="s">
-        <v>58</v>
+      <c r="Y63" s="13">
+        <v>0</v>
       </c>
       <c r="Z63" s="13">
         <v>0</v>
@@ -8994,8 +8994,8 @@
       <c r="AG63" s="13">
         <v>0</v>
       </c>
-      <c r="AH63" s="13">
-        <v>0</v>
+      <c r="AH63" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI63" s="13" t="s">
         <v>58</v>
@@ -9135,11 +9135,11 @@
       <c r="AA64" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB64" s="11" t="s">
-        <v>58</v>
+      <c r="AB64" s="11">
+        <v>1000</v>
       </c>
       <c r="AC64" s="11">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD64" s="11">
         <v>0</v>
@@ -9153,8 +9153,8 @@
       <c r="AG64" s="11">
         <v>0</v>
       </c>
-      <c r="AH64" s="11">
-        <v>0</v>
+      <c r="AH64" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI64" s="11" t="s">
         <v>58</v>
@@ -9330,11 +9330,11 @@
       <c r="AM65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO65" s="13">
-        <v>0</v>
+      <c r="AN65" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO65" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP65" s="13" t="s">
         <v>58</v>
@@ -9348,23 +9348,23 @@
       <c r="AS65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT65" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU65" s="13">
-        <v>0</v>
+      <c r="AT65" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU65" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW65" s="13" t="s">
-        <v>58</v>
+      <c r="AW65" s="13">
+        <v>0</v>
       </c>
       <c r="AX65" s="13">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="AY65" s="13">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="AZ65" s="13">
         <v>0</v>
@@ -9452,10 +9452,10 @@
         <v>0</v>
       </c>
       <c r="AB66" s="15">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC66" s="15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD66" s="15">
         <v>0</v>
@@ -9485,10 +9485,10 @@
         <v>0</v>
       </c>
       <c r="AM66" s="15">
-        <v>0</v>
+        <v>4799</v>
       </c>
       <c r="AN66" s="15">
-        <v>4799</v>
+        <v>0</v>
       </c>
       <c r="AO66" s="15">
         <v>0</v>
@@ -9512,16 +9512,16 @@
         <v>0</v>
       </c>
       <c r="AV66" s="15">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AW66" s="15">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AX66" s="15">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="AY66" s="15">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="AZ66" s="15">
         <v>0</v>
@@ -9719,17 +9719,17 @@
       <c r="AS68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT68" s="11" t="s">
-        <v>58</v>
+      <c r="AT68" s="11">
+        <v>0</v>
       </c>
       <c r="AU68" s="11">
         <v>0</v>
       </c>
-      <c r="AV68" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW68" s="11" t="s">
-        <v>58</v>
+      <c r="AV68" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW68" s="11">
+        <v>0</v>
       </c>
       <c r="AX68" s="11">
         <v>0</v>
@@ -9737,11 +9737,11 @@
       <c r="AY68" s="11">
         <v>0</v>
       </c>
-      <c r="AZ68" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA68" s="11" t="s">
-        <v>58</v>
+      <c r="AZ68" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA68" s="11">
+        <v>0</v>
       </c>
       <c r="BB68" s="11" t="s">
         <v>58</v>
@@ -9813,8 +9813,8 @@
       <c r="X69" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y69" s="17" t="s">
-        <v>58</v>
+      <c r="Y69" s="17">
+        <v>0</v>
       </c>
       <c r="Z69" s="17">
         <v>0</v>
@@ -10029,8 +10029,8 @@
       <c r="X71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y71" s="11" t="s">
-        <v>58</v>
+      <c r="Y71" s="11">
+        <v>0</v>
       </c>
       <c r="Z71" s="11">
         <v>0</v>
@@ -10056,8 +10056,8 @@
       <c r="AG71" s="11">
         <v>0</v>
       </c>
-      <c r="AH71" s="11">
-        <v>0</v>
+      <c r="AH71" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI71" s="11" t="s">
         <v>58</v>
@@ -10065,11 +10065,11 @@
       <c r="AJ71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK71" s="11" t="s">
-        <v>58</v>
+      <c r="AK71" s="11">
+        <v>-576</v>
       </c>
       <c r="AL71" s="11">
-        <v>-576</v>
+        <v>0</v>
       </c>
       <c r="AM71" s="11">
         <v>0</v>
@@ -10077,17 +10077,17 @@
       <c r="AN71" s="11">
         <v>0</v>
       </c>
-      <c r="AO71" s="11">
-        <v>0</v>
+      <c r="AO71" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ71" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR71" s="11">
-        <v>0</v>
+      <c r="AQ71" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR71" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS71" s="11" t="s">
         <v>58</v>
@@ -10101,8 +10101,8 @@
       <c r="AV71" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW71" s="11" t="s">
-        <v>58</v>
+      <c r="AW71" s="11">
+        <v>0</v>
       </c>
       <c r="AX71" s="11">
         <v>0</v>
@@ -10110,11 +10110,11 @@
       <c r="AY71" s="11">
         <v>0</v>
       </c>
-      <c r="AZ71" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA71" s="11" t="s">
-        <v>58</v>
+      <c r="AZ71" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA71" s="11">
+        <v>0</v>
       </c>
       <c r="BB71" s="11" t="s">
         <v>58</v>
@@ -10251,29 +10251,29 @@
       <c r="AS72" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT72" s="13" t="s">
-        <v>58</v>
+      <c r="AT72" s="13">
+        <v>0</v>
       </c>
       <c r="AU72" s="13">
-        <v>0</v>
-      </c>
-      <c r="AV72" s="13">
         <v>-599</v>
       </c>
-      <c r="AW72" s="13" t="s">
-        <v>58</v>
+      <c r="AV72" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW72" s="13">
+        <v>0</v>
       </c>
       <c r="AX72" s="13">
-        <v>0</v>
+        <v>-483</v>
       </c>
       <c r="AY72" s="13">
-        <v>-483</v>
-      </c>
-      <c r="AZ72" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA72" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AZ72" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA72" s="13">
+        <v>0</v>
       </c>
       <c r="BB72" s="13" t="s">
         <v>58</v>
@@ -10359,23 +10359,23 @@
       <c r="AB73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC73" s="11" t="s">
-        <v>58</v>
+      <c r="AC73" s="11">
+        <v>-120</v>
       </c>
       <c r="AD73" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="11">
         <v>-120</v>
       </c>
-      <c r="AE73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH73" s="11">
-        <v>-120</v>
+      <c r="AH73" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI73" s="11" t="s">
         <v>58</v>
@@ -10386,53 +10386,53 @@
       <c r="AK73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL73" s="11" t="s">
-        <v>58</v>
+      <c r="AL73" s="11">
+        <v>-855</v>
       </c>
       <c r="AM73" s="11">
-        <v>-855</v>
+        <v>0</v>
       </c>
       <c r="AN73" s="11">
         <v>0</v>
       </c>
-      <c r="AO73" s="11">
-        <v>0</v>
+      <c r="AO73" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR73" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS73" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT73" s="11">
+      <c r="AQ73" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR73" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS73" s="11">
         <v>-40</v>
       </c>
+      <c r="AT73" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU73" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AV73" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW73" s="11" t="s">
-        <v>58</v>
+      <c r="AW73" s="11">
+        <v>0</v>
       </c>
       <c r="AX73" s="11">
-        <v>0</v>
+        <v>-525</v>
       </c>
       <c r="AY73" s="11">
-        <v>-525</v>
-      </c>
-      <c r="AZ73" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA73" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AZ73" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA73" s="11">
+        <v>0</v>
       </c>
       <c r="BB73" s="11" t="s">
         <v>58</v>
@@ -10512,8 +10512,8 @@
       <c r="Z74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA74" s="13" t="s">
-        <v>58</v>
+      <c r="AA74" s="13">
+        <v>0</v>
       </c>
       <c r="AB74" s="13">
         <v>0</v>
@@ -10533,8 +10533,8 @@
       <c r="AG74" s="13">
         <v>0</v>
       </c>
-      <c r="AH74" s="13">
-        <v>0</v>
+      <c r="AH74" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI74" s="13" t="s">
         <v>58</v>
@@ -10563,11 +10563,11 @@
       <c r="AQ74" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS74" s="13">
+      <c r="AR74" s="13">
         <v>-12</v>
+      </c>
+      <c r="AS74" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT74" s="13" t="s">
         <v>58</v>
@@ -10701,29 +10701,29 @@
       <c r="AJ75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK75" s="11" t="s">
-        <v>58</v>
+      <c r="AK75" s="11">
+        <v>-25</v>
       </c>
       <c r="AL75" s="11">
-        <v>-25</v>
+        <v>-125</v>
       </c>
       <c r="AM75" s="11">
-        <v>-125</v>
+        <v>0</v>
       </c>
       <c r="AN75" s="11">
         <v>0</v>
       </c>
-      <c r="AO75" s="11">
-        <v>0</v>
+      <c r="AO75" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ75" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR75" s="11">
-        <v>0</v>
+      <c r="AQ75" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR75" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS75" s="11" t="s">
         <v>58</v>
@@ -10737,8 +10737,8 @@
       <c r="AV75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW75" s="11" t="s">
-        <v>58</v>
+      <c r="AW75" s="11">
+        <v>0</v>
       </c>
       <c r="AX75" s="11">
         <v>0</v>
@@ -10746,11 +10746,11 @@
       <c r="AY75" s="11">
         <v>0</v>
       </c>
-      <c r="AZ75" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA75" s="11" t="s">
-        <v>58</v>
+      <c r="AZ75" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA75" s="11">
+        <v>0</v>
       </c>
       <c r="BB75" s="11" t="s">
         <v>58</v>
@@ -10860,8 +10860,8 @@
       <c r="AJ76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK76" s="13" t="s">
-        <v>58</v>
+      <c r="AK76" s="13">
+        <v>0</v>
       </c>
       <c r="AL76" s="13">
         <v>0</v>
@@ -10872,44 +10872,44 @@
       <c r="AN76" s="13">
         <v>0</v>
       </c>
-      <c r="AO76" s="13">
-        <v>0</v>
+      <c r="AO76" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ76" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR76" s="13">
+      <c r="AQ76" s="13">
         <v>-8</v>
       </c>
+      <c r="AR76" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS76" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AT76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU76" s="13" t="s">
-        <v>58</v>
+      <c r="AU76" s="13">
+        <v>0</v>
       </c>
       <c r="AV76" s="13">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="AW76" s="13">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="AX76" s="13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AY76" s="13">
-        <v>-1</v>
-      </c>
-      <c r="AZ76" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA76" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AZ76" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA76" s="13">
+        <v>0</v>
       </c>
       <c r="BB76" s="13" t="s">
         <v>58</v>
@@ -10981,8 +10981,8 @@
       <c r="X77" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y77" s="15" t="s">
-        <v>58</v>
+      <c r="Y77" s="15">
+        <v>0</v>
       </c>
       <c r="Z77" s="15">
         <v>0</v>
@@ -10994,22 +10994,22 @@
         <v>0</v>
       </c>
       <c r="AC77" s="15">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="AD77" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG77" s="15">
         <v>-120</v>
       </c>
-      <c r="AE77" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF77" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG77" s="15">
-        <v>0</v>
-      </c>
       <c r="AH77" s="15">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="AI77" s="15">
         <v>0</v>
@@ -11018,13 +11018,13 @@
         <v>0</v>
       </c>
       <c r="AK77" s="15">
-        <v>0</v>
+        <v>-601</v>
       </c>
       <c r="AL77" s="15">
-        <v>-601</v>
+        <v>-980</v>
       </c>
       <c r="AM77" s="15">
-        <v>-980</v>
+        <v>0</v>
       </c>
       <c r="AN77" s="15">
         <v>0</v>
@@ -11036,31 +11036,31 @@
         <v>0</v>
       </c>
       <c r="AQ77" s="15">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AR77" s="15">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="AS77" s="15">
+        <v>-40</v>
+      </c>
+      <c r="AT77" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU77" s="15">
+        <v>-599</v>
+      </c>
+      <c r="AV77" s="15">
         <v>-12</v>
       </c>
-      <c r="AT77" s="15">
-        <v>-40</v>
-      </c>
-      <c r="AU77" s="15">
-        <v>0</v>
-      </c>
-      <c r="AV77" s="15">
-        <v>-599</v>
-      </c>
       <c r="AW77" s="15">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="AX77" s="15">
-        <v>0</v>
+        <v>-1009</v>
       </c>
       <c r="AY77" s="15">
-        <v>-1009</v>
+        <v>0</v>
       </c>
       <c r="AZ77" s="15">
         <v>0</v>
@@ -11139,94 +11139,94 @@
         <v>0</v>
       </c>
       <c r="Y78" s="17">
-        <v>0</v>
+        <v>39026</v>
       </c>
       <c r="Z78" s="17">
-        <v>39026</v>
+        <v>35477</v>
       </c>
       <c r="AA78" s="17">
-        <v>35477</v>
+        <v>35784</v>
       </c>
       <c r="AB78" s="17">
-        <v>35784</v>
+        <v>44502</v>
       </c>
       <c r="AC78" s="17">
-        <v>44502</v>
+        <v>31294</v>
       </c>
       <c r="AD78" s="17">
-        <v>31294</v>
+        <v>44979</v>
       </c>
       <c r="AE78" s="17">
-        <v>44979</v>
+        <v>53841</v>
       </c>
       <c r="AF78" s="17">
-        <v>53841</v>
+        <v>24999</v>
       </c>
       <c r="AG78" s="17">
-        <v>24999</v>
+        <v>9942</v>
       </c>
       <c r="AH78" s="17">
-        <v>9942</v>
+        <v>35185</v>
       </c>
       <c r="AI78" s="17">
-        <v>35185</v>
+        <v>44907</v>
       </c>
       <c r="AJ78" s="17">
-        <v>44907</v>
+        <v>35692</v>
       </c>
       <c r="AK78" s="17">
-        <v>35692</v>
+        <v>38142</v>
       </c>
       <c r="AL78" s="17">
-        <v>38142</v>
+        <v>41133</v>
       </c>
       <c r="AM78" s="17">
-        <v>41133</v>
+        <v>46325</v>
       </c>
       <c r="AN78" s="17">
-        <v>46325</v>
+        <v>33287</v>
       </c>
       <c r="AO78" s="17">
-        <v>33287</v>
+        <v>37499</v>
       </c>
       <c r="AP78" s="17">
-        <v>37499</v>
+        <v>49067</v>
       </c>
       <c r="AQ78" s="17">
-        <v>49067</v>
+        <v>34472</v>
       </c>
       <c r="AR78" s="17">
-        <v>34472</v>
+        <v>34906</v>
       </c>
       <c r="AS78" s="17">
-        <v>34906</v>
+        <v>20604</v>
       </c>
       <c r="AT78" s="17">
-        <v>20604</v>
+        <v>34489</v>
       </c>
       <c r="AU78" s="17">
-        <v>34489</v>
+        <v>36416</v>
       </c>
       <c r="AV78" s="17">
-        <v>36416</v>
+        <v>48286</v>
       </c>
       <c r="AW78" s="17">
-        <v>48286</v>
+        <v>48291</v>
       </c>
       <c r="AX78" s="17">
-        <v>48291</v>
+        <v>39141</v>
       </c>
       <c r="AY78" s="17">
-        <v>39141</v>
+        <v>31867</v>
       </c>
       <c r="AZ78" s="17">
-        <v>31867</v>
+        <v>37776</v>
       </c>
       <c r="BA78" s="17">
-        <v>37776</v>
+        <v>56842</v>
       </c>
       <c r="BB78" s="17">
-        <v>56842</v>
+        <v>54027</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -11731,95 +11731,95 @@
       <c r="X85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y85" s="11" t="s">
-        <v>58</v>
+      <c r="Y85" s="11">
+        <v>10244</v>
       </c>
       <c r="Z85" s="11">
-        <v>10244</v>
+        <v>15544</v>
       </c>
       <c r="AA85" s="11">
-        <v>15544</v>
+        <v>3053</v>
       </c>
       <c r="AB85" s="11">
-        <v>3053</v>
+        <v>5616</v>
       </c>
       <c r="AC85" s="11">
-        <v>5616</v>
+        <v>15220</v>
       </c>
       <c r="AD85" s="11">
-        <v>15220</v>
+        <v>10491</v>
       </c>
       <c r="AE85" s="11">
-        <v>10491</v>
+        <v>10458</v>
       </c>
       <c r="AF85" s="11">
-        <v>10458</v>
+        <v>1414</v>
       </c>
       <c r="AG85" s="11">
-        <v>1414</v>
+        <v>0</v>
       </c>
       <c r="AH85" s="11">
-        <v>0</v>
+        <v>24693</v>
       </c>
       <c r="AI85" s="11">
-        <v>24693</v>
+        <v>15811</v>
       </c>
       <c r="AJ85" s="11">
-        <v>15811</v>
+        <v>4608</v>
       </c>
       <c r="AK85" s="11">
-        <v>4608</v>
+        <v>26527</v>
       </c>
       <c r="AL85" s="11">
-        <v>26527</v>
+        <v>27943</v>
       </c>
       <c r="AM85" s="11">
-        <v>27943</v>
+        <v>0</v>
       </c>
       <c r="AN85" s="11">
         <v>0</v>
       </c>
       <c r="AO85" s="11">
-        <v>0</v>
+        <v>39319</v>
       </c>
       <c r="AP85" s="11">
-        <v>39319</v>
+        <v>29764</v>
       </c>
       <c r="AQ85" s="11">
-        <v>29764</v>
+        <v>17181</v>
       </c>
       <c r="AR85" s="11">
-        <v>17181</v>
+        <v>13326</v>
       </c>
       <c r="AS85" s="11">
-        <v>13326</v>
+        <v>8064</v>
       </c>
       <c r="AT85" s="11">
-        <v>8064</v>
+        <v>26400</v>
       </c>
       <c r="AU85" s="11">
-        <v>26400</v>
+        <v>34386</v>
       </c>
       <c r="AV85" s="11">
-        <v>34386</v>
+        <v>34260</v>
       </c>
       <c r="AW85" s="11">
-        <v>34260</v>
+        <v>38508</v>
       </c>
       <c r="AX85" s="11">
-        <v>38508</v>
+        <v>56804</v>
       </c>
       <c r="AY85" s="11">
-        <v>56804</v>
+        <v>34992</v>
       </c>
       <c r="AZ85" s="11">
-        <v>34992</v>
+        <v>37952</v>
       </c>
       <c r="BA85" s="11">
-        <v>37952</v>
+        <v>38456</v>
       </c>
       <c r="BB85" s="11">
-        <v>38456</v>
+        <v>39686</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -11890,95 +11890,95 @@
       <c r="X86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y86" s="13" t="s">
-        <v>58</v>
+      <c r="Y86" s="13">
+        <v>16366</v>
       </c>
       <c r="Z86" s="13">
-        <v>16366</v>
+        <v>7215</v>
       </c>
       <c r="AA86" s="13">
-        <v>7215</v>
+        <v>8223</v>
       </c>
       <c r="AB86" s="13">
-        <v>8223</v>
+        <v>33619</v>
       </c>
       <c r="AC86" s="13">
-        <v>33619</v>
+        <v>9785</v>
       </c>
       <c r="AD86" s="13">
-        <v>9785</v>
+        <v>23520</v>
       </c>
       <c r="AE86" s="13">
-        <v>23520</v>
+        <v>15422</v>
       </c>
       <c r="AF86" s="13">
-        <v>15422</v>
+        <v>14101</v>
       </c>
       <c r="AG86" s="13">
-        <v>14101</v>
+        <v>9287</v>
       </c>
       <c r="AH86" s="13">
-        <v>9287</v>
+        <v>0</v>
       </c>
       <c r="AI86" s="13">
-        <v>0</v>
+        <v>24291</v>
       </c>
       <c r="AJ86" s="13">
-        <v>24291</v>
+        <v>22948</v>
       </c>
       <c r="AK86" s="13">
-        <v>22948</v>
+        <v>27976</v>
       </c>
       <c r="AL86" s="13">
-        <v>27976</v>
+        <v>72693</v>
       </c>
       <c r="AM86" s="13">
-        <v>72693</v>
+        <v>70591</v>
       </c>
       <c r="AN86" s="13">
-        <v>70591</v>
+        <v>65857</v>
       </c>
       <c r="AO86" s="13">
-        <v>65857</v>
+        <v>39543</v>
       </c>
       <c r="AP86" s="13">
-        <v>39543</v>
+        <v>152659</v>
       </c>
       <c r="AQ86" s="13">
-        <v>152659</v>
+        <v>51635</v>
       </c>
       <c r="AR86" s="13">
-        <v>51635</v>
+        <v>62547</v>
       </c>
       <c r="AS86" s="13">
-        <v>62547</v>
+        <v>27457</v>
       </c>
       <c r="AT86" s="13">
-        <v>27457</v>
+        <v>49877</v>
       </c>
       <c r="AU86" s="13">
-        <v>49877</v>
+        <v>112185</v>
       </c>
       <c r="AV86" s="13">
-        <v>112185</v>
+        <v>69989</v>
       </c>
       <c r="AW86" s="13">
-        <v>69989</v>
+        <v>53377</v>
       </c>
       <c r="AX86" s="13">
-        <v>53377</v>
+        <v>164290</v>
       </c>
       <c r="AY86" s="13">
-        <v>164290</v>
+        <v>49799</v>
       </c>
       <c r="AZ86" s="13">
-        <v>49799</v>
+        <v>21713</v>
       </c>
       <c r="BA86" s="13">
-        <v>21713</v>
+        <v>71893</v>
       </c>
       <c r="BB86" s="13">
-        <v>71893</v>
+        <v>105323</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
@@ -12049,95 +12049,95 @@
       <c r="X87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y87" s="11" t="s">
-        <v>58</v>
+      <c r="Y87" s="11">
+        <v>31790</v>
       </c>
       <c r="Z87" s="11">
-        <v>31790</v>
+        <v>16629</v>
       </c>
       <c r="AA87" s="11">
-        <v>16629</v>
+        <v>56998</v>
       </c>
       <c r="AB87" s="11">
-        <v>56998</v>
+        <v>40413</v>
       </c>
       <c r="AC87" s="11">
-        <v>40413</v>
+        <v>16935</v>
       </c>
       <c r="AD87" s="11">
-        <v>16935</v>
+        <v>36019</v>
       </c>
       <c r="AE87" s="11">
-        <v>36019</v>
+        <v>12899</v>
       </c>
       <c r="AF87" s="11">
-        <v>12899</v>
+        <v>4650</v>
       </c>
       <c r="AG87" s="11">
-        <v>4650</v>
+        <v>0</v>
       </c>
       <c r="AH87" s="11">
-        <v>0</v>
+        <v>67282</v>
       </c>
       <c r="AI87" s="11">
-        <v>67282</v>
+        <v>42368</v>
       </c>
       <c r="AJ87" s="11">
-        <v>42368</v>
+        <v>80167</v>
       </c>
       <c r="AK87" s="11">
-        <v>80167</v>
+        <v>94134</v>
       </c>
       <c r="AL87" s="11">
-        <v>94134</v>
+        <v>5650</v>
       </c>
       <c r="AM87" s="11">
-        <v>5650</v>
+        <v>169268</v>
       </c>
       <c r="AN87" s="11">
-        <v>169268</v>
+        <v>69272</v>
       </c>
       <c r="AO87" s="11">
-        <v>69272</v>
+        <v>16800</v>
       </c>
       <c r="AP87" s="11">
-        <v>16800</v>
+        <v>130551</v>
       </c>
       <c r="AQ87" s="11">
-        <v>130551</v>
+        <v>24930</v>
       </c>
       <c r="AR87" s="11">
-        <v>24930</v>
+        <v>45272</v>
       </c>
       <c r="AS87" s="11">
-        <v>45272</v>
+        <v>39323</v>
       </c>
       <c r="AT87" s="11">
-        <v>39323</v>
+        <v>55145</v>
       </c>
       <c r="AU87" s="11">
-        <v>55145</v>
+        <v>75072</v>
       </c>
       <c r="AV87" s="11">
-        <v>75072</v>
+        <v>47245</v>
       </c>
       <c r="AW87" s="11">
-        <v>47245</v>
+        <v>65173</v>
       </c>
       <c r="AX87" s="11">
-        <v>65173</v>
+        <v>111485</v>
       </c>
       <c r="AY87" s="11">
-        <v>111485</v>
+        <v>37744</v>
       </c>
       <c r="AZ87" s="11">
-        <v>37744</v>
+        <v>146165</v>
       </c>
       <c r="BA87" s="11">
-        <v>146165</v>
+        <v>124817</v>
       </c>
       <c r="BB87" s="11">
-        <v>124817</v>
+        <v>38864</v>
       </c>
     </row>
     <row r="88" spans="2:54" x14ac:dyDescent="0.3">
@@ -12259,11 +12259,11 @@
       <c r="AO88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP88" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ88" s="13">
-        <v>0</v>
+      <c r="AP88" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ88" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR88" s="13" t="s">
         <v>58</v>
@@ -12271,8 +12271,8 @@
       <c r="AS88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT88" s="13" t="s">
-        <v>58</v>
+      <c r="AT88" s="13">
+        <v>0</v>
       </c>
       <c r="AU88" s="13">
         <v>0</v>
@@ -12367,95 +12367,95 @@
       <c r="X89" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y89" s="11" t="s">
-        <v>58</v>
+      <c r="Y89" s="11">
+        <v>130038</v>
       </c>
       <c r="Z89" s="11">
-        <v>130038</v>
+        <v>131357</v>
       </c>
       <c r="AA89" s="11">
-        <v>131357</v>
+        <v>73617</v>
       </c>
       <c r="AB89" s="11">
-        <v>73617</v>
+        <v>18037</v>
       </c>
       <c r="AC89" s="11">
-        <v>18037</v>
+        <v>57129</v>
       </c>
       <c r="AD89" s="11">
-        <v>57129</v>
+        <v>21808</v>
       </c>
       <c r="AE89" s="11">
-        <v>21808</v>
+        <v>40891</v>
       </c>
       <c r="AF89" s="11">
-        <v>40891</v>
+        <v>76756</v>
       </c>
       <c r="AG89" s="11">
-        <v>76756</v>
+        <v>77988</v>
       </c>
       <c r="AH89" s="11">
-        <v>77988</v>
+        <v>88866</v>
       </c>
       <c r="AI89" s="11">
-        <v>88866</v>
+        <v>161189</v>
       </c>
       <c r="AJ89" s="11">
-        <v>161189</v>
+        <v>161051</v>
       </c>
       <c r="AK89" s="11">
-        <v>161051</v>
+        <v>111029</v>
       </c>
       <c r="AL89" s="11">
-        <v>111029</v>
+        <v>112500</v>
       </c>
       <c r="AM89" s="11">
-        <v>112500</v>
+        <v>22722</v>
       </c>
       <c r="AN89" s="11">
-        <v>22722</v>
+        <v>122743</v>
       </c>
       <c r="AO89" s="11">
-        <v>122743</v>
+        <v>127244</v>
       </c>
       <c r="AP89" s="11">
-        <v>127244</v>
+        <v>11504</v>
       </c>
       <c r="AQ89" s="11">
-        <v>11504</v>
+        <v>158191</v>
       </c>
       <c r="AR89" s="11">
-        <v>158191</v>
+        <v>80980</v>
       </c>
       <c r="AS89" s="11">
-        <v>80980</v>
+        <v>47536</v>
       </c>
       <c r="AT89" s="11">
-        <v>47536</v>
+        <v>114300</v>
       </c>
       <c r="AU89" s="11">
-        <v>114300</v>
+        <v>76651</v>
       </c>
       <c r="AV89" s="11">
-        <v>76651</v>
+        <v>63568</v>
       </c>
       <c r="AW89" s="11">
-        <v>63568</v>
+        <v>96730</v>
       </c>
       <c r="AX89" s="11">
-        <v>96730</v>
+        <v>0</v>
       </c>
       <c r="AY89" s="11">
-        <v>0</v>
+        <v>261127</v>
       </c>
       <c r="AZ89" s="11">
-        <v>261127</v>
+        <v>176825</v>
       </c>
       <c r="BA89" s="11">
-        <v>176825</v>
+        <v>1453748</v>
       </c>
       <c r="BB89" s="11">
-        <v>1453748</v>
+        <v>819298</v>
       </c>
     </row>
     <row r="90" spans="2:54" x14ac:dyDescent="0.3">
@@ -12526,53 +12526,53 @@
       <c r="X90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y90" s="13" t="s">
-        <v>58</v>
+      <c r="Y90" s="13">
+        <v>64872</v>
       </c>
       <c r="Z90" s="13">
-        <v>64872</v>
+        <v>49255</v>
       </c>
       <c r="AA90" s="13">
-        <v>49255</v>
+        <v>73759</v>
       </c>
       <c r="AB90" s="13">
-        <v>73759</v>
+        <v>115364</v>
       </c>
       <c r="AC90" s="13">
-        <v>115364</v>
+        <v>110748</v>
       </c>
       <c r="AD90" s="13">
-        <v>110748</v>
+        <v>129549</v>
       </c>
       <c r="AE90" s="13">
-        <v>129549</v>
+        <v>134919</v>
       </c>
       <c r="AF90" s="13">
-        <v>134919</v>
+        <v>57758</v>
       </c>
       <c r="AG90" s="13">
-        <v>57758</v>
+        <v>13489</v>
       </c>
       <c r="AH90" s="13">
-        <v>13489</v>
+        <v>100525</v>
       </c>
       <c r="AI90" s="13">
-        <v>100525</v>
+        <v>75515</v>
       </c>
       <c r="AJ90" s="13">
-        <v>75515</v>
+        <v>72533</v>
       </c>
       <c r="AK90" s="13">
-        <v>72533</v>
+        <v>77914</v>
       </c>
       <c r="AL90" s="13">
-        <v>77914</v>
+        <v>95525</v>
       </c>
       <c r="AM90" s="13">
-        <v>95525</v>
-      </c>
-      <c r="AN90" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AN90" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO90" s="13" t="s">
         <v>58</v>
@@ -12703,77 +12703,77 @@
       <c r="AD91" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE91" s="11" t="s">
-        <v>58</v>
+      <c r="AE91" s="11">
+        <v>3955</v>
       </c>
       <c r="AF91" s="11">
-        <v>3955</v>
+        <v>12</v>
       </c>
       <c r="AG91" s="11">
-        <v>12</v>
+        <v>999</v>
       </c>
       <c r="AH91" s="11">
-        <v>999</v>
+        <v>1025</v>
       </c>
       <c r="AI91" s="11">
-        <v>1025</v>
+        <v>3672</v>
       </c>
       <c r="AJ91" s="11">
-        <v>3672</v>
+        <v>9200</v>
       </c>
       <c r="AK91" s="11">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="AL91" s="11">
-        <v>0</v>
+        <v>1930</v>
       </c>
       <c r="AM91" s="11">
-        <v>1930</v>
+        <v>17778</v>
       </c>
       <c r="AN91" s="11">
-        <v>17778</v>
+        <v>0</v>
       </c>
       <c r="AO91" s="11">
         <v>0</v>
       </c>
       <c r="AP91" s="11">
-        <v>0</v>
+        <v>3116</v>
       </c>
       <c r="AQ91" s="11">
-        <v>3116</v>
+        <v>17230</v>
       </c>
       <c r="AR91" s="11">
-        <v>17230</v>
+        <v>10048</v>
       </c>
       <c r="AS91" s="11">
-        <v>10048</v>
+        <v>5528</v>
       </c>
       <c r="AT91" s="11">
-        <v>5528</v>
+        <v>24735</v>
       </c>
       <c r="AU91" s="11">
-        <v>24735</v>
+        <v>26181</v>
       </c>
       <c r="AV91" s="11">
-        <v>26181</v>
+        <v>49098</v>
       </c>
       <c r="AW91" s="11">
-        <v>49098</v>
+        <v>23172</v>
       </c>
       <c r="AX91" s="11">
-        <v>23172</v>
+        <v>17901</v>
       </c>
       <c r="AY91" s="11">
-        <v>17901</v>
+        <v>42798</v>
       </c>
       <c r="AZ91" s="11">
-        <v>42798</v>
+        <v>122273</v>
       </c>
       <c r="BA91" s="11">
-        <v>122273</v>
+        <v>68053</v>
       </c>
       <c r="BB91" s="11">
-        <v>68053</v>
+        <v>23928</v>
       </c>
     </row>
     <row r="92" spans="2:54" x14ac:dyDescent="0.3">
@@ -12862,14 +12862,14 @@
       <c r="AD92" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE92" s="13" t="s">
-        <v>58</v>
+      <c r="AE92" s="13">
+        <v>1177</v>
       </c>
       <c r="AF92" s="13">
-        <v>1177</v>
+        <v>17398</v>
       </c>
       <c r="AG92" s="13">
-        <v>17398</v>
+        <v>0</v>
       </c>
       <c r="AH92" s="13">
         <v>0</v>
@@ -12890,49 +12890,49 @@
         <v>0</v>
       </c>
       <c r="AN92" s="13">
-        <v>0</v>
+        <v>21353</v>
       </c>
       <c r="AO92" s="13">
-        <v>21353</v>
+        <v>30220</v>
       </c>
       <c r="AP92" s="13">
-        <v>30220</v>
+        <v>46680</v>
       </c>
       <c r="AQ92" s="13">
-        <v>46680</v>
+        <v>9844</v>
       </c>
       <c r="AR92" s="13">
-        <v>9844</v>
+        <v>12781</v>
       </c>
       <c r="AS92" s="13">
-        <v>12781</v>
+        <v>3890</v>
       </c>
       <c r="AT92" s="13">
-        <v>3890</v>
+        <v>45435</v>
       </c>
       <c r="AU92" s="13">
-        <v>45435</v>
+        <v>17375</v>
       </c>
       <c r="AV92" s="13">
-        <v>17375</v>
+        <v>11173</v>
       </c>
       <c r="AW92" s="13">
-        <v>11173</v>
+        <v>17311</v>
       </c>
       <c r="AX92" s="13">
-        <v>17311</v>
+        <v>11430</v>
       </c>
       <c r="AY92" s="13">
-        <v>11430</v>
+        <v>9533</v>
       </c>
       <c r="AZ92" s="13">
-        <v>9533</v>
+        <v>2900</v>
       </c>
       <c r="BA92" s="13">
-        <v>2900</v>
+        <v>54332</v>
       </c>
       <c r="BB92" s="13">
-        <v>54332</v>
+        <v>41400</v>
       </c>
     </row>
     <row r="93" spans="2:54" x14ac:dyDescent="0.3">
@@ -13021,77 +13021,77 @@
       <c r="AD93" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE93" s="11" t="s">
-        <v>58</v>
+      <c r="AE93" s="11">
+        <v>645</v>
       </c>
       <c r="AF93" s="11">
-        <v>645</v>
+        <v>1719</v>
       </c>
       <c r="AG93" s="11">
-        <v>1719</v>
+        <v>0</v>
       </c>
       <c r="AH93" s="11">
         <v>0</v>
       </c>
       <c r="AI93" s="11">
-        <v>0</v>
+        <v>1523</v>
       </c>
       <c r="AJ93" s="11">
-        <v>1523</v>
+        <v>336</v>
       </c>
       <c r="AK93" s="11">
-        <v>336</v>
+        <v>46475</v>
       </c>
       <c r="AL93" s="11">
-        <v>46475</v>
+        <v>91274</v>
       </c>
       <c r="AM93" s="11">
-        <v>91274</v>
+        <v>62623</v>
       </c>
       <c r="AN93" s="11">
-        <v>62623</v>
+        <v>75018</v>
       </c>
       <c r="AO93" s="11">
-        <v>75018</v>
+        <v>56545</v>
       </c>
       <c r="AP93" s="11">
-        <v>56545</v>
+        <v>10701</v>
       </c>
       <c r="AQ93" s="11">
-        <v>10701</v>
+        <v>16</v>
       </c>
       <c r="AR93" s="11">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="AS93" s="11">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="AT93" s="11">
-        <v>254</v>
+        <v>10086</v>
       </c>
       <c r="AU93" s="11">
-        <v>10086</v>
+        <v>4158</v>
       </c>
       <c r="AV93" s="11">
-        <v>4158</v>
+        <v>23238</v>
       </c>
       <c r="AW93" s="11">
-        <v>23238</v>
+        <v>5789</v>
       </c>
       <c r="AX93" s="11">
-        <v>5789</v>
+        <v>9935</v>
       </c>
       <c r="AY93" s="11">
-        <v>9935</v>
+        <v>8998</v>
       </c>
       <c r="AZ93" s="11">
-        <v>8998</v>
+        <v>61298</v>
       </c>
       <c r="BA93" s="11">
-        <v>61298</v>
+        <v>9673</v>
       </c>
       <c r="BB93" s="11">
-        <v>9673</v>
+        <v>4209</v>
       </c>
     </row>
     <row r="94" spans="2:54" x14ac:dyDescent="0.3">
@@ -13204,53 +13204,53 @@
       <c r="AL94" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM94" s="13" t="s">
-        <v>58</v>
+      <c r="AM94" s="13">
+        <v>58236</v>
       </c>
       <c r="AN94" s="13">
-        <v>58236</v>
+        <v>59344</v>
       </c>
       <c r="AO94" s="13">
-        <v>59344</v>
+        <v>48835</v>
       </c>
       <c r="AP94" s="13">
-        <v>48835</v>
+        <v>26710</v>
       </c>
       <c r="AQ94" s="13">
-        <v>26710</v>
+        <v>42642</v>
       </c>
       <c r="AR94" s="13">
-        <v>42642</v>
+        <v>25062</v>
       </c>
       <c r="AS94" s="13">
-        <v>25062</v>
+        <v>15592</v>
       </c>
       <c r="AT94" s="13">
-        <v>15592</v>
+        <v>31625</v>
       </c>
       <c r="AU94" s="13">
-        <v>31625</v>
+        <v>55558</v>
       </c>
       <c r="AV94" s="13">
-        <v>55558</v>
+        <v>86141</v>
       </c>
       <c r="AW94" s="13">
-        <v>86141</v>
+        <v>102480</v>
       </c>
       <c r="AX94" s="13">
-        <v>102480</v>
+        <v>32670</v>
       </c>
       <c r="AY94" s="13">
-        <v>32670</v>
+        <v>100453</v>
       </c>
       <c r="AZ94" s="13">
-        <v>100453</v>
+        <v>11350</v>
       </c>
       <c r="BA94" s="13">
-        <v>11350</v>
+        <v>19008</v>
       </c>
       <c r="BB94" s="13">
-        <v>19008</v>
+        <v>75520</v>
       </c>
     </row>
     <row r="95" spans="2:54" x14ac:dyDescent="0.3">
@@ -13363,8 +13363,8 @@
       <c r="AL95" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM95" s="11" t="s">
-        <v>58</v>
+      <c r="AM95" s="11">
+        <v>0</v>
       </c>
       <c r="AN95" s="11">
         <v>0</v>
@@ -13379,37 +13379,37 @@
         <v>0</v>
       </c>
       <c r="AR95" s="11">
-        <v>0</v>
+        <v>8450</v>
       </c>
       <c r="AS95" s="11">
-        <v>8450</v>
+        <v>0</v>
       </c>
       <c r="AT95" s="11">
-        <v>0</v>
+        <v>2015</v>
       </c>
       <c r="AU95" s="11">
-        <v>2015</v>
+        <v>0</v>
       </c>
       <c r="AV95" s="11">
         <v>0</v>
       </c>
       <c r="AW95" s="11">
-        <v>0</v>
+        <v>6825</v>
       </c>
       <c r="AX95" s="11">
-        <v>6825</v>
+        <v>4485</v>
       </c>
       <c r="AY95" s="11">
-        <v>4485</v>
+        <v>0</v>
       </c>
       <c r="AZ95" s="11">
         <v>0</v>
       </c>
       <c r="BA95" s="11">
-        <v>0</v>
+        <v>4550</v>
       </c>
       <c r="BB95" s="11">
-        <v>4550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:54" x14ac:dyDescent="0.3">
@@ -13522,8 +13522,8 @@
       <c r="AL96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM96" s="13" t="s">
-        <v>58</v>
+      <c r="AM96" s="13">
+        <v>0</v>
       </c>
       <c r="AN96" s="13">
         <v>0</v>
@@ -13532,43 +13532,43 @@
         <v>0</v>
       </c>
       <c r="AP96" s="13">
-        <v>0</v>
+        <v>11604</v>
       </c>
       <c r="AQ96" s="13">
-        <v>11604</v>
+        <v>0</v>
       </c>
       <c r="AR96" s="13">
-        <v>0</v>
+        <v>12887</v>
       </c>
       <c r="AS96" s="13">
-        <v>12887</v>
+        <v>7398</v>
       </c>
       <c r="AT96" s="13">
-        <v>7398</v>
+        <v>0</v>
       </c>
       <c r="AU96" s="13">
-        <v>0</v>
+        <v>2288</v>
       </c>
       <c r="AV96" s="13">
-        <v>2288</v>
+        <v>78</v>
       </c>
       <c r="AW96" s="13">
-        <v>78</v>
+        <v>30753</v>
       </c>
       <c r="AX96" s="13">
-        <v>30753</v>
+        <v>18621</v>
       </c>
       <c r="AY96" s="13">
-        <v>18621</v>
+        <v>89</v>
       </c>
       <c r="AZ96" s="13">
-        <v>89</v>
+        <v>19009</v>
       </c>
       <c r="BA96" s="13">
-        <v>19009</v>
+        <v>7699</v>
       </c>
       <c r="BB96" s="13">
-        <v>7699</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:54" x14ac:dyDescent="0.3">
@@ -13681,26 +13681,26 @@
       <c r="AL97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM97" s="11" t="s">
-        <v>58</v>
+      <c r="AM97" s="11">
+        <v>18953</v>
       </c>
       <c r="AN97" s="11">
-        <v>18953</v>
+        <v>35459</v>
       </c>
       <c r="AO97" s="11">
-        <v>35459</v>
+        <v>70860</v>
       </c>
       <c r="AP97" s="11">
-        <v>70860</v>
+        <v>0</v>
       </c>
       <c r="AQ97" s="11">
         <v>0</v>
       </c>
       <c r="AR97" s="11">
-        <v>0</v>
+        <v>56474</v>
       </c>
       <c r="AS97" s="11">
-        <v>56474</v>
+        <v>0</v>
       </c>
       <c r="AT97" s="11">
         <v>0</v>
@@ -13709,25 +13709,25 @@
         <v>0</v>
       </c>
       <c r="AV97" s="11">
-        <v>0</v>
+        <v>65565</v>
       </c>
       <c r="AW97" s="11">
-        <v>65565</v>
+        <v>9216</v>
       </c>
       <c r="AX97" s="11">
-        <v>9216</v>
+        <v>21956</v>
       </c>
       <c r="AY97" s="11">
-        <v>21956</v>
+        <v>0</v>
       </c>
       <c r="AZ97" s="11">
-        <v>0</v>
+        <v>15900</v>
       </c>
       <c r="BA97" s="11">
-        <v>15900</v>
+        <v>15</v>
       </c>
       <c r="BB97" s="11">
-        <v>15</v>
+        <v>75300</v>
       </c>
     </row>
     <row r="98" spans="2:54" x14ac:dyDescent="0.3">
@@ -13840,8 +13840,8 @@
       <c r="AL98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM98" s="13" t="s">
-        <v>58</v>
+      <c r="AM98" s="13">
+        <v>0</v>
       </c>
       <c r="AN98" s="13">
         <v>0</v>
@@ -13850,34 +13850,34 @@
         <v>0</v>
       </c>
       <c r="AP98" s="13">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="AQ98" s="13">
-        <v>691</v>
+        <v>0</v>
       </c>
       <c r="AR98" s="13">
         <v>0</v>
       </c>
       <c r="AS98" s="13">
-        <v>0</v>
+        <v>4560</v>
       </c>
       <c r="AT98" s="13">
-        <v>4560</v>
+        <v>0</v>
       </c>
       <c r="AU98" s="13">
         <v>0</v>
       </c>
       <c r="AV98" s="13">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="AW98" s="13">
-        <v>864</v>
+        <v>2880</v>
       </c>
       <c r="AX98" s="13">
         <v>2880</v>
       </c>
       <c r="AY98" s="13">
-        <v>2880</v>
+        <v>0</v>
       </c>
       <c r="AZ98" s="13">
         <v>0</v>
@@ -13999,8 +13999,8 @@
       <c r="AL99" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM99" s="11" t="s">
-        <v>58</v>
+      <c r="AM99" s="11">
+        <v>0</v>
       </c>
       <c r="AN99" s="11">
         <v>0</v>
@@ -14042,10 +14042,10 @@
         <v>0</v>
       </c>
       <c r="BA99" s="11">
-        <v>0</v>
+        <v>3960</v>
       </c>
       <c r="BB99" s="11">
-        <v>3960</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="2:54" x14ac:dyDescent="0.3">
@@ -14167,11 +14167,11 @@
       <c r="AO100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP100" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ100" s="13">
-        <v>0</v>
+      <c r="AP100" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ100" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR100" s="13" t="s">
         <v>58</v>
@@ -14179,8 +14179,8 @@
       <c r="AS100" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT100" s="13" t="s">
-        <v>58</v>
+      <c r="AT100" s="13">
+        <v>0</v>
       </c>
       <c r="AU100" s="13">
         <v>0</v>
@@ -14274,94 +14274,94 @@
         <v>0</v>
       </c>
       <c r="Y101" s="15">
-        <v>0</v>
+        <v>253310</v>
       </c>
       <c r="Z101" s="15">
-        <v>253310</v>
+        <v>220000</v>
       </c>
       <c r="AA101" s="15">
-        <v>220000</v>
+        <v>215650</v>
       </c>
       <c r="AB101" s="15">
-        <v>215650</v>
+        <v>213049</v>
       </c>
       <c r="AC101" s="15">
-        <v>213049</v>
+        <v>209817</v>
       </c>
       <c r="AD101" s="15">
-        <v>209817</v>
+        <v>221387</v>
       </c>
       <c r="AE101" s="15">
-        <v>221387</v>
+        <v>220366</v>
       </c>
       <c r="AF101" s="15">
-        <v>220366</v>
+        <v>173808</v>
       </c>
       <c r="AG101" s="15">
-        <v>173808</v>
+        <v>101763</v>
       </c>
       <c r="AH101" s="15">
-        <v>101763</v>
+        <v>282391</v>
       </c>
       <c r="AI101" s="15">
-        <v>282391</v>
+        <v>324369</v>
       </c>
       <c r="AJ101" s="15">
-        <v>324369</v>
+        <v>350843</v>
       </c>
       <c r="AK101" s="15">
-        <v>350843</v>
+        <v>384055</v>
       </c>
       <c r="AL101" s="15">
-        <v>384055</v>
+        <v>407515</v>
       </c>
       <c r="AM101" s="15">
-        <v>407515</v>
+        <v>420171</v>
       </c>
       <c r="AN101" s="15">
-        <v>420171</v>
+        <v>449046</v>
       </c>
       <c r="AO101" s="15">
-        <v>449046</v>
+        <v>429366</v>
       </c>
       <c r="AP101" s="15">
-        <v>429366</v>
+        <v>423980</v>
       </c>
       <c r="AQ101" s="15">
-        <v>423980</v>
+        <v>321669</v>
       </c>
       <c r="AR101" s="15">
-        <v>321669</v>
+        <v>327902</v>
       </c>
       <c r="AS101" s="15">
-        <v>327902</v>
+        <v>159602</v>
       </c>
       <c r="AT101" s="15">
-        <v>159602</v>
+        <v>359618</v>
       </c>
       <c r="AU101" s="15">
-        <v>359618</v>
+        <v>403854</v>
       </c>
       <c r="AV101" s="15">
-        <v>403854</v>
+        <v>451219</v>
       </c>
       <c r="AW101" s="15">
-        <v>451219</v>
+        <v>452214</v>
       </c>
       <c r="AX101" s="15">
-        <v>452214</v>
+        <v>452457</v>
       </c>
       <c r="AY101" s="15">
-        <v>452457</v>
+        <v>545533</v>
       </c>
       <c r="AZ101" s="15">
-        <v>545533</v>
+        <v>615385</v>
       </c>
       <c r="BA101" s="15">
-        <v>615385</v>
+        <v>1856204</v>
       </c>
       <c r="BB101" s="15">
-        <v>1856204</v>
+        <v>1223528</v>
       </c>
     </row>
     <row r="102" spans="2:54" x14ac:dyDescent="0.3">
@@ -14531,12 +14531,12 @@
       <c r="AL103" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM103" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN103" s="11">
+      <c r="AM103" s="11">
         <v>23993</v>
       </c>
+      <c r="AN103" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AO103" s="11" t="s">
         <v>58</v>
       </c>
@@ -14555,14 +14555,14 @@
       <c r="AT103" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU103" s="11" t="s">
-        <v>58</v>
+      <c r="AU103" s="11">
+        <v>0</v>
       </c>
       <c r="AV103" s="11">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="AW103" s="11">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="AX103" s="11">
         <v>0</v>
@@ -14648,8 +14648,8 @@
       <c r="X104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y104" s="13" t="s">
-        <v>58</v>
+      <c r="Y104" s="13">
+        <v>0</v>
       </c>
       <c r="Z104" s="13">
         <v>0</v>
@@ -14675,8 +14675,8 @@
       <c r="AG104" s="13">
         <v>0</v>
       </c>
-      <c r="AH104" s="13">
-        <v>0</v>
+      <c r="AH104" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI104" s="13" t="s">
         <v>58</v>
@@ -14816,11 +14816,11 @@
       <c r="AA105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB105" s="11" t="s">
-        <v>58</v>
+      <c r="AB105" s="11">
+        <v>8400</v>
       </c>
       <c r="AC105" s="11">
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="AD105" s="11">
         <v>0</v>
@@ -14834,8 +14834,8 @@
       <c r="AG105" s="11">
         <v>0</v>
       </c>
-      <c r="AH105" s="11">
-        <v>0</v>
+      <c r="AH105" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI105" s="11" t="s">
         <v>58</v>
@@ -15011,8 +15011,8 @@
       <c r="AM106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN106" s="13" t="s">
-        <v>58</v>
+      <c r="AN106" s="13">
+        <v>0</v>
       </c>
       <c r="AO106" s="13">
         <v>0</v>
@@ -15032,20 +15032,20 @@
       <c r="AT106" s="13">
         <v>0</v>
       </c>
-      <c r="AU106" s="13">
-        <v>0</v>
+      <c r="AU106" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW106" s="13" t="s">
-        <v>58</v>
+      <c r="AW106" s="13">
+        <v>0</v>
       </c>
       <c r="AX106" s="13">
-        <v>0</v>
+        <v>18382</v>
       </c>
       <c r="AY106" s="13">
-        <v>18382</v>
+        <v>0</v>
       </c>
       <c r="AZ106" s="13">
         <v>0</v>
@@ -15133,10 +15133,10 @@
         <v>0</v>
       </c>
       <c r="AB107" s="15">
-        <v>0</v>
+        <v>8400</v>
       </c>
       <c r="AC107" s="15">
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="AD107" s="15">
         <v>0</v>
@@ -15166,10 +15166,10 @@
         <v>0</v>
       </c>
       <c r="AM107" s="15">
-        <v>0</v>
+        <v>23993</v>
       </c>
       <c r="AN107" s="15">
-        <v>23993</v>
+        <v>0</v>
       </c>
       <c r="AO107" s="15">
         <v>0</v>
@@ -15193,16 +15193,16 @@
         <v>0</v>
       </c>
       <c r="AV107" s="15">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="AW107" s="15">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="AX107" s="15">
-        <v>0</v>
+        <v>18382</v>
       </c>
       <c r="AY107" s="15">
-        <v>18382</v>
+        <v>0</v>
       </c>
       <c r="AZ107" s="15">
         <v>0</v>
@@ -15387,11 +15387,11 @@
       <c r="AN109" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO109" s="11" t="s">
-        <v>58</v>
+      <c r="AO109" s="11">
+        <v>1326</v>
       </c>
       <c r="AP109" s="11">
-        <v>1326</v>
+        <v>0</v>
       </c>
       <c r="AQ109" s="11">
         <v>0</v>
@@ -15498,8 +15498,8 @@
       <c r="X110" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y110" s="17" t="s">
-        <v>58</v>
+      <c r="Y110" s="17">
+        <v>0</v>
       </c>
       <c r="Z110" s="17">
         <v>0</v>
@@ -15547,10 +15547,10 @@
         <v>0</v>
       </c>
       <c r="AO110" s="17">
-        <v>0</v>
+        <v>1326</v>
       </c>
       <c r="AP110" s="17">
-        <v>1326</v>
+        <v>0</v>
       </c>
       <c r="AQ110" s="17">
         <v>0</v>
@@ -15714,8 +15714,8 @@
       <c r="X112" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y112" s="11" t="s">
-        <v>58</v>
+      <c r="Y112" s="11">
+        <v>0</v>
       </c>
       <c r="Z112" s="11">
         <v>0</v>
@@ -15741,8 +15741,8 @@
       <c r="AG112" s="11">
         <v>0</v>
       </c>
-      <c r="AH112" s="11">
-        <v>0</v>
+      <c r="AH112" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI112" s="11" t="s">
         <v>58</v>
@@ -15750,11 +15750,11 @@
       <c r="AJ112" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK112" s="11" t="s">
-        <v>58</v>
+      <c r="AK112" s="11">
+        <v>-3456</v>
       </c>
       <c r="AL112" s="11">
-        <v>-3456</v>
+        <v>0</v>
       </c>
       <c r="AM112" s="11">
         <v>0</v>
@@ -15777,8 +15777,8 @@
       <c r="AS112" s="11">
         <v>0</v>
       </c>
-      <c r="AT112" s="11">
-        <v>0</v>
+      <c r="AT112" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU112" s="11" t="s">
         <v>58</v>
@@ -15786,8 +15786,8 @@
       <c r="AV112" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW112" s="11" t="s">
-        <v>58</v>
+      <c r="AW112" s="11">
+        <v>0</v>
       </c>
       <c r="AX112" s="11">
         <v>0</v>
@@ -15936,23 +15936,23 @@
       <c r="AS113" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT113" s="13" t="s">
-        <v>58</v>
+      <c r="AT113" s="13">
+        <v>0</v>
       </c>
       <c r="AU113" s="13">
-        <v>0</v>
+        <v>-3596</v>
       </c>
       <c r="AV113" s="13">
-        <v>-3596</v>
+        <v>0</v>
       </c>
       <c r="AW113" s="13">
         <v>0</v>
       </c>
       <c r="AX113" s="13">
-        <v>0</v>
+        <v>-3623</v>
       </c>
       <c r="AY113" s="13">
-        <v>-3623</v>
+        <v>0</v>
       </c>
       <c r="AZ113" s="13">
         <v>0</v>
@@ -16044,11 +16044,11 @@
       <c r="AB114" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC114" s="11" t="s">
-        <v>58</v>
+      <c r="AC114" s="11">
+        <v>-1056</v>
       </c>
       <c r="AD114" s="11">
-        <v>-1056</v>
+        <v>0</v>
       </c>
       <c r="AE114" s="11">
         <v>0</v>
@@ -16057,11 +16057,11 @@
         <v>0</v>
       </c>
       <c r="AG114" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH114" s="11">
         <v>-992</v>
       </c>
+      <c r="AH114" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AI114" s="11" t="s">
         <v>58</v>
       </c>
@@ -16071,11 +16071,11 @@
       <c r="AK114" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL114" s="11" t="s">
-        <v>58</v>
+      <c r="AL114" s="11">
+        <v>-1668</v>
       </c>
       <c r="AM114" s="11">
-        <v>-1668</v>
+        <v>0</v>
       </c>
       <c r="AN114" s="11">
         <v>0</v>
@@ -16093,25 +16093,25 @@
         <v>0</v>
       </c>
       <c r="AS114" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT114" s="11">
         <v>-480</v>
       </c>
+      <c r="AT114" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU114" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AV114" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW114" s="11" t="s">
-        <v>58</v>
+      <c r="AW114" s="11">
+        <v>0</v>
       </c>
       <c r="AX114" s="11">
-        <v>0</v>
+        <v>-15225</v>
       </c>
       <c r="AY114" s="11">
-        <v>-15225</v>
+        <v>0</v>
       </c>
       <c r="AZ114" s="11">
         <v>0</v>
@@ -16197,8 +16197,8 @@
       <c r="Z115" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA115" s="13" t="s">
-        <v>58</v>
+      <c r="AA115" s="13">
+        <v>0</v>
       </c>
       <c r="AB115" s="13">
         <v>0</v>
@@ -16218,8 +16218,8 @@
       <c r="AG115" s="13">
         <v>0</v>
       </c>
-      <c r="AH115" s="13">
-        <v>0</v>
+      <c r="AH115" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI115" s="13" t="s">
         <v>58</v>
@@ -16248,14 +16248,14 @@
       <c r="AQ115" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR115" s="13" t="s">
-        <v>58</v>
+      <c r="AR115" s="13">
+        <v>-194</v>
       </c>
       <c r="AS115" s="13">
-        <v>-194</v>
-      </c>
-      <c r="AT115" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AT115" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU115" s="13" t="s">
         <v>58</v>
@@ -16386,14 +16386,14 @@
       <c r="AJ116" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK116" s="11" t="s">
-        <v>58</v>
+      <c r="AK116" s="11">
+        <v>-100</v>
       </c>
       <c r="AL116" s="11">
-        <v>-100</v>
+        <v>-520</v>
       </c>
       <c r="AM116" s="11">
-        <v>-520</v>
+        <v>0</v>
       </c>
       <c r="AN116" s="11">
         <v>0</v>
@@ -16413,8 +16413,8 @@
       <c r="AS116" s="11">
         <v>0</v>
       </c>
-      <c r="AT116" s="11">
-        <v>0</v>
+      <c r="AT116" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU116" s="11" t="s">
         <v>58</v>
@@ -16422,8 +16422,8 @@
       <c r="AV116" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW116" s="11" t="s">
-        <v>58</v>
+      <c r="AW116" s="11">
+        <v>0</v>
       </c>
       <c r="AX116" s="11">
         <v>0</v>
@@ -16545,11 +16545,11 @@
       <c r="AJ117" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK117" s="13" t="s">
-        <v>58</v>
+      <c r="AK117" s="13">
+        <v>-542</v>
       </c>
       <c r="AL117" s="13">
-        <v>-542</v>
+        <v>0</v>
       </c>
       <c r="AM117" s="13">
         <v>0</v>
@@ -16564,31 +16564,31 @@
         <v>0</v>
       </c>
       <c r="AQ117" s="13">
-        <v>0</v>
+        <v>-630</v>
       </c>
       <c r="AR117" s="13">
-        <v>-630</v>
+        <v>0</v>
       </c>
       <c r="AS117" s="13">
         <v>0</v>
       </c>
-      <c r="AT117" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU117" s="13" t="s">
-        <v>58</v>
+      <c r="AT117" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU117" s="13">
+        <v>0</v>
       </c>
       <c r="AV117" s="13">
-        <v>0</v>
+        <v>-901</v>
       </c>
       <c r="AW117" s="13">
-        <v>-901</v>
+        <v>0</v>
       </c>
       <c r="AX117" s="13">
-        <v>0</v>
+        <v>-73</v>
       </c>
       <c r="AY117" s="13">
-        <v>-73</v>
+        <v>0</v>
       </c>
       <c r="AZ117" s="13">
         <v>0</v>
@@ -16668,8 +16668,8 @@
       <c r="X118" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y118" s="15" t="s">
-        <v>58</v>
+      <c r="Y118" s="15">
+        <v>0</v>
       </c>
       <c r="Z118" s="15">
         <v>0</v>
@@ -16681,10 +16681,10 @@
         <v>0</v>
       </c>
       <c r="AC118" s="15">
-        <v>0</v>
+        <v>-1056</v>
       </c>
       <c r="AD118" s="15">
-        <v>-1056</v>
+        <v>0</v>
       </c>
       <c r="AE118" s="15">
         <v>0</v>
@@ -16693,10 +16693,10 @@
         <v>0</v>
       </c>
       <c r="AG118" s="15">
-        <v>0</v>
+        <v>-992</v>
       </c>
       <c r="AH118" s="15">
-        <v>-992</v>
+        <v>0</v>
       </c>
       <c r="AI118" s="15">
         <v>0</v>
@@ -16705,13 +16705,13 @@
         <v>0</v>
       </c>
       <c r="AK118" s="15">
-        <v>0</v>
+        <v>-4098</v>
       </c>
       <c r="AL118" s="15">
-        <v>-4098</v>
+        <v>-2188</v>
       </c>
       <c r="AM118" s="15">
-        <v>-2188</v>
+        <v>0</v>
       </c>
       <c r="AN118" s="15">
         <v>0</v>
@@ -16723,31 +16723,31 @@
         <v>0</v>
       </c>
       <c r="AQ118" s="15">
-        <v>0</v>
+        <v>-630</v>
       </c>
       <c r="AR118" s="15">
-        <v>-630</v>
+        <v>-194</v>
       </c>
       <c r="AS118" s="15">
-        <v>-194</v>
+        <v>-480</v>
       </c>
       <c r="AT118" s="15">
-        <v>-480</v>
+        <v>0</v>
       </c>
       <c r="AU118" s="15">
-        <v>0</v>
+        <v>-3596</v>
       </c>
       <c r="AV118" s="15">
-        <v>-3596</v>
+        <v>-901</v>
       </c>
       <c r="AW118" s="15">
-        <v>-901</v>
+        <v>0</v>
       </c>
       <c r="AX118" s="15">
-        <v>0</v>
+        <v>-18921</v>
       </c>
       <c r="AY118" s="15">
-        <v>-18921</v>
+        <v>0</v>
       </c>
       <c r="AZ118" s="15">
         <v>0</v>
@@ -16884,8 +16884,8 @@
       <c r="X120" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y120" s="11" t="s">
-        <v>58</v>
+      <c r="Y120" s="11">
+        <v>0</v>
       </c>
       <c r="Z120" s="11">
         <v>0</v>
@@ -17042,94 +17042,94 @@
         <v>0</v>
       </c>
       <c r="Y121" s="17">
-        <v>0</v>
+        <v>253310</v>
       </c>
       <c r="Z121" s="17">
-        <v>253310</v>
+        <v>220000</v>
       </c>
       <c r="AA121" s="17">
-        <v>220000</v>
+        <v>215650</v>
       </c>
       <c r="AB121" s="17">
-        <v>215650</v>
+        <v>221449</v>
       </c>
       <c r="AC121" s="17">
-        <v>221449</v>
+        <v>208761</v>
       </c>
       <c r="AD121" s="17">
-        <v>208761</v>
+        <v>221387</v>
       </c>
       <c r="AE121" s="17">
-        <v>221387</v>
+        <v>220366</v>
       </c>
       <c r="AF121" s="17">
-        <v>220366</v>
+        <v>173808</v>
       </c>
       <c r="AG121" s="17">
-        <v>173808</v>
+        <v>100771</v>
       </c>
       <c r="AH121" s="17">
-        <v>100771</v>
+        <v>282391</v>
       </c>
       <c r="AI121" s="17">
-        <v>282391</v>
+        <v>324369</v>
       </c>
       <c r="AJ121" s="17">
-        <v>324369</v>
+        <v>350843</v>
       </c>
       <c r="AK121" s="17">
-        <v>350843</v>
+        <v>379957</v>
       </c>
       <c r="AL121" s="17">
-        <v>379957</v>
+        <v>405327</v>
       </c>
       <c r="AM121" s="17">
-        <v>405327</v>
+        <v>444164</v>
       </c>
       <c r="AN121" s="17">
-        <v>444164</v>
+        <v>449046</v>
       </c>
       <c r="AO121" s="17">
-        <v>449046</v>
+        <v>430692</v>
       </c>
       <c r="AP121" s="17">
-        <v>430692</v>
+        <v>423980</v>
       </c>
       <c r="AQ121" s="17">
-        <v>423980</v>
+        <v>321039</v>
       </c>
       <c r="AR121" s="17">
-        <v>321039</v>
+        <v>327708</v>
       </c>
       <c r="AS121" s="17">
-        <v>327708</v>
+        <v>159122</v>
       </c>
       <c r="AT121" s="17">
-        <v>159122</v>
+        <v>359618</v>
       </c>
       <c r="AU121" s="17">
-        <v>359618</v>
+        <v>400258</v>
       </c>
       <c r="AV121" s="17">
-        <v>400258</v>
+        <v>450537</v>
       </c>
       <c r="AW121" s="17">
-        <v>450537</v>
+        <v>452214</v>
       </c>
       <c r="AX121" s="17">
-        <v>452214</v>
+        <v>451918</v>
       </c>
       <c r="AY121" s="17">
-        <v>451918</v>
+        <v>545533</v>
       </c>
       <c r="AZ121" s="17">
-        <v>545533</v>
+        <v>615385</v>
       </c>
       <c r="BA121" s="17">
-        <v>615385</v>
+        <v>1856204</v>
       </c>
       <c r="BB121" s="17">
-        <v>1856204</v>
+        <v>1223528</v>
       </c>
     </row>
     <row r="122" spans="2:54" x14ac:dyDescent="0.3">
@@ -17634,95 +17634,95 @@
       <c r="X128" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y128" s="11" t="s">
-        <v>58</v>
+      <c r="Y128" s="11">
+        <v>3964396</v>
       </c>
       <c r="Z128" s="11">
-        <v>3964396</v>
+        <v>4084078</v>
       </c>
       <c r="AA128" s="11">
-        <v>4084078</v>
+        <v>4199450</v>
       </c>
       <c r="AB128" s="11">
-        <v>4199450</v>
+        <v>4849741</v>
       </c>
       <c r="AC128" s="11">
-        <v>4849741</v>
+        <v>5404830</v>
       </c>
       <c r="AD128" s="11">
-        <v>5404830</v>
+        <v>5082849</v>
       </c>
       <c r="AE128" s="11">
-        <v>5082849</v>
+        <v>4999044</v>
       </c>
       <c r="AF128" s="11">
-        <v>4999044</v>
-      </c>
-      <c r="AG128" s="11">
         <v>5501946</v>
       </c>
-      <c r="AH128" s="11" t="s">
-        <v>58</v>
+      <c r="AG128" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH128" s="11">
+        <v>4448388</v>
       </c>
       <c r="AI128" s="11">
-        <v>4448388</v>
+        <v>6000380</v>
       </c>
       <c r="AJ128" s="11">
-        <v>6000380</v>
+        <v>6000000</v>
       </c>
       <c r="AK128" s="11">
+        <v>5934452</v>
+      </c>
+      <c r="AL128" s="11">
+        <v>5490863</v>
+      </c>
+      <c r="AM128" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN128" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO128" s="11">
+        <v>5749232</v>
+      </c>
+      <c r="AP128" s="11">
+        <v>5879889</v>
+      </c>
+      <c r="AQ128" s="11">
+        <v>5625737</v>
+      </c>
+      <c r="AR128" s="11">
+        <v>5527167</v>
+      </c>
+      <c r="AS128" s="11">
+        <v>7000000</v>
+      </c>
+      <c r="AT128" s="11">
+        <v>6273764</v>
+      </c>
+      <c r="AU128" s="11">
+        <v>6416496</v>
+      </c>
+      <c r="AV128" s="11">
+        <v>6744094</v>
+      </c>
+      <c r="AW128" s="11">
+        <v>6548980</v>
+      </c>
+      <c r="AX128" s="11">
+        <v>7459488</v>
+      </c>
+      <c r="AY128" s="11">
         <v>6000000</v>
       </c>
-      <c r="AL128" s="11">
-        <v>5934452</v>
-      </c>
-      <c r="AM128" s="11">
-        <v>5490863</v>
-      </c>
-      <c r="AN128" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO128" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP128" s="11">
-        <v>5749232</v>
-      </c>
-      <c r="AQ128" s="11">
-        <v>5879889</v>
-      </c>
-      <c r="AR128" s="11">
-        <v>5625737</v>
-      </c>
-      <c r="AS128" s="11">
-        <v>5527167</v>
-      </c>
-      <c r="AT128" s="11">
-        <v>7000000</v>
-      </c>
-      <c r="AU128" s="11">
-        <v>6273764</v>
-      </c>
-      <c r="AV128" s="11">
-        <v>6416496</v>
-      </c>
-      <c r="AW128" s="11">
-        <v>6744094</v>
-      </c>
-      <c r="AX128" s="11">
-        <v>6548980</v>
-      </c>
-      <c r="AY128" s="11">
-        <v>7459488</v>
-      </c>
       <c r="AZ128" s="11">
-        <v>6000000</v>
+        <v>7007386</v>
       </c>
       <c r="BA128" s="11">
-        <v>7007386</v>
+        <v>6986919</v>
       </c>
       <c r="BB128" s="11">
-        <v>6986919</v>
+        <v>6955135</v>
       </c>
     </row>
     <row r="129" spans="2:54" x14ac:dyDescent="0.3">
@@ -17793,95 +17793,95 @@
       <c r="X129" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y129" s="13" t="s">
-        <v>58</v>
+      <c r="Y129" s="13">
+        <v>2370167</v>
       </c>
       <c r="Z129" s="13">
-        <v>2370167</v>
+        <v>1764059</v>
       </c>
       <c r="AA129" s="13">
-        <v>1764059</v>
+        <v>1965344</v>
       </c>
       <c r="AB129" s="13">
-        <v>1965344</v>
+        <v>3468737</v>
       </c>
       <c r="AC129" s="13">
-        <v>3468737</v>
+        <v>2343713</v>
       </c>
       <c r="AD129" s="13">
-        <v>2343713</v>
+        <v>2598895</v>
       </c>
       <c r="AE129" s="13">
-        <v>2598895</v>
+        <v>3272920</v>
       </c>
       <c r="AF129" s="13">
-        <v>3272920</v>
+        <v>3686536</v>
       </c>
       <c r="AG129" s="13">
-        <v>3686536</v>
-      </c>
-      <c r="AH129" s="13">
         <v>9613872</v>
       </c>
-      <c r="AI129" s="13" t="s">
-        <v>58</v>
+      <c r="AH129" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI129" s="13">
+        <v>9499804</v>
       </c>
       <c r="AJ129" s="13">
-        <v>9499804</v>
+        <v>14959583</v>
       </c>
       <c r="AK129" s="13">
-        <v>14959583</v>
+        <v>8586863</v>
       </c>
       <c r="AL129" s="13">
-        <v>8586863</v>
+        <v>8059984</v>
       </c>
       <c r="AM129" s="13">
-        <v>8059984</v>
+        <v>6945882</v>
       </c>
       <c r="AN129" s="13">
-        <v>6945882</v>
+        <v>8521869</v>
       </c>
       <c r="AO129" s="13">
-        <v>8521869</v>
+        <v>7421734</v>
       </c>
       <c r="AP129" s="13">
-        <v>7421734</v>
+        <v>7221334</v>
       </c>
       <c r="AQ129" s="13">
-        <v>7221334</v>
+        <v>6534422</v>
       </c>
       <c r="AR129" s="13">
-        <v>6534422</v>
+        <v>5827541</v>
       </c>
       <c r="AS129" s="13">
-        <v>5827541</v>
+        <v>16160683</v>
       </c>
       <c r="AT129" s="13">
-        <v>16160683</v>
+        <v>5592846</v>
       </c>
       <c r="AU129" s="13">
-        <v>5592846</v>
+        <v>7592380</v>
       </c>
       <c r="AV129" s="13">
-        <v>7592380</v>
+        <v>6720019</v>
       </c>
       <c r="AW129" s="13">
-        <v>6720019</v>
+        <v>6384809</v>
       </c>
       <c r="AX129" s="13">
-        <v>6384809</v>
+        <v>13546339</v>
       </c>
       <c r="AY129" s="13">
-        <v>13546339</v>
+        <v>41292703</v>
       </c>
       <c r="AZ129" s="13">
-        <v>41292703</v>
+        <v>6458358</v>
       </c>
       <c r="BA129" s="13">
-        <v>6458358</v>
+        <v>13005246</v>
       </c>
       <c r="BB129" s="13">
-        <v>13005246</v>
+        <v>9404679</v>
       </c>
     </row>
     <row r="130" spans="2:54" x14ac:dyDescent="0.3">
@@ -17952,95 +17952,95 @@
       <c r="X130" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y130" s="11" t="s">
-        <v>58</v>
+      <c r="Y130" s="11">
+        <v>8820755</v>
       </c>
       <c r="Z130" s="11">
-        <v>8820755</v>
+        <v>8356281</v>
       </c>
       <c r="AA130" s="11">
-        <v>8356281</v>
+        <v>7389861</v>
       </c>
       <c r="AB130" s="11">
-        <v>7389861</v>
+        <v>7006415</v>
       </c>
       <c r="AC130" s="11">
-        <v>7006415</v>
+        <v>5514490</v>
       </c>
       <c r="AD130" s="11">
-        <v>5514490</v>
+        <v>5776905</v>
       </c>
       <c r="AE130" s="11">
-        <v>5776905</v>
+        <v>9547742</v>
       </c>
       <c r="AF130" s="11">
-        <v>9547742</v>
-      </c>
-      <c r="AG130" s="11">
         <v>7500000</v>
       </c>
-      <c r="AH130" s="11" t="s">
-        <v>58</v>
+      <c r="AG130" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH130" s="11">
+        <v>8829659</v>
       </c>
       <c r="AI130" s="11">
-        <v>8829659</v>
+        <v>11358713</v>
       </c>
       <c r="AJ130" s="11">
-        <v>11358713</v>
+        <v>13204909</v>
       </c>
       <c r="AK130" s="11">
-        <v>13204909</v>
+        <v>12662631</v>
       </c>
       <c r="AL130" s="11">
-        <v>12662631</v>
+        <v>3500620</v>
       </c>
       <c r="AM130" s="11">
-        <v>3500620</v>
+        <v>12725960</v>
       </c>
       <c r="AN130" s="11">
-        <v>12725960</v>
+        <v>11947568</v>
       </c>
       <c r="AO130" s="11">
-        <v>11947568</v>
+        <v>12000000</v>
       </c>
       <c r="AP130" s="11">
-        <v>12000000</v>
+        <v>11601440</v>
       </c>
       <c r="AQ130" s="11">
-        <v>11601440</v>
+        <v>8796754</v>
       </c>
       <c r="AR130" s="11">
-        <v>8796754</v>
+        <v>14936325</v>
       </c>
       <c r="AS130" s="11">
-        <v>14936325</v>
+        <v>12003358</v>
       </c>
       <c r="AT130" s="11">
-        <v>12003358</v>
+        <v>10812745</v>
       </c>
       <c r="AU130" s="11">
-        <v>10812745</v>
+        <v>18418057</v>
       </c>
       <c r="AV130" s="11">
-        <v>18418057</v>
+        <v>10204104</v>
       </c>
       <c r="AW130" s="11">
-        <v>10204104</v>
+        <v>13521369</v>
       </c>
       <c r="AX130" s="11">
-        <v>13521369</v>
+        <v>21799961</v>
       </c>
       <c r="AY130" s="11">
-        <v>21799961</v>
+        <v>10173585</v>
       </c>
       <c r="AZ130" s="11">
-        <v>10173585</v>
+        <v>21341072</v>
       </c>
       <c r="BA130" s="11">
-        <v>21341072</v>
+        <v>27979601</v>
       </c>
       <c r="BB130" s="11">
-        <v>27979601</v>
+        <v>11167816</v>
       </c>
     </row>
     <row r="131" spans="2:54" x14ac:dyDescent="0.3">
@@ -18111,95 +18111,95 @@
       <c r="X131" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y131" s="13" t="s">
-        <v>58</v>
+      <c r="Y131" s="13">
+        <v>11775604</v>
       </c>
       <c r="Z131" s="13">
-        <v>11775604</v>
+        <v>10925476</v>
       </c>
       <c r="AA131" s="13">
-        <v>10925476</v>
+        <v>9790797</v>
       </c>
       <c r="AB131" s="13">
-        <v>9790797</v>
+        <v>7499792</v>
       </c>
       <c r="AC131" s="13">
-        <v>7499792</v>
+        <v>13166398</v>
       </c>
       <c r="AD131" s="13">
-        <v>13166398</v>
+        <v>10591549</v>
       </c>
       <c r="AE131" s="13">
-        <v>10591549</v>
+        <v>9500697</v>
       </c>
       <c r="AF131" s="13">
-        <v>9500697</v>
+        <v>9544392</v>
       </c>
       <c r="AG131" s="13">
-        <v>9544392</v>
+        <v>10280517</v>
       </c>
       <c r="AH131" s="13">
-        <v>10280517</v>
+        <v>11394538</v>
       </c>
       <c r="AI131" s="13">
-        <v>11394538</v>
+        <v>12269849</v>
       </c>
       <c r="AJ131" s="13">
-        <v>12269849</v>
+        <v>13525741</v>
       </c>
       <c r="AK131" s="13">
-        <v>13525741</v>
+        <v>12292848</v>
       </c>
       <c r="AL131" s="13">
-        <v>12292848</v>
+        <v>15508685</v>
       </c>
       <c r="AM131" s="13">
-        <v>15508685</v>
+        <v>15509898</v>
       </c>
       <c r="AN131" s="13">
-        <v>15509898</v>
+        <v>15718146</v>
       </c>
       <c r="AO131" s="13">
-        <v>15718146</v>
+        <v>15155312</v>
       </c>
       <c r="AP131" s="13">
-        <v>15155312</v>
+        <v>16000000</v>
       </c>
       <c r="AQ131" s="13">
-        <v>16000000</v>
+        <v>15756076</v>
       </c>
       <c r="AR131" s="13">
-        <v>15756076</v>
+        <v>15498565</v>
       </c>
       <c r="AS131" s="13">
-        <v>15498565</v>
+        <v>15803191</v>
       </c>
       <c r="AT131" s="13">
-        <v>15803191</v>
+        <v>15859581</v>
       </c>
       <c r="AU131" s="13">
-        <v>15859581</v>
+        <v>15958984</v>
       </c>
       <c r="AV131" s="13">
-        <v>15958984</v>
+        <v>16299487</v>
       </c>
       <c r="AW131" s="13">
-        <v>16299487</v>
+        <v>15099906</v>
       </c>
       <c r="AX131" s="13">
-        <v>15099906</v>
+        <v>0</v>
       </c>
       <c r="AY131" s="13">
-        <v>0</v>
+        <v>42709683</v>
       </c>
       <c r="AZ131" s="13">
-        <v>42709683</v>
+        <v>46374246</v>
       </c>
       <c r="BA131" s="13">
-        <v>46374246</v>
+        <v>47214940</v>
       </c>
       <c r="BB131" s="13">
-        <v>47214940</v>
+        <v>40720577</v>
       </c>
     </row>
     <row r="132" spans="2:54" x14ac:dyDescent="0.3">
@@ -18270,50 +18270,50 @@
       <c r="X132" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y132" s="11" t="s">
-        <v>58</v>
+      <c r="Y132" s="11">
+        <v>4356750</v>
       </c>
       <c r="Z132" s="11">
-        <v>4356750</v>
+        <v>3630233</v>
       </c>
       <c r="AA132" s="11">
-        <v>3630233</v>
+        <v>4715747</v>
       </c>
       <c r="AB132" s="11">
-        <v>4715747</v>
+        <v>4712774</v>
       </c>
       <c r="AC132" s="11">
-        <v>4712774</v>
+        <v>6509610</v>
       </c>
       <c r="AD132" s="11">
-        <v>6509610</v>
+        <v>5066247</v>
       </c>
       <c r="AE132" s="11">
-        <v>5066247</v>
+        <v>3275449</v>
       </c>
       <c r="AF132" s="11">
-        <v>3275449</v>
+        <v>4858104</v>
       </c>
       <c r="AG132" s="11">
-        <v>4858104</v>
+        <v>8992667</v>
       </c>
       <c r="AH132" s="11">
-        <v>8992667</v>
+        <v>7076734</v>
       </c>
       <c r="AI132" s="11">
-        <v>7076734</v>
+        <v>3409255</v>
       </c>
       <c r="AJ132" s="11">
-        <v>3409255</v>
+        <v>5246130</v>
       </c>
       <c r="AK132" s="11">
-        <v>5246130</v>
+        <v>5880746</v>
       </c>
       <c r="AL132" s="11">
-        <v>5880746</v>
-      </c>
-      <c r="AM132" s="11">
         <v>5792905</v>
+      </c>
+      <c r="AM132" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN132" s="11" t="s">
         <v>58</v>
@@ -18447,77 +18447,77 @@
       <c r="AD133" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE133" s="13" t="s">
-        <v>58</v>
+      <c r="AE133" s="13">
+        <v>101410256</v>
       </c>
       <c r="AF133" s="13">
-        <v>101410256</v>
+        <v>4000000</v>
       </c>
       <c r="AG133" s="13">
-        <v>4000000</v>
+        <v>99900000</v>
       </c>
       <c r="AH133" s="13">
-        <v>99900000</v>
+        <v>102500000</v>
       </c>
       <c r="AI133" s="13">
-        <v>102500000</v>
+        <v>5415929</v>
       </c>
       <c r="AJ133" s="13">
-        <v>5415929</v>
-      </c>
-      <c r="AK133" s="13">
         <v>5819102</v>
       </c>
-      <c r="AL133" s="13" t="s">
-        <v>58</v>
+      <c r="AK133" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL133" s="13">
+        <v>14402985</v>
       </c>
       <c r="AM133" s="13">
-        <v>14402985</v>
-      </c>
-      <c r="AN133" s="13">
         <v>9298117</v>
       </c>
+      <c r="AN133" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AO133" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP133" s="13" t="s">
-        <v>58</v>
+      <c r="AP133" s="13">
+        <v>102163934</v>
       </c>
       <c r="AQ133" s="13">
-        <v>102163934</v>
+        <v>4516383</v>
       </c>
       <c r="AR133" s="13">
-        <v>4516383</v>
+        <v>6584535</v>
       </c>
       <c r="AS133" s="13">
-        <v>6584535</v>
+        <v>6953459</v>
       </c>
       <c r="AT133" s="13">
-        <v>6953459</v>
+        <v>5442843</v>
       </c>
       <c r="AU133" s="13">
-        <v>5442843</v>
+        <v>11971193</v>
       </c>
       <c r="AV133" s="13">
-        <v>11971193</v>
+        <v>6414685</v>
       </c>
       <c r="AW133" s="13">
-        <v>6414685</v>
+        <v>5131089</v>
       </c>
       <c r="AX133" s="13">
-        <v>5131089</v>
+        <v>688500000</v>
       </c>
       <c r="AY133" s="13">
-        <v>688500000</v>
+        <v>65490436</v>
       </c>
       <c r="AZ133" s="13">
-        <v>65490436</v>
+        <v>11761543</v>
       </c>
       <c r="BA133" s="13">
-        <v>11761543</v>
+        <v>28581688</v>
       </c>
       <c r="BB133" s="13">
-        <v>28581688</v>
+        <v>9999164</v>
       </c>
     </row>
     <row r="134" spans="2:54" x14ac:dyDescent="0.3">
@@ -18606,15 +18606,15 @@
       <c r="AD134" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AE134" s="11" t="s">
-        <v>58</v>
+      <c r="AE134" s="11">
+        <v>8006803</v>
       </c>
       <c r="AF134" s="11">
-        <v>8006803</v>
-      </c>
-      <c r="AG134" s="11">
         <v>48327778</v>
       </c>
+      <c r="AG134" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH134" s="11" t="s">
         <v>58</v>
       </c>
@@ -18633,50 +18633,50 @@
       <c r="AM134" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN134" s="11" t="s">
-        <v>58</v>
+      <c r="AN134" s="11">
+        <v>56044619</v>
       </c>
       <c r="AO134" s="11">
-        <v>56044619</v>
+        <v>30039761</v>
       </c>
       <c r="AP134" s="11">
-        <v>30039761</v>
+        <v>43382900</v>
       </c>
       <c r="AQ134" s="11">
-        <v>43382900</v>
+        <v>26969863</v>
       </c>
       <c r="AR134" s="11">
-        <v>26969863</v>
+        <v>28529018</v>
       </c>
       <c r="AS134" s="11">
-        <v>28529018</v>
+        <v>29029851</v>
       </c>
       <c r="AT134" s="11">
-        <v>29029851</v>
+        <v>56092593</v>
       </c>
       <c r="AU134" s="11">
-        <v>56092593</v>
+        <v>27405363</v>
       </c>
       <c r="AV134" s="11">
-        <v>27405363</v>
+        <v>85946154</v>
       </c>
       <c r="AW134" s="11">
-        <v>85946154</v>
+        <v>46660377</v>
       </c>
       <c r="AX134" s="11">
-        <v>46660377</v>
+        <v>28152709</v>
       </c>
       <c r="AY134" s="11">
-        <v>28152709</v>
+        <v>65294521</v>
       </c>
       <c r="AZ134" s="11">
-        <v>65294521</v>
+        <v>58000000</v>
       </c>
       <c r="BA134" s="11">
-        <v>58000000</v>
+        <v>58421505</v>
       </c>
       <c r="BB134" s="11">
-        <v>58421505</v>
+        <v>57983193</v>
       </c>
     </row>
     <row r="135" spans="2:54" x14ac:dyDescent="0.3">
@@ -18765,77 +18765,77 @@
       <c r="AD135" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE135" s="13" t="s">
-        <v>58</v>
+      <c r="AE135" s="13">
+        <v>129000000</v>
       </c>
       <c r="AF135" s="13">
-        <v>129000000</v>
-      </c>
-      <c r="AG135" s="13">
         <v>573000000</v>
       </c>
+      <c r="AG135" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH135" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI135" s="13" t="s">
-        <v>58</v>
+      <c r="AI135" s="13">
+        <v>76150000</v>
       </c>
       <c r="AJ135" s="13">
-        <v>76150000</v>
+        <v>67200000</v>
       </c>
       <c r="AK135" s="13">
-        <v>67200000</v>
+        <v>35750000</v>
       </c>
       <c r="AL135" s="13">
-        <v>35750000</v>
+        <v>36320732</v>
       </c>
       <c r="AM135" s="13">
-        <v>36320732</v>
+        <v>36282155</v>
       </c>
       <c r="AN135" s="13">
-        <v>36282155</v>
+        <v>36540672</v>
       </c>
       <c r="AO135" s="13">
-        <v>36540672</v>
+        <v>34457648</v>
       </c>
       <c r="AP135" s="13">
-        <v>34457648</v>
+        <v>34408360</v>
       </c>
       <c r="AQ135" s="13">
-        <v>34408360</v>
+        <v>16000000</v>
       </c>
       <c r="AR135" s="13">
-        <v>16000000</v>
+        <v>75000000</v>
       </c>
       <c r="AS135" s="13">
-        <v>75000000</v>
+        <v>101074413</v>
       </c>
       <c r="AT135" s="13">
-        <v>101074413</v>
+        <v>504300000</v>
       </c>
       <c r="AU135" s="13">
-        <v>504300000</v>
+        <v>77000000</v>
       </c>
       <c r="AV135" s="13">
-        <v>77000000</v>
+        <v>35532110</v>
       </c>
       <c r="AW135" s="13">
-        <v>35532110</v>
+        <v>964833333</v>
       </c>
       <c r="AX135" s="13">
-        <v>964833333</v>
+        <v>33145739</v>
       </c>
       <c r="AY135" s="13">
-        <v>33145739</v>
+        <v>243189189</v>
       </c>
       <c r="AZ135" s="13">
-        <v>243189189</v>
+        <v>235761538</v>
       </c>
       <c r="BA135" s="13">
-        <v>235761538</v>
+        <v>92123810</v>
       </c>
       <c r="BB135" s="13">
-        <v>92123810</v>
+        <v>233833333</v>
       </c>
     </row>
     <row r="136" spans="2:54" x14ac:dyDescent="0.3">
@@ -18948,53 +18948,53 @@
       <c r="AL136" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM136" s="11" t="s">
-        <v>58</v>
+      <c r="AM136" s="11">
+        <v>5142252</v>
       </c>
       <c r="AN136" s="11">
-        <v>5142252</v>
+        <v>8296379</v>
       </c>
       <c r="AO136" s="11">
-        <v>8296379</v>
+        <v>5981017</v>
       </c>
       <c r="AP136" s="11">
-        <v>5981017</v>
+        <v>5478974</v>
       </c>
       <c r="AQ136" s="11">
-        <v>5478974</v>
+        <v>6591745</v>
       </c>
       <c r="AR136" s="11">
-        <v>6591745</v>
+        <v>6120147</v>
       </c>
       <c r="AS136" s="11">
-        <v>6120147</v>
+        <v>4812346</v>
       </c>
       <c r="AT136" s="11">
-        <v>4812346</v>
+        <v>8593750</v>
       </c>
       <c r="AU136" s="11">
-        <v>8593750</v>
+        <v>10872407</v>
       </c>
       <c r="AV136" s="11">
-        <v>10872407</v>
+        <v>8298748</v>
       </c>
       <c r="AW136" s="11">
-        <v>8298748</v>
+        <v>11707986</v>
       </c>
       <c r="AX136" s="11">
-        <v>11707986</v>
+        <v>7383051</v>
       </c>
       <c r="AY136" s="11">
-        <v>7383051</v>
+        <v>7119277</v>
       </c>
       <c r="AZ136" s="11">
-        <v>7119277</v>
+        <v>1739464</v>
       </c>
       <c r="BA136" s="11">
-        <v>1739464</v>
+        <v>2671915</v>
       </c>
       <c r="BB136" s="11">
-        <v>2671915</v>
+        <v>13553482</v>
       </c>
     </row>
     <row r="137" spans="2:54" x14ac:dyDescent="0.3">
@@ -19122,38 +19122,38 @@
       <c r="AQ137" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR137" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS137" s="13">
+      <c r="AR137" s="13">
         <v>1207142857</v>
       </c>
-      <c r="AT137" s="13" t="s">
-        <v>58</v>
+      <c r="AS137" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT137" s="13">
+        <v>1343333333</v>
       </c>
       <c r="AU137" s="13">
-        <v>1343333333</v>
-      </c>
-      <c r="AV137" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW137" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AV137" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW137" s="13">
+        <v>1365000000</v>
       </c>
       <c r="AX137" s="13">
-        <v>1365000000</v>
+        <v>1495000000</v>
       </c>
       <c r="AY137" s="13">
-        <v>1495000000</v>
-      </c>
-      <c r="AZ137" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA137" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB137" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ137" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA137" s="13">
         <v>1137500000</v>
+      </c>
+      <c r="BB137" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="138" spans="2:54" x14ac:dyDescent="0.3">
@@ -19275,44 +19275,44 @@
       <c r="AO138" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP138" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ138" s="11">
+      <c r="AP138" s="11">
         <v>3187912</v>
       </c>
-      <c r="AR138" s="11" t="s">
-        <v>58</v>
+      <c r="AQ138" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR138" s="11">
+        <v>3505713</v>
       </c>
       <c r="AS138" s="11">
-        <v>3505713</v>
-      </c>
-      <c r="AT138" s="11">
         <v>5885442</v>
       </c>
-      <c r="AU138" s="11" t="s">
-        <v>58</v>
+      <c r="AT138" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU138" s="11">
+        <v>143000000</v>
       </c>
       <c r="AV138" s="11">
-        <v>143000000</v>
+        <v>787879</v>
       </c>
       <c r="AW138" s="11">
-        <v>787879</v>
+        <v>5723618</v>
       </c>
       <c r="AX138" s="11">
-        <v>5723618</v>
+        <v>4909307</v>
       </c>
       <c r="AY138" s="11">
-        <v>4909307</v>
+        <v>1534483</v>
       </c>
       <c r="AZ138" s="11">
-        <v>1534483</v>
+        <v>345618182</v>
       </c>
       <c r="BA138" s="11">
-        <v>345618182</v>
-      </c>
-      <c r="BB138" s="11">
         <v>349954545</v>
+      </c>
+      <c r="BB138" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="139" spans="2:54" x14ac:dyDescent="0.3">
@@ -19425,53 +19425,53 @@
       <c r="AL139" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM139" s="13" t="s">
-        <v>58</v>
+      <c r="AM139" s="13">
+        <v>11599143</v>
       </c>
       <c r="AN139" s="13">
-        <v>11599143</v>
+        <v>14993235</v>
       </c>
       <c r="AO139" s="13">
-        <v>14993235</v>
-      </c>
-      <c r="AP139" s="13">
         <v>15000000</v>
       </c>
+      <c r="AP139" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ139" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR139" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS139" s="13">
+      <c r="AR139" s="13">
         <v>14999734</v>
       </c>
+      <c r="AS139" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT139" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AU139" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV139" s="13" t="s">
-        <v>58</v>
+      <c r="AV139" s="13">
+        <v>15000000</v>
       </c>
       <c r="AW139" s="13">
+        <v>15334443</v>
+      </c>
+      <c r="AX139" s="13">
+        <v>15152519</v>
+      </c>
+      <c r="AY139" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ139" s="13">
+        <v>15142857</v>
+      </c>
+      <c r="BA139" s="13">
         <v>15000000</v>
       </c>
-      <c r="AX139" s="13">
-        <v>15334443</v>
-      </c>
-      <c r="AY139" s="13">
-        <v>15152519</v>
-      </c>
-      <c r="AZ139" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA139" s="13">
-        <v>15142857</v>
-      </c>
       <c r="BB139" s="13">
-        <v>15000000</v>
+        <v>15606218</v>
       </c>
     </row>
     <row r="140" spans="2:54" x14ac:dyDescent="0.3">
@@ -19593,26 +19593,26 @@
       <c r="AO140" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP140" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ140" s="11">
+      <c r="AP140" s="11">
         <v>719792</v>
       </c>
+      <c r="AQ140" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AR140" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS140" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT140" s="11">
+      <c r="AS140" s="11">
         <v>750000</v>
       </c>
+      <c r="AT140" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU140" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV140" s="11" t="s">
-        <v>58</v>
+      <c r="AV140" s="11">
+        <v>900000</v>
       </c>
       <c r="AW140" s="11">
         <v>900000</v>
@@ -19621,13 +19621,13 @@
         <v>900000</v>
       </c>
       <c r="AY140" s="11">
-        <v>900000</v>
-      </c>
-      <c r="AZ140" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA140" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AZ140" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA140" s="11">
+        <v>0</v>
       </c>
       <c r="BB140" s="11" t="s">
         <v>58</v>
@@ -19785,11 +19785,11 @@
       <c r="AZ141" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA141" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB141" s="13">
+      <c r="BA141" s="13">
         <v>1980000000</v>
+      </c>
+      <c r="BB141" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="142" spans="2:54" x14ac:dyDescent="0.3">
@@ -19959,12 +19959,12 @@
       <c r="AL143" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM143" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN143" s="11">
+      <c r="AM143" s="11">
         <v>4999583</v>
       </c>
+      <c r="AN143" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AO143" s="11" t="s">
         <v>58</v>
       </c>
@@ -19986,11 +19986,11 @@
       <c r="AU143" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV143" s="11" t="s">
-        <v>58</v>
+      <c r="AV143" s="11">
+        <v>8760000</v>
       </c>
       <c r="AW143" s="11">
-        <v>8760000</v>
+        <v>0</v>
       </c>
       <c r="AX143" s="11">
         <v>0</v>
@@ -19998,11 +19998,11 @@
       <c r="AY143" s="11">
         <v>0</v>
       </c>
-      <c r="AZ143" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA143" s="11" t="s">
-        <v>58</v>
+      <c r="AZ143" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA143" s="11">
+        <v>6986919</v>
       </c>
       <c r="BB143" s="11" t="s">
         <v>58</v>
@@ -20085,11 +20085,11 @@
       <c r="AA144" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AB144" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC144" s="13">
+      <c r="AB144" s="13">
         <v>8400000</v>
+      </c>
+      <c r="AC144" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AD144" s="13" t="s">
         <v>58</v>
@@ -20310,17 +20310,17 @@
       <c r="AW145" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX145" s="11" t="s">
-        <v>58</v>
+      <c r="AX145" s="11">
+        <v>10812941</v>
       </c>
       <c r="AY145" s="11">
-        <v>10812941</v>
-      </c>
-      <c r="AZ145" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA145" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AZ145" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA145" s="11">
+        <v>15000000</v>
       </c>
       <c r="BB145" s="11" t="s">
         <v>58</v>
@@ -20499,8 +20499,8 @@
       <c r="AN147" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO147" s="11" t="s">
-        <v>58</v>
+      <c r="AO147" s="11">
+        <v>0</v>
       </c>
       <c r="AP147" s="11">
         <v>0</v>

--- a/database/industries/darou/deshimi/product/monthly_seprated.xlsx
+++ b/database/industries/darou/deshimi/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4007" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="102">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -62,46 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve">مقدار تولید</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ماه </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">11 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Noto Sans Devanagari"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">منتهی به </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF333333"/>
-        <rFont val="Calibri Bold"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1397/11</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2064,6 +2024,46 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ماه </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Noto Sans Devanagari"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">منتهی به </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri Bold"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1402/01</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">مقدار تولید داخلی</t>
   </si>
   <si>
@@ -3352,107 +3352,107 @@
       <c r="T11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>58</v>
+      <c r="U11" s="13" t="n">
+        <v>2279</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>2279</v>
+        <v>772</v>
       </c>
       <c r="W11" s="13" t="n">
-        <v>772</v>
+        <v>1872</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>1872</v>
+        <v>2158</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>2158</v>
+        <v>566</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>566</v>
+        <v>2302</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>2302</v>
+        <v>3424</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>3424</v>
+        <v>2891</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>2891</v>
+        <v>2325</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>2325</v>
+        <v>3863</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>3863</v>
+        <v>1446</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>1446</v>
+        <v>2513</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>2513</v>
+        <v>3838</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>3838</v>
+        <v>3913</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>3913</v>
+        <v>3634</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>3634</v>
+        <v>2461</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>2461</v>
+        <v>4026</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>4026</v>
+        <v>3649</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>3649</v>
+        <v>2859</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>2859</v>
+        <v>3629</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>3629</v>
+        <v>4017</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>4017</v>
+        <v>3643</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>3643</v>
+        <v>4992</v>
       </c>
       <c r="AR11" s="13" t="n">
+        <v>3264</v>
+      </c>
+      <c r="AS11" s="13" t="n">
+        <v>5760</v>
+      </c>
+      <c r="AT11" s="13" t="n">
+        <v>5618</v>
+      </c>
+      <c r="AU11" s="13" t="n">
+        <v>4800</v>
+      </c>
+      <c r="AV11" s="13" t="n">
+        <v>8832</v>
+      </c>
+      <c r="AW11" s="13" t="n">
         <v>4992</v>
       </c>
-      <c r="AS11" s="13" t="n">
-        <v>3264</v>
-      </c>
-      <c r="AT11" s="13" t="n">
-        <v>5760</v>
-      </c>
-      <c r="AU11" s="13" t="n">
-        <v>5618</v>
-      </c>
-      <c r="AV11" s="13" t="n">
-        <v>4800</v>
-      </c>
-      <c r="AW11" s="13" t="n">
-        <v>8832</v>
-      </c>
       <c r="AX11" s="13" t="n">
-        <v>4992</v>
+        <v>7898</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>7898</v>
+        <v>3840</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>3840</v>
+        <v>9958</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>9958</v>
+        <v>6528</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>6528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3511,107 +3511,107 @@
       <c r="T12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="16" t="s">
-        <v>58</v>
+      <c r="U12" s="16" t="n">
+        <v>7925</v>
       </c>
       <c r="V12" s="16" t="n">
-        <v>7925</v>
+        <v>4598</v>
       </c>
       <c r="W12" s="16" t="n">
-        <v>4598</v>
+        <v>0</v>
       </c>
       <c r="X12" s="16" t="n">
-        <v>0</v>
+        <v>4850</v>
       </c>
       <c r="Y12" s="16" t="n">
-        <v>4850</v>
+        <v>7420</v>
       </c>
       <c r="Z12" s="16" t="n">
-        <v>7420</v>
+        <v>4552</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>4552</v>
+        <v>3977</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>3977</v>
+        <v>4082</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>4082</v>
+        <v>1373</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>1373</v>
+        <v>2667</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>2667</v>
+        <v>1737</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>1737</v>
+        <v>1521</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>1521</v>
+        <v>10142</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>10142</v>
+        <v>8072</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>8072</v>
+        <v>12499</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>12499</v>
+        <v>9201</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>9201</v>
+        <v>15270</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>15270</v>
+        <v>11387</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>11387</v>
+        <v>17955</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>17955</v>
+        <v>25208</v>
       </c>
       <c r="AO12" s="16" t="n">
-        <v>25208</v>
+        <v>15176</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>15176</v>
+        <v>6215</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>6215</v>
+        <v>3155</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>3155</v>
+        <v>11324</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>11324</v>
+        <v>6984</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>6984</v>
+        <v>15438</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>15438</v>
+        <v>5004</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>5004</v>
+        <v>9398</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>9398</v>
+        <v>13028</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>13028</v>
+        <v>9645</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>9645</v>
+        <v>8377</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>8377</v>
+        <v>2156</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>2156</v>
+        <v>24088</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>24088</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3670,107 +3670,107 @@
       <c r="T13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U13" s="13" t="s">
-        <v>58</v>
+      <c r="U13" s="13" t="n">
+        <v>3504</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>3504</v>
+        <v>1910</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>1910</v>
+        <v>9360</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>9360</v>
+        <v>6399</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>6399</v>
+        <v>1382</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>1382</v>
+        <v>8108</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>8108</v>
+        <v>1953</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>1953</v>
+        <v>1732</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>1732</v>
+        <v>3140</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>3140</v>
+        <v>8562</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>8562</v>
+        <v>2619</v>
       </c>
       <c r="AF13" s="13" t="n">
-        <v>2619</v>
+        <v>8539</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>8539</v>
+        <v>2530</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>2530</v>
+        <v>5146</v>
       </c>
       <c r="AI13" s="13" t="n">
-        <v>5146</v>
+        <v>31066</v>
       </c>
       <c r="AJ13" s="13" t="n">
-        <v>31066</v>
+        <v>6923</v>
       </c>
       <c r="AK13" s="13" t="n">
-        <v>6923</v>
+        <v>13834</v>
       </c>
       <c r="AL13" s="13" t="n">
-        <v>13834</v>
+        <v>6513</v>
       </c>
       <c r="AM13" s="13" t="n">
-        <v>6513</v>
+        <v>2226</v>
       </c>
       <c r="AN13" s="13" t="n">
-        <v>2226</v>
+        <v>8713</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>8713</v>
+        <v>1644</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>1644</v>
+        <v>1962</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>1962</v>
+        <v>9998</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>9998</v>
+        <v>13074</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>13074</v>
+        <v>5148</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>5148</v>
+        <v>672</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>0</v>
+        <v>2074</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>2074</v>
+        <v>4659</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>4659</v>
+        <v>34</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>7</v>
+        <v>6254</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>6254</v>
+        <v>21197</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>21197</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3892,8 +3892,8 @@
       <c r="AO14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP14" s="16" t="s">
-        <v>58</v>
+      <c r="AP14" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ14" s="16" t="n">
         <v>0</v>
@@ -3923,10 +3923,10 @@
         <v>0</v>
       </c>
       <c r="AZ14" s="16" t="n">
-        <v>0</v>
+        <v>1381</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>1381</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="16" t="n">
         <v>0</v>
@@ -3988,107 +3988,107 @@
       <c r="T15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U15" s="13" t="s">
-        <v>58</v>
+      <c r="U15" s="13" t="n">
+        <v>11245</v>
       </c>
       <c r="V15" s="13" t="n">
-        <v>11245</v>
+        <v>9804</v>
       </c>
       <c r="W15" s="13" t="n">
-        <v>9804</v>
+        <v>6777</v>
       </c>
       <c r="X15" s="13" t="n">
-        <v>6777</v>
+        <v>2308</v>
       </c>
       <c r="Y15" s="13" t="n">
-        <v>2308</v>
+        <v>5989</v>
       </c>
       <c r="Z15" s="13" t="n">
-        <v>5989</v>
+        <v>449</v>
       </c>
       <c r="AA15" s="13" t="n">
-        <v>449</v>
+        <v>4304</v>
       </c>
       <c r="AB15" s="13" t="n">
-        <v>4304</v>
+        <v>9043</v>
       </c>
       <c r="AC15" s="13" t="n">
-        <v>9043</v>
+        <v>6887</v>
       </c>
       <c r="AD15" s="13" t="n">
-        <v>6887</v>
+        <v>19379</v>
       </c>
       <c r="AE15" s="13" t="n">
-        <v>19379</v>
+        <v>11034</v>
       </c>
       <c r="AF15" s="13" t="n">
-        <v>11034</v>
+        <v>5694</v>
       </c>
       <c r="AG15" s="13" t="n">
-        <v>5694</v>
+        <v>6540</v>
       </c>
       <c r="AH15" s="13" t="n">
-        <v>6540</v>
+        <v>7896</v>
       </c>
       <c r="AI15" s="13" t="n">
-        <v>7896</v>
+        <v>4797</v>
       </c>
       <c r="AJ15" s="13" t="n">
-        <v>4797</v>
+        <v>4413</v>
       </c>
       <c r="AK15" s="13" t="n">
-        <v>4413</v>
+        <v>7452</v>
       </c>
       <c r="AL15" s="13" t="n">
-        <v>7452</v>
+        <v>4236</v>
       </c>
       <c r="AM15" s="13" t="n">
-        <v>4236</v>
+        <v>9416</v>
       </c>
       <c r="AN15" s="13" t="n">
-        <v>9416</v>
+        <v>2425</v>
       </c>
       <c r="AO15" s="13" t="n">
-        <v>2425</v>
+        <v>9613</v>
       </c>
       <c r="AP15" s="13" t="n">
-        <v>9613</v>
+        <v>9280</v>
       </c>
       <c r="AQ15" s="13" t="n">
-        <v>9280</v>
+        <v>5862</v>
       </c>
       <c r="AR15" s="13" t="n">
-        <v>5862</v>
+        <v>11442</v>
       </c>
       <c r="AS15" s="13" t="n">
-        <v>11442</v>
+        <v>8393</v>
       </c>
       <c r="AT15" s="13" t="n">
-        <v>8393</v>
+        <v>720</v>
       </c>
       <c r="AU15" s="13" t="n">
-        <v>720</v>
+        <v>11726</v>
       </c>
       <c r="AV15" s="13" t="n">
-        <v>11726</v>
+        <v>7465</v>
       </c>
       <c r="AW15" s="13" t="n">
-        <v>7465</v>
+        <v>3269</v>
       </c>
       <c r="AX15" s="13" t="n">
-        <v>3269</v>
+        <v>24547</v>
       </c>
       <c r="AY15" s="13" t="n">
-        <v>24547</v>
+        <v>20707</v>
       </c>
       <c r="AZ15" s="13" t="n">
-        <v>20707</v>
+        <v>16444</v>
       </c>
       <c r="BA15" s="13" t="n">
-        <v>16444</v>
+        <v>23267</v>
       </c>
       <c r="BB15" s="13" t="n">
-        <v>23267</v>
+        <v>5284</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4147,53 +4147,53 @@
       <c r="T16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U16" s="16" t="s">
-        <v>58</v>
+      <c r="U16" s="16" t="n">
+        <v>8742</v>
       </c>
       <c r="V16" s="16" t="n">
-        <v>8742</v>
+        <v>15423</v>
       </c>
       <c r="W16" s="16" t="n">
-        <v>15423</v>
+        <v>20176</v>
       </c>
       <c r="X16" s="16" t="n">
-        <v>20176</v>
+        <v>30749</v>
       </c>
       <c r="Y16" s="16" t="n">
-        <v>30749</v>
+        <v>19302</v>
       </c>
       <c r="Z16" s="16" t="n">
-        <v>19302</v>
+        <v>20850</v>
       </c>
       <c r="AA16" s="16" t="n">
-        <v>20850</v>
+        <v>53637</v>
       </c>
       <c r="AB16" s="16" t="n">
-        <v>53637</v>
+        <v>19022</v>
       </c>
       <c r="AC16" s="16" t="n">
-        <v>19022</v>
+        <v>26100</v>
       </c>
       <c r="AD16" s="16" t="n">
-        <v>26100</v>
+        <v>13451</v>
       </c>
       <c r="AE16" s="16" t="n">
-        <v>13451</v>
+        <v>7546</v>
       </c>
       <c r="AF16" s="16" t="n">
-        <v>7546</v>
+        <v>7267</v>
       </c>
       <c r="AG16" s="16" t="n">
-        <v>7267</v>
+        <v>14672</v>
       </c>
       <c r="AH16" s="16" t="n">
-        <v>14672</v>
+        <v>22614</v>
       </c>
       <c r="AI16" s="16" t="n">
-        <v>22614</v>
-      </c>
-      <c r="AJ16" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AK16" s="16" t="s">
         <v>58</v>
@@ -4324,14 +4324,14 @@
       <c r="Z17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA17" s="13" t="s">
-        <v>58</v>
+      <c r="AA17" s="13" t="n">
+        <v>2000</v>
       </c>
       <c r="AB17" s="13" t="n">
-        <v>2000</v>
+        <v>2229</v>
       </c>
       <c r="AC17" s="13" t="n">
-        <v>2229</v>
+        <v>0</v>
       </c>
       <c r="AD17" s="13" t="n">
         <v>0</v>
@@ -4340,73 +4340,73 @@
         <v>0</v>
       </c>
       <c r="AF17" s="13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AG17" s="13" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AH17" s="13" t="n">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="AI17" s="13" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="13" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AK17" s="13" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="AL17" s="13" t="n">
-        <v>51</v>
+        <v>3836</v>
       </c>
       <c r="AM17" s="13" t="n">
-        <v>3836</v>
+        <v>2314</v>
       </c>
       <c r="AN17" s="13" t="n">
-        <v>2314</v>
+        <v>7501</v>
       </c>
       <c r="AO17" s="13" t="n">
-        <v>7501</v>
+        <v>1084</v>
       </c>
       <c r="AP17" s="13" t="n">
-        <v>1084</v>
+        <v>4227</v>
       </c>
       <c r="AQ17" s="13" t="n">
-        <v>4227</v>
+        <v>5023</v>
       </c>
       <c r="AR17" s="13" t="n">
-        <v>5023</v>
+        <v>4258</v>
       </c>
       <c r="AS17" s="13" t="n">
-        <v>4258</v>
+        <v>1431</v>
       </c>
       <c r="AT17" s="13" t="n">
-        <v>1431</v>
+        <v>6237</v>
       </c>
       <c r="AU17" s="13" t="n">
-        <v>6237</v>
+        <v>7471</v>
       </c>
       <c r="AV17" s="13" t="n">
-        <v>7471</v>
+        <v>7158</v>
       </c>
       <c r="AW17" s="13" t="n">
-        <v>7158</v>
+        <v>0</v>
       </c>
       <c r="AX17" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AY17" s="13" t="n">
-        <v>0</v>
+        <v>8867</v>
       </c>
       <c r="AZ17" s="13" t="n">
-        <v>8867</v>
+        <v>3910</v>
       </c>
       <c r="BA17" s="13" t="n">
-        <v>3910</v>
+        <v>674</v>
       </c>
       <c r="BB17" s="13" t="n">
-        <v>674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4483,14 +4483,14 @@
       <c r="Z18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA18" s="16" t="s">
-        <v>58</v>
+      <c r="AA18" s="16" t="n">
+        <v>335</v>
       </c>
       <c r="AB18" s="16" t="n">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="AC18" s="16" t="n">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="16" t="n">
         <v>0</v>
@@ -4502,28 +4502,28 @@
         <v>0</v>
       </c>
       <c r="AG18" s="16" t="n">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="AH18" s="16" t="n">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="AI18" s="16" t="n">
-        <v>303</v>
+        <v>565</v>
       </c>
       <c r="AJ18" s="16" t="n">
-        <v>565</v>
+        <v>337</v>
       </c>
       <c r="AK18" s="16" t="n">
-        <v>337</v>
+        <v>1419</v>
       </c>
       <c r="AL18" s="16" t="n">
-        <v>1419</v>
+        <v>1148</v>
       </c>
       <c r="AM18" s="16" t="n">
-        <v>1148</v>
+        <v>1585</v>
       </c>
       <c r="AN18" s="16" t="n">
-        <v>1585</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="16" t="n">
         <v>0</v>
@@ -4532,10 +4532,10 @@
         <v>0</v>
       </c>
       <c r="AQ18" s="16" t="n">
-        <v>0</v>
+        <v>568</v>
       </c>
       <c r="AR18" s="16" t="n">
-        <v>568</v>
+        <v>0</v>
       </c>
       <c r="AS18" s="16" t="n">
         <v>0</v>
@@ -4547,25 +4547,25 @@
         <v>0</v>
       </c>
       <c r="AV18" s="16" t="n">
-        <v>0</v>
+        <v>1474</v>
       </c>
       <c r="AW18" s="16" t="n">
-        <v>1474</v>
+        <v>322</v>
       </c>
       <c r="AX18" s="16" t="n">
-        <v>322</v>
+        <v>1371</v>
       </c>
       <c r="AY18" s="16" t="n">
-        <v>1371</v>
+        <v>0</v>
       </c>
       <c r="AZ18" s="16" t="n">
         <v>0</v>
       </c>
       <c r="BA18" s="16" t="n">
-        <v>0</v>
+        <v>1692</v>
       </c>
       <c r="BB18" s="16" t="n">
-        <v>1692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4642,8 +4642,8 @@
       <c r="Z19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA19" s="13" t="s">
-        <v>58</v>
+      <c r="AA19" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AB19" s="13" t="n">
         <v>0</v>
@@ -4658,73 +4658,73 @@
         <v>0</v>
       </c>
       <c r="AF19" s="13" t="n">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="AG19" s="13" t="n">
-        <v>1400</v>
+        <v>7846</v>
       </c>
       <c r="AH19" s="13" t="n">
-        <v>7846</v>
+        <v>1716</v>
       </c>
       <c r="AI19" s="13" t="n">
-        <v>1716</v>
+        <v>5</v>
       </c>
       <c r="AJ19" s="13" t="n">
         <v>5</v>
       </c>
       <c r="AK19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="13" t="n">
+        <v>63</v>
+      </c>
+      <c r="AR19" s="13" t="n">
+        <v>536</v>
+      </c>
+      <c r="AS19" s="13" t="n">
+        <v>4400</v>
+      </c>
+      <c r="AT19" s="13" t="n">
+        <v>351</v>
+      </c>
+      <c r="AU19" s="13" t="n">
+        <v>43</v>
+      </c>
+      <c r="AV19" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="AL19" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP19" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="13" t="n">
-        <v>63</v>
-      </c>
-      <c r="AS19" s="13" t="n">
-        <v>536</v>
-      </c>
-      <c r="AT19" s="13" t="n">
-        <v>4400</v>
-      </c>
-      <c r="AU19" s="13" t="n">
-        <v>351</v>
-      </c>
-      <c r="AV19" s="13" t="n">
-        <v>43</v>
-      </c>
       <c r="AW19" s="13" t="n">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="AX19" s="13" t="n">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="AY19" s="13" t="n">
-        <v>20</v>
+        <v>469</v>
       </c>
       <c r="AZ19" s="13" t="n">
-        <v>469</v>
+        <v>0</v>
       </c>
       <c r="BA19" s="13" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="BB19" s="13" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4825,65 +4825,65 @@
       <c r="AH20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI20" s="16" t="s">
-        <v>58</v>
+      <c r="AI20" s="16" t="n">
+        <v>3375</v>
       </c>
       <c r="AJ20" s="16" t="n">
-        <v>3375</v>
+        <v>15819</v>
       </c>
       <c r="AK20" s="16" t="n">
-        <v>15819</v>
+        <v>9435</v>
       </c>
       <c r="AL20" s="16" t="n">
-        <v>9435</v>
+        <v>15649</v>
       </c>
       <c r="AM20" s="16" t="n">
-        <v>15649</v>
+        <v>15900</v>
       </c>
       <c r="AN20" s="16" t="n">
-        <v>15900</v>
+        <v>17815</v>
       </c>
       <c r="AO20" s="16" t="n">
-        <v>17815</v>
+        <v>4080</v>
       </c>
       <c r="AP20" s="16" t="n">
-        <v>4080</v>
+        <v>5600</v>
       </c>
       <c r="AQ20" s="16" t="n">
-        <v>5600</v>
+        <v>7120</v>
       </c>
       <c r="AR20" s="16" t="n">
-        <v>7120</v>
+        <v>7180</v>
       </c>
       <c r="AS20" s="16" t="n">
-        <v>7180</v>
+        <v>11872</v>
       </c>
       <c r="AT20" s="16" t="n">
-        <v>11872</v>
+        <v>5025</v>
       </c>
       <c r="AU20" s="16" t="n">
-        <v>5025</v>
+        <v>12820</v>
       </c>
       <c r="AV20" s="16" t="n">
-        <v>12820</v>
+        <v>900</v>
       </c>
       <c r="AW20" s="16" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="AX20" s="16" t="n">
-        <v>0</v>
+        <v>6979</v>
       </c>
       <c r="AY20" s="16" t="n">
-        <v>6979</v>
+        <v>5215</v>
       </c>
       <c r="AZ20" s="16" t="n">
-        <v>5215</v>
+        <v>5710</v>
       </c>
       <c r="BA20" s="16" t="n">
-        <v>5710</v>
+        <v>21546</v>
       </c>
       <c r="BB20" s="16" t="n">
-        <v>21546</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4984,8 +4984,8 @@
       <c r="AH21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI21" s="13" t="s">
-        <v>58</v>
+      <c r="AI21" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AJ21" s="13" t="n">
         <v>0</v>
@@ -4997,52 +4997,52 @@
         <v>0</v>
       </c>
       <c r="AM21" s="13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AN21" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="13" t="n">
         <v>7</v>
-      </c>
-      <c r="AO21" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP21" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AS21" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW21" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX21" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY21" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ21" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA21" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB21" s="13" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5143,65 +5143,65 @@
       <c r="AH22" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI22" s="16" t="s">
-        <v>58</v>
+      <c r="AI22" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AJ22" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AK22" s="16" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AL22" s="16" t="n">
-        <v>99</v>
+        <v>3640</v>
       </c>
       <c r="AM22" s="16" t="n">
-        <v>3640</v>
+        <v>0</v>
       </c>
       <c r="AN22" s="16" t="n">
-        <v>0</v>
+        <v>3714</v>
       </c>
       <c r="AO22" s="16" t="n">
-        <v>3714</v>
+        <v>1246</v>
       </c>
       <c r="AP22" s="16" t="n">
-        <v>1246</v>
+        <v>0</v>
       </c>
       <c r="AQ22" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AR22" s="16" t="n">
-        <v>0</v>
+        <v>5384</v>
       </c>
       <c r="AS22" s="16" t="n">
-        <v>5384</v>
+        <v>3793</v>
       </c>
       <c r="AT22" s="16" t="n">
-        <v>3793</v>
+        <v>57</v>
       </c>
       <c r="AU22" s="16" t="n">
         <v>57</v>
       </c>
       <c r="AV22" s="16" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="AW22" s="16" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AX22" s="16" t="n">
-        <v>65</v>
+        <v>4615</v>
       </c>
       <c r="AY22" s="16" t="n">
-        <v>4615</v>
+        <v>0</v>
       </c>
       <c r="AZ22" s="16" t="n">
         <v>0</v>
       </c>
       <c r="BA22" s="16" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="BB22" s="16" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5302,65 +5302,65 @@
       <c r="AH23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI23" s="13" t="s">
-        <v>58</v>
+      <c r="AI23" s="13" t="n">
+        <v>2690</v>
       </c>
       <c r="AJ23" s="13" t="n">
-        <v>2690</v>
+        <v>525</v>
       </c>
       <c r="AK23" s="13" t="n">
-        <v>525</v>
-      </c>
-      <c r="AL23" s="13" t="n">
         <v>1650</v>
       </c>
-      <c r="AM23" s="13" t="s">
-        <v>58</v>
+      <c r="AL23" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM23" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AN23" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AO23" s="13" t="n">
-        <v>0</v>
+        <v>1631</v>
       </c>
       <c r="AP23" s="13" t="n">
-        <v>1631</v>
+        <v>3193</v>
       </c>
       <c r="AQ23" s="13" t="n">
-        <v>3193</v>
+        <v>5180</v>
       </c>
       <c r="AR23" s="13" t="n">
-        <v>5180</v>
+        <v>0</v>
       </c>
       <c r="AS23" s="13" t="n">
-        <v>0</v>
+        <v>1702</v>
       </c>
       <c r="AT23" s="13" t="n">
-        <v>1702</v>
+        <v>0</v>
       </c>
       <c r="AU23" s="13" t="n">
-        <v>0</v>
+        <v>13528</v>
       </c>
       <c r="AV23" s="13" t="n">
-        <v>13528</v>
+        <v>0</v>
       </c>
       <c r="AW23" s="13" t="n">
-        <v>0</v>
+        <v>1660</v>
       </c>
       <c r="AX23" s="13" t="n">
-        <v>1660</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AZ23" s="13" t="n">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="BA23" s="13" t="n">
-        <v>1600</v>
+        <v>958</v>
       </c>
       <c r="BB23" s="13" t="n">
-        <v>958</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5461,44 +5461,44 @@
       <c r="AH24" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI24" s="16" t="s">
-        <v>58</v>
+      <c r="AI24" s="16" t="n">
+        <v>888</v>
       </c>
       <c r="AJ24" s="16" t="n">
-        <v>888</v>
+        <v>0</v>
       </c>
       <c r="AK24" s="16" t="n">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AL24" s="16" t="n">
-        <v>105</v>
+        <v>954</v>
       </c>
       <c r="AM24" s="16" t="n">
-        <v>954</v>
+        <v>0</v>
       </c>
       <c r="AN24" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AO24" s="16" t="n">
-        <v>0</v>
+        <v>7314</v>
       </c>
       <c r="AP24" s="16" t="n">
-        <v>7314</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AR24" s="16" t="n">
-        <v>0</v>
+        <v>4160</v>
       </c>
       <c r="AS24" s="16" t="n">
-        <v>4160</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="16" t="n">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="AU24" s="16" t="n">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="AV24" s="16" t="n">
         <v>0</v>
@@ -5620,8 +5620,8 @@
       <c r="AH25" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI25" s="13" t="s">
-        <v>58</v>
+      <c r="AI25" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AJ25" s="13" t="n">
         <v>0</v>
@@ -5633,10 +5633,10 @@
         <v>0</v>
       </c>
       <c r="AM25" s="13" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AN25" s="13" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="13" t="n">
         <v>0</v>
@@ -5800,8 +5800,8 @@
       <c r="AO26" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP26" s="16" t="s">
-        <v>58</v>
+      <c r="AP26" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ26" s="16" t="n">
         <v>0</v>
@@ -5895,106 +5895,106 @@
         <v>0</v>
       </c>
       <c r="U27" s="18" t="n">
-        <v>0</v>
+        <v>33695</v>
       </c>
       <c r="V27" s="18" t="n">
-        <v>33695</v>
+        <v>32507</v>
       </c>
       <c r="W27" s="18" t="n">
-        <v>32507</v>
+        <v>38185</v>
       </c>
       <c r="X27" s="18" t="n">
-        <v>38185</v>
+        <v>46464</v>
       </c>
       <c r="Y27" s="18" t="n">
-        <v>46464</v>
+        <v>34659</v>
       </c>
       <c r="Z27" s="18" t="n">
-        <v>34659</v>
+        <v>36261</v>
       </c>
       <c r="AA27" s="18" t="n">
-        <v>36261</v>
+        <v>69630</v>
       </c>
       <c r="AB27" s="18" t="n">
-        <v>69630</v>
+        <v>39329</v>
       </c>
       <c r="AC27" s="18" t="n">
-        <v>39329</v>
+        <v>39825</v>
       </c>
       <c r="AD27" s="18" t="n">
-        <v>39825</v>
+        <v>47922</v>
       </c>
       <c r="AE27" s="18" t="n">
-        <v>47922</v>
+        <v>24382</v>
       </c>
       <c r="AF27" s="18" t="n">
-        <v>24382</v>
+        <v>26937</v>
       </c>
       <c r="AG27" s="18" t="n">
-        <v>26937</v>
+        <v>45906</v>
       </c>
       <c r="AH27" s="18" t="n">
-        <v>45906</v>
+        <v>49780</v>
       </c>
       <c r="AI27" s="18" t="n">
-        <v>49780</v>
+        <v>59519</v>
       </c>
       <c r="AJ27" s="18" t="n">
-        <v>59519</v>
+        <v>39714</v>
       </c>
       <c r="AK27" s="18" t="n">
-        <v>39714</v>
+        <v>53341</v>
       </c>
       <c r="AL27" s="18" t="n">
-        <v>53341</v>
+        <v>51012</v>
       </c>
       <c r="AM27" s="18" t="n">
-        <v>51012</v>
+        <v>52281</v>
       </c>
       <c r="AN27" s="18" t="n">
-        <v>52281</v>
+        <v>69014</v>
       </c>
       <c r="AO27" s="18" t="n">
-        <v>69014</v>
+        <v>45805</v>
       </c>
       <c r="AP27" s="18" t="n">
-        <v>45805</v>
+        <v>34120</v>
       </c>
       <c r="AQ27" s="18" t="n">
-        <v>34120</v>
+        <v>41973</v>
       </c>
       <c r="AR27" s="18" t="n">
-        <v>41973</v>
+        <v>60622</v>
       </c>
       <c r="AS27" s="18" t="n">
-        <v>60622</v>
+        <v>49483</v>
       </c>
       <c r="AT27" s="18" t="n">
-        <v>49483</v>
+        <v>37318</v>
       </c>
       <c r="AU27" s="18" t="n">
-        <v>37318</v>
+        <v>55449</v>
       </c>
       <c r="AV27" s="18" t="n">
-        <v>55449</v>
+        <v>37350</v>
       </c>
       <c r="AW27" s="18" t="n">
-        <v>37350</v>
+        <v>28053</v>
       </c>
       <c r="AX27" s="18" t="n">
-        <v>28053</v>
+        <v>55109</v>
       </c>
       <c r="AY27" s="18" t="n">
-        <v>55109</v>
+        <v>47482</v>
       </c>
       <c r="AZ27" s="18" t="n">
-        <v>47482</v>
+        <v>47413</v>
       </c>
       <c r="BA27" s="18" t="n">
-        <v>47413</v>
+        <v>100043</v>
       </c>
       <c r="BB27" s="18" t="n">
-        <v>100043</v>
+        <v>9071</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6152,11 +6152,11 @@
       <c r="AH29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI29" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ29" s="13" t="n">
-        <v>0</v>
+      <c r="AI29" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK29" s="13" t="s">
         <v>58</v>
@@ -6179,8 +6179,8 @@
       <c r="AQ29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR29" s="13" t="s">
-        <v>58</v>
+      <c r="AR29" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AS29" s="13" t="n">
         <v>0</v>
@@ -6362,14 +6362,14 @@
       <c r="AY30" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AZ30" s="16" t="s">
-        <v>58</v>
+      <c r="AZ30" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="BA30" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BB30" s="16" t="n">
-        <v>0</v>
+      <c r="BB30" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6428,8 +6428,8 @@
       <c r="T31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U31" s="13" t="s">
-        <v>58</v>
+      <c r="U31" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V31" s="13" t="n">
         <v>0</v>
@@ -6455,8 +6455,8 @@
       <c r="AC31" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD31" s="13" t="n">
-        <v>0</v>
+      <c r="AD31" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE31" s="13" t="s">
         <v>58</v>
@@ -6524,11 +6524,11 @@
       <c r="AZ31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA31" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB31" s="13" t="n">
-        <v>0</v>
+      <c r="BA31" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB31" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6596,8 +6596,8 @@
       <c r="W32" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X32" s="16" t="s">
-        <v>58</v>
+      <c r="X32" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="Y32" s="16" t="n">
         <v>0</v>
@@ -6614,8 +6614,8 @@
       <c r="AC32" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD32" s="16" t="n">
-        <v>0</v>
+      <c r="AD32" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE32" s="16" t="s">
         <v>58</v>
@@ -6836,8 +6836,8 @@
       <c r="AX33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY33" s="13" t="s">
-        <v>58</v>
+      <c r="AY33" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AZ33" s="13" t="n">
         <v>0</v>
@@ -6845,8 +6845,8 @@
       <c r="BA33" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB33" s="13" t="n">
-        <v>0</v>
+      <c r="BB33" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6968,20 +6968,20 @@
       <c r="AO34" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP34" s="16" t="s">
-        <v>58</v>
+      <c r="AP34" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ34" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AR34" s="16" t="n">
-        <v>0</v>
+      <c r="AR34" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AS34" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AT34" s="16" t="s">
-        <v>58</v>
+      <c r="AT34" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AU34" s="16" t="n">
         <v>0</v>
@@ -7433,8 +7433,8 @@
       <c r="T38" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U38" s="20" t="s">
-        <v>58</v>
+      <c r="U38" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V38" s="20" t="n">
         <v>0</v>
@@ -7591,106 +7591,106 @@
         <v>0</v>
       </c>
       <c r="U39" s="18" t="n">
-        <v>0</v>
+        <v>33695</v>
       </c>
       <c r="V39" s="18" t="n">
-        <v>33695</v>
+        <v>32507</v>
       </c>
       <c r="W39" s="18" t="n">
-        <v>32507</v>
+        <v>38185</v>
       </c>
       <c r="X39" s="18" t="n">
-        <v>38185</v>
+        <v>46464</v>
       </c>
       <c r="Y39" s="18" t="n">
-        <v>46464</v>
+        <v>34659</v>
       </c>
       <c r="Z39" s="18" t="n">
-        <v>34659</v>
+        <v>36261</v>
       </c>
       <c r="AA39" s="18" t="n">
-        <v>36261</v>
+        <v>69630</v>
       </c>
       <c r="AB39" s="18" t="n">
-        <v>69630</v>
+        <v>39329</v>
       </c>
       <c r="AC39" s="18" t="n">
-        <v>39329</v>
+        <v>39825</v>
       </c>
       <c r="AD39" s="18" t="n">
-        <v>39825</v>
+        <v>47922</v>
       </c>
       <c r="AE39" s="18" t="n">
-        <v>47922</v>
+        <v>24382</v>
       </c>
       <c r="AF39" s="18" t="n">
-        <v>24382</v>
+        <v>26937</v>
       </c>
       <c r="AG39" s="18" t="n">
-        <v>26937</v>
+        <v>45906</v>
       </c>
       <c r="AH39" s="18" t="n">
-        <v>45906</v>
+        <v>49780</v>
       </c>
       <c r="AI39" s="18" t="n">
-        <v>49780</v>
+        <v>59519</v>
       </c>
       <c r="AJ39" s="18" t="n">
-        <v>59519</v>
+        <v>39714</v>
       </c>
       <c r="AK39" s="18" t="n">
-        <v>39714</v>
+        <v>53341</v>
       </c>
       <c r="AL39" s="18" t="n">
-        <v>53341</v>
+        <v>51012</v>
       </c>
       <c r="AM39" s="18" t="n">
-        <v>51012</v>
+        <v>52281</v>
       </c>
       <c r="AN39" s="18" t="n">
-        <v>52281</v>
+        <v>69014</v>
       </c>
       <c r="AO39" s="18" t="n">
-        <v>69014</v>
+        <v>45805</v>
       </c>
       <c r="AP39" s="18" t="n">
-        <v>45805</v>
+        <v>34120</v>
       </c>
       <c r="AQ39" s="18" t="n">
-        <v>34120</v>
+        <v>41973</v>
       </c>
       <c r="AR39" s="18" t="n">
-        <v>41973</v>
+        <v>60622</v>
       </c>
       <c r="AS39" s="18" t="n">
-        <v>60622</v>
+        <v>49483</v>
       </c>
       <c r="AT39" s="18" t="n">
-        <v>49483</v>
+        <v>37318</v>
       </c>
       <c r="AU39" s="18" t="n">
-        <v>37318</v>
+        <v>55449</v>
       </c>
       <c r="AV39" s="18" t="n">
-        <v>55449</v>
+        <v>37350</v>
       </c>
       <c r="AW39" s="18" t="n">
-        <v>37350</v>
+        <v>28053</v>
       </c>
       <c r="AX39" s="18" t="n">
-        <v>28053</v>
+        <v>55109</v>
       </c>
       <c r="AY39" s="18" t="n">
-        <v>55109</v>
+        <v>47482</v>
       </c>
       <c r="AZ39" s="18" t="n">
-        <v>47482</v>
+        <v>47413</v>
       </c>
       <c r="BA39" s="18" t="n">
-        <v>47413</v>
+        <v>100043</v>
       </c>
       <c r="BB39" s="18" t="n">
-        <v>100043</v>
+        <v>9071</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8183,107 +8183,107 @@
       <c r="T46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U46" s="13" t="s">
-        <v>58</v>
+      <c r="U46" s="13" t="n">
+        <v>2584</v>
       </c>
       <c r="V46" s="13" t="n">
-        <v>2584</v>
+        <v>3806</v>
       </c>
       <c r="W46" s="13" t="n">
-        <v>3806</v>
+        <v>727</v>
       </c>
       <c r="X46" s="13" t="n">
-        <v>727</v>
+        <v>1158</v>
       </c>
       <c r="Y46" s="13" t="n">
-        <v>1158</v>
+        <v>2816</v>
       </c>
       <c r="Z46" s="13" t="n">
-        <v>2816</v>
+        <v>2064</v>
       </c>
       <c r="AA46" s="13" t="n">
-        <v>2064</v>
+        <v>2092</v>
       </c>
       <c r="AB46" s="13" t="n">
-        <v>2092</v>
+        <v>257</v>
       </c>
       <c r="AC46" s="13" t="n">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="AD46" s="13" t="n">
-        <v>0</v>
+        <v>5551</v>
       </c>
       <c r="AE46" s="13" t="n">
-        <v>5551</v>
+        <v>2635</v>
       </c>
       <c r="AF46" s="13" t="n">
-        <v>2635</v>
+        <v>768</v>
       </c>
       <c r="AG46" s="13" t="n">
-        <v>768</v>
+        <v>4470</v>
       </c>
       <c r="AH46" s="13" t="n">
-        <v>4470</v>
+        <v>5089</v>
       </c>
       <c r="AI46" s="13" t="n">
-        <v>5089</v>
+        <v>0</v>
       </c>
       <c r="AJ46" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AK46" s="13" t="n">
-        <v>0</v>
+        <v>6839</v>
       </c>
       <c r="AL46" s="13" t="n">
-        <v>6839</v>
+        <v>5062</v>
       </c>
       <c r="AM46" s="13" t="n">
-        <v>5062</v>
+        <v>3054</v>
       </c>
       <c r="AN46" s="13" t="n">
-        <v>3054</v>
+        <v>2411</v>
       </c>
       <c r="AO46" s="13" t="n">
-        <v>2411</v>
+        <v>1152</v>
       </c>
       <c r="AP46" s="13" t="n">
-        <v>1152</v>
+        <v>4208</v>
       </c>
       <c r="AQ46" s="13" t="n">
-        <v>4208</v>
+        <v>5359</v>
       </c>
       <c r="AR46" s="13" t="n">
-        <v>5359</v>
+        <v>5080</v>
       </c>
       <c r="AS46" s="13" t="n">
-        <v>5080</v>
+        <v>5880</v>
       </c>
       <c r="AT46" s="13" t="n">
-        <v>5880</v>
+        <v>7615</v>
       </c>
       <c r="AU46" s="13" t="n">
-        <v>7615</v>
+        <v>5832</v>
       </c>
       <c r="AV46" s="13" t="n">
-        <v>5832</v>
+        <v>5416</v>
       </c>
       <c r="AW46" s="13" t="n">
-        <v>5416</v>
+        <v>5504</v>
       </c>
       <c r="AX46" s="13" t="n">
-        <v>5504</v>
+        <v>5706</v>
       </c>
       <c r="AY46" s="13" t="n">
-        <v>5706</v>
+        <v>368</v>
       </c>
       <c r="AZ46" s="13" t="n">
-        <v>368</v>
+        <v>12218</v>
       </c>
       <c r="BA46" s="13" t="n">
-        <v>12218</v>
+        <v>8640</v>
       </c>
       <c r="BB46" s="13" t="n">
-        <v>8640</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8342,107 +8342,107 @@
       <c r="T47" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U47" s="16" t="s">
-        <v>58</v>
+      <c r="U47" s="16" t="n">
+        <v>6905</v>
       </c>
       <c r="V47" s="16" t="n">
-        <v>6905</v>
+        <v>4090</v>
       </c>
       <c r="W47" s="16" t="n">
-        <v>4090</v>
+        <v>4184</v>
       </c>
       <c r="X47" s="16" t="n">
-        <v>4184</v>
+        <v>9692</v>
       </c>
       <c r="Y47" s="16" t="n">
-        <v>9692</v>
+        <v>4175</v>
       </c>
       <c r="Z47" s="16" t="n">
-        <v>4175</v>
+        <v>9050</v>
       </c>
       <c r="AA47" s="16" t="n">
-        <v>9050</v>
+        <v>4712</v>
       </c>
       <c r="AB47" s="16" t="n">
-        <v>4712</v>
+        <v>3825</v>
       </c>
       <c r="AC47" s="16" t="n">
-        <v>3825</v>
+        <v>966</v>
       </c>
       <c r="AD47" s="16" t="n">
-        <v>966</v>
+        <v>0</v>
       </c>
       <c r="AE47" s="16" t="n">
-        <v>0</v>
+        <v>2557</v>
       </c>
       <c r="AF47" s="16" t="n">
-        <v>2557</v>
+        <v>1534</v>
       </c>
       <c r="AG47" s="16" t="n">
-        <v>1534</v>
+        <v>3258</v>
       </c>
       <c r="AH47" s="16" t="n">
-        <v>3258</v>
+        <v>9019</v>
       </c>
       <c r="AI47" s="16" t="n">
-        <v>9019</v>
+        <v>10163</v>
       </c>
       <c r="AJ47" s="16" t="n">
-        <v>10163</v>
+        <v>7728</v>
       </c>
       <c r="AK47" s="16" t="n">
-        <v>7728</v>
+        <v>5328</v>
       </c>
       <c r="AL47" s="16" t="n">
-        <v>5328</v>
+        <v>21140</v>
       </c>
       <c r="AM47" s="16" t="n">
-        <v>21140</v>
+        <v>7902</v>
       </c>
       <c r="AN47" s="16" t="n">
-        <v>7902</v>
+        <v>10733</v>
       </c>
       <c r="AO47" s="16" t="n">
-        <v>10733</v>
+        <v>1699</v>
       </c>
       <c r="AP47" s="16" t="n">
-        <v>1699</v>
+        <v>8918</v>
       </c>
       <c r="AQ47" s="16" t="n">
-        <v>8918</v>
+        <v>14776</v>
       </c>
       <c r="AR47" s="16" t="n">
-        <v>14776</v>
+        <v>10415</v>
       </c>
       <c r="AS47" s="16" t="n">
-        <v>10415</v>
+        <v>8360</v>
       </c>
       <c r="AT47" s="16" t="n">
-        <v>8360</v>
+        <v>12128</v>
       </c>
       <c r="AU47" s="16" t="n">
-        <v>12128</v>
+        <v>1206</v>
       </c>
       <c r="AV47" s="16" t="n">
-        <v>1206</v>
+        <v>3362</v>
       </c>
       <c r="AW47" s="16" t="n">
-        <v>3362</v>
+        <v>5528</v>
       </c>
       <c r="AX47" s="16" t="n">
-        <v>5528</v>
+        <v>11199</v>
       </c>
       <c r="AY47" s="16" t="n">
-        <v>11199</v>
+        <v>9447</v>
       </c>
       <c r="AZ47" s="16" t="n">
-        <v>9447</v>
+        <v>7840</v>
       </c>
       <c r="BA47" s="16" t="n">
-        <v>7840</v>
+        <v>4508</v>
       </c>
       <c r="BB47" s="16" t="n">
-        <v>4508</v>
+        <v>4137</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8501,107 +8501,107 @@
       <c r="T48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U48" s="13" t="s">
-        <v>58</v>
+      <c r="U48" s="13" t="n">
+        <v>3604</v>
       </c>
       <c r="V48" s="13" t="n">
-        <v>3604</v>
+        <v>1990</v>
       </c>
       <c r="W48" s="13" t="n">
-        <v>1990</v>
+        <v>7713</v>
       </c>
       <c r="X48" s="13" t="n">
-        <v>7713</v>
+        <v>5768</v>
       </c>
       <c r="Y48" s="13" t="n">
-        <v>5768</v>
+        <v>3071</v>
       </c>
       <c r="Z48" s="13" t="n">
-        <v>3071</v>
+        <v>6235</v>
       </c>
       <c r="AA48" s="13" t="n">
-        <v>6235</v>
+        <v>1351</v>
       </c>
       <c r="AB48" s="13" t="n">
-        <v>1351</v>
+        <v>620</v>
       </c>
       <c r="AC48" s="13" t="n">
-        <v>620</v>
+        <v>0</v>
       </c>
       <c r="AD48" s="13" t="n">
-        <v>0</v>
+        <v>7620</v>
       </c>
       <c r="AE48" s="13" t="n">
-        <v>7620</v>
+        <v>3730</v>
       </c>
       <c r="AF48" s="13" t="n">
-        <v>3730</v>
+        <v>6071</v>
       </c>
       <c r="AG48" s="13" t="n">
-        <v>6071</v>
+        <v>7434</v>
       </c>
       <c r="AH48" s="13" t="n">
-        <v>7434</v>
+        <v>1614</v>
       </c>
       <c r="AI48" s="13" t="n">
-        <v>1614</v>
+        <v>13301</v>
       </c>
       <c r="AJ48" s="13" t="n">
-        <v>13301</v>
+        <v>5798</v>
       </c>
       <c r="AK48" s="13" t="n">
-        <v>5798</v>
+        <v>1400</v>
       </c>
       <c r="AL48" s="13" t="n">
-        <v>1400</v>
+        <v>11253</v>
       </c>
       <c r="AM48" s="13" t="n">
-        <v>11253</v>
+        <v>2834</v>
       </c>
       <c r="AN48" s="13" t="n">
-        <v>2834</v>
+        <v>3031</v>
       </c>
       <c r="AO48" s="13" t="n">
-        <v>3031</v>
+        <v>3276</v>
       </c>
       <c r="AP48" s="13" t="n">
-        <v>3276</v>
+        <v>5100</v>
       </c>
       <c r="AQ48" s="13" t="n">
-        <v>5100</v>
+        <v>4076</v>
       </c>
       <c r="AR48" s="13" t="n">
-        <v>4076</v>
+        <v>4630</v>
       </c>
       <c r="AS48" s="13" t="n">
-        <v>4630</v>
+        <v>4820</v>
       </c>
       <c r="AT48" s="13" t="n">
-        <v>4820</v>
+        <v>5114</v>
       </c>
       <c r="AU48" s="13" t="n">
-        <v>5114</v>
+        <v>3710</v>
       </c>
       <c r="AV48" s="13" t="n">
-        <v>3710</v>
+        <v>6849</v>
       </c>
       <c r="AW48" s="13" t="n">
-        <v>6849</v>
+        <v>4461</v>
       </c>
       <c r="AX48" s="13" t="n">
-        <v>4461</v>
+        <v>3480</v>
       </c>
       <c r="AY48" s="13" t="n">
-        <v>3480</v>
+        <v>3158</v>
       </c>
       <c r="AZ48" s="13" t="n">
-        <v>3158</v>
+        <v>300</v>
       </c>
       <c r="BA48" s="13" t="n">
-        <v>300</v>
+        <v>3398</v>
       </c>
       <c r="BB48" s="13" t="n">
-        <v>3398</v>
+        <v>14552</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8723,8 +8723,8 @@
       <c r="AO49" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP49" s="16" t="s">
-        <v>58</v>
+      <c r="AP49" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ49" s="16" t="n">
         <v>0</v>
@@ -8754,10 +8754,10 @@
         <v>0</v>
       </c>
       <c r="AZ49" s="16" t="n">
-        <v>0</v>
+        <v>1381</v>
       </c>
       <c r="BA49" s="16" t="n">
-        <v>1381</v>
+        <v>0</v>
       </c>
       <c r="BB49" s="16" t="n">
         <v>0</v>
@@ -8819,107 +8819,107 @@
       <c r="T50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U50" s="13" t="s">
-        <v>58</v>
+      <c r="U50" s="13" t="n">
+        <v>11043</v>
       </c>
       <c r="V50" s="13" t="n">
-        <v>11043</v>
+        <v>12023</v>
       </c>
       <c r="W50" s="13" t="n">
-        <v>12023</v>
+        <v>7519</v>
       </c>
       <c r="X50" s="13" t="n">
-        <v>7519</v>
+        <v>2405</v>
       </c>
       <c r="Y50" s="13" t="n">
-        <v>2405</v>
+        <v>4339</v>
       </c>
       <c r="Z50" s="13" t="n">
-        <v>4339</v>
+        <v>2059</v>
       </c>
       <c r="AA50" s="13" t="n">
-        <v>2059</v>
+        <v>4304</v>
       </c>
       <c r="AB50" s="13" t="n">
-        <v>4304</v>
+        <v>8042</v>
       </c>
       <c r="AC50" s="13" t="n">
-        <v>8042</v>
+        <v>7586</v>
       </c>
       <c r="AD50" s="13" t="n">
-        <v>7586</v>
+        <v>7799</v>
       </c>
       <c r="AE50" s="13" t="n">
-        <v>7799</v>
+        <v>13137</v>
       </c>
       <c r="AF50" s="13" t="n">
-        <v>13137</v>
+        <v>11907</v>
       </c>
       <c r="AG50" s="13" t="n">
-        <v>11907</v>
+        <v>9032</v>
       </c>
       <c r="AH50" s="13" t="n">
-        <v>9032</v>
+        <v>7254</v>
       </c>
       <c r="AI50" s="13" t="n">
-        <v>7254</v>
+        <v>1465</v>
       </c>
       <c r="AJ50" s="13" t="n">
-        <v>1465</v>
+        <v>7809</v>
       </c>
       <c r="AK50" s="13" t="n">
-        <v>7809</v>
+        <v>8396</v>
       </c>
       <c r="AL50" s="13" t="n">
-        <v>8396</v>
+        <v>719</v>
       </c>
       <c r="AM50" s="13" t="n">
-        <v>719</v>
+        <v>10040</v>
       </c>
       <c r="AN50" s="13" t="n">
-        <v>10040</v>
+        <v>5225</v>
       </c>
       <c r="AO50" s="13" t="n">
-        <v>5225</v>
+        <v>3008</v>
       </c>
       <c r="AP50" s="13" t="n">
-        <v>3008</v>
+        <v>7207</v>
       </c>
       <c r="AQ50" s="13" t="n">
-        <v>7207</v>
+        <v>4803</v>
       </c>
       <c r="AR50" s="13" t="n">
-        <v>4803</v>
+        <v>3900</v>
       </c>
       <c r="AS50" s="13" t="n">
-        <v>3900</v>
+        <v>6406</v>
       </c>
       <c r="AT50" s="13" t="n">
-        <v>6406</v>
+        <v>0</v>
       </c>
       <c r="AU50" s="13" t="n">
-        <v>0</v>
+        <v>6114</v>
       </c>
       <c r="AV50" s="13" t="n">
-        <v>6114</v>
+        <v>3813</v>
       </c>
       <c r="AW50" s="13" t="n">
-        <v>3813</v>
+        <v>30790</v>
       </c>
       <c r="AX50" s="13" t="n">
-        <v>30790</v>
+        <v>20120</v>
       </c>
       <c r="AY50" s="13" t="n">
-        <v>20120</v>
+        <v>19556</v>
       </c>
       <c r="AZ50" s="13" t="n">
-        <v>19556</v>
+        <v>21089</v>
       </c>
       <c r="BA50" s="13" t="n">
-        <v>21089</v>
+        <v>12398</v>
       </c>
       <c r="BB50" s="13" t="n">
-        <v>12398</v>
+        <v>7792</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8978,53 +8978,53 @@
       <c r="T51" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U51" s="16" t="s">
-        <v>58</v>
+      <c r="U51" s="16" t="n">
+        <v>14890</v>
       </c>
       <c r="V51" s="16" t="n">
-        <v>14890</v>
+        <v>13568</v>
       </c>
       <c r="W51" s="16" t="n">
-        <v>13568</v>
+        <v>15641</v>
       </c>
       <c r="X51" s="16" t="n">
-        <v>15641</v>
+        <v>24479</v>
       </c>
       <c r="Y51" s="16" t="n">
-        <v>24479</v>
+        <v>17013</v>
       </c>
       <c r="Z51" s="16" t="n">
-        <v>17013</v>
+        <v>25571</v>
       </c>
       <c r="AA51" s="16" t="n">
-        <v>25571</v>
+        <v>41191</v>
       </c>
       <c r="AB51" s="16" t="n">
-        <v>41191</v>
+        <v>11889</v>
       </c>
       <c r="AC51" s="16" t="n">
-        <v>11889</v>
+        <v>1500</v>
       </c>
       <c r="AD51" s="16" t="n">
-        <v>1500</v>
+        <v>14205</v>
       </c>
       <c r="AE51" s="16" t="n">
-        <v>14205</v>
+        <v>22150</v>
       </c>
       <c r="AF51" s="16" t="n">
-        <v>22150</v>
+        <v>13826</v>
       </c>
       <c r="AG51" s="16" t="n">
-        <v>13826</v>
+        <v>13249</v>
       </c>
       <c r="AH51" s="16" t="n">
-        <v>13249</v>
+        <v>16490</v>
       </c>
       <c r="AI51" s="16" t="n">
-        <v>16490</v>
-      </c>
-      <c r="AJ51" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AK51" s="16" t="s">
         <v>58</v>
@@ -9155,89 +9155,89 @@
       <c r="Z52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA52" s="13" t="s">
-        <v>58</v>
+      <c r="AA52" s="13" t="n">
+        <v>39</v>
       </c>
       <c r="AB52" s="13" t="n">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="AC52" s="13" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AD52" s="13" t="n">
         <v>10</v>
       </c>
       <c r="AE52" s="13" t="n">
-        <v>10</v>
+        <v>678</v>
       </c>
       <c r="AF52" s="13" t="n">
-        <v>678</v>
+        <v>1581</v>
       </c>
       <c r="AG52" s="13" t="n">
-        <v>1581</v>
+        <v>0</v>
       </c>
       <c r="AH52" s="13" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="AI52" s="13" t="n">
-        <v>134</v>
+        <v>1912</v>
       </c>
       <c r="AJ52" s="13" t="n">
-        <v>1912</v>
+        <v>0</v>
       </c>
       <c r="AK52" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AL52" s="13" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AM52" s="13" t="n">
-        <v>31</v>
+        <v>3815</v>
       </c>
       <c r="AN52" s="13" t="n">
-        <v>3815</v>
+        <v>1526</v>
       </c>
       <c r="AO52" s="13" t="n">
-        <v>1526</v>
+        <v>795</v>
       </c>
       <c r="AP52" s="13" t="n">
-        <v>795</v>
+        <v>4545</v>
       </c>
       <c r="AQ52" s="13" t="n">
-        <v>4545</v>
+        <v>2187</v>
       </c>
       <c r="AR52" s="13" t="n">
-        <v>2187</v>
+        <v>7654</v>
       </c>
       <c r="AS52" s="13" t="n">
-        <v>7654</v>
+        <v>4516</v>
       </c>
       <c r="AT52" s="13" t="n">
-        <v>4516</v>
+        <v>26</v>
       </c>
       <c r="AU52" s="13" t="n">
-        <v>26</v>
+        <v>654</v>
       </c>
       <c r="AV52" s="13" t="n">
-        <v>654</v>
+        <v>10396</v>
       </c>
       <c r="AW52" s="13" t="n">
-        <v>10396</v>
+        <v>2381</v>
       </c>
       <c r="AX52" s="13" t="n">
-        <v>2381</v>
+        <v>2393</v>
       </c>
       <c r="AY52" s="13" t="n">
-        <v>2393</v>
+        <v>2552</v>
       </c>
       <c r="AZ52" s="13" t="n">
-        <v>2552</v>
+        <v>0</v>
       </c>
       <c r="BA52" s="13" t="n">
-        <v>0</v>
+        <v>863</v>
       </c>
       <c r="BB52" s="13" t="n">
-        <v>863</v>
+        <v>5001</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9314,14 +9314,14 @@
       <c r="Z53" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA53" s="16" t="s">
-        <v>58</v>
+      <c r="AA53" s="16" t="n">
+        <v>147</v>
       </c>
       <c r="AB53" s="16" t="n">
-        <v>147</v>
+        <v>360</v>
       </c>
       <c r="AC53" s="16" t="n">
-        <v>360</v>
+        <v>0</v>
       </c>
       <c r="AD53" s="16" t="n">
         <v>0</v>
@@ -9342,61 +9342,61 @@
         <v>0</v>
       </c>
       <c r="AJ53" s="16" t="n">
-        <v>0</v>
+        <v>381</v>
       </c>
       <c r="AK53" s="16" t="n">
-        <v>381</v>
+        <v>1006</v>
       </c>
       <c r="AL53" s="16" t="n">
-        <v>1006</v>
+        <v>1076</v>
       </c>
       <c r="AM53" s="16" t="n">
-        <v>1076</v>
+        <v>365</v>
       </c>
       <c r="AN53" s="16" t="n">
-        <v>365</v>
+        <v>448</v>
       </c>
       <c r="AO53" s="16" t="n">
-        <v>448</v>
+        <v>134</v>
       </c>
       <c r="AP53" s="16" t="n">
-        <v>134</v>
+        <v>810</v>
       </c>
       <c r="AQ53" s="16" t="n">
-        <v>810</v>
+        <v>634</v>
       </c>
       <c r="AR53" s="16" t="n">
-        <v>634</v>
+        <v>130</v>
       </c>
       <c r="AS53" s="16" t="n">
-        <v>130</v>
+        <v>371</v>
       </c>
       <c r="AT53" s="16" t="n">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="AU53" s="16" t="n">
-        <v>406</v>
+        <v>146</v>
       </c>
       <c r="AV53" s="16" t="n">
-        <v>146</v>
+        <v>50</v>
       </c>
       <c r="AW53" s="16" t="n">
-        <v>50</v>
+        <v>930</v>
       </c>
       <c r="AX53" s="16" t="n">
-        <v>930</v>
+        <v>714</v>
       </c>
       <c r="AY53" s="16" t="n">
-        <v>714</v>
+        <v>1131</v>
       </c>
       <c r="AZ53" s="16" t="n">
-        <v>1131</v>
+        <v>25</v>
       </c>
       <c r="BA53" s="16" t="n">
-        <v>25</v>
+        <v>757</v>
       </c>
       <c r="BB53" s="16" t="n">
-        <v>757</v>
+        <v>575</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9473,89 +9473,89 @@
       <c r="Z54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA54" s="13" t="s">
-        <v>58</v>
+      <c r="AA54" s="13" t="n">
+        <v>5</v>
       </c>
       <c r="AB54" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC54" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF54" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="AC54" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD54" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE54" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF54" s="13" t="n">
-        <v>20</v>
-      </c>
       <c r="AG54" s="13" t="n">
-        <v>5</v>
+        <v>1300</v>
       </c>
       <c r="AH54" s="13" t="n">
-        <v>1300</v>
+        <v>2513</v>
       </c>
       <c r="AI54" s="13" t="n">
-        <v>2513</v>
+        <v>1726</v>
       </c>
       <c r="AJ54" s="13" t="n">
-        <v>1726</v>
+        <v>2053</v>
       </c>
       <c r="AK54" s="13" t="n">
-        <v>2053</v>
+        <v>1641</v>
       </c>
       <c r="AL54" s="13" t="n">
-        <v>1641</v>
+        <v>311</v>
       </c>
       <c r="AM54" s="13" t="n">
-        <v>311</v>
+        <v>1</v>
       </c>
       <c r="AN54" s="13" t="n">
         <v>1</v>
       </c>
       <c r="AO54" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP54" s="13" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="AQ54" s="13" t="n">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="AR54" s="13" t="n">
-        <v>54</v>
+        <v>654</v>
       </c>
       <c r="AS54" s="13" t="n">
-        <v>654</v>
+        <v>6</v>
       </c>
       <c r="AT54" s="13" t="n">
-        <v>6</v>
+        <v>1265</v>
       </c>
       <c r="AU54" s="13" t="n">
-        <v>1265</v>
+        <v>37</v>
       </c>
       <c r="AV54" s="13" t="n">
-        <v>37</v>
+        <v>260</v>
       </c>
       <c r="AW54" s="13" t="n">
-        <v>260</v>
+        <v>105</v>
       </c>
       <c r="AX54" s="13" t="n">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="AY54" s="13" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="AZ54" s="13" t="n">
-        <v>40</v>
+        <v>733</v>
       </c>
       <c r="BA54" s="13" t="n">
-        <v>733</v>
+        <v>43</v>
       </c>
       <c r="BB54" s="13" t="n">
-        <v>43</v>
+        <v>598</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9656,65 +9656,65 @@
       <c r="AH55" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI55" s="16" t="s">
-        <v>58</v>
+      <c r="AI55" s="16" t="n">
+        <v>11325</v>
       </c>
       <c r="AJ55" s="16" t="n">
-        <v>11325</v>
+        <v>7153</v>
       </c>
       <c r="AK55" s="16" t="n">
-        <v>7153</v>
+        <v>8165</v>
       </c>
       <c r="AL55" s="16" t="n">
-        <v>8165</v>
+        <v>4875</v>
       </c>
       <c r="AM55" s="16" t="n">
-        <v>4875</v>
+        <v>6469</v>
       </c>
       <c r="AN55" s="16" t="n">
-        <v>6469</v>
+        <v>4095</v>
       </c>
       <c r="AO55" s="16" t="n">
-        <v>4095</v>
+        <v>3240</v>
       </c>
       <c r="AP55" s="16" t="n">
-        <v>3240</v>
+        <v>3680</v>
       </c>
       <c r="AQ55" s="16" t="n">
-        <v>3680</v>
+        <v>5110</v>
       </c>
       <c r="AR55" s="16" t="n">
-        <v>5110</v>
+        <v>10380</v>
       </c>
       <c r="AS55" s="16" t="n">
-        <v>10380</v>
+        <v>8753</v>
       </c>
       <c r="AT55" s="16" t="n">
-        <v>8753</v>
+        <v>4425</v>
       </c>
       <c r="AU55" s="16" t="n">
-        <v>4425</v>
+        <v>14110</v>
       </c>
       <c r="AV55" s="16" t="n">
-        <v>14110</v>
+        <v>6525</v>
       </c>
       <c r="AW55" s="16" t="n">
-        <v>6525</v>
+        <v>7114</v>
       </c>
       <c r="AX55" s="16" t="n">
-        <v>7114</v>
+        <v>5572</v>
       </c>
       <c r="AY55" s="16" t="n">
-        <v>5572</v>
+        <v>5711</v>
       </c>
       <c r="AZ55" s="16" t="n">
-        <v>5711</v>
+        <v>9708</v>
       </c>
       <c r="BA55" s="16" t="n">
-        <v>9708</v>
+        <v>6625</v>
       </c>
       <c r="BB55" s="16" t="n">
-        <v>6625</v>
+        <v>13595</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9815,8 +9815,8 @@
       <c r="AH56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI56" s="13" t="s">
-        <v>58</v>
+      <c r="AI56" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AJ56" s="13" t="n">
         <v>0</v>
@@ -9824,44 +9824,44 @@
       <c r="AK56" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AL56" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM56" s="13" t="s">
-        <v>58</v>
+      <c r="AL56" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM56" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AN56" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO56" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="AP56" s="13" t="s">
-        <v>58</v>
+      <c r="AO56" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP56" s="13" t="n">
+        <v>2</v>
       </c>
       <c r="AQ56" s="13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR56" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AS56" s="13" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AT56" s="13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU56" s="13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV56" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AW56" s="13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AX56" s="13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AY56" s="13" t="n">
         <v>0</v>
@@ -9974,8 +9974,8 @@
       <c r="AH57" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI57" s="16" t="s">
-        <v>58</v>
+      <c r="AI57" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AJ57" s="16" t="n">
         <v>0</v>
@@ -9984,55 +9984,55 @@
         <v>0</v>
       </c>
       <c r="AL57" s="16" t="n">
-        <v>0</v>
+        <v>3640</v>
       </c>
       <c r="AM57" s="16" t="n">
-        <v>3640</v>
+        <v>0</v>
       </c>
       <c r="AN57" s="16" t="n">
-        <v>0</v>
+        <v>3676</v>
       </c>
       <c r="AO57" s="16" t="n">
-        <v>3676</v>
+        <v>1257</v>
       </c>
       <c r="AP57" s="16" t="n">
-        <v>1257</v>
+        <v>0</v>
       </c>
       <c r="AQ57" s="16" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AR57" s="16" t="n">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="AS57" s="16" t="n">
-        <v>99</v>
+        <v>5373</v>
       </c>
       <c r="AT57" s="16" t="n">
-        <v>5373</v>
+        <v>3793</v>
       </c>
       <c r="AU57" s="16" t="n">
-        <v>3793</v>
+        <v>58</v>
       </c>
       <c r="AV57" s="16" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AW57" s="16" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="AX57" s="16" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AY57" s="16" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AZ57" s="16" t="n">
-        <v>39</v>
+        <v>4616</v>
       </c>
       <c r="BA57" s="16" t="n">
-        <v>4616</v>
+        <v>36</v>
       </c>
       <c r="BB57" s="16" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10133,65 +10133,65 @@
       <c r="AH58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI58" s="13" t="s">
-        <v>58</v>
+      <c r="AI58" s="13" t="n">
+        <v>1634</v>
       </c>
       <c r="AJ58" s="13" t="n">
-        <v>1634</v>
+        <v>2365</v>
       </c>
       <c r="AK58" s="13" t="n">
-        <v>2365</v>
-      </c>
-      <c r="AL58" s="13" t="n">
         <v>4724</v>
       </c>
-      <c r="AM58" s="13" t="s">
-        <v>58</v>
+      <c r="AL58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM58" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AN58" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO58" s="13" t="n">
         <v>3765</v>
       </c>
-      <c r="AP58" s="13" t="s">
-        <v>58</v>
+      <c r="AO58" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP58" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ58" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AR58" s="13" t="n">
-        <v>0</v>
+        <v>4371</v>
       </c>
       <c r="AS58" s="13" t="n">
-        <v>4371</v>
+        <v>601</v>
       </c>
       <c r="AT58" s="13" t="n">
-        <v>601</v>
+        <v>1449</v>
       </c>
       <c r="AU58" s="13" t="n">
-        <v>1449</v>
+        <v>0</v>
       </c>
       <c r="AV58" s="13" t="n">
-        <v>0</v>
+        <v>1050</v>
       </c>
       <c r="AW58" s="13" t="n">
-        <v>1050</v>
+        <v>1</v>
       </c>
       <c r="AX58" s="13" t="n">
-        <v>1</v>
+        <v>4825</v>
       </c>
       <c r="AY58" s="13" t="n">
-        <v>4825</v>
+        <v>2530</v>
       </c>
       <c r="AZ58" s="13" t="n">
-        <v>2530</v>
+        <v>2118</v>
       </c>
       <c r="BA58" s="13" t="n">
-        <v>2118</v>
+        <v>50</v>
       </c>
       <c r="BB58" s="13" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10292,8 +10292,8 @@
       <c r="AH59" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI59" s="16" t="s">
-        <v>58</v>
+      <c r="AI59" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AJ59" s="16" t="n">
         <v>0</v>
@@ -10302,34 +10302,34 @@
         <v>0</v>
       </c>
       <c r="AL59" s="16" t="n">
-        <v>0</v>
+        <v>960</v>
       </c>
       <c r="AM59" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN59" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO59" s="16" t="n">
+        <v>6080</v>
+      </c>
+      <c r="AP59" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ59" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR59" s="16" t="n">
         <v>960</v>
       </c>
-      <c r="AN59" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO59" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP59" s="16" t="n">
-        <v>6080</v>
-      </c>
-      <c r="AQ59" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR59" s="16" t="n">
-        <v>0</v>
-      </c>
       <c r="AS59" s="16" t="n">
-        <v>960</v>
+        <v>3200</v>
       </c>
       <c r="AT59" s="16" t="n">
         <v>3200</v>
       </c>
       <c r="AU59" s="16" t="n">
-        <v>3200</v>
+        <v>0</v>
       </c>
       <c r="AV59" s="16" t="n">
         <v>0</v>
@@ -10347,10 +10347,10 @@
         <v>0</v>
       </c>
       <c r="BA59" s="16" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BB59" s="16" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10451,8 +10451,8 @@
       <c r="AH60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI60" s="13" t="s">
-        <v>58</v>
+      <c r="AI60" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AJ60" s="13" t="n">
         <v>0</v>
@@ -10460,20 +10460,20 @@
       <c r="AK60" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AL60" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM60" s="13" t="s">
-        <v>58</v>
+      <c r="AL60" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM60" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AN60" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AO60" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP60" s="13" t="s">
-        <v>58</v>
+      <c r="AO60" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP60" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ60" s="13" t="n">
         <v>0</v>
@@ -10494,10 +10494,10 @@
         <v>0</v>
       </c>
       <c r="AW60" s="13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX60" s="13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY60" s="13" t="n">
         <v>0</v>
@@ -10631,8 +10631,8 @@
       <c r="AO61" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP61" s="16" t="s">
-        <v>58</v>
+      <c r="AP61" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ61" s="16" t="n">
         <v>0</v>
@@ -10726,106 +10726,106 @@
         <v>0</v>
       </c>
       <c r="U62" s="18" t="n">
-        <v>0</v>
+        <v>39026</v>
       </c>
       <c r="V62" s="18" t="n">
-        <v>39026</v>
+        <v>35477</v>
       </c>
       <c r="W62" s="18" t="n">
-        <v>35477</v>
+        <v>35784</v>
       </c>
       <c r="X62" s="18" t="n">
-        <v>35784</v>
+        <v>43502</v>
       </c>
       <c r="Y62" s="18" t="n">
-        <v>43502</v>
+        <v>31414</v>
       </c>
       <c r="Z62" s="18" t="n">
-        <v>31414</v>
+        <v>44979</v>
       </c>
       <c r="AA62" s="18" t="n">
-        <v>44979</v>
+        <v>53841</v>
       </c>
       <c r="AB62" s="18" t="n">
-        <v>53841</v>
+        <v>24999</v>
       </c>
       <c r="AC62" s="18" t="n">
-        <v>24999</v>
+        <v>10062</v>
       </c>
       <c r="AD62" s="18" t="n">
-        <v>10062</v>
+        <v>35185</v>
       </c>
       <c r="AE62" s="18" t="n">
-        <v>35185</v>
+        <v>44907</v>
       </c>
       <c r="AF62" s="18" t="n">
-        <v>44907</v>
+        <v>35692</v>
       </c>
       <c r="AG62" s="18" t="n">
-        <v>35692</v>
+        <v>38743</v>
       </c>
       <c r="AH62" s="18" t="n">
-        <v>38743</v>
+        <v>42113</v>
       </c>
       <c r="AI62" s="18" t="n">
-        <v>42113</v>
+        <v>41526</v>
       </c>
       <c r="AJ62" s="18" t="n">
-        <v>41526</v>
+        <v>33287</v>
       </c>
       <c r="AK62" s="18" t="n">
-        <v>33287</v>
+        <v>37499</v>
       </c>
       <c r="AL62" s="18" t="n">
-        <v>37499</v>
+        <v>49067</v>
       </c>
       <c r="AM62" s="18" t="n">
-        <v>49067</v>
+        <v>34480</v>
       </c>
       <c r="AN62" s="18" t="n">
-        <v>34480</v>
+        <v>34918</v>
       </c>
       <c r="AO62" s="18" t="n">
-        <v>34918</v>
+        <v>20644</v>
       </c>
       <c r="AP62" s="18" t="n">
-        <v>20644</v>
+        <v>34489</v>
       </c>
       <c r="AQ62" s="18" t="n">
-        <v>34489</v>
+        <v>37015</v>
       </c>
       <c r="AR62" s="18" t="n">
-        <v>37015</v>
+        <v>48273</v>
       </c>
       <c r="AS62" s="18" t="n">
-        <v>48273</v>
+        <v>48291</v>
       </c>
       <c r="AT62" s="18" t="n">
-        <v>48291</v>
+        <v>39424</v>
       </c>
       <c r="AU62" s="18" t="n">
-        <v>39424</v>
+        <v>31867</v>
       </c>
       <c r="AV62" s="18" t="n">
-        <v>31867</v>
+        <v>37776</v>
       </c>
       <c r="AW62" s="18" t="n">
-        <v>37776</v>
+        <v>56842</v>
       </c>
       <c r="AX62" s="18" t="n">
-        <v>56842</v>
+        <v>54027</v>
       </c>
       <c r="AY62" s="18" t="n">
-        <v>54027</v>
+        <v>44532</v>
       </c>
       <c r="AZ62" s="18" t="n">
-        <v>44532</v>
+        <v>60028</v>
       </c>
       <c r="BA62" s="18" t="n">
-        <v>60028</v>
+        <v>37328</v>
       </c>
       <c r="BB62" s="18" t="n">
-        <v>37328</v>
+        <v>46250</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10983,12 +10983,12 @@
       <c r="AH64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ64" s="13" t="n">
+      <c r="AI64" s="13" t="n">
         <v>4799</v>
       </c>
+      <c r="AJ64" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AK64" s="13" t="s">
         <v>58</v>
       </c>
@@ -11010,11 +11010,11 @@
       <c r="AQ64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR64" s="13" t="s">
-        <v>58</v>
+      <c r="AR64" s="13" t="n">
+        <v>25</v>
       </c>
       <c r="AS64" s="13" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AT64" s="13" t="n">
         <v>0</v>
@@ -11193,14 +11193,14 @@
       <c r="AY65" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AZ65" s="16" t="s">
-        <v>58</v>
+      <c r="AZ65" s="16" t="n">
+        <v>100</v>
       </c>
       <c r="BA65" s="16" t="n">
-        <v>100</v>
-      </c>
-      <c r="BB65" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BB65" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11259,8 +11259,8 @@
       <c r="T66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U66" s="13" t="s">
-        <v>58</v>
+      <c r="U66" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V66" s="13" t="n">
         <v>0</v>
@@ -11286,8 +11286,8 @@
       <c r="AC66" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD66" s="13" t="n">
-        <v>0</v>
+      <c r="AD66" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE66" s="13" t="s">
         <v>58</v>
@@ -11355,11 +11355,11 @@
       <c r="AZ66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA66" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB66" s="13" t="n">
+      <c r="BA66" s="13" t="n">
         <v>25</v>
+      </c>
+      <c r="BB66" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11427,11 +11427,11 @@
       <c r="W67" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X67" s="16" t="s">
-        <v>58</v>
+      <c r="X67" s="16" t="n">
+        <v>1000</v>
       </c>
       <c r="Y67" s="16" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z67" s="16" t="n">
         <v>0</v>
@@ -11445,8 +11445,8 @@
       <c r="AC67" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD67" s="16" t="n">
-        <v>0</v>
+      <c r="AD67" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE67" s="16" t="s">
         <v>58</v>
@@ -11667,17 +11667,17 @@
       <c r="AX68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY68" s="13" t="s">
-        <v>58</v>
+      <c r="AY68" s="13" t="n">
+        <v>300</v>
       </c>
       <c r="AZ68" s="13" t="n">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="BA68" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB68" s="13" t="n">
         <v>25</v>
+      </c>
+      <c r="BB68" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11781,11 +11781,11 @@
       <c r="AI69" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AJ69" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK69" s="16" t="n">
-        <v>0</v>
+      <c r="AJ69" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK69" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AL69" s="16" t="s">
         <v>58</v>
@@ -11799,23 +11799,23 @@
       <c r="AO69" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP69" s="16" t="s">
-        <v>58</v>
+      <c r="AP69" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ69" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AR69" s="16" t="n">
-        <v>0</v>
+      <c r="AR69" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AS69" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AT69" s="16" t="s">
-        <v>58</v>
+      <c r="AT69" s="16" t="n">
+        <v>1700</v>
       </c>
       <c r="AU69" s="16" t="n">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="AV69" s="16" t="n">
         <v>0</v>
@@ -11830,10 +11830,10 @@
         <v>0</v>
       </c>
       <c r="AZ69" s="16" t="n">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="BA69" s="16" t="n">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="BB69" s="16" t="n">
         <v>0</v>
@@ -11903,10 +11903,10 @@
         <v>0</v>
       </c>
       <c r="X70" s="18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y70" s="18" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z70" s="18" t="n">
         <v>0</v>
@@ -11936,10 +11936,10 @@
         <v>0</v>
       </c>
       <c r="AI70" s="18" t="n">
-        <v>0</v>
+        <v>4799</v>
       </c>
       <c r="AJ70" s="18" t="n">
-        <v>4799</v>
+        <v>0</v>
       </c>
       <c r="AK70" s="18" t="n">
         <v>0</v>
@@ -11963,16 +11963,16 @@
         <v>0</v>
       </c>
       <c r="AR70" s="18" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AS70" s="18" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AT70" s="18" t="n">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="AU70" s="18" t="n">
-        <v>1700</v>
+        <v>0</v>
       </c>
       <c r="AV70" s="18" t="n">
         <v>0</v>
@@ -11984,16 +11984,16 @@
         <v>0</v>
       </c>
       <c r="AY70" s="18" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AZ70" s="18" t="n">
-        <v>300</v>
+        <v>1600</v>
       </c>
       <c r="BA70" s="18" t="n">
-        <v>1600</v>
+        <v>50</v>
       </c>
       <c r="BB70" s="18" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12264,8 +12264,8 @@
       <c r="T73" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U73" s="20" t="s">
-        <v>58</v>
+      <c r="U73" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V73" s="20" t="n">
         <v>0</v>
@@ -12480,8 +12480,8 @@
       <c r="T75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U75" s="13" t="s">
-        <v>58</v>
+      <c r="U75" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V75" s="13" t="n">
         <v>0</v>
@@ -12507,8 +12507,8 @@
       <c r="AC75" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD75" s="13" t="n">
-        <v>0</v>
+      <c r="AD75" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE75" s="13" t="s">
         <v>58</v>
@@ -12516,11 +12516,11 @@
       <c r="AF75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG75" s="13" t="s">
-        <v>58</v>
+      <c r="AG75" s="13" t="n">
+        <v>-576</v>
       </c>
       <c r="AH75" s="13" t="n">
-        <v>-576</v>
+        <v>0</v>
       </c>
       <c r="AI75" s="13" t="n">
         <v>0</v>
@@ -12528,17 +12528,17 @@
       <c r="AJ75" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AK75" s="13" t="n">
-        <v>0</v>
+      <c r="AK75" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM75" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN75" s="13" t="n">
-        <v>0</v>
+      <c r="AM75" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN75" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO75" s="13" t="s">
         <v>58</v>
@@ -12705,21 +12705,21 @@
       <c r="AP76" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AQ76" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR76" s="16" t="n">
+      <c r="AQ76" s="16" t="n">
         <v>-599</v>
       </c>
+      <c r="AR76" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AS76" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AT76" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU76" s="16" t="n">
+      <c r="AT76" s="16" t="n">
         <v>-483</v>
       </c>
+      <c r="AU76" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AV76" s="16" t="s">
         <v>58</v>
       </c>
@@ -12729,11 +12729,11 @@
       <c r="AX76" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AY76" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ76" s="16" t="n">
+      <c r="AY76" s="16" t="n">
         <v>-59</v>
+      </c>
+      <c r="AZ76" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="BA76" s="16" t="s">
         <v>58</v>
@@ -12810,23 +12810,23 @@
       <c r="X77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y77" s="13" t="s">
-        <v>58</v>
+      <c r="Y77" s="13" t="n">
+        <v>-120</v>
       </c>
       <c r="Z77" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="13" t="n">
         <v>-120</v>
       </c>
-      <c r="AA77" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB77" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC77" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD77" s="13" t="n">
-        <v>-120</v>
+      <c r="AD77" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE77" s="13" t="s">
         <v>58</v>
@@ -12837,33 +12837,33 @@
       <c r="AG77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH77" s="13" t="s">
-        <v>58</v>
+      <c r="AH77" s="13" t="n">
+        <v>-855</v>
       </c>
       <c r="AI77" s="13" t="n">
-        <v>-855</v>
+        <v>0</v>
       </c>
       <c r="AJ77" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AK77" s="13" t="n">
-        <v>0</v>
+      <c r="AK77" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM77" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN77" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO77" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP77" s="13" t="n">
+      <c r="AM77" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN77" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO77" s="13" t="n">
         <v>-40</v>
       </c>
+      <c r="AP77" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ77" s="13" t="s">
         <v>58</v>
       </c>
@@ -12873,11 +12873,11 @@
       <c r="AS77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT77" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU77" s="13" t="n">
+      <c r="AT77" s="13" t="n">
         <v>-525</v>
+      </c>
+      <c r="AU77" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV77" s="13" t="s">
         <v>58</v>
@@ -12963,8 +12963,8 @@
       <c r="V78" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="W78" s="16" t="s">
-        <v>58</v>
+      <c r="W78" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="X78" s="16" t="n">
         <v>0</v>
@@ -12984,8 +12984,8 @@
       <c r="AC78" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD78" s="16" t="n">
-        <v>0</v>
+      <c r="AD78" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE78" s="16" t="s">
         <v>58</v>
@@ -13014,11 +13014,11 @@
       <c r="AM78" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AN78" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO78" s="16" t="n">
+      <c r="AN78" s="16" t="n">
         <v>-12</v>
+      </c>
+      <c r="AO78" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AP78" s="16" t="s">
         <v>58</v>
@@ -13152,29 +13152,29 @@
       <c r="AF79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG79" s="13" t="s">
-        <v>58</v>
+      <c r="AG79" s="13" t="n">
+        <v>-25</v>
       </c>
       <c r="AH79" s="13" t="n">
-        <v>-25</v>
+        <v>-125</v>
       </c>
       <c r="AI79" s="13" t="n">
-        <v>-125</v>
+        <v>0</v>
       </c>
       <c r="AJ79" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AK79" s="13" t="n">
-        <v>0</v>
+      <c r="AK79" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM79" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN79" s="13" t="n">
-        <v>0</v>
+      <c r="AM79" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN79" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO79" s="13" t="s">
         <v>58</v>
@@ -13311,8 +13311,8 @@
       <c r="AF80" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AG80" s="16" t="s">
-        <v>58</v>
+      <c r="AG80" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AH80" s="16" t="n">
         <v>0</v>
@@ -13323,18 +13323,18 @@
       <c r="AJ80" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AK80" s="16" t="n">
-        <v>0</v>
+      <c r="AK80" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AL80" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM80" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN80" s="16" t="n">
+      <c r="AM80" s="16" t="n">
         <v>-8</v>
       </c>
+      <c r="AN80" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AO80" s="16" t="s">
         <v>58</v>
       </c>
@@ -13344,17 +13344,17 @@
       <c r="AQ80" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR80" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS80" s="16" t="n">
+      <c r="AR80" s="16" t="n">
         <v>-12</v>
       </c>
-      <c r="AT80" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU80" s="16" t="n">
+      <c r="AS80" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT80" s="16" t="n">
         <v>-975</v>
+      </c>
+      <c r="AU80" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AV80" s="16" t="s">
         <v>58</v>
@@ -13432,8 +13432,8 @@
       <c r="T81" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U81" s="18" t="s">
-        <v>58</v>
+      <c r="U81" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V81" s="18" t="n">
         <v>0</v>
@@ -13445,22 +13445,22 @@
         <v>0</v>
       </c>
       <c r="Y81" s="18" t="n">
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="Z81" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="18" t="n">
         <v>-120</v>
       </c>
-      <c r="AA81" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB81" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC81" s="18" t="n">
-        <v>0</v>
-      </c>
       <c r="AD81" s="18" t="n">
-        <v>-120</v>
+        <v>0</v>
       </c>
       <c r="AE81" s="18" t="n">
         <v>0</v>
@@ -13469,13 +13469,13 @@
         <v>0</v>
       </c>
       <c r="AG81" s="18" t="n">
-        <v>0</v>
+        <v>-601</v>
       </c>
       <c r="AH81" s="18" t="n">
-        <v>-601</v>
+        <v>-980</v>
       </c>
       <c r="AI81" s="18" t="n">
-        <v>-980</v>
+        <v>0</v>
       </c>
       <c r="AJ81" s="18" t="n">
         <v>0</v>
@@ -13487,31 +13487,31 @@
         <v>0</v>
       </c>
       <c r="AM81" s="18" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="AN81" s="18" t="n">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="AO81" s="18" t="n">
+        <v>-40</v>
+      </c>
+      <c r="AP81" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ81" s="18" t="n">
+        <v>-599</v>
+      </c>
+      <c r="AR81" s="18" t="n">
         <v>-12</v>
       </c>
-      <c r="AP81" s="18" t="n">
-        <v>-40</v>
-      </c>
-      <c r="AQ81" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR81" s="18" t="n">
-        <v>-599</v>
-      </c>
       <c r="AS81" s="18" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="AT81" s="18" t="n">
-        <v>0</v>
+        <v>-1983</v>
       </c>
       <c r="AU81" s="18" t="n">
-        <v>-1983</v>
+        <v>0</v>
       </c>
       <c r="AV81" s="18" t="n">
         <v>0</v>
@@ -13523,10 +13523,10 @@
         <v>0</v>
       </c>
       <c r="AY81" s="18" t="n">
-        <v>0</v>
+        <v>-59</v>
       </c>
       <c r="AZ81" s="18" t="n">
-        <v>-59</v>
+        <v>0</v>
       </c>
       <c r="BA81" s="18" t="n">
         <v>0</v>
@@ -13590,106 +13590,106 @@
         <v>0</v>
       </c>
       <c r="U82" s="20" t="n">
-        <v>0</v>
+        <v>39026</v>
       </c>
       <c r="V82" s="20" t="n">
-        <v>39026</v>
+        <v>35477</v>
       </c>
       <c r="W82" s="20" t="n">
-        <v>35477</v>
+        <v>35784</v>
       </c>
       <c r="X82" s="20" t="n">
-        <v>35784</v>
+        <v>44502</v>
       </c>
       <c r="Y82" s="20" t="n">
-        <v>44502</v>
+        <v>31294</v>
       </c>
       <c r="Z82" s="20" t="n">
-        <v>31294</v>
+        <v>44979</v>
       </c>
       <c r="AA82" s="20" t="n">
-        <v>44979</v>
+        <v>53841</v>
       </c>
       <c r="AB82" s="20" t="n">
-        <v>53841</v>
+        <v>24999</v>
       </c>
       <c r="AC82" s="20" t="n">
-        <v>24999</v>
+        <v>9942</v>
       </c>
       <c r="AD82" s="20" t="n">
-        <v>9942</v>
+        <v>35185</v>
       </c>
       <c r="AE82" s="20" t="n">
-        <v>35185</v>
+        <v>44907</v>
       </c>
       <c r="AF82" s="20" t="n">
-        <v>44907</v>
+        <v>35692</v>
       </c>
       <c r="AG82" s="20" t="n">
-        <v>35692</v>
+        <v>38142</v>
       </c>
       <c r="AH82" s="20" t="n">
-        <v>38142</v>
+        <v>41133</v>
       </c>
       <c r="AI82" s="20" t="n">
-        <v>41133</v>
+        <v>46325</v>
       </c>
       <c r="AJ82" s="20" t="n">
-        <v>46325</v>
+        <v>33287</v>
       </c>
       <c r="AK82" s="20" t="n">
-        <v>33287</v>
+        <v>37499</v>
       </c>
       <c r="AL82" s="20" t="n">
-        <v>37499</v>
+        <v>49067</v>
       </c>
       <c r="AM82" s="20" t="n">
-        <v>49067</v>
+        <v>34472</v>
       </c>
       <c r="AN82" s="20" t="n">
-        <v>34472</v>
+        <v>34906</v>
       </c>
       <c r="AO82" s="20" t="n">
-        <v>34906</v>
+        <v>20604</v>
       </c>
       <c r="AP82" s="20" t="n">
-        <v>20604</v>
+        <v>34489</v>
       </c>
       <c r="AQ82" s="20" t="n">
-        <v>34489</v>
+        <v>36416</v>
       </c>
       <c r="AR82" s="20" t="n">
-        <v>36416</v>
+        <v>48286</v>
       </c>
       <c r="AS82" s="20" t="n">
-        <v>48286</v>
+        <v>48291</v>
       </c>
       <c r="AT82" s="20" t="n">
-        <v>48291</v>
+        <v>39141</v>
       </c>
       <c r="AU82" s="20" t="n">
-        <v>39141</v>
+        <v>31867</v>
       </c>
       <c r="AV82" s="20" t="n">
-        <v>31867</v>
+        <v>37776</v>
       </c>
       <c r="AW82" s="20" t="n">
-        <v>37776</v>
+        <v>56842</v>
       </c>
       <c r="AX82" s="20" t="n">
-        <v>56842</v>
+        <v>54027</v>
       </c>
       <c r="AY82" s="20" t="n">
-        <v>54027</v>
+        <v>44773</v>
       </c>
       <c r="AZ82" s="20" t="n">
-        <v>44773</v>
+        <v>61628</v>
       </c>
       <c r="BA82" s="20" t="n">
-        <v>61628</v>
+        <v>37378</v>
       </c>
       <c r="BB82" s="20" t="n">
-        <v>37378</v>
+        <v>46250</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14182,107 +14182,107 @@
       <c r="T89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U89" s="13" t="s">
-        <v>58</v>
+      <c r="U89" s="13" t="n">
+        <v>10244</v>
       </c>
       <c r="V89" s="13" t="n">
-        <v>10244</v>
+        <v>15544</v>
       </c>
       <c r="W89" s="13" t="n">
-        <v>15544</v>
+        <v>3053</v>
       </c>
       <c r="X89" s="13" t="n">
-        <v>3053</v>
+        <v>5616</v>
       </c>
       <c r="Y89" s="13" t="n">
-        <v>5616</v>
+        <v>15220</v>
       </c>
       <c r="Z89" s="13" t="n">
-        <v>15220</v>
+        <v>10491</v>
       </c>
       <c r="AA89" s="13" t="n">
-        <v>10491</v>
+        <v>10458</v>
       </c>
       <c r="AB89" s="13" t="n">
-        <v>10458</v>
+        <v>1414</v>
       </c>
       <c r="AC89" s="13" t="n">
-        <v>1414</v>
+        <v>0</v>
       </c>
       <c r="AD89" s="13" t="n">
-        <v>0</v>
+        <v>24693</v>
       </c>
       <c r="AE89" s="13" t="n">
-        <v>24693</v>
+        <v>15811</v>
       </c>
       <c r="AF89" s="13" t="n">
-        <v>15811</v>
+        <v>4608</v>
       </c>
       <c r="AG89" s="13" t="n">
-        <v>4608</v>
+        <v>26527</v>
       </c>
       <c r="AH89" s="13" t="n">
-        <v>26527</v>
+        <v>27943</v>
       </c>
       <c r="AI89" s="13" t="n">
-        <v>27943</v>
+        <v>0</v>
       </c>
       <c r="AJ89" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AK89" s="13" t="n">
-        <v>0</v>
+        <v>39319</v>
       </c>
       <c r="AL89" s="13" t="n">
-        <v>39319</v>
+        <v>29764</v>
       </c>
       <c r="AM89" s="13" t="n">
-        <v>29764</v>
+        <v>17181</v>
       </c>
       <c r="AN89" s="13" t="n">
-        <v>17181</v>
+        <v>13326</v>
       </c>
       <c r="AO89" s="13" t="n">
-        <v>13326</v>
+        <v>8064</v>
       </c>
       <c r="AP89" s="13" t="n">
-        <v>8064</v>
+        <v>26400</v>
       </c>
       <c r="AQ89" s="13" t="n">
-        <v>26400</v>
+        <v>34386</v>
       </c>
       <c r="AR89" s="13" t="n">
-        <v>34386</v>
+        <v>34260</v>
       </c>
       <c r="AS89" s="13" t="n">
-        <v>34260</v>
+        <v>38508</v>
       </c>
       <c r="AT89" s="13" t="n">
-        <v>38508</v>
+        <v>56804</v>
       </c>
       <c r="AU89" s="13" t="n">
-        <v>56804</v>
+        <v>34992</v>
       </c>
       <c r="AV89" s="13" t="n">
-        <v>34992</v>
+        <v>37952</v>
       </c>
       <c r="AW89" s="13" t="n">
-        <v>37952</v>
+        <v>38456</v>
       </c>
       <c r="AX89" s="13" t="n">
-        <v>38456</v>
+        <v>39686</v>
       </c>
       <c r="AY89" s="13" t="n">
-        <v>39686</v>
+        <v>2944</v>
       </c>
       <c r="AZ89" s="13" t="n">
-        <v>2944</v>
+        <v>82176</v>
       </c>
       <c r="BA89" s="13" t="n">
-        <v>82176</v>
+        <v>59040</v>
       </c>
       <c r="BB89" s="13" t="n">
-        <v>59040</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14341,107 +14341,107 @@
       <c r="T90" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U90" s="16" t="s">
-        <v>58</v>
+      <c r="U90" s="16" t="n">
+        <v>16366</v>
       </c>
       <c r="V90" s="16" t="n">
-        <v>16366</v>
+        <v>7215</v>
       </c>
       <c r="W90" s="16" t="n">
-        <v>7215</v>
+        <v>8223</v>
       </c>
       <c r="X90" s="16" t="n">
-        <v>8223</v>
+        <v>33619</v>
       </c>
       <c r="Y90" s="16" t="n">
-        <v>33619</v>
+        <v>9785</v>
       </c>
       <c r="Z90" s="16" t="n">
-        <v>9785</v>
+        <v>23520</v>
       </c>
       <c r="AA90" s="16" t="n">
-        <v>23520</v>
+        <v>15422</v>
       </c>
       <c r="AB90" s="16" t="n">
-        <v>15422</v>
+        <v>14101</v>
       </c>
       <c r="AC90" s="16" t="n">
-        <v>14101</v>
+        <v>9287</v>
       </c>
       <c r="AD90" s="16" t="n">
-        <v>9287</v>
+        <v>0</v>
       </c>
       <c r="AE90" s="16" t="n">
-        <v>0</v>
+        <v>24291</v>
       </c>
       <c r="AF90" s="16" t="n">
-        <v>24291</v>
+        <v>22948</v>
       </c>
       <c r="AG90" s="16" t="n">
-        <v>22948</v>
+        <v>27976</v>
       </c>
       <c r="AH90" s="16" t="n">
-        <v>27976</v>
+        <v>72693</v>
       </c>
       <c r="AI90" s="16" t="n">
-        <v>72693</v>
+        <v>70591</v>
       </c>
       <c r="AJ90" s="16" t="n">
-        <v>70591</v>
+        <v>65857</v>
       </c>
       <c r="AK90" s="16" t="n">
-        <v>65857</v>
+        <v>39543</v>
       </c>
       <c r="AL90" s="16" t="n">
-        <v>39543</v>
+        <v>152659</v>
       </c>
       <c r="AM90" s="16" t="n">
-        <v>152659</v>
+        <v>51635</v>
       </c>
       <c r="AN90" s="16" t="n">
-        <v>51635</v>
+        <v>62547</v>
       </c>
       <c r="AO90" s="16" t="n">
-        <v>62547</v>
+        <v>27457</v>
       </c>
       <c r="AP90" s="16" t="n">
-        <v>27457</v>
+        <v>49877</v>
       </c>
       <c r="AQ90" s="16" t="n">
-        <v>49877</v>
+        <v>112185</v>
       </c>
       <c r="AR90" s="16" t="n">
-        <v>112185</v>
+        <v>69989</v>
       </c>
       <c r="AS90" s="16" t="n">
-        <v>69989</v>
+        <v>53377</v>
       </c>
       <c r="AT90" s="16" t="n">
-        <v>53377</v>
+        <v>164290</v>
       </c>
       <c r="AU90" s="16" t="n">
-        <v>164290</v>
+        <v>49799</v>
       </c>
       <c r="AV90" s="16" t="n">
-        <v>49799</v>
+        <v>21713</v>
       </c>
       <c r="AW90" s="16" t="n">
-        <v>21713</v>
+        <v>71893</v>
       </c>
       <c r="AX90" s="16" t="n">
-        <v>71893</v>
+        <v>105323</v>
       </c>
       <c r="AY90" s="16" t="n">
-        <v>105323</v>
+        <v>160029</v>
       </c>
       <c r="AZ90" s="16" t="n">
-        <v>160029</v>
+        <v>71731</v>
       </c>
       <c r="BA90" s="16" t="n">
-        <v>71731</v>
+        <v>40941</v>
       </c>
       <c r="BB90" s="16" t="n">
-        <v>40941</v>
+        <v>39498</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14500,107 +14500,107 @@
       <c r="T91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U91" s="13" t="s">
-        <v>58</v>
+      <c r="U91" s="13" t="n">
+        <v>31790</v>
       </c>
       <c r="V91" s="13" t="n">
-        <v>31790</v>
+        <v>16629</v>
       </c>
       <c r="W91" s="13" t="n">
-        <v>16629</v>
+        <v>56998</v>
       </c>
       <c r="X91" s="13" t="n">
-        <v>56998</v>
+        <v>40413</v>
       </c>
       <c r="Y91" s="13" t="n">
-        <v>40413</v>
+        <v>16935</v>
       </c>
       <c r="Z91" s="13" t="n">
-        <v>16935</v>
+        <v>36019</v>
       </c>
       <c r="AA91" s="13" t="n">
-        <v>36019</v>
+        <v>12899</v>
       </c>
       <c r="AB91" s="13" t="n">
-        <v>12899</v>
+        <v>4650</v>
       </c>
       <c r="AC91" s="13" t="n">
-        <v>4650</v>
+        <v>0</v>
       </c>
       <c r="AD91" s="13" t="n">
-        <v>0</v>
+        <v>67282</v>
       </c>
       <c r="AE91" s="13" t="n">
-        <v>67282</v>
+        <v>42368</v>
       </c>
       <c r="AF91" s="13" t="n">
-        <v>42368</v>
+        <v>80167</v>
       </c>
       <c r="AG91" s="13" t="n">
-        <v>80167</v>
+        <v>94134</v>
       </c>
       <c r="AH91" s="13" t="n">
-        <v>94134</v>
+        <v>5650</v>
       </c>
       <c r="AI91" s="13" t="n">
-        <v>5650</v>
+        <v>169268</v>
       </c>
       <c r="AJ91" s="13" t="n">
-        <v>169268</v>
+        <v>69272</v>
       </c>
       <c r="AK91" s="13" t="n">
-        <v>69272</v>
+        <v>16800</v>
       </c>
       <c r="AL91" s="13" t="n">
-        <v>16800</v>
+        <v>130551</v>
       </c>
       <c r="AM91" s="13" t="n">
-        <v>130551</v>
+        <v>24930</v>
       </c>
       <c r="AN91" s="13" t="n">
-        <v>24930</v>
+        <v>45272</v>
       </c>
       <c r="AO91" s="13" t="n">
-        <v>45272</v>
+        <v>39323</v>
       </c>
       <c r="AP91" s="13" t="n">
-        <v>39323</v>
+        <v>55145</v>
       </c>
       <c r="AQ91" s="13" t="n">
-        <v>55145</v>
+        <v>75072</v>
       </c>
       <c r="AR91" s="13" t="n">
-        <v>75072</v>
+        <v>47245</v>
       </c>
       <c r="AS91" s="13" t="n">
-        <v>47245</v>
+        <v>65173</v>
       </c>
       <c r="AT91" s="13" t="n">
-        <v>65173</v>
+        <v>111485</v>
       </c>
       <c r="AU91" s="13" t="n">
-        <v>111485</v>
+        <v>37744</v>
       </c>
       <c r="AV91" s="13" t="n">
-        <v>37744</v>
+        <v>146165</v>
       </c>
       <c r="AW91" s="13" t="n">
-        <v>146165</v>
+        <v>124817</v>
       </c>
       <c r="AX91" s="13" t="n">
-        <v>124817</v>
+        <v>38864</v>
       </c>
       <c r="AY91" s="13" t="n">
-        <v>38864</v>
+        <v>80027</v>
       </c>
       <c r="AZ91" s="13" t="n">
-        <v>80027</v>
+        <v>11522</v>
       </c>
       <c r="BA91" s="13" t="n">
-        <v>11522</v>
+        <v>97751</v>
       </c>
       <c r="BB91" s="13" t="n">
-        <v>97751</v>
+        <v>361168</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14710,11 +14710,11 @@
       <c r="AK92" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AL92" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM92" s="16" t="n">
-        <v>0</v>
+      <c r="AL92" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM92" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AN92" s="16" t="s">
         <v>58</v>
@@ -14722,8 +14722,8 @@
       <c r="AO92" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP92" s="16" t="s">
-        <v>58</v>
+      <c r="AP92" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ92" s="16" t="n">
         <v>0</v>
@@ -14753,10 +14753,10 @@
         <v>0</v>
       </c>
       <c r="AZ92" s="16" t="n">
-        <v>0</v>
+        <v>3452</v>
       </c>
       <c r="BA92" s="16" t="n">
-        <v>3452</v>
+        <v>0</v>
       </c>
       <c r="BB92" s="16" t="n">
         <v>0</v>
@@ -14818,107 +14818,107 @@
       <c r="T93" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U93" s="13" t="s">
-        <v>58</v>
+      <c r="U93" s="13" t="n">
+        <v>130038</v>
       </c>
       <c r="V93" s="13" t="n">
-        <v>130038</v>
+        <v>131357</v>
       </c>
       <c r="W93" s="13" t="n">
-        <v>131357</v>
+        <v>73617</v>
       </c>
       <c r="X93" s="13" t="n">
-        <v>73617</v>
+        <v>18037</v>
       </c>
       <c r="Y93" s="13" t="n">
-        <v>18037</v>
+        <v>57129</v>
       </c>
       <c r="Z93" s="13" t="n">
-        <v>57129</v>
+        <v>21808</v>
       </c>
       <c r="AA93" s="13" t="n">
-        <v>21808</v>
+        <v>40891</v>
       </c>
       <c r="AB93" s="13" t="n">
-        <v>40891</v>
+        <v>76756</v>
       </c>
       <c r="AC93" s="13" t="n">
-        <v>76756</v>
+        <v>77988</v>
       </c>
       <c r="AD93" s="13" t="n">
-        <v>77988</v>
+        <v>88866</v>
       </c>
       <c r="AE93" s="13" t="n">
-        <v>88866</v>
+        <v>161189</v>
       </c>
       <c r="AF93" s="13" t="n">
-        <v>161189</v>
+        <v>161051</v>
       </c>
       <c r="AG93" s="13" t="n">
-        <v>161051</v>
+        <v>111029</v>
       </c>
       <c r="AH93" s="13" t="n">
-        <v>111029</v>
+        <v>112500</v>
       </c>
       <c r="AI93" s="13" t="n">
-        <v>112500</v>
+        <v>22722</v>
       </c>
       <c r="AJ93" s="13" t="n">
-        <v>22722</v>
+        <v>122743</v>
       </c>
       <c r="AK93" s="13" t="n">
-        <v>122743</v>
+        <v>127244</v>
       </c>
       <c r="AL93" s="13" t="n">
-        <v>127244</v>
+        <v>11504</v>
       </c>
       <c r="AM93" s="13" t="n">
-        <v>11504</v>
+        <v>158191</v>
       </c>
       <c r="AN93" s="13" t="n">
-        <v>158191</v>
+        <v>80980</v>
       </c>
       <c r="AO93" s="13" t="n">
-        <v>80980</v>
+        <v>47536</v>
       </c>
       <c r="AP93" s="13" t="n">
-        <v>47536</v>
+        <v>114300</v>
       </c>
       <c r="AQ93" s="13" t="n">
-        <v>114300</v>
+        <v>76651</v>
       </c>
       <c r="AR93" s="13" t="n">
-        <v>76651</v>
+        <v>63568</v>
       </c>
       <c r="AS93" s="13" t="n">
-        <v>63568</v>
+        <v>96730</v>
       </c>
       <c r="AT93" s="13" t="n">
-        <v>96730</v>
+        <v>0</v>
       </c>
       <c r="AU93" s="13" t="n">
-        <v>0</v>
+        <v>261127</v>
       </c>
       <c r="AV93" s="13" t="n">
-        <v>261127</v>
+        <v>176825</v>
       </c>
       <c r="AW93" s="13" t="n">
-        <v>176825</v>
+        <v>1453748</v>
       </c>
       <c r="AX93" s="13" t="n">
-        <v>1453748</v>
+        <v>819298</v>
       </c>
       <c r="AY93" s="13" t="n">
-        <v>819298</v>
+        <v>840857</v>
       </c>
       <c r="AZ93" s="13" t="n">
-        <v>840857</v>
+        <v>896198</v>
       </c>
       <c r="BA93" s="13" t="n">
-        <v>896198</v>
+        <v>543299</v>
       </c>
       <c r="BB93" s="13" t="n">
-        <v>543299</v>
+        <v>338903</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14977,53 +14977,53 @@
       <c r="T94" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U94" s="16" t="s">
-        <v>58</v>
+      <c r="U94" s="16" t="n">
+        <v>64872</v>
       </c>
       <c r="V94" s="16" t="n">
-        <v>64872</v>
+        <v>49255</v>
       </c>
       <c r="W94" s="16" t="n">
-        <v>49255</v>
+        <v>73759</v>
       </c>
       <c r="X94" s="16" t="n">
-        <v>73759</v>
+        <v>115364</v>
       </c>
       <c r="Y94" s="16" t="n">
-        <v>115364</v>
+        <v>110748</v>
       </c>
       <c r="Z94" s="16" t="n">
-        <v>110748</v>
+        <v>129549</v>
       </c>
       <c r="AA94" s="16" t="n">
-        <v>129549</v>
+        <v>134919</v>
       </c>
       <c r="AB94" s="16" t="n">
-        <v>134919</v>
+        <v>57758</v>
       </c>
       <c r="AC94" s="16" t="n">
-        <v>57758</v>
+        <v>13489</v>
       </c>
       <c r="AD94" s="16" t="n">
-        <v>13489</v>
+        <v>100525</v>
       </c>
       <c r="AE94" s="16" t="n">
-        <v>100525</v>
+        <v>75515</v>
       </c>
       <c r="AF94" s="16" t="n">
-        <v>75515</v>
+        <v>72533</v>
       </c>
       <c r="AG94" s="16" t="n">
-        <v>72533</v>
+        <v>77914</v>
       </c>
       <c r="AH94" s="16" t="n">
-        <v>77914</v>
+        <v>95525</v>
       </c>
       <c r="AI94" s="16" t="n">
-        <v>95525</v>
-      </c>
-      <c r="AJ94" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AJ94" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AK94" s="16" t="s">
         <v>58</v>
@@ -15154,89 +15154,89 @@
       <c r="Z95" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA95" s="13" t="s">
-        <v>58</v>
+      <c r="AA95" s="13" t="n">
+        <v>3955</v>
       </c>
       <c r="AB95" s="13" t="n">
-        <v>3955</v>
+        <v>12</v>
       </c>
       <c r="AC95" s="13" t="n">
-        <v>12</v>
+        <v>999</v>
       </c>
       <c r="AD95" s="13" t="n">
-        <v>999</v>
+        <v>1025</v>
       </c>
       <c r="AE95" s="13" t="n">
-        <v>1025</v>
+        <v>3672</v>
       </c>
       <c r="AF95" s="13" t="n">
-        <v>3672</v>
+        <v>9200</v>
       </c>
       <c r="AG95" s="13" t="n">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="AH95" s="13" t="n">
-        <v>0</v>
+        <v>1930</v>
       </c>
       <c r="AI95" s="13" t="n">
-        <v>1930</v>
+        <v>17778</v>
       </c>
       <c r="AJ95" s="13" t="n">
-        <v>17778</v>
+        <v>0</v>
       </c>
       <c r="AK95" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AL95" s="13" t="n">
-        <v>0</v>
+        <v>3116</v>
       </c>
       <c r="AM95" s="13" t="n">
-        <v>3116</v>
+        <v>17230</v>
       </c>
       <c r="AN95" s="13" t="n">
-        <v>17230</v>
+        <v>10048</v>
       </c>
       <c r="AO95" s="13" t="n">
-        <v>10048</v>
+        <v>5528</v>
       </c>
       <c r="AP95" s="13" t="n">
-        <v>5528</v>
+        <v>24735</v>
       </c>
       <c r="AQ95" s="13" t="n">
-        <v>24735</v>
+        <v>26181</v>
       </c>
       <c r="AR95" s="13" t="n">
-        <v>26181</v>
+        <v>49098</v>
       </c>
       <c r="AS95" s="13" t="n">
-        <v>49098</v>
+        <v>23172</v>
       </c>
       <c r="AT95" s="13" t="n">
-        <v>23172</v>
+        <v>17901</v>
       </c>
       <c r="AU95" s="13" t="n">
-        <v>17901</v>
+        <v>42798</v>
       </c>
       <c r="AV95" s="13" t="n">
-        <v>42798</v>
+        <v>122273</v>
       </c>
       <c r="AW95" s="13" t="n">
-        <v>122273</v>
+        <v>68053</v>
       </c>
       <c r="AX95" s="13" t="n">
-        <v>68053</v>
+        <v>23928</v>
       </c>
       <c r="AY95" s="13" t="n">
-        <v>23928</v>
+        <v>25520</v>
       </c>
       <c r="AZ95" s="13" t="n">
-        <v>25520</v>
+        <v>0</v>
       </c>
       <c r="BA95" s="13" t="n">
-        <v>0</v>
+        <v>25131</v>
       </c>
       <c r="BB95" s="13" t="n">
-        <v>25131</v>
+        <v>60251</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15313,14 +15313,14 @@
       <c r="Z96" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA96" s="16" t="s">
-        <v>58</v>
+      <c r="AA96" s="16" t="n">
+        <v>1177</v>
       </c>
       <c r="AB96" s="16" t="n">
-        <v>1177</v>
+        <v>17398</v>
       </c>
       <c r="AC96" s="16" t="n">
-        <v>17398</v>
+        <v>0</v>
       </c>
       <c r="AD96" s="16" t="n">
         <v>0</v>
@@ -15341,61 +15341,61 @@
         <v>0</v>
       </c>
       <c r="AJ96" s="16" t="n">
-        <v>0</v>
+        <v>21353</v>
       </c>
       <c r="AK96" s="16" t="n">
-        <v>21353</v>
+        <v>30220</v>
       </c>
       <c r="AL96" s="16" t="n">
-        <v>30220</v>
+        <v>46680</v>
       </c>
       <c r="AM96" s="16" t="n">
-        <v>46680</v>
+        <v>9844</v>
       </c>
       <c r="AN96" s="16" t="n">
-        <v>9844</v>
+        <v>12781</v>
       </c>
       <c r="AO96" s="16" t="n">
-        <v>12781</v>
+        <v>3890</v>
       </c>
       <c r="AP96" s="16" t="n">
-        <v>3890</v>
+        <v>45435</v>
       </c>
       <c r="AQ96" s="16" t="n">
-        <v>45435</v>
+        <v>17375</v>
       </c>
       <c r="AR96" s="16" t="n">
-        <v>17375</v>
+        <v>11173</v>
       </c>
       <c r="AS96" s="16" t="n">
-        <v>11173</v>
+        <v>17311</v>
       </c>
       <c r="AT96" s="16" t="n">
-        <v>17311</v>
+        <v>11430</v>
       </c>
       <c r="AU96" s="16" t="n">
-        <v>11430</v>
+        <v>9533</v>
       </c>
       <c r="AV96" s="16" t="n">
-        <v>9533</v>
+        <v>2900</v>
       </c>
       <c r="AW96" s="16" t="n">
-        <v>2900</v>
+        <v>54332</v>
       </c>
       <c r="AX96" s="16" t="n">
-        <v>54332</v>
+        <v>41400</v>
       </c>
       <c r="AY96" s="16" t="n">
-        <v>41400</v>
+        <v>65598</v>
       </c>
       <c r="AZ96" s="16" t="n">
-        <v>65598</v>
+        <v>1450</v>
       </c>
       <c r="BA96" s="16" t="n">
-        <v>1450</v>
+        <v>58726</v>
       </c>
       <c r="BB96" s="16" t="n">
-        <v>58726</v>
+        <v>37759</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15472,89 +15472,89 @@
       <c r="Z97" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA97" s="13" t="s">
-        <v>58</v>
+      <c r="AA97" s="13" t="n">
+        <v>645</v>
       </c>
       <c r="AB97" s="13" t="n">
-        <v>645</v>
+        <v>1719</v>
       </c>
       <c r="AC97" s="13" t="n">
-        <v>1719</v>
+        <v>0</v>
       </c>
       <c r="AD97" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AE97" s="13" t="n">
-        <v>0</v>
+        <v>1523</v>
       </c>
       <c r="AF97" s="13" t="n">
-        <v>1523</v>
+        <v>336</v>
       </c>
       <c r="AG97" s="13" t="n">
-        <v>336</v>
+        <v>46475</v>
       </c>
       <c r="AH97" s="13" t="n">
-        <v>46475</v>
+        <v>91274</v>
       </c>
       <c r="AI97" s="13" t="n">
-        <v>91274</v>
+        <v>62623</v>
       </c>
       <c r="AJ97" s="13" t="n">
-        <v>62623</v>
+        <v>75018</v>
       </c>
       <c r="AK97" s="13" t="n">
-        <v>75018</v>
+        <v>56545</v>
       </c>
       <c r="AL97" s="13" t="n">
-        <v>56545</v>
+        <v>10701</v>
       </c>
       <c r="AM97" s="13" t="n">
-        <v>10701</v>
+        <v>16</v>
       </c>
       <c r="AN97" s="13" t="n">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="AO97" s="13" t="n">
-        <v>75</v>
+        <v>254</v>
       </c>
       <c r="AP97" s="13" t="n">
-        <v>254</v>
+        <v>10086</v>
       </c>
       <c r="AQ97" s="13" t="n">
-        <v>10086</v>
+        <v>4158</v>
       </c>
       <c r="AR97" s="13" t="n">
-        <v>4158</v>
+        <v>23238</v>
       </c>
       <c r="AS97" s="13" t="n">
-        <v>23238</v>
+        <v>5789</v>
       </c>
       <c r="AT97" s="13" t="n">
-        <v>5789</v>
+        <v>9935</v>
       </c>
       <c r="AU97" s="13" t="n">
-        <v>9935</v>
+        <v>8998</v>
       </c>
       <c r="AV97" s="13" t="n">
-        <v>8998</v>
+        <v>61298</v>
       </c>
       <c r="AW97" s="13" t="n">
-        <v>61298</v>
+        <v>9673</v>
       </c>
       <c r="AX97" s="13" t="n">
-        <v>9673</v>
+        <v>4209</v>
       </c>
       <c r="AY97" s="13" t="n">
-        <v>4209</v>
+        <v>4288</v>
       </c>
       <c r="AZ97" s="13" t="n">
-        <v>4288</v>
+        <v>61044</v>
       </c>
       <c r="BA97" s="13" t="n">
-        <v>61044</v>
+        <v>4580</v>
       </c>
       <c r="BB97" s="13" t="n">
-        <v>4580</v>
+        <v>16448</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15655,65 +15655,65 @@
       <c r="AH98" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI98" s="16" t="s">
-        <v>58</v>
+      <c r="AI98" s="16" t="n">
+        <v>58236</v>
       </c>
       <c r="AJ98" s="16" t="n">
-        <v>58236</v>
+        <v>59344</v>
       </c>
       <c r="AK98" s="16" t="n">
-        <v>59344</v>
+        <v>48835</v>
       </c>
       <c r="AL98" s="16" t="n">
-        <v>48835</v>
+        <v>26710</v>
       </c>
       <c r="AM98" s="16" t="n">
-        <v>26710</v>
+        <v>42642</v>
       </c>
       <c r="AN98" s="16" t="n">
-        <v>42642</v>
+        <v>25062</v>
       </c>
       <c r="AO98" s="16" t="n">
-        <v>25062</v>
+        <v>15592</v>
       </c>
       <c r="AP98" s="16" t="n">
-        <v>15592</v>
+        <v>31625</v>
       </c>
       <c r="AQ98" s="16" t="n">
-        <v>31625</v>
+        <v>55558</v>
       </c>
       <c r="AR98" s="16" t="n">
-        <v>55558</v>
+        <v>86141</v>
       </c>
       <c r="AS98" s="16" t="n">
-        <v>86141</v>
+        <v>102480</v>
       </c>
       <c r="AT98" s="16" t="n">
-        <v>102480</v>
+        <v>32670</v>
       </c>
       <c r="AU98" s="16" t="n">
-        <v>32670</v>
+        <v>100453</v>
       </c>
       <c r="AV98" s="16" t="n">
-        <v>100453</v>
+        <v>11350</v>
       </c>
       <c r="AW98" s="16" t="n">
-        <v>11350</v>
+        <v>19008</v>
       </c>
       <c r="AX98" s="16" t="n">
-        <v>19008</v>
+        <v>75520</v>
       </c>
       <c r="AY98" s="16" t="n">
-        <v>75520</v>
+        <v>49319</v>
       </c>
       <c r="AZ98" s="16" t="n">
-        <v>49319</v>
+        <v>65640</v>
       </c>
       <c r="BA98" s="16" t="n">
-        <v>65640</v>
+        <v>63472</v>
       </c>
       <c r="BB98" s="16" t="n">
-        <v>63472</v>
+        <v>37336</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15814,8 +15814,8 @@
       <c r="AH99" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI99" s="13" t="s">
-        <v>58</v>
+      <c r="AI99" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AJ99" s="13" t="n">
         <v>0</v>
@@ -15830,37 +15830,37 @@
         <v>0</v>
       </c>
       <c r="AN99" s="13" t="n">
-        <v>0</v>
+        <v>8450</v>
       </c>
       <c r="AO99" s="13" t="n">
-        <v>8450</v>
+        <v>0</v>
       </c>
       <c r="AP99" s="13" t="n">
-        <v>0</v>
+        <v>2015</v>
       </c>
       <c r="AQ99" s="13" t="n">
-        <v>2015</v>
+        <v>0</v>
       </c>
       <c r="AR99" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AS99" s="13" t="n">
-        <v>0</v>
+        <v>6825</v>
       </c>
       <c r="AT99" s="13" t="n">
-        <v>6825</v>
+        <v>4485</v>
       </c>
       <c r="AU99" s="13" t="n">
-        <v>4485</v>
+        <v>0</v>
       </c>
       <c r="AV99" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AW99" s="13" t="n">
-        <v>0</v>
+        <v>4550</v>
       </c>
       <c r="AX99" s="13" t="n">
-        <v>4550</v>
+        <v>0</v>
       </c>
       <c r="AY99" s="13" t="n">
         <v>0</v>
@@ -15973,8 +15973,8 @@
       <c r="AH100" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI100" s="16" t="s">
-        <v>58</v>
+      <c r="AI100" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AJ100" s="16" t="n">
         <v>0</v>
@@ -15983,55 +15983,55 @@
         <v>0</v>
       </c>
       <c r="AL100" s="16" t="n">
-        <v>0</v>
+        <v>11604</v>
       </c>
       <c r="AM100" s="16" t="n">
-        <v>11604</v>
+        <v>0</v>
       </c>
       <c r="AN100" s="16" t="n">
-        <v>0</v>
+        <v>12887</v>
       </c>
       <c r="AO100" s="16" t="n">
-        <v>12887</v>
+        <v>7398</v>
       </c>
       <c r="AP100" s="16" t="n">
-        <v>7398</v>
+        <v>0</v>
       </c>
       <c r="AQ100" s="16" t="n">
-        <v>0</v>
+        <v>2288</v>
       </c>
       <c r="AR100" s="16" t="n">
-        <v>2288</v>
+        <v>78</v>
       </c>
       <c r="AS100" s="16" t="n">
-        <v>78</v>
+        <v>30753</v>
       </c>
       <c r="AT100" s="16" t="n">
-        <v>30753</v>
+        <v>18621</v>
       </c>
       <c r="AU100" s="16" t="n">
-        <v>18621</v>
+        <v>89</v>
       </c>
       <c r="AV100" s="16" t="n">
-        <v>89</v>
+        <v>19009</v>
       </c>
       <c r="AW100" s="16" t="n">
-        <v>19009</v>
+        <v>7699</v>
       </c>
       <c r="AX100" s="16" t="n">
-        <v>7699</v>
+        <v>0</v>
       </c>
       <c r="AY100" s="16" t="n">
-        <v>0</v>
+        <v>13615</v>
       </c>
       <c r="AZ100" s="16" t="n">
-        <v>13615</v>
+        <v>29246</v>
       </c>
       <c r="BA100" s="16" t="n">
-        <v>29246</v>
+        <v>14530</v>
       </c>
       <c r="BB100" s="16" t="n">
-        <v>14530</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16132,26 +16132,26 @@
       <c r="AH101" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI101" s="13" t="s">
-        <v>58</v>
+      <c r="AI101" s="13" t="n">
+        <v>18953</v>
       </c>
       <c r="AJ101" s="13" t="n">
-        <v>18953</v>
+        <v>35459</v>
       </c>
       <c r="AK101" s="13" t="n">
-        <v>35459</v>
+        <v>70860</v>
       </c>
       <c r="AL101" s="13" t="n">
-        <v>70860</v>
+        <v>0</v>
       </c>
       <c r="AM101" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AN101" s="13" t="n">
-        <v>0</v>
+        <v>56474</v>
       </c>
       <c r="AO101" s="13" t="n">
-        <v>56474</v>
+        <v>0</v>
       </c>
       <c r="AP101" s="13" t="n">
         <v>0</v>
@@ -16160,37 +16160,37 @@
         <v>0</v>
       </c>
       <c r="AR101" s="13" t="n">
-        <v>0</v>
+        <v>65565</v>
       </c>
       <c r="AS101" s="13" t="n">
-        <v>65565</v>
+        <v>9216</v>
       </c>
       <c r="AT101" s="13" t="n">
-        <v>9216</v>
+        <v>21956</v>
       </c>
       <c r="AU101" s="13" t="n">
-        <v>21956</v>
+        <v>0</v>
       </c>
       <c r="AV101" s="13" t="n">
-        <v>0</v>
+        <v>15900</v>
       </c>
       <c r="AW101" s="13" t="n">
-        <v>15900</v>
+        <v>15</v>
       </c>
       <c r="AX101" s="13" t="n">
-        <v>15</v>
+        <v>75300</v>
       </c>
       <c r="AY101" s="13" t="n">
-        <v>75300</v>
+        <v>37950</v>
       </c>
       <c r="AZ101" s="13" t="n">
-        <v>37950</v>
+        <v>31770</v>
       </c>
       <c r="BA101" s="13" t="n">
-        <v>31770</v>
+        <v>750</v>
       </c>
       <c r="BB101" s="13" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16291,8 +16291,8 @@
       <c r="AH102" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI102" s="16" t="s">
-        <v>58</v>
+      <c r="AI102" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AJ102" s="16" t="n">
         <v>0</v>
@@ -16301,34 +16301,34 @@
         <v>0</v>
       </c>
       <c r="AL102" s="16" t="n">
-        <v>0</v>
+        <v>691</v>
       </c>
       <c r="AM102" s="16" t="n">
-        <v>691</v>
+        <v>0</v>
       </c>
       <c r="AN102" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AO102" s="16" t="n">
-        <v>0</v>
+        <v>4560</v>
       </c>
       <c r="AP102" s="16" t="n">
-        <v>4560</v>
+        <v>0</v>
       </c>
       <c r="AQ102" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AR102" s="16" t="n">
-        <v>0</v>
+        <v>864</v>
       </c>
       <c r="AS102" s="16" t="n">
-        <v>864</v>
+        <v>2880</v>
       </c>
       <c r="AT102" s="16" t="n">
         <v>2880</v>
       </c>
       <c r="AU102" s="16" t="n">
-        <v>2880</v>
+        <v>0</v>
       </c>
       <c r="AV102" s="16" t="n">
         <v>0</v>
@@ -16346,10 +16346,10 @@
         <v>0</v>
       </c>
       <c r="BA102" s="16" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BB102" s="16" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16450,8 +16450,8 @@
       <c r="AH103" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI103" s="13" t="s">
-        <v>58</v>
+      <c r="AI103" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AJ103" s="13" t="n">
         <v>0</v>
@@ -16493,10 +16493,10 @@
         <v>0</v>
       </c>
       <c r="AW103" s="13" t="n">
-        <v>0</v>
+        <v>3960</v>
       </c>
       <c r="AX103" s="13" t="n">
-        <v>3960</v>
+        <v>0</v>
       </c>
       <c r="AY103" s="13" t="n">
         <v>0</v>
@@ -16618,11 +16618,11 @@
       <c r="AK104" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AL104" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM104" s="16" t="n">
-        <v>0</v>
+      <c r="AL104" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM104" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AN104" s="16" t="s">
         <v>58</v>
@@ -16630,8 +16630,8 @@
       <c r="AO104" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AP104" s="16" t="s">
-        <v>58</v>
+      <c r="AP104" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ104" s="16" t="n">
         <v>0</v>
@@ -16725,106 +16725,106 @@
         <v>0</v>
       </c>
       <c r="U105" s="18" t="n">
-        <v>0</v>
+        <v>253310</v>
       </c>
       <c r="V105" s="18" t="n">
-        <v>253310</v>
+        <v>220000</v>
       </c>
       <c r="W105" s="18" t="n">
-        <v>220000</v>
+        <v>215650</v>
       </c>
       <c r="X105" s="18" t="n">
-        <v>215650</v>
+        <v>213049</v>
       </c>
       <c r="Y105" s="18" t="n">
-        <v>213049</v>
+        <v>209817</v>
       </c>
       <c r="Z105" s="18" t="n">
-        <v>209817</v>
+        <v>221387</v>
       </c>
       <c r="AA105" s="18" t="n">
-        <v>221387</v>
+        <v>220366</v>
       </c>
       <c r="AB105" s="18" t="n">
-        <v>220366</v>
+        <v>173808</v>
       </c>
       <c r="AC105" s="18" t="n">
-        <v>173808</v>
+        <v>101763</v>
       </c>
       <c r="AD105" s="18" t="n">
-        <v>101763</v>
+        <v>282391</v>
       </c>
       <c r="AE105" s="18" t="n">
-        <v>282391</v>
+        <v>324369</v>
       </c>
       <c r="AF105" s="18" t="n">
-        <v>324369</v>
+        <v>350843</v>
       </c>
       <c r="AG105" s="18" t="n">
-        <v>350843</v>
+        <v>384055</v>
       </c>
       <c r="AH105" s="18" t="n">
-        <v>384055</v>
+        <v>407515</v>
       </c>
       <c r="AI105" s="18" t="n">
-        <v>407515</v>
+        <v>420171</v>
       </c>
       <c r="AJ105" s="18" t="n">
-        <v>420171</v>
+        <v>449046</v>
       </c>
       <c r="AK105" s="18" t="n">
-        <v>449046</v>
+        <v>429366</v>
       </c>
       <c r="AL105" s="18" t="n">
-        <v>429366</v>
+        <v>423980</v>
       </c>
       <c r="AM105" s="18" t="n">
-        <v>423980</v>
+        <v>321669</v>
       </c>
       <c r="AN105" s="18" t="n">
-        <v>321669</v>
+        <v>327902</v>
       </c>
       <c r="AO105" s="18" t="n">
-        <v>327902</v>
+        <v>159602</v>
       </c>
       <c r="AP105" s="18" t="n">
-        <v>159602</v>
+        <v>359618</v>
       </c>
       <c r="AQ105" s="18" t="n">
-        <v>359618</v>
+        <v>403854</v>
       </c>
       <c r="AR105" s="18" t="n">
-        <v>403854</v>
+        <v>451219</v>
       </c>
       <c r="AS105" s="18" t="n">
-        <v>451219</v>
+        <v>452214</v>
       </c>
       <c r="AT105" s="18" t="n">
-        <v>452214</v>
+        <v>452457</v>
       </c>
       <c r="AU105" s="18" t="n">
-        <v>452457</v>
+        <v>545533</v>
       </c>
       <c r="AV105" s="18" t="n">
-        <v>545533</v>
+        <v>615385</v>
       </c>
       <c r="AW105" s="18" t="n">
-        <v>615385</v>
+        <v>1856204</v>
       </c>
       <c r="AX105" s="18" t="n">
-        <v>1856204</v>
+        <v>1223528</v>
       </c>
       <c r="AY105" s="18" t="n">
-        <v>1223528</v>
+        <v>1280147</v>
       </c>
       <c r="AZ105" s="18" t="n">
-        <v>1280147</v>
+        <v>1254229</v>
       </c>
       <c r="BA105" s="18" t="n">
-        <v>1254229</v>
+        <v>908227</v>
       </c>
       <c r="BB105" s="18" t="n">
-        <v>908227</v>
+        <v>891363</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16982,12 +16982,12 @@
       <c r="AH107" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI107" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ107" s="13" t="n">
+      <c r="AI107" s="13" t="n">
         <v>23993</v>
       </c>
+      <c r="AJ107" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AK107" s="13" t="s">
         <v>58</v>
       </c>
@@ -17009,11 +17009,11 @@
       <c r="AQ107" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR107" s="13" t="s">
-        <v>58</v>
+      <c r="AR107" s="13" t="n">
+        <v>219</v>
       </c>
       <c r="AS107" s="13" t="n">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="AT107" s="13" t="n">
         <v>0</v>
@@ -17192,14 +17192,14 @@
       <c r="AY108" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AZ108" s="16" t="s">
-        <v>58</v>
+      <c r="AZ108" s="16" t="n">
+        <v>678</v>
       </c>
       <c r="BA108" s="16" t="n">
-        <v>678</v>
-      </c>
-      <c r="BB108" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="BB108" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17258,8 +17258,8 @@
       <c r="T109" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U109" s="13" t="s">
-        <v>58</v>
+      <c r="U109" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V109" s="13" t="n">
         <v>0</v>
@@ -17285,8 +17285,8 @@
       <c r="AC109" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD109" s="13" t="n">
-        <v>0</v>
+      <c r="AD109" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE109" s="13" t="s">
         <v>58</v>
@@ -17354,11 +17354,11 @@
       <c r="AZ109" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA109" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB109" s="13" t="n">
+      <c r="BA109" s="13" t="n">
         <v>597</v>
+      </c>
+      <c r="BB109" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17426,11 +17426,11 @@
       <c r="W110" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X110" s="16" t="s">
-        <v>58</v>
+      <c r="X110" s="16" t="n">
+        <v>8400</v>
       </c>
       <c r="Y110" s="16" t="n">
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="Z110" s="16" t="n">
         <v>0</v>
@@ -17444,8 +17444,8 @@
       <c r="AC110" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD110" s="16" t="n">
-        <v>0</v>
+      <c r="AD110" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE110" s="16" t="s">
         <v>58</v>
@@ -17666,17 +17666,17 @@
       <c r="AX111" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY111" s="13" t="s">
-        <v>58</v>
+      <c r="AY111" s="13" t="n">
+        <v>4035</v>
       </c>
       <c r="AZ111" s="13" t="n">
-        <v>4035</v>
+        <v>0</v>
       </c>
       <c r="BA111" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB111" s="13" t="n">
         <v>379</v>
+      </c>
+      <c r="BB111" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17780,8 +17780,8 @@
       <c r="AI112" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AJ112" s="16" t="s">
-        <v>58</v>
+      <c r="AJ112" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AK112" s="16" t="n">
         <v>0</v>
@@ -17804,17 +17804,17 @@
       <c r="AQ112" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AR112" s="16" t="n">
-        <v>0</v>
+      <c r="AR112" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AS112" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AT112" s="16" t="s">
-        <v>58</v>
+      <c r="AT112" s="16" t="n">
+        <v>18382</v>
       </c>
       <c r="AU112" s="16" t="n">
-        <v>18382</v>
+        <v>0</v>
       </c>
       <c r="AV112" s="16" t="n">
         <v>0</v>
@@ -17829,10 +17829,10 @@
         <v>0</v>
       </c>
       <c r="AZ112" s="16" t="n">
-        <v>0</v>
+        <v>16693</v>
       </c>
       <c r="BA112" s="16" t="n">
-        <v>16693</v>
+        <v>0</v>
       </c>
       <c r="BB112" s="16" t="n">
         <v>0</v>
@@ -17902,10 +17902,10 @@
         <v>0</v>
       </c>
       <c r="X113" s="18" t="n">
-        <v>0</v>
+        <v>8400</v>
       </c>
       <c r="Y113" s="18" t="n">
-        <v>8400</v>
+        <v>0</v>
       </c>
       <c r="Z113" s="18" t="n">
         <v>0</v>
@@ -17935,10 +17935,10 @@
         <v>0</v>
       </c>
       <c r="AI113" s="18" t="n">
-        <v>0</v>
+        <v>23993</v>
       </c>
       <c r="AJ113" s="18" t="n">
-        <v>23993</v>
+        <v>0</v>
       </c>
       <c r="AK113" s="18" t="n">
         <v>0</v>
@@ -17962,16 +17962,16 @@
         <v>0</v>
       </c>
       <c r="AR113" s="18" t="n">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="AS113" s="18" t="n">
-        <v>219</v>
+        <v>0</v>
       </c>
       <c r="AT113" s="18" t="n">
-        <v>0</v>
+        <v>18382</v>
       </c>
       <c r="AU113" s="18" t="n">
-        <v>18382</v>
+        <v>0</v>
       </c>
       <c r="AV113" s="18" t="n">
         <v>0</v>
@@ -17983,16 +17983,16 @@
         <v>0</v>
       </c>
       <c r="AY113" s="18" t="n">
-        <v>0</v>
+        <v>4035</v>
       </c>
       <c r="AZ113" s="18" t="n">
-        <v>4035</v>
+        <v>17371</v>
       </c>
       <c r="BA113" s="18" t="n">
-        <v>17371</v>
+        <v>976</v>
       </c>
       <c r="BB113" s="18" t="n">
-        <v>976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18156,11 +18156,11 @@
       <c r="AJ115" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK115" s="13" t="s">
-        <v>58</v>
+      <c r="AK115" s="13" t="n">
+        <v>1326</v>
       </c>
       <c r="AL115" s="13" t="n">
-        <v>1326</v>
+        <v>0</v>
       </c>
       <c r="AM115" s="13" t="n">
         <v>0</v>
@@ -18267,8 +18267,8 @@
       <c r="T116" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="U116" s="20" t="s">
-        <v>58</v>
+      <c r="U116" s="21" t="n">
+        <v>0</v>
       </c>
       <c r="V116" s="21" t="n">
         <v>0</v>
@@ -18316,10 +18316,10 @@
         <v>0</v>
       </c>
       <c r="AK116" s="21" t="n">
-        <v>0</v>
+        <v>1326</v>
       </c>
       <c r="AL116" s="21" t="n">
-        <v>1326</v>
+        <v>0</v>
       </c>
       <c r="AM116" s="21" t="n">
         <v>0</v>
@@ -18483,8 +18483,8 @@
       <c r="T118" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U118" s="13" t="s">
-        <v>58</v>
+      <c r="U118" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V118" s="13" t="n">
         <v>0</v>
@@ -18510,8 +18510,8 @@
       <c r="AC118" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AD118" s="13" t="n">
-        <v>0</v>
+      <c r="AD118" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AE118" s="13" t="s">
         <v>58</v>
@@ -18519,11 +18519,11 @@
       <c r="AF118" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG118" s="13" t="s">
-        <v>58</v>
+      <c r="AG118" s="13" t="n">
+        <v>-3456</v>
       </c>
       <c r="AH118" s="13" t="n">
-        <v>-3456</v>
+        <v>0</v>
       </c>
       <c r="AI118" s="13" t="n">
         <v>0</v>
@@ -18546,8 +18546,8 @@
       <c r="AO118" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP118" s="13" t="n">
-        <v>0</v>
+      <c r="AP118" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ118" s="13" t="s">
         <v>58</v>
@@ -18555,8 +18555,8 @@
       <c r="AR118" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS118" s="13" t="s">
-        <v>58</v>
+      <c r="AS118" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AT118" s="13" t="n">
         <v>0</v>
@@ -18582,8 +18582,8 @@
       <c r="BA118" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB118" s="13" t="n">
-        <v>0</v>
+      <c r="BB118" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18708,20 +18708,20 @@
       <c r="AP119" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AQ119" s="16" t="s">
-        <v>58</v>
+      <c r="AQ119" s="16" t="n">
+        <v>-3596</v>
       </c>
       <c r="AR119" s="16" t="n">
-        <v>-3596</v>
+        <v>0</v>
       </c>
       <c r="AS119" s="16" t="n">
         <v>0</v>
       </c>
       <c r="AT119" s="16" t="n">
-        <v>0</v>
+        <v>-3623</v>
       </c>
       <c r="AU119" s="16" t="n">
-        <v>-3623</v>
+        <v>0</v>
       </c>
       <c r="AV119" s="16" t="n">
         <v>0</v>
@@ -18733,16 +18733,16 @@
         <v>0</v>
       </c>
       <c r="AY119" s="16" t="n">
-        <v>0</v>
+        <v>-375</v>
       </c>
       <c r="AZ119" s="16" t="n">
-        <v>-375</v>
+        <v>0</v>
       </c>
       <c r="BA119" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BB119" s="16" t="n">
-        <v>0</v>
+      <c r="BB119" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18813,11 +18813,11 @@
       <c r="X120" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y120" s="13" t="s">
-        <v>58</v>
+      <c r="Y120" s="13" t="n">
+        <v>-1056</v>
       </c>
       <c r="Z120" s="13" t="n">
-        <v>-1056</v>
+        <v>0</v>
       </c>
       <c r="AA120" s="13" t="n">
         <v>0</v>
@@ -18826,11 +18826,11 @@
         <v>0</v>
       </c>
       <c r="AC120" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD120" s="13" t="n">
         <v>-992</v>
       </c>
+      <c r="AD120" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE120" s="13" t="s">
         <v>58</v>
       </c>
@@ -18840,11 +18840,11 @@
       <c r="AG120" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH120" s="13" t="s">
-        <v>58</v>
+      <c r="AH120" s="13" t="n">
+        <v>-1668</v>
       </c>
       <c r="AI120" s="13" t="n">
-        <v>-1668</v>
+        <v>0</v>
       </c>
       <c r="AJ120" s="13" t="n">
         <v>0</v>
@@ -18862,11 +18862,11 @@
         <v>0</v>
       </c>
       <c r="AO120" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP120" s="13" t="n">
         <v>-480</v>
       </c>
+      <c r="AP120" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ120" s="13" t="s">
         <v>58</v>
       </c>
@@ -18876,11 +18876,11 @@
       <c r="AS120" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT120" s="13" t="s">
-        <v>58</v>
+      <c r="AT120" s="13" t="n">
+        <v>-15225</v>
       </c>
       <c r="AU120" s="13" t="n">
-        <v>-15225</v>
+        <v>0</v>
       </c>
       <c r="AV120" s="13" t="n">
         <v>0</v>
@@ -18900,8 +18900,8 @@
       <c r="BA120" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB120" s="13" t="n">
-        <v>0</v>
+      <c r="BB120" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18966,8 +18966,8 @@
       <c r="V121" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="W121" s="16" t="s">
-        <v>58</v>
+      <c r="W121" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="X121" s="16" t="n">
         <v>0</v>
@@ -18987,8 +18987,8 @@
       <c r="AC121" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AD121" s="16" t="n">
-        <v>0</v>
+      <c r="AD121" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AE121" s="16" t="s">
         <v>58</v>
@@ -19017,14 +19017,14 @@
       <c r="AM121" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AN121" s="16" t="s">
-        <v>58</v>
+      <c r="AN121" s="16" t="n">
+        <v>-194</v>
       </c>
       <c r="AO121" s="16" t="n">
-        <v>-194</v>
-      </c>
-      <c r="AP121" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AP121" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ121" s="16" t="s">
         <v>58</v>
@@ -19053,14 +19053,14 @@
       <c r="AY121" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AZ121" s="16" t="s">
-        <v>58</v>
+      <c r="AZ121" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="BA121" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BB121" s="16" t="n">
-        <v>0</v>
+      <c r="BB121" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19155,14 +19155,14 @@
       <c r="AF122" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG122" s="13" t="s">
-        <v>58</v>
+      <c r="AG122" s="13" t="n">
+        <v>-100</v>
       </c>
       <c r="AH122" s="13" t="n">
-        <v>-100</v>
+        <v>-520</v>
       </c>
       <c r="AI122" s="13" t="n">
-        <v>-520</v>
+        <v>0</v>
       </c>
       <c r="AJ122" s="13" t="n">
         <v>0</v>
@@ -19182,8 +19182,8 @@
       <c r="AO122" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP122" s="13" t="n">
-        <v>0</v>
+      <c r="AP122" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ122" s="13" t="s">
         <v>58</v>
@@ -19191,8 +19191,8 @@
       <c r="AR122" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS122" s="13" t="s">
-        <v>58</v>
+      <c r="AS122" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AT122" s="13" t="n">
         <v>0</v>
@@ -19218,8 +19218,8 @@
       <c r="BA122" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB122" s="13" t="n">
-        <v>0</v>
+      <c r="BB122" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19314,11 +19314,11 @@
       <c r="AF123" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AG123" s="16" t="s">
-        <v>58</v>
+      <c r="AG123" s="16" t="n">
+        <v>-542</v>
       </c>
       <c r="AH123" s="16" t="n">
-        <v>-542</v>
+        <v>0</v>
       </c>
       <c r="AI123" s="16" t="n">
         <v>0</v>
@@ -19333,31 +19333,31 @@
         <v>0</v>
       </c>
       <c r="AM123" s="16" t="n">
-        <v>0</v>
+        <v>-630</v>
       </c>
       <c r="AN123" s="16" t="n">
-        <v>-630</v>
+        <v>0</v>
       </c>
       <c r="AO123" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP123" s="16" t="n">
-        <v>0</v>
+      <c r="AP123" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ123" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR123" s="16" t="s">
-        <v>58</v>
+      <c r="AR123" s="16" t="n">
+        <v>-901</v>
       </c>
       <c r="AS123" s="16" t="n">
-        <v>-901</v>
+        <v>0</v>
       </c>
       <c r="AT123" s="16" t="n">
-        <v>0</v>
+        <v>-73</v>
       </c>
       <c r="AU123" s="16" t="n">
-        <v>-73</v>
+        <v>0</v>
       </c>
       <c r="AV123" s="16" t="n">
         <v>0</v>
@@ -19377,8 +19377,8 @@
       <c r="BA123" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="BB123" s="16" t="n">
-        <v>0</v>
+      <c r="BB123" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19437,8 +19437,8 @@
       <c r="T124" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U124" s="18" t="s">
-        <v>58</v>
+      <c r="U124" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="V124" s="22" t="n">
         <v>0</v>
@@ -19450,10 +19450,10 @@
         <v>0</v>
       </c>
       <c r="Y124" s="22" t="n">
-        <v>0</v>
+        <v>-1056</v>
       </c>
       <c r="Z124" s="22" t="n">
-        <v>-1056</v>
+        <v>0</v>
       </c>
       <c r="AA124" s="22" t="n">
         <v>0</v>
@@ -19462,10 +19462,10 @@
         <v>0</v>
       </c>
       <c r="AC124" s="22" t="n">
-        <v>0</v>
+        <v>-992</v>
       </c>
       <c r="AD124" s="22" t="n">
-        <v>-992</v>
+        <v>0</v>
       </c>
       <c r="AE124" s="22" t="n">
         <v>0</v>
@@ -19474,13 +19474,13 @@
         <v>0</v>
       </c>
       <c r="AG124" s="22" t="n">
-        <v>0</v>
+        <v>-4098</v>
       </c>
       <c r="AH124" s="22" t="n">
-        <v>-4098</v>
+        <v>-2188</v>
       </c>
       <c r="AI124" s="22" t="n">
-        <v>-2188</v>
+        <v>0</v>
       </c>
       <c r="AJ124" s="22" t="n">
         <v>0</v>
@@ -19492,31 +19492,31 @@
         <v>0</v>
       </c>
       <c r="AM124" s="22" t="n">
-        <v>0</v>
+        <v>-630</v>
       </c>
       <c r="AN124" s="22" t="n">
-        <v>-630</v>
+        <v>-194</v>
       </c>
       <c r="AO124" s="22" t="n">
-        <v>-194</v>
+        <v>-480</v>
       </c>
       <c r="AP124" s="22" t="n">
-        <v>-480</v>
+        <v>0</v>
       </c>
       <c r="AQ124" s="22" t="n">
-        <v>0</v>
+        <v>-3596</v>
       </c>
       <c r="AR124" s="22" t="n">
-        <v>-3596</v>
+        <v>-901</v>
       </c>
       <c r="AS124" s="22" t="n">
-        <v>-901</v>
+        <v>0</v>
       </c>
       <c r="AT124" s="22" t="n">
-        <v>0</v>
+        <v>-18921</v>
       </c>
       <c r="AU124" s="22" t="n">
-        <v>-18921</v>
+        <v>0</v>
       </c>
       <c r="AV124" s="22" t="n">
         <v>0</v>
@@ -19528,10 +19528,10 @@
         <v>0</v>
       </c>
       <c r="AY124" s="22" t="n">
-        <v>0</v>
+        <v>-375</v>
       </c>
       <c r="AZ124" s="22" t="n">
-        <v>-375</v>
+        <v>0</v>
       </c>
       <c r="BA124" s="22" t="n">
         <v>0</v>
@@ -19653,8 +19653,8 @@
       <c r="T126" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U126" s="13" t="s">
-        <v>58</v>
+      <c r="U126" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V126" s="13" t="n">
         <v>0</v>
@@ -19811,106 +19811,106 @@
         <v>0</v>
       </c>
       <c r="U127" s="21" t="n">
-        <v>0</v>
+        <v>253310</v>
       </c>
       <c r="V127" s="21" t="n">
-        <v>253310</v>
+        <v>220000</v>
       </c>
       <c r="W127" s="21" t="n">
-        <v>220000</v>
+        <v>215650</v>
       </c>
       <c r="X127" s="21" t="n">
-        <v>215650</v>
+        <v>221449</v>
       </c>
       <c r="Y127" s="21" t="n">
-        <v>221449</v>
+        <v>208761</v>
       </c>
       <c r="Z127" s="21" t="n">
-        <v>208761</v>
+        <v>221387</v>
       </c>
       <c r="AA127" s="21" t="n">
-        <v>221387</v>
+        <v>220366</v>
       </c>
       <c r="AB127" s="21" t="n">
-        <v>220366</v>
+        <v>173808</v>
       </c>
       <c r="AC127" s="21" t="n">
-        <v>173808</v>
+        <v>100771</v>
       </c>
       <c r="AD127" s="21" t="n">
-        <v>100771</v>
+        <v>282391</v>
       </c>
       <c r="AE127" s="21" t="n">
-        <v>282391</v>
+        <v>324369</v>
       </c>
       <c r="AF127" s="21" t="n">
-        <v>324369</v>
+        <v>350843</v>
       </c>
       <c r="AG127" s="21" t="n">
-        <v>350843</v>
+        <v>379957</v>
       </c>
       <c r="AH127" s="21" t="n">
-        <v>379957</v>
+        <v>405327</v>
       </c>
       <c r="AI127" s="21" t="n">
-        <v>405327</v>
+        <v>444164</v>
       </c>
       <c r="AJ127" s="21" t="n">
-        <v>444164</v>
+        <v>449046</v>
       </c>
       <c r="AK127" s="21" t="n">
-        <v>449046</v>
+        <v>430692</v>
       </c>
       <c r="AL127" s="21" t="n">
-        <v>430692</v>
+        <v>423980</v>
       </c>
       <c r="AM127" s="21" t="n">
-        <v>423980</v>
+        <v>321039</v>
       </c>
       <c r="AN127" s="21" t="n">
-        <v>321039</v>
+        <v>327708</v>
       </c>
       <c r="AO127" s="21" t="n">
-        <v>327708</v>
+        <v>159122</v>
       </c>
       <c r="AP127" s="21" t="n">
-        <v>159122</v>
+        <v>359618</v>
       </c>
       <c r="AQ127" s="21" t="n">
-        <v>359618</v>
+        <v>400258</v>
       </c>
       <c r="AR127" s="21" t="n">
-        <v>400258</v>
+        <v>450537</v>
       </c>
       <c r="AS127" s="21" t="n">
-        <v>450537</v>
+        <v>452214</v>
       </c>
       <c r="AT127" s="21" t="n">
-        <v>452214</v>
+        <v>451918</v>
       </c>
       <c r="AU127" s="21" t="n">
-        <v>451918</v>
+        <v>545533</v>
       </c>
       <c r="AV127" s="21" t="n">
-        <v>545533</v>
+        <v>615385</v>
       </c>
       <c r="AW127" s="21" t="n">
-        <v>615385</v>
+        <v>1856204</v>
       </c>
       <c r="AX127" s="21" t="n">
-        <v>1856204</v>
+        <v>1223528</v>
       </c>
       <c r="AY127" s="21" t="n">
-        <v>1223528</v>
+        <v>1283807</v>
       </c>
       <c r="AZ127" s="21" t="n">
-        <v>1283807</v>
+        <v>1271600</v>
       </c>
       <c r="BA127" s="21" t="n">
-        <v>1271600</v>
+        <v>909203</v>
       </c>
       <c r="BB127" s="21" t="n">
-        <v>909203</v>
+        <v>891363</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20403,107 +20403,107 @@
       <c r="T134" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U134" s="13" t="s">
-        <v>58</v>
+      <c r="U134" s="13" t="n">
+        <v>3964396</v>
       </c>
       <c r="V134" s="13" t="n">
-        <v>3964396</v>
+        <v>4084078</v>
       </c>
       <c r="W134" s="13" t="n">
-        <v>4084078</v>
+        <v>4199450</v>
       </c>
       <c r="X134" s="13" t="n">
-        <v>4199450</v>
+        <v>4849741</v>
       </c>
       <c r="Y134" s="13" t="n">
-        <v>4849741</v>
+        <v>5404830</v>
       </c>
       <c r="Z134" s="13" t="n">
-        <v>5404830</v>
+        <v>5082849</v>
       </c>
       <c r="AA134" s="13" t="n">
-        <v>5082849</v>
+        <v>4999044</v>
       </c>
       <c r="AB134" s="13" t="n">
-        <v>4999044</v>
-      </c>
-      <c r="AC134" s="13" t="n">
         <v>5501946</v>
       </c>
-      <c r="AD134" s="13" t="s">
-        <v>58</v>
+      <c r="AC134" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD134" s="13" t="n">
+        <v>4448388</v>
       </c>
       <c r="AE134" s="13" t="n">
-        <v>4448388</v>
+        <v>6000380</v>
       </c>
       <c r="AF134" s="13" t="n">
-        <v>6000380</v>
+        <v>6000000</v>
       </c>
       <c r="AG134" s="13" t="n">
+        <v>5934452</v>
+      </c>
+      <c r="AH134" s="13" t="n">
+        <v>5490863</v>
+      </c>
+      <c r="AI134" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ134" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK134" s="13" t="n">
+        <v>5749232</v>
+      </c>
+      <c r="AL134" s="13" t="n">
+        <v>5879889</v>
+      </c>
+      <c r="AM134" s="13" t="n">
+        <v>5625737</v>
+      </c>
+      <c r="AN134" s="13" t="n">
+        <v>5527167</v>
+      </c>
+      <c r="AO134" s="13" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="AP134" s="13" t="n">
+        <v>6273764</v>
+      </c>
+      <c r="AQ134" s="13" t="n">
+        <v>6416496</v>
+      </c>
+      <c r="AR134" s="13" t="n">
+        <v>6744094</v>
+      </c>
+      <c r="AS134" s="13" t="n">
+        <v>6548980</v>
+      </c>
+      <c r="AT134" s="13" t="n">
+        <v>7459488</v>
+      </c>
+      <c r="AU134" s="13" t="n">
         <v>6000000</v>
       </c>
-      <c r="AH134" s="13" t="n">
-        <v>5934452</v>
-      </c>
-      <c r="AI134" s="13" t="n">
-        <v>5490863</v>
-      </c>
-      <c r="AJ134" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK134" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL134" s="13" t="n">
-        <v>5749232</v>
-      </c>
-      <c r="AM134" s="13" t="n">
-        <v>5879889</v>
-      </c>
-      <c r="AN134" s="13" t="n">
-        <v>5625737</v>
-      </c>
-      <c r="AO134" s="13" t="n">
-        <v>5527167</v>
-      </c>
-      <c r="AP134" s="13" t="n">
-        <v>7000000</v>
-      </c>
-      <c r="AQ134" s="13" t="n">
-        <v>6273764</v>
-      </c>
-      <c r="AR134" s="13" t="n">
-        <v>6416496</v>
-      </c>
-      <c r="AS134" s="13" t="n">
-        <v>6744094</v>
-      </c>
-      <c r="AT134" s="13" t="n">
-        <v>6548980</v>
-      </c>
-      <c r="AU134" s="13" t="n">
-        <v>7459488</v>
-      </c>
       <c r="AV134" s="13" t="n">
-        <v>6000000</v>
+        <v>7007386</v>
       </c>
       <c r="AW134" s="13" t="n">
-        <v>7007386</v>
+        <v>6986919</v>
       </c>
       <c r="AX134" s="13" t="n">
-        <v>6986919</v>
+        <v>6955135</v>
       </c>
       <c r="AY134" s="13" t="n">
-        <v>6955135</v>
+        <v>8000000</v>
       </c>
       <c r="AZ134" s="13" t="n">
-        <v>8000000</v>
+        <v>6725814</v>
       </c>
       <c r="BA134" s="13" t="n">
-        <v>6725814</v>
-      </c>
-      <c r="BB134" s="13" t="n">
         <v>6833333</v>
+      </c>
+      <c r="BB134" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20562,107 +20562,107 @@
       <c r="T135" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U135" s="16" t="s">
-        <v>58</v>
+      <c r="U135" s="16" t="n">
+        <v>2370167</v>
       </c>
       <c r="V135" s="16" t="n">
-        <v>2370167</v>
+        <v>1764059</v>
       </c>
       <c r="W135" s="16" t="n">
-        <v>1764059</v>
+        <v>1965344</v>
       </c>
       <c r="X135" s="16" t="n">
-        <v>1965344</v>
+        <v>3468737</v>
       </c>
       <c r="Y135" s="16" t="n">
-        <v>3468737</v>
+        <v>2343713</v>
       </c>
       <c r="Z135" s="16" t="n">
-        <v>2343713</v>
+        <v>2598895</v>
       </c>
       <c r="AA135" s="16" t="n">
-        <v>2598895</v>
+        <v>3272920</v>
       </c>
       <c r="AB135" s="16" t="n">
-        <v>3272920</v>
+        <v>3686536</v>
       </c>
       <c r="AC135" s="16" t="n">
-        <v>3686536</v>
-      </c>
-      <c r="AD135" s="16" t="n">
         <v>9613872</v>
       </c>
-      <c r="AE135" s="16" t="s">
-        <v>58</v>
+      <c r="AD135" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE135" s="16" t="n">
+        <v>9499804</v>
       </c>
       <c r="AF135" s="16" t="n">
-        <v>9499804</v>
+        <v>14959583</v>
       </c>
       <c r="AG135" s="16" t="n">
-        <v>14959583</v>
+        <v>8586863</v>
       </c>
       <c r="AH135" s="16" t="n">
-        <v>8586863</v>
+        <v>8059984</v>
       </c>
       <c r="AI135" s="16" t="n">
-        <v>8059984</v>
+        <v>6945882</v>
       </c>
       <c r="AJ135" s="16" t="n">
-        <v>6945882</v>
+        <v>8521869</v>
       </c>
       <c r="AK135" s="16" t="n">
-        <v>8521869</v>
+        <v>7421734</v>
       </c>
       <c r="AL135" s="16" t="n">
-        <v>7421734</v>
+        <v>7221334</v>
       </c>
       <c r="AM135" s="16" t="n">
-        <v>7221334</v>
+        <v>6534422</v>
       </c>
       <c r="AN135" s="16" t="n">
-        <v>6534422</v>
+        <v>5827541</v>
       </c>
       <c r="AO135" s="16" t="n">
-        <v>5827541</v>
+        <v>16160683</v>
       </c>
       <c r="AP135" s="16" t="n">
-        <v>16160683</v>
+        <v>5592846</v>
       </c>
       <c r="AQ135" s="16" t="n">
-        <v>5592846</v>
+        <v>7592380</v>
       </c>
       <c r="AR135" s="16" t="n">
-        <v>7592380</v>
+        <v>6720019</v>
       </c>
       <c r="AS135" s="16" t="n">
-        <v>6720019</v>
+        <v>6384809</v>
       </c>
       <c r="AT135" s="16" t="n">
-        <v>6384809</v>
+        <v>13546339</v>
       </c>
       <c r="AU135" s="16" t="n">
-        <v>13546339</v>
+        <v>41292703</v>
       </c>
       <c r="AV135" s="16" t="n">
-        <v>41292703</v>
+        <v>6458358</v>
       </c>
       <c r="AW135" s="16" t="n">
-        <v>6458358</v>
+        <v>13005246</v>
       </c>
       <c r="AX135" s="16" t="n">
-        <v>13005246</v>
+        <v>9404679</v>
       </c>
       <c r="AY135" s="16" t="n">
-        <v>9404679</v>
+        <v>16939663</v>
       </c>
       <c r="AZ135" s="16" t="n">
-        <v>16939663</v>
+        <v>9149362</v>
       </c>
       <c r="BA135" s="16" t="n">
-        <v>9149362</v>
+        <v>9081854</v>
       </c>
       <c r="BB135" s="16" t="n">
-        <v>9081854</v>
+        <v>9547498</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20721,107 +20721,107 @@
       <c r="T136" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U136" s="13" t="s">
-        <v>58</v>
+      <c r="U136" s="13" t="n">
+        <v>8820755</v>
       </c>
       <c r="V136" s="13" t="n">
-        <v>8820755</v>
+        <v>8356281</v>
       </c>
       <c r="W136" s="13" t="n">
-        <v>8356281</v>
+        <v>7389861</v>
       </c>
       <c r="X136" s="13" t="n">
-        <v>7389861</v>
+        <v>7006415</v>
       </c>
       <c r="Y136" s="13" t="n">
-        <v>7006415</v>
+        <v>5514490</v>
       </c>
       <c r="Z136" s="13" t="n">
-        <v>5514490</v>
+        <v>5776905</v>
       </c>
       <c r="AA136" s="13" t="n">
-        <v>5776905</v>
+        <v>9547742</v>
       </c>
       <c r="AB136" s="13" t="n">
-        <v>9547742</v>
-      </c>
-      <c r="AC136" s="13" t="n">
         <v>7500000</v>
       </c>
-      <c r="AD136" s="13" t="s">
-        <v>58</v>
+      <c r="AC136" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD136" s="13" t="n">
+        <v>8829659</v>
       </c>
       <c r="AE136" s="13" t="n">
-        <v>8829659</v>
+        <v>11358713</v>
       </c>
       <c r="AF136" s="13" t="n">
-        <v>11358713</v>
+        <v>13204909</v>
       </c>
       <c r="AG136" s="13" t="n">
-        <v>13204909</v>
+        <v>12662631</v>
       </c>
       <c r="AH136" s="13" t="n">
-        <v>12662631</v>
+        <v>3500620</v>
       </c>
       <c r="AI136" s="13" t="n">
-        <v>3500620</v>
+        <v>12725960</v>
       </c>
       <c r="AJ136" s="13" t="n">
-        <v>12725960</v>
+        <v>11947568</v>
       </c>
       <c r="AK136" s="13" t="n">
-        <v>11947568</v>
+        <v>12000000</v>
       </c>
       <c r="AL136" s="13" t="n">
-        <v>12000000</v>
+        <v>11601440</v>
       </c>
       <c r="AM136" s="13" t="n">
-        <v>11601440</v>
+        <v>8796754</v>
       </c>
       <c r="AN136" s="13" t="n">
-        <v>8796754</v>
+        <v>14936325</v>
       </c>
       <c r="AO136" s="13" t="n">
-        <v>14936325</v>
+        <v>12003358</v>
       </c>
       <c r="AP136" s="13" t="n">
-        <v>12003358</v>
+        <v>10812745</v>
       </c>
       <c r="AQ136" s="13" t="n">
-        <v>10812745</v>
+        <v>18418057</v>
       </c>
       <c r="AR136" s="13" t="n">
-        <v>18418057</v>
+        <v>10204104</v>
       </c>
       <c r="AS136" s="13" t="n">
-        <v>10204104</v>
+        <v>13521369</v>
       </c>
       <c r="AT136" s="13" t="n">
-        <v>13521369</v>
+        <v>21799961</v>
       </c>
       <c r="AU136" s="13" t="n">
-        <v>21799961</v>
+        <v>10173585</v>
       </c>
       <c r="AV136" s="13" t="n">
-        <v>10173585</v>
+        <v>21341072</v>
       </c>
       <c r="AW136" s="13" t="n">
-        <v>21341072</v>
+        <v>27979601</v>
       </c>
       <c r="AX136" s="13" t="n">
-        <v>27979601</v>
+        <v>11167816</v>
       </c>
       <c r="AY136" s="13" t="n">
-        <v>11167816</v>
+        <v>25341039</v>
       </c>
       <c r="AZ136" s="13" t="n">
-        <v>25341039</v>
+        <v>38406667</v>
       </c>
       <c r="BA136" s="13" t="n">
-        <v>38406667</v>
+        <v>28767216</v>
       </c>
       <c r="BB136" s="13" t="n">
-        <v>28767216</v>
+        <v>24819131</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20973,11 +20973,11 @@
       <c r="AY137" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AZ137" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA137" s="16" t="n">
+      <c r="AZ137" s="16" t="n">
         <v>2499638</v>
+      </c>
+      <c r="BA137" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="BB137" s="16" t="s">
         <v>58</v>
@@ -21039,107 +21039,107 @@
       <c r="T138" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U138" s="13" t="s">
-        <v>58</v>
+      <c r="U138" s="13" t="n">
+        <v>11775604</v>
       </c>
       <c r="V138" s="13" t="n">
-        <v>11775604</v>
+        <v>10925476</v>
       </c>
       <c r="W138" s="13" t="n">
-        <v>10925476</v>
+        <v>9790797</v>
       </c>
       <c r="X138" s="13" t="n">
-        <v>9790797</v>
+        <v>7499792</v>
       </c>
       <c r="Y138" s="13" t="n">
-        <v>7499792</v>
+        <v>13166398</v>
       </c>
       <c r="Z138" s="13" t="n">
-        <v>13166398</v>
+        <v>10591549</v>
       </c>
       <c r="AA138" s="13" t="n">
-        <v>10591549</v>
+        <v>9500697</v>
       </c>
       <c r="AB138" s="13" t="n">
-        <v>9500697</v>
+        <v>9544392</v>
       </c>
       <c r="AC138" s="13" t="n">
-        <v>9544392</v>
+        <v>10280517</v>
       </c>
       <c r="AD138" s="13" t="n">
-        <v>10280517</v>
+        <v>11394538</v>
       </c>
       <c r="AE138" s="13" t="n">
-        <v>11394538</v>
+        <v>12269849</v>
       </c>
       <c r="AF138" s="13" t="n">
-        <v>12269849</v>
+        <v>13525741</v>
       </c>
       <c r="AG138" s="13" t="n">
-        <v>13525741</v>
+        <v>12292848</v>
       </c>
       <c r="AH138" s="13" t="n">
-        <v>12292848</v>
+        <v>15508685</v>
       </c>
       <c r="AI138" s="13" t="n">
-        <v>15508685</v>
+        <v>15509898</v>
       </c>
       <c r="AJ138" s="13" t="n">
-        <v>15509898</v>
+        <v>15718146</v>
       </c>
       <c r="AK138" s="13" t="n">
-        <v>15718146</v>
+        <v>15155312</v>
       </c>
       <c r="AL138" s="13" t="n">
-        <v>15155312</v>
+        <v>16000000</v>
       </c>
       <c r="AM138" s="13" t="n">
-        <v>16000000</v>
+        <v>15756076</v>
       </c>
       <c r="AN138" s="13" t="n">
-        <v>15756076</v>
+        <v>15498565</v>
       </c>
       <c r="AO138" s="13" t="n">
-        <v>15498565</v>
+        <v>15803191</v>
       </c>
       <c r="AP138" s="13" t="n">
-        <v>15803191</v>
+        <v>15859581</v>
       </c>
       <c r="AQ138" s="13" t="n">
-        <v>15859581</v>
+        <v>15958984</v>
       </c>
       <c r="AR138" s="13" t="n">
-        <v>15958984</v>
+        <v>16299487</v>
       </c>
       <c r="AS138" s="13" t="n">
-        <v>16299487</v>
-      </c>
-      <c r="AT138" s="13" t="n">
         <v>15099906</v>
       </c>
-      <c r="AU138" s="13" t="s">
-        <v>58</v>
+      <c r="AT138" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU138" s="13" t="n">
+        <v>42709683</v>
       </c>
       <c r="AV138" s="13" t="n">
-        <v>42709683</v>
+        <v>46374246</v>
       </c>
       <c r="AW138" s="13" t="n">
-        <v>46374246</v>
+        <v>47214940</v>
       </c>
       <c r="AX138" s="13" t="n">
-        <v>47214940</v>
+        <v>40720577</v>
       </c>
       <c r="AY138" s="13" t="n">
-        <v>40720577</v>
+        <v>42997392</v>
       </c>
       <c r="AZ138" s="13" t="n">
-        <v>42997392</v>
+        <v>42495993</v>
       </c>
       <c r="BA138" s="13" t="n">
-        <v>42495993</v>
+        <v>43821503</v>
       </c>
       <c r="BB138" s="13" t="n">
-        <v>43821503</v>
+        <v>43493712</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21198,50 +21198,50 @@
       <c r="T139" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U139" s="16" t="s">
-        <v>58</v>
+      <c r="U139" s="16" t="n">
+        <v>4356750</v>
       </c>
       <c r="V139" s="16" t="n">
-        <v>4356750</v>
+        <v>3630233</v>
       </c>
       <c r="W139" s="16" t="n">
-        <v>3630233</v>
+        <v>4715747</v>
       </c>
       <c r="X139" s="16" t="n">
-        <v>4715747</v>
+        <v>4712774</v>
       </c>
       <c r="Y139" s="16" t="n">
-        <v>4712774</v>
+        <v>6509610</v>
       </c>
       <c r="Z139" s="16" t="n">
-        <v>6509610</v>
+        <v>5066247</v>
       </c>
       <c r="AA139" s="16" t="n">
-        <v>5066247</v>
+        <v>3275449</v>
       </c>
       <c r="AB139" s="16" t="n">
-        <v>3275449</v>
+        <v>4858104</v>
       </c>
       <c r="AC139" s="16" t="n">
-        <v>4858104</v>
+        <v>8992667</v>
       </c>
       <c r="AD139" s="16" t="n">
-        <v>8992667</v>
+        <v>7076734</v>
       </c>
       <c r="AE139" s="16" t="n">
-        <v>7076734</v>
+        <v>3409255</v>
       </c>
       <c r="AF139" s="16" t="n">
-        <v>3409255</v>
+        <v>5246130</v>
       </c>
       <c r="AG139" s="16" t="n">
-        <v>5246130</v>
+        <v>5880746</v>
       </c>
       <c r="AH139" s="16" t="n">
-        <v>5880746</v>
-      </c>
-      <c r="AI139" s="16" t="n">
         <v>5792905</v>
+      </c>
+      <c r="AI139" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AJ139" s="16" t="s">
         <v>58</v>
@@ -21375,89 +21375,89 @@
       <c r="Z140" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA140" s="13" t="s">
-        <v>58</v>
+      <c r="AA140" s="13" t="n">
+        <v>101410256</v>
       </c>
       <c r="AB140" s="13" t="n">
-        <v>101410256</v>
+        <v>4000000</v>
       </c>
       <c r="AC140" s="13" t="n">
-        <v>4000000</v>
+        <v>99900000</v>
       </c>
       <c r="AD140" s="13" t="n">
-        <v>99900000</v>
+        <v>102500000</v>
       </c>
       <c r="AE140" s="13" t="n">
-        <v>102500000</v>
+        <v>5415929</v>
       </c>
       <c r="AF140" s="13" t="n">
-        <v>5415929</v>
-      </c>
-      <c r="AG140" s="13" t="n">
         <v>5819102</v>
       </c>
-      <c r="AH140" s="13" t="s">
-        <v>58</v>
+      <c r="AG140" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH140" s="13" t="n">
+        <v>14402985</v>
       </c>
       <c r="AI140" s="13" t="n">
-        <v>14402985</v>
-      </c>
-      <c r="AJ140" s="13" t="n">
         <v>9298117</v>
       </c>
+      <c r="AJ140" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AK140" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL140" s="13" t="s">
-        <v>58</v>
+      <c r="AL140" s="13" t="n">
+        <v>102163934</v>
       </c>
       <c r="AM140" s="13" t="n">
-        <v>102163934</v>
+        <v>4516383</v>
       </c>
       <c r="AN140" s="13" t="n">
-        <v>4516383</v>
+        <v>6584535</v>
       </c>
       <c r="AO140" s="13" t="n">
-        <v>6584535</v>
+        <v>6953459</v>
       </c>
       <c r="AP140" s="13" t="n">
-        <v>6953459</v>
+        <v>5442843</v>
       </c>
       <c r="AQ140" s="13" t="n">
-        <v>5442843</v>
+        <v>11971193</v>
       </c>
       <c r="AR140" s="13" t="n">
-        <v>11971193</v>
+        <v>6414685</v>
       </c>
       <c r="AS140" s="13" t="n">
-        <v>6414685</v>
+        <v>5131089</v>
       </c>
       <c r="AT140" s="13" t="n">
-        <v>5131089</v>
+        <v>688500000</v>
       </c>
       <c r="AU140" s="13" t="n">
-        <v>688500000</v>
+        <v>65490436</v>
       </c>
       <c r="AV140" s="13" t="n">
-        <v>65490436</v>
+        <v>11761543</v>
       </c>
       <c r="AW140" s="13" t="n">
-        <v>11761543</v>
+        <v>28581688</v>
       </c>
       <c r="AX140" s="13" t="n">
-        <v>28581688</v>
+        <v>9999164</v>
       </c>
       <c r="AY140" s="13" t="n">
-        <v>9999164</v>
-      </c>
-      <c r="AZ140" s="13" t="n">
         <v>10000000</v>
       </c>
-      <c r="BA140" s="13" t="s">
-        <v>58</v>
+      <c r="AZ140" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA140" s="13" t="n">
+        <v>29120510</v>
       </c>
       <c r="BB140" s="13" t="n">
-        <v>29120510</v>
+        <v>12047790</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21534,15 +21534,15 @@
       <c r="Z141" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AA141" s="16" t="s">
-        <v>58</v>
+      <c r="AA141" s="16" t="n">
+        <v>8006803</v>
       </c>
       <c r="AB141" s="16" t="n">
-        <v>8006803</v>
-      </c>
-      <c r="AC141" s="16" t="n">
         <v>48327778</v>
       </c>
+      <c r="AC141" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AD141" s="16" t="s">
         <v>58</v>
       </c>
@@ -21561,62 +21561,62 @@
       <c r="AI141" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AJ141" s="16" t="s">
-        <v>58</v>
+      <c r="AJ141" s="16" t="n">
+        <v>56044619</v>
       </c>
       <c r="AK141" s="16" t="n">
-        <v>56044619</v>
+        <v>30039761</v>
       </c>
       <c r="AL141" s="16" t="n">
-        <v>30039761</v>
+        <v>43382900</v>
       </c>
       <c r="AM141" s="16" t="n">
-        <v>43382900</v>
+        <v>26969863</v>
       </c>
       <c r="AN141" s="16" t="n">
-        <v>26969863</v>
+        <v>28529018</v>
       </c>
       <c r="AO141" s="16" t="n">
-        <v>28529018</v>
+        <v>29029851</v>
       </c>
       <c r="AP141" s="16" t="n">
-        <v>29029851</v>
+        <v>56092593</v>
       </c>
       <c r="AQ141" s="16" t="n">
-        <v>56092593</v>
+        <v>27405363</v>
       </c>
       <c r="AR141" s="16" t="n">
-        <v>27405363</v>
+        <v>85946154</v>
       </c>
       <c r="AS141" s="16" t="n">
-        <v>85946154</v>
+        <v>46660377</v>
       </c>
       <c r="AT141" s="16" t="n">
-        <v>46660377</v>
+        <v>28152709</v>
       </c>
       <c r="AU141" s="16" t="n">
-        <v>28152709</v>
+        <v>65294521</v>
       </c>
       <c r="AV141" s="16" t="n">
-        <v>65294521</v>
+        <v>58000000</v>
       </c>
       <c r="AW141" s="16" t="n">
+        <v>58421505</v>
+      </c>
+      <c r="AX141" s="16" t="n">
+        <v>57983193</v>
+      </c>
+      <c r="AY141" s="16" t="n">
         <v>58000000</v>
-      </c>
-      <c r="AX141" s="16" t="n">
-        <v>58421505</v>
-      </c>
-      <c r="AY141" s="16" t="n">
-        <v>57983193</v>
       </c>
       <c r="AZ141" s="16" t="n">
         <v>58000000</v>
       </c>
       <c r="BA141" s="16" t="n">
-        <v>58000000</v>
+        <v>77577279</v>
       </c>
       <c r="BB141" s="16" t="n">
-        <v>77577279</v>
+        <v>65667826</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21693,89 +21693,89 @@
       <c r="Z142" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA142" s="13" t="s">
-        <v>58</v>
+      <c r="AA142" s="13" t="n">
+        <v>129000000</v>
       </c>
       <c r="AB142" s="13" t="n">
-        <v>129000000</v>
-      </c>
-      <c r="AC142" s="13" t="n">
         <v>573000000</v>
       </c>
+      <c r="AC142" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AD142" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE142" s="13" t="s">
-        <v>58</v>
+      <c r="AE142" s="13" t="n">
+        <v>76150000</v>
       </c>
       <c r="AF142" s="13" t="n">
-        <v>76150000</v>
+        <v>67200000</v>
       </c>
       <c r="AG142" s="13" t="n">
-        <v>67200000</v>
+        <v>35750000</v>
       </c>
       <c r="AH142" s="13" t="n">
-        <v>35750000</v>
+        <v>36320732</v>
       </c>
       <c r="AI142" s="13" t="n">
-        <v>36320732</v>
+        <v>36282155</v>
       </c>
       <c r="AJ142" s="13" t="n">
-        <v>36282155</v>
+        <v>36540672</v>
       </c>
       <c r="AK142" s="13" t="n">
-        <v>36540672</v>
+        <v>34457648</v>
       </c>
       <c r="AL142" s="13" t="n">
-        <v>34457648</v>
+        <v>34408360</v>
       </c>
       <c r="AM142" s="13" t="n">
-        <v>34408360</v>
+        <v>16000000</v>
       </c>
       <c r="AN142" s="13" t="n">
-        <v>16000000</v>
+        <v>75000000</v>
       </c>
       <c r="AO142" s="13" t="n">
-        <v>75000000</v>
+        <v>101074413</v>
       </c>
       <c r="AP142" s="13" t="n">
-        <v>101074413</v>
+        <v>504300000</v>
       </c>
       <c r="AQ142" s="13" t="n">
-        <v>504300000</v>
+        <v>77000000</v>
       </c>
       <c r="AR142" s="13" t="n">
-        <v>77000000</v>
+        <v>35532110</v>
       </c>
       <c r="AS142" s="13" t="n">
-        <v>35532110</v>
+        <v>964833333</v>
       </c>
       <c r="AT142" s="13" t="n">
-        <v>964833333</v>
+        <v>7853755</v>
       </c>
       <c r="AU142" s="13" t="n">
-        <v>7853755</v>
+        <v>243189189</v>
       </c>
       <c r="AV142" s="13" t="n">
-        <v>243189189</v>
+        <v>235761538</v>
       </c>
       <c r="AW142" s="13" t="n">
-        <v>235761538</v>
+        <v>92123810</v>
       </c>
       <c r="AX142" s="13" t="n">
-        <v>92123810</v>
+        <v>233833333</v>
       </c>
       <c r="AY142" s="13" t="n">
-        <v>233833333</v>
+        <v>107200000</v>
       </c>
       <c r="AZ142" s="13" t="n">
-        <v>107200000</v>
+        <v>83279673</v>
       </c>
       <c r="BA142" s="13" t="n">
-        <v>83279673</v>
+        <v>106511628</v>
       </c>
       <c r="BB142" s="13" t="n">
-        <v>106511628</v>
+        <v>27505017</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21876,65 +21876,65 @@
       <c r="AH143" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI143" s="16" t="s">
-        <v>58</v>
+      <c r="AI143" s="16" t="n">
+        <v>5142252</v>
       </c>
       <c r="AJ143" s="16" t="n">
-        <v>5142252</v>
+        <v>8296379</v>
       </c>
       <c r="AK143" s="16" t="n">
-        <v>8296379</v>
+        <v>5981017</v>
       </c>
       <c r="AL143" s="16" t="n">
-        <v>5981017</v>
+        <v>5478974</v>
       </c>
       <c r="AM143" s="16" t="n">
-        <v>5478974</v>
+        <v>6591745</v>
       </c>
       <c r="AN143" s="16" t="n">
-        <v>6591745</v>
+        <v>6120147</v>
       </c>
       <c r="AO143" s="16" t="n">
-        <v>6120147</v>
+        <v>4812346</v>
       </c>
       <c r="AP143" s="16" t="n">
-        <v>4812346</v>
+        <v>8593750</v>
       </c>
       <c r="AQ143" s="16" t="n">
-        <v>8593750</v>
+        <v>10872407</v>
       </c>
       <c r="AR143" s="16" t="n">
-        <v>10872407</v>
+        <v>8298748</v>
       </c>
       <c r="AS143" s="16" t="n">
-        <v>8298748</v>
+        <v>11707986</v>
       </c>
       <c r="AT143" s="16" t="n">
-        <v>11707986</v>
+        <v>7383051</v>
       </c>
       <c r="AU143" s="16" t="n">
-        <v>7383051</v>
+        <v>7119277</v>
       </c>
       <c r="AV143" s="16" t="n">
-        <v>7119277</v>
+        <v>1739464</v>
       </c>
       <c r="AW143" s="16" t="n">
-        <v>1739464</v>
+        <v>2671915</v>
       </c>
       <c r="AX143" s="16" t="n">
-        <v>2671915</v>
+        <v>13553482</v>
       </c>
       <c r="AY143" s="16" t="n">
-        <v>13553482</v>
+        <v>8635791</v>
       </c>
       <c r="AZ143" s="16" t="n">
-        <v>8635791</v>
+        <v>6761434</v>
       </c>
       <c r="BA143" s="16" t="n">
-        <v>6761434</v>
+        <v>9580679</v>
       </c>
       <c r="BB143" s="16" t="n">
-        <v>9580679</v>
+        <v>2746304</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22050,38 +22050,38 @@
       <c r="AM144" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN144" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO144" s="13" t="n">
+      <c r="AN144" s="13" t="n">
         <v>1207142857</v>
       </c>
-      <c r="AP144" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ144" s="13" t="n">
+      <c r="AO144" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP144" s="13" t="n">
         <v>1343333333</v>
       </c>
+      <c r="AQ144" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AR144" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS144" s="13" t="s">
-        <v>58</v>
+      <c r="AS144" s="13" t="n">
+        <v>1365000000</v>
       </c>
       <c r="AT144" s="13" t="n">
-        <v>1365000000</v>
-      </c>
-      <c r="AU144" s="13" t="n">
         <v>1495000000</v>
       </c>
+      <c r="AU144" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AV144" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW144" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX144" s="13" t="n">
+      <c r="AW144" s="13" t="n">
         <v>1137500000</v>
+      </c>
+      <c r="AX144" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY144" s="13" t="s">
         <v>58</v>
@@ -22203,56 +22203,56 @@
       <c r="AK145" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AL145" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM145" s="16" t="n">
+      <c r="AL145" s="16" t="n">
         <v>3187912</v>
       </c>
-      <c r="AN145" s="16" t="s">
-        <v>58</v>
+      <c r="AM145" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN145" s="16" t="n">
+        <v>3505713</v>
       </c>
       <c r="AO145" s="16" t="n">
-        <v>3505713</v>
-      </c>
-      <c r="AP145" s="16" t="n">
         <v>5885442</v>
       </c>
-      <c r="AQ145" s="16" t="s">
-        <v>58</v>
+      <c r="AP145" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ145" s="16" t="n">
+        <v>143000000</v>
       </c>
       <c r="AR145" s="16" t="n">
-        <v>143000000</v>
+        <v>787879</v>
       </c>
       <c r="AS145" s="16" t="n">
-        <v>787879</v>
+        <v>5723618</v>
       </c>
       <c r="AT145" s="16" t="n">
-        <v>5723618</v>
+        <v>4909307</v>
       </c>
       <c r="AU145" s="16" t="n">
-        <v>4909307</v>
+        <v>1534483</v>
       </c>
       <c r="AV145" s="16" t="n">
-        <v>1534483</v>
+        <v>345618182</v>
       </c>
       <c r="AW145" s="16" t="n">
-        <v>345618182</v>
-      </c>
-      <c r="AX145" s="16" t="n">
         <v>349954545</v>
       </c>
-      <c r="AY145" s="16" t="s">
-        <v>58</v>
+      <c r="AX145" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY145" s="16" t="n">
+        <v>349102564</v>
       </c>
       <c r="AZ145" s="16" t="n">
-        <v>349102564</v>
+        <v>6335789</v>
       </c>
       <c r="BA145" s="16" t="n">
-        <v>6335789</v>
-      </c>
-      <c r="BB145" s="16" t="n">
         <v>403611111</v>
+      </c>
+      <c r="BB145" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22353,56 +22353,56 @@
       <c r="AH146" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI146" s="13" t="s">
-        <v>58</v>
+      <c r="AI146" s="13" t="n">
+        <v>11599143</v>
       </c>
       <c r="AJ146" s="13" t="n">
-        <v>11599143</v>
+        <v>14993235</v>
       </c>
       <c r="AK146" s="13" t="n">
-        <v>14993235</v>
-      </c>
-      <c r="AL146" s="13" t="n">
         <v>15000000</v>
       </c>
+      <c r="AL146" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AM146" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN146" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO146" s="13" t="n">
+      <c r="AN146" s="13" t="n">
         <v>14999734</v>
       </c>
+      <c r="AO146" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AP146" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AQ146" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR146" s="13" t="s">
-        <v>58</v>
+      <c r="AR146" s="13" t="n">
+        <v>15000000</v>
       </c>
       <c r="AS146" s="13" t="n">
+        <v>15334443</v>
+      </c>
+      <c r="AT146" s="13" t="n">
+        <v>15152519</v>
+      </c>
+      <c r="AU146" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV146" s="13" t="n">
+        <v>15142857</v>
+      </c>
+      <c r="AW146" s="13" t="n">
         <v>15000000</v>
       </c>
-      <c r="AT146" s="13" t="n">
-        <v>15334443</v>
-      </c>
-      <c r="AU146" s="13" t="n">
-        <v>15152519</v>
-      </c>
-      <c r="AV146" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW146" s="13" t="n">
-        <v>15142857</v>
-      </c>
       <c r="AX146" s="13" t="n">
+        <v>15606218</v>
+      </c>
+      <c r="AY146" s="13" t="n">
         <v>15000000</v>
-      </c>
-      <c r="AY146" s="13" t="n">
-        <v>15606218</v>
       </c>
       <c r="AZ146" s="13" t="n">
         <v>15000000</v>
@@ -22410,8 +22410,8 @@
       <c r="BA146" s="13" t="n">
         <v>15000000</v>
       </c>
-      <c r="BB146" s="13" t="n">
-        <v>15000000</v>
+      <c r="BB146" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22521,26 +22521,26 @@
       <c r="AK147" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AL147" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM147" s="16" t="n">
+      <c r="AL147" s="16" t="n">
         <v>719792</v>
       </c>
+      <c r="AM147" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AN147" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO147" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP147" s="16" t="n">
+      <c r="AO147" s="16" t="n">
         <v>750000</v>
       </c>
+      <c r="AP147" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ147" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AR147" s="16" t="s">
-        <v>58</v>
+      <c r="AR147" s="16" t="n">
+        <v>900000</v>
       </c>
       <c r="AS147" s="16" t="n">
         <v>900000</v>
@@ -22548,8 +22548,8 @@
       <c r="AT147" s="16" t="n">
         <v>900000</v>
       </c>
-      <c r="AU147" s="16" t="n">
-        <v>900000</v>
+      <c r="AU147" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AV147" s="16" t="s">
         <v>58</v>
@@ -22566,11 +22566,11 @@
       <c r="AZ147" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="BA147" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB147" s="16" t="n">
+      <c r="BA147" s="16" t="n">
         <v>700000</v>
+      </c>
+      <c r="BB147" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22713,11 +22713,11 @@
       <c r="AV148" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW148" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX148" s="13" t="n">
+      <c r="AW148" s="13" t="n">
         <v>1980000000</v>
+      </c>
+      <c r="AX148" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY148" s="13" t="s">
         <v>58</v>
@@ -22887,12 +22887,12 @@
       <c r="AH150" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI150" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ150" s="13" t="n">
+      <c r="AI150" s="13" t="n">
         <v>4999583</v>
       </c>
+      <c r="AJ150" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AK150" s="13" t="s">
         <v>58</v>
       </c>
@@ -22914,11 +22914,11 @@
       <c r="AQ150" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR150" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS150" s="13" t="n">
+      <c r="AR150" s="13" t="n">
         <v>8760000</v>
+      </c>
+      <c r="AS150" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT150" s="13" t="s">
         <v>58</v>
@@ -23097,11 +23097,11 @@
       <c r="AY151" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AZ151" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA151" s="16" t="n">
+      <c r="AZ151" s="16" t="n">
         <v>6780000</v>
+      </c>
+      <c r="BA151" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="BB151" s="16" t="s">
         <v>58</v>
@@ -23259,11 +23259,11 @@
       <c r="AZ152" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA152" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB152" s="13" t="n">
+      <c r="BA152" s="13" t="n">
         <v>23880000</v>
+      </c>
+      <c r="BB152" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23331,11 +23331,11 @@
       <c r="W153" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="X153" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y153" s="16" t="n">
+      <c r="X153" s="16" t="n">
         <v>8400000</v>
+      </c>
+      <c r="Y153" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="Z153" s="16" t="s">
         <v>58</v>
@@ -23571,17 +23571,17 @@
       <c r="AX154" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY154" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ154" s="13" t="n">
+      <c r="AY154" s="13" t="n">
         <v>13450000</v>
       </c>
-      <c r="BA154" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB154" s="13" t="n">
+      <c r="AZ154" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA154" s="13" t="n">
         <v>15160000</v>
+      </c>
+      <c r="BB154" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23715,12 +23715,12 @@
       <c r="AS155" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AT155" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU155" s="16" t="n">
+      <c r="AT155" s="16" t="n">
         <v>10812941</v>
       </c>
+      <c r="AU155" s="16" t="s">
+        <v>58</v>
+      </c>
       <c r="AV155" s="16" t="s">
         <v>58</v>
       </c>
@@ -23733,11 +23733,11 @@
       <c r="AY155" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AZ155" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA155" s="16" t="n">
+      <c r="AZ155" s="16" t="n">
         <v>11128667</v>
+      </c>
+      <c r="BA155" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="BB155" s="16" t="s">
         <v>58</v>
@@ -23904,8 +23904,8 @@
       <c r="AJ157" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK157" s="13" t="s">
-        <v>58</v>
+      <c r="AK157" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AL157" s="13" t="n">
         <v>0</v>
